--- a/database/industries/darou/dejaber/product/monthly.xlsx
+++ b/database/industries/darou/dejaber/product/monthly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\dejaber\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD80A7F-065F-49EB-BE6F-C829E9400597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="88">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -186,6 +184,9 @@
     <t>ماه 8 منتهی به 1401/08</t>
   </si>
   <si>
+    <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>پماد</t>
   </si>
   <si>
@@ -288,7 +289,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -475,7 +476,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -487,7 +488,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -534,6 +535,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -569,6 +587,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -720,17 +755,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -785,7 +820,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -842,7 +877,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -899,7 +934,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -954,7 +989,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1011,7 +1046,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1068,7 +1103,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1123,7 +1158,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1280,7 +1315,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1335,7 +1370,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1392,7 +1427,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1401,118 +1436,118 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>176040</v>
+      </c>
+      <c r="F11" s="11">
         <v>234720</v>
       </c>
-      <c r="F11" s="11">
-        <v>176040</v>
-      </c>
       <c r="G11" s="11">
+        <v>352080</v>
+      </c>
+      <c r="H11" s="11">
+        <v>58680</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="11">
+        <v>0</v>
+      </c>
+      <c r="O11" s="11">
+        <v>117360</v>
+      </c>
+      <c r="P11" s="11">
+        <v>293160</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>440280</v>
+      </c>
+      <c r="R11" s="11">
+        <v>469440</v>
+      </c>
+      <c r="S11" s="11">
         <v>234720</v>
       </c>
-      <c r="H11" s="11">
+      <c r="T11" s="11">
+        <v>232480</v>
+      </c>
+      <c r="U11" s="11">
+        <v>471680</v>
+      </c>
+      <c r="V11" s="11">
+        <v>117360</v>
+      </c>
+      <c r="W11" s="11">
         <v>352080</v>
       </c>
-      <c r="I11" s="11">
+      <c r="X11" s="11">
+        <v>293400</v>
+      </c>
+      <c r="Y11" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="11">
+        <v>293400</v>
+      </c>
+      <c r="AA11" s="11">
         <v>58680</v>
       </c>
-      <c r="J11" s="11">
-        <v>0</v>
-      </c>
-      <c r="K11" s="11">
-        <v>0</v>
-      </c>
-      <c r="L11" s="11">
-        <v>0</v>
-      </c>
-      <c r="M11" s="11">
-        <v>0</v>
-      </c>
-      <c r="N11" s="11">
-        <v>0</v>
-      </c>
-      <c r="O11" s="11">
-        <v>0</v>
-      </c>
-      <c r="P11" s="11">
-        <v>117360</v>
-      </c>
-      <c r="Q11" s="11">
-        <v>293160</v>
-      </c>
-      <c r="R11" s="11">
-        <v>440280</v>
-      </c>
-      <c r="S11" s="11">
-        <v>469440</v>
-      </c>
-      <c r="T11" s="11">
+      <c r="AB11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="11">
+        <v>116280</v>
+      </c>
+      <c r="AE11" s="11">
+        <v>293400</v>
+      </c>
+      <c r="AF11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="11">
+        <v>58680</v>
+      </c>
+      <c r="AI11" s="11">
         <v>234720</v>
-      </c>
-      <c r="U11" s="11">
-        <v>232480</v>
-      </c>
-      <c r="V11" s="11">
-        <v>471680</v>
-      </c>
-      <c r="W11" s="11">
-        <v>117360</v>
-      </c>
-      <c r="X11" s="11">
-        <v>352080</v>
-      </c>
-      <c r="Y11" s="11">
-        <v>293400</v>
-      </c>
-      <c r="Z11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="11">
-        <v>293400</v>
-      </c>
-      <c r="AB11" s="11">
-        <v>58680</v>
-      </c>
-      <c r="AC11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="11">
-        <v>116280</v>
-      </c>
-      <c r="AF11" s="11">
-        <v>293400</v>
-      </c>
-      <c r="AG11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="11">
-        <v>58680</v>
       </c>
       <c r="AJ11" s="11">
         <v>234720</v>
       </c>
       <c r="AK11" s="11">
-        <v>234720</v>
+        <v>131280</v>
       </c>
       <c r="AL11" s="11">
-        <v>131280</v>
+        <v>0</v>
       </c>
       <c r="AM11" s="11">
         <v>0</v>
       </c>
       <c r="AN11" s="11">
-        <v>0</v>
+        <v>176040</v>
       </c>
       <c r="AO11" s="11">
-        <v>176040</v>
+        <v>207360</v>
       </c>
       <c r="AP11" s="11">
-        <v>207360</v>
+        <v>0</v>
       </c>
       <c r="AQ11" s="11">
         <v>0</v>
@@ -1521,37 +1556,37 @@
         <v>0</v>
       </c>
       <c r="AS11" s="11">
-        <v>0</v>
+        <v>141940</v>
       </c>
       <c r="AT11" s="11">
-        <v>141940</v>
+        <v>214560</v>
       </c>
       <c r="AU11" s="11">
-        <v>214560</v>
+        <v>122740</v>
       </c>
       <c r="AV11" s="11">
-        <v>122740</v>
+        <v>293400</v>
       </c>
       <c r="AW11" s="11">
-        <v>293400</v>
+        <v>232320</v>
       </c>
       <c r="AX11" s="11">
-        <v>232320</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="11">
-        <v>0</v>
+        <v>69720</v>
       </c>
       <c r="AZ11" s="11">
-        <v>69720</v>
+        <v>314040</v>
       </c>
       <c r="BA11" s="11">
-        <v>314040</v>
+        <v>117360</v>
       </c>
       <c r="BB11" s="11">
-        <v>117360</v>
+        <v>111190</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>57</v>
       </c>
@@ -1560,157 +1595,157 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>451963</v>
+        <v>569083</v>
       </c>
       <c r="F12" s="13">
-        <v>569083</v>
+        <v>389630</v>
       </c>
       <c r="G12" s="13">
-        <v>389630</v>
+        <v>341214</v>
       </c>
       <c r="H12" s="13">
-        <v>341214</v>
+        <v>337216</v>
       </c>
       <c r="I12" s="13">
-        <v>337216</v>
+        <v>325417</v>
       </c>
       <c r="J12" s="13">
-        <v>325417</v>
+        <v>207619</v>
       </c>
       <c r="K12" s="13">
-        <v>207619</v>
+        <v>207725</v>
       </c>
       <c r="L12" s="13">
-        <v>207725</v>
+        <v>312435</v>
       </c>
       <c r="M12" s="13">
-        <v>312435</v>
+        <v>639768</v>
       </c>
       <c r="N12" s="13">
-        <v>639768</v>
+        <v>435394</v>
       </c>
       <c r="O12" s="13">
-        <v>435394</v>
+        <v>440054</v>
       </c>
       <c r="P12" s="13">
-        <v>440054</v>
+        <v>314113</v>
       </c>
       <c r="Q12" s="13">
-        <v>314113</v>
+        <v>548358</v>
       </c>
       <c r="R12" s="13">
-        <v>548358</v>
+        <v>452808</v>
       </c>
       <c r="S12" s="13">
-        <v>452808</v>
+        <v>780911</v>
       </c>
       <c r="T12" s="13">
-        <v>780911</v>
+        <v>579616</v>
       </c>
       <c r="U12" s="13">
-        <v>579616</v>
+        <v>452580</v>
       </c>
       <c r="V12" s="13">
-        <v>452580</v>
+        <v>218170</v>
       </c>
       <c r="W12" s="13">
-        <v>218170</v>
+        <v>392102</v>
       </c>
       <c r="X12" s="13">
-        <v>392102</v>
+        <v>529616</v>
       </c>
       <c r="Y12" s="13">
-        <v>529616</v>
+        <v>650529</v>
       </c>
       <c r="Z12" s="13">
-        <v>650529</v>
+        <v>604365</v>
       </c>
       <c r="AA12" s="13">
-        <v>604365</v>
+        <v>498279</v>
       </c>
       <c r="AB12" s="13">
-        <v>498279</v>
+        <v>625845</v>
       </c>
       <c r="AC12" s="13">
-        <v>625845</v>
+        <v>363106</v>
       </c>
       <c r="AD12" s="13">
-        <v>363106</v>
+        <v>468335</v>
       </c>
       <c r="AE12" s="13">
-        <v>468335</v>
+        <v>23879</v>
       </c>
       <c r="AF12" s="13">
-        <v>23879</v>
+        <v>10764</v>
       </c>
       <c r="AG12" s="13">
-        <v>10764</v>
+        <v>384995</v>
       </c>
       <c r="AH12" s="13">
-        <v>384995</v>
+        <v>274124</v>
       </c>
       <c r="AI12" s="13">
-        <v>274124</v>
+        <v>45133</v>
       </c>
       <c r="AJ12" s="13">
-        <v>45133</v>
+        <v>460825</v>
       </c>
       <c r="AK12" s="13">
-        <v>460825</v>
+        <v>580498</v>
       </c>
       <c r="AL12" s="13">
-        <v>580498</v>
+        <v>553403</v>
       </c>
       <c r="AM12" s="13">
-        <v>553403</v>
+        <v>222225</v>
       </c>
       <c r="AN12" s="13">
-        <v>222225</v>
+        <v>298736</v>
       </c>
       <c r="AO12" s="13">
-        <v>298736</v>
+        <v>721038</v>
       </c>
       <c r="AP12" s="13">
-        <v>721038</v>
+        <v>697700</v>
       </c>
       <c r="AQ12" s="13">
-        <v>697700</v>
+        <v>682353</v>
       </c>
       <c r="AR12" s="13">
-        <v>682353</v>
+        <v>370331</v>
       </c>
       <c r="AS12" s="13">
-        <v>370331</v>
+        <v>157176</v>
       </c>
       <c r="AT12" s="13">
-        <v>157176</v>
+        <v>158641</v>
       </c>
       <c r="AU12" s="13">
-        <v>158641</v>
+        <v>191087</v>
       </c>
       <c r="AV12" s="13">
-        <v>191087</v>
+        <v>76001</v>
       </c>
       <c r="AW12" s="13">
-        <v>76001</v>
+        <v>146768</v>
       </c>
       <c r="AX12" s="13">
-        <v>146768</v>
+        <v>122082</v>
       </c>
       <c r="AY12" s="13">
-        <v>122082</v>
+        <v>505915</v>
       </c>
       <c r="AZ12" s="13">
-        <v>505915</v>
+        <v>812508</v>
       </c>
       <c r="BA12" s="13">
-        <v>812508</v>
+        <v>906122</v>
       </c>
       <c r="BB12" s="13">
-        <v>906122</v>
+        <v>451003</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1719,85 +1754,85 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>180314</v>
+        <v>63252</v>
       </c>
       <c r="F13" s="11">
-        <v>63252</v>
+        <v>0</v>
       </c>
       <c r="G13" s="11">
-        <v>0</v>
+        <v>407995</v>
       </c>
       <c r="H13" s="11">
-        <v>407995</v>
+        <v>407526</v>
       </c>
       <c r="I13" s="11">
-        <v>407526</v>
+        <v>226636</v>
       </c>
       <c r="J13" s="11">
-        <v>226636</v>
+        <v>316212</v>
       </c>
       <c r="K13" s="11">
-        <v>316212</v>
+        <v>45328</v>
       </c>
       <c r="L13" s="11">
-        <v>45328</v>
+        <v>0</v>
       </c>
       <c r="M13" s="11">
-        <v>0</v>
+        <v>314390</v>
       </c>
       <c r="N13" s="11">
-        <v>314390</v>
+        <v>360900</v>
       </c>
       <c r="O13" s="11">
-        <v>360900</v>
+        <v>225144</v>
       </c>
       <c r="P13" s="11">
-        <v>225144</v>
+        <v>358325</v>
       </c>
       <c r="Q13" s="11">
-        <v>358325</v>
+        <v>134946</v>
       </c>
       <c r="R13" s="11">
-        <v>134946</v>
+        <v>403550</v>
       </c>
       <c r="S13" s="11">
-        <v>403550</v>
+        <v>90359</v>
       </c>
       <c r="T13" s="11">
-        <v>90359</v>
+        <v>180936</v>
       </c>
       <c r="U13" s="11">
-        <v>180936</v>
+        <v>312687</v>
       </c>
       <c r="V13" s="11">
-        <v>312687</v>
+        <v>149911</v>
       </c>
       <c r="W13" s="11">
-        <v>149911</v>
+        <v>87680</v>
       </c>
       <c r="X13" s="11">
-        <v>87680</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="11">
-        <v>0</v>
+        <v>21930</v>
       </c>
       <c r="Z13" s="11">
-        <v>21930</v>
+        <v>41880</v>
       </c>
       <c r="AA13" s="11">
-        <v>41880</v>
+        <v>374780</v>
       </c>
       <c r="AB13" s="11">
-        <v>374780</v>
+        <v>247116</v>
       </c>
       <c r="AC13" s="11">
-        <v>247116</v>
+        <v>219796</v>
       </c>
       <c r="AD13" s="11">
-        <v>219796</v>
+        <v>21916</v>
       </c>
       <c r="AE13" s="11">
-        <v>21916</v>
+        <v>0</v>
       </c>
       <c r="AF13" s="11">
         <v>0</v>
@@ -1815,37 +1850,37 @@
         <v>0</v>
       </c>
       <c r="AK13" s="11">
-        <v>0</v>
+        <v>48937</v>
       </c>
       <c r="AL13" s="11">
-        <v>48937</v>
+        <v>8160</v>
       </c>
       <c r="AM13" s="11">
-        <v>8160</v>
+        <v>0</v>
       </c>
       <c r="AN13" s="11">
-        <v>0</v>
+        <v>226044</v>
       </c>
       <c r="AO13" s="11">
-        <v>226044</v>
+        <v>135324</v>
       </c>
       <c r="AP13" s="11">
-        <v>135324</v>
+        <v>135072</v>
       </c>
       <c r="AQ13" s="11">
-        <v>135072</v>
+        <v>44268</v>
       </c>
       <c r="AR13" s="11">
-        <v>44268</v>
+        <v>185404</v>
       </c>
       <c r="AS13" s="11">
-        <v>185404</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="11">
-        <v>0</v>
+        <v>44254</v>
       </c>
       <c r="AU13" s="11">
-        <v>44254</v>
+        <v>0</v>
       </c>
       <c r="AV13" s="11">
         <v>0</v>
@@ -1863,13 +1898,13 @@
         <v>0</v>
       </c>
       <c r="BA13" s="11">
-        <v>0</v>
+        <v>279650</v>
       </c>
       <c r="BB13" s="11">
-        <v>279650</v>
+        <v>362384</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
@@ -1878,157 +1913,157 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>10310400</v>
+        <v>6548600</v>
       </c>
       <c r="F14" s="13">
-        <v>6548600</v>
+        <v>15455544</v>
       </c>
       <c r="G14" s="13">
-        <v>15455544</v>
+        <v>13662522</v>
       </c>
       <c r="H14" s="13">
-        <v>13662522</v>
+        <v>16858390</v>
       </c>
       <c r="I14" s="13">
-        <v>16858390</v>
+        <v>12996168</v>
       </c>
       <c r="J14" s="13">
-        <v>12996168</v>
+        <v>4466170</v>
       </c>
       <c r="K14" s="13">
-        <v>4466170</v>
+        <v>3969802</v>
       </c>
       <c r="L14" s="13">
-        <v>3969802</v>
+        <v>6153500</v>
       </c>
       <c r="M14" s="13">
-        <v>6153500</v>
+        <v>9755674</v>
       </c>
       <c r="N14" s="13">
-        <v>9755674</v>
+        <v>11356900</v>
       </c>
       <c r="O14" s="13">
-        <v>11356900</v>
+        <v>17785540</v>
       </c>
       <c r="P14" s="13">
-        <v>17785540</v>
+        <v>24337820</v>
       </c>
       <c r="Q14" s="13">
-        <v>24337820</v>
+        <v>25429800</v>
       </c>
       <c r="R14" s="13">
-        <v>25429800</v>
+        <v>18401680</v>
       </c>
       <c r="S14" s="13">
-        <v>18401680</v>
+        <v>24253050</v>
       </c>
       <c r="T14" s="13">
-        <v>24253050</v>
+        <v>26181964</v>
       </c>
       <c r="U14" s="13">
-        <v>26181964</v>
+        <v>26771500</v>
       </c>
       <c r="V14" s="13">
-        <v>26771500</v>
+        <v>5875800</v>
       </c>
       <c r="W14" s="13">
-        <v>5875800</v>
+        <v>8075390</v>
       </c>
       <c r="X14" s="13">
-        <v>8075390</v>
+        <v>26547714</v>
       </c>
       <c r="Y14" s="13">
-        <v>26547714</v>
+        <v>24142146</v>
       </c>
       <c r="Z14" s="13">
-        <v>24142146</v>
+        <v>14879334</v>
       </c>
       <c r="AA14" s="13">
-        <v>14879334</v>
+        <v>10550250</v>
       </c>
       <c r="AB14" s="13">
-        <v>10550250</v>
+        <v>11872090</v>
       </c>
       <c r="AC14" s="13">
-        <v>11872090</v>
+        <v>17866800</v>
       </c>
       <c r="AD14" s="13">
-        <v>17866800</v>
+        <v>16834100</v>
       </c>
       <c r="AE14" s="13">
-        <v>16834100</v>
+        <v>5409254</v>
       </c>
       <c r="AF14" s="13">
-        <v>5409254</v>
+        <v>3055600</v>
       </c>
       <c r="AG14" s="13">
-        <v>3055600</v>
+        <v>15014300</v>
       </c>
       <c r="AH14" s="13">
-        <v>15014300</v>
+        <v>5002430</v>
       </c>
       <c r="AI14" s="13">
-        <v>5002430</v>
+        <v>11650816</v>
       </c>
       <c r="AJ14" s="13">
-        <v>11650816</v>
+        <v>13152630</v>
       </c>
       <c r="AK14" s="13">
-        <v>13152630</v>
+        <v>46259244</v>
       </c>
       <c r="AL14" s="13">
-        <v>46259244</v>
+        <v>23761286</v>
       </c>
       <c r="AM14" s="13">
-        <v>23761286</v>
+        <v>50864400</v>
       </c>
       <c r="AN14" s="13">
-        <v>50864400</v>
+        <v>11910410</v>
       </c>
       <c r="AO14" s="13">
-        <v>11910410</v>
+        <v>35183260</v>
       </c>
       <c r="AP14" s="13">
-        <v>35183260</v>
+        <v>44400500</v>
       </c>
       <c r="AQ14" s="13">
-        <v>44400500</v>
+        <v>20591790</v>
       </c>
       <c r="AR14" s="13">
-        <v>20591790</v>
+        <v>16864160</v>
       </c>
       <c r="AS14" s="13">
-        <v>16864160</v>
+        <v>22755860</v>
       </c>
       <c r="AT14" s="13">
-        <v>22755860</v>
+        <v>10328380</v>
       </c>
       <c r="AU14" s="13">
-        <v>10328380</v>
+        <v>37519980</v>
       </c>
       <c r="AV14" s="13">
-        <v>37519980</v>
+        <v>35653030</v>
       </c>
       <c r="AW14" s="13">
-        <v>35653030</v>
+        <v>32215080</v>
       </c>
       <c r="AX14" s="13">
-        <v>32215080</v>
+        <v>22228010</v>
       </c>
       <c r="AY14" s="13">
-        <v>22228010</v>
+        <v>21341380</v>
       </c>
       <c r="AZ14" s="13">
-        <v>21341380</v>
+        <v>11357570</v>
       </c>
       <c r="BA14" s="13">
-        <v>11357570</v>
+        <v>34414210</v>
       </c>
       <c r="BB14" s="13">
-        <v>34414210</v>
+        <v>48657360</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>62</v>
       </c>
@@ -2037,157 +2072,157 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>3290515</v>
+        <v>3386210</v>
       </c>
       <c r="F15" s="11">
-        <v>3386210</v>
+        <v>5086135</v>
       </c>
       <c r="G15" s="11">
-        <v>5086135</v>
+        <v>5533055</v>
       </c>
       <c r="H15" s="11">
-        <v>5533055</v>
+        <v>2539225</v>
       </c>
       <c r="I15" s="11">
-        <v>2539225</v>
+        <v>2875930</v>
       </c>
       <c r="J15" s="11">
-        <v>2875930</v>
+        <v>635528</v>
       </c>
       <c r="K15" s="11">
-        <v>635528</v>
+        <v>1368120</v>
       </c>
       <c r="L15" s="11">
-        <v>1368120</v>
+        <v>2811995</v>
       </c>
       <c r="M15" s="11">
-        <v>2811995</v>
+        <v>2842980</v>
       </c>
       <c r="N15" s="11">
-        <v>2842980</v>
+        <v>4894200</v>
       </c>
       <c r="O15" s="11">
-        <v>4894200</v>
+        <v>3829628</v>
       </c>
       <c r="P15" s="11">
-        <v>3829628</v>
+        <v>1976890</v>
       </c>
       <c r="Q15" s="11">
-        <v>1976890</v>
+        <v>1414200</v>
       </c>
       <c r="R15" s="11">
-        <v>1414200</v>
+        <v>0</v>
       </c>
       <c r="S15" s="11">
-        <v>0</v>
+        <v>82000</v>
       </c>
       <c r="T15" s="11">
-        <v>82000</v>
+        <v>537570</v>
       </c>
       <c r="U15" s="11">
-        <v>537570</v>
+        <v>1742780</v>
       </c>
       <c r="V15" s="11">
-        <v>1742780</v>
+        <v>676890</v>
       </c>
       <c r="W15" s="11">
-        <v>676890</v>
+        <v>784079</v>
       </c>
       <c r="X15" s="11">
-        <v>784079</v>
+        <v>3962360</v>
       </c>
       <c r="Y15" s="11">
-        <v>3962360</v>
+        <v>2057514</v>
       </c>
       <c r="Z15" s="11">
-        <v>2057514</v>
+        <v>3218491</v>
       </c>
       <c r="AA15" s="11">
-        <v>3218491</v>
+        <v>2880950</v>
       </c>
       <c r="AB15" s="11">
-        <v>2880950</v>
+        <v>2368190</v>
       </c>
       <c r="AC15" s="11">
-        <v>2368190</v>
+        <v>3255450</v>
       </c>
       <c r="AD15" s="11">
-        <v>3255450</v>
+        <v>1967002</v>
       </c>
       <c r="AE15" s="11">
-        <v>1967002</v>
+        <v>6528321</v>
       </c>
       <c r="AF15" s="11">
-        <v>6528321</v>
+        <v>4198826</v>
       </c>
       <c r="AG15" s="11">
-        <v>4198826</v>
+        <v>573600</v>
       </c>
       <c r="AH15" s="11">
-        <v>573600</v>
+        <v>1377000</v>
       </c>
       <c r="AI15" s="11">
-        <v>1377000</v>
+        <v>1405665</v>
       </c>
       <c r="AJ15" s="11">
-        <v>1405665</v>
+        <v>3970080</v>
       </c>
       <c r="AK15" s="11">
-        <v>3970080</v>
+        <v>2776560</v>
       </c>
       <c r="AL15" s="11">
-        <v>2776560</v>
+        <v>4256530</v>
       </c>
       <c r="AM15" s="11">
-        <v>4256530</v>
+        <v>3318850</v>
       </c>
       <c r="AN15" s="11">
-        <v>3318850</v>
+        <v>2534960</v>
       </c>
       <c r="AO15" s="11">
-        <v>2534960</v>
+        <v>3978558</v>
       </c>
       <c r="AP15" s="11">
-        <v>3978558</v>
+        <v>1497050</v>
       </c>
       <c r="AQ15" s="11">
-        <v>1497050</v>
+        <v>1098950</v>
       </c>
       <c r="AR15" s="11">
-        <v>1098950</v>
+        <v>3414860</v>
       </c>
       <c r="AS15" s="11">
-        <v>3414860</v>
+        <v>1492120</v>
       </c>
       <c r="AT15" s="11">
-        <v>1492120</v>
+        <v>1575200</v>
       </c>
       <c r="AU15" s="11">
-        <v>1575200</v>
+        <v>3884718</v>
       </c>
       <c r="AV15" s="11">
-        <v>3884718</v>
+        <v>3524725</v>
       </c>
       <c r="AW15" s="11">
-        <v>3524725</v>
+        <v>1560160</v>
       </c>
       <c r="AX15" s="11">
-        <v>1560160</v>
+        <v>1703010</v>
       </c>
       <c r="AY15" s="11">
-        <v>1703010</v>
+        <v>4028690</v>
       </c>
       <c r="AZ15" s="11">
-        <v>4028690</v>
+        <v>2919470</v>
       </c>
       <c r="BA15" s="11">
-        <v>2919470</v>
+        <v>730840</v>
       </c>
       <c r="BB15" s="11">
-        <v>3632720</v>
+        <v>1668830</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>63</v>
       </c>
@@ -2210,8 +2245,8 @@
       <c r="I16" s="13">
         <v>0</v>
       </c>
-      <c r="J16" s="13">
-        <v>0</v>
+      <c r="J16" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="K16" s="13" t="s">
         <v>64</v>
@@ -2346,7 +2381,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>65</v>
       </c>
@@ -2369,8 +2404,8 @@
       <c r="I17" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="J17" s="11" t="s">
-        <v>64</v>
+      <c r="J17" s="11">
+        <v>0</v>
       </c>
       <c r="K17" s="11">
         <v>0</v>
@@ -2405,8 +2440,8 @@
       <c r="U17" s="11">
         <v>0</v>
       </c>
-      <c r="V17" s="11">
-        <v>0</v>
+      <c r="V17" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="W17" s="11" t="s">
         <v>64</v>
@@ -2441,8 +2476,8 @@
       <c r="AG17" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AH17" s="11" t="s">
-        <v>64</v>
+      <c r="AH17" s="11">
+        <v>0</v>
       </c>
       <c r="AI17" s="11">
         <v>0</v>
@@ -2505,7 +2540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>66</v>
       </c>
@@ -2564,8 +2599,8 @@
       <c r="U18" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="V18" s="13" t="s">
-        <v>64</v>
+      <c r="V18" s="13">
+        <v>0</v>
       </c>
       <c r="W18" s="13">
         <v>0</v>
@@ -2573,8 +2608,8 @@
       <c r="X18" s="13">
         <v>0</v>
       </c>
-      <c r="Y18" s="13">
-        <v>0</v>
+      <c r="Y18" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="Z18" s="13" t="s">
         <v>64</v>
@@ -2664,7 +2699,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
         <v>68</v>
       </c>
@@ -2721,7 +2756,7 @@
       <c r="BA19" s="9"/>
       <c r="BB19" s="9"/>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
         <v>66</v>
       </c>
@@ -2789,8 +2824,8 @@
       <c r="X20" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="Y20" s="11" t="s">
-        <v>64</v>
+      <c r="Y20" s="11">
+        <v>0</v>
       </c>
       <c r="Z20" s="11">
         <v>0</v>
@@ -2822,23 +2857,23 @@
       <c r="AI20" s="11">
         <v>0</v>
       </c>
-      <c r="AJ20" s="11">
-        <v>0</v>
+      <c r="AJ20" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="AK20" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AL20" s="11" t="s">
-        <v>64</v>
+      <c r="AL20" s="11">
+        <v>0</v>
       </c>
       <c r="AM20" s="11">
         <v>0</v>
       </c>
-      <c r="AN20" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO20" s="11" t="s">
-        <v>64</v>
+      <c r="AN20" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO20" s="11">
+        <v>0</v>
       </c>
       <c r="AP20" s="11">
         <v>0</v>
@@ -2846,8 +2881,8 @@
       <c r="AQ20" s="11">
         <v>0</v>
       </c>
-      <c r="AR20" s="11">
-        <v>0</v>
+      <c r="AR20" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="AS20" s="11" t="s">
         <v>64</v>
@@ -2880,7 +2915,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>69</v>
       </c>
@@ -3008,11 +3043,11 @@
       <c r="AR21" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AS21" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="AT21" s="13">
-        <v>0</v>
+      <c r="AS21" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="AU21" s="13" t="s">
         <v>64</v>
@@ -3029,17 +3064,17 @@
       <c r="AY21" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AZ21" s="13" t="s">
-        <v>64</v>
+      <c r="AZ21" s="13">
+        <v>0</v>
       </c>
       <c r="BA21" s="13">
         <v>0</v>
       </c>
-      <c r="BB21" s="13" t="s">
-        <v>64</v>
+      <c r="BB21" s="13">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>70</v>
       </c>
@@ -3105,8 +3140,8 @@
       <c r="X22" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="Y22" s="15" t="s">
-        <v>64</v>
+      <c r="Y22" s="15">
+        <v>0</v>
       </c>
       <c r="Z22" s="15">
         <v>0</v>
@@ -3196,164 +3231,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B23" s="16" t="s">
         <v>71</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
       <c r="E23" s="17">
-        <v>14467912</v>
+        <v>10743185</v>
       </c>
       <c r="F23" s="17">
-        <v>10743185</v>
+        <v>21166029</v>
       </c>
       <c r="G23" s="17">
-        <v>21166029</v>
+        <v>20296866</v>
       </c>
       <c r="H23" s="17">
-        <v>20296866</v>
+        <v>20201037</v>
       </c>
       <c r="I23" s="17">
-        <v>20201037</v>
+        <v>16424151</v>
       </c>
       <c r="J23" s="17">
-        <v>16424151</v>
+        <v>5625529</v>
       </c>
       <c r="K23" s="17">
-        <v>5625529</v>
+        <v>5590975</v>
       </c>
       <c r="L23" s="17">
-        <v>5590975</v>
+        <v>9277930</v>
       </c>
       <c r="M23" s="17">
-        <v>9277930</v>
+        <v>13552812</v>
       </c>
       <c r="N23" s="17">
-        <v>13552812</v>
+        <v>17047394</v>
       </c>
       <c r="O23" s="17">
-        <v>17047394</v>
+        <v>22397726</v>
       </c>
       <c r="P23" s="17">
-        <v>22397726</v>
+        <v>27280308</v>
       </c>
       <c r="Q23" s="17">
-        <v>27280308</v>
+        <v>27967584</v>
       </c>
       <c r="R23" s="17">
-        <v>27967584</v>
+        <v>19727478</v>
       </c>
       <c r="S23" s="17">
-        <v>19727478</v>
+        <v>25441040</v>
       </c>
       <c r="T23" s="17">
-        <v>25441040</v>
+        <v>27712566</v>
       </c>
       <c r="U23" s="17">
-        <v>27712566</v>
+        <v>29751227</v>
       </c>
       <c r="V23" s="17">
-        <v>29751227</v>
+        <v>7038131</v>
       </c>
       <c r="W23" s="17">
-        <v>7038131</v>
+        <v>9691331</v>
       </c>
       <c r="X23" s="17">
-        <v>9691331</v>
+        <v>31333090</v>
       </c>
       <c r="Y23" s="17">
-        <v>31333090</v>
+        <v>26872119</v>
       </c>
       <c r="Z23" s="17">
-        <v>26872119</v>
+        <v>19037470</v>
       </c>
       <c r="AA23" s="17">
-        <v>19037470</v>
+        <v>14362939</v>
       </c>
       <c r="AB23" s="17">
-        <v>14362939</v>
+        <v>15113241</v>
       </c>
       <c r="AC23" s="17">
-        <v>15113241</v>
+        <v>21705152</v>
       </c>
       <c r="AD23" s="17">
-        <v>21705152</v>
+        <v>19407633</v>
       </c>
       <c r="AE23" s="17">
-        <v>19407633</v>
+        <v>12254854</v>
       </c>
       <c r="AF23" s="17">
-        <v>12254854</v>
+        <v>7265190</v>
       </c>
       <c r="AG23" s="17">
-        <v>7265190</v>
+        <v>15972895</v>
       </c>
       <c r="AH23" s="17">
-        <v>15972895</v>
+        <v>6712234</v>
       </c>
       <c r="AI23" s="17">
-        <v>6712234</v>
+        <v>13336334</v>
       </c>
       <c r="AJ23" s="17">
-        <v>13336334</v>
+        <v>17818255</v>
       </c>
       <c r="AK23" s="17">
-        <v>17818255</v>
+        <v>49796519</v>
       </c>
       <c r="AL23" s="17">
-        <v>49796519</v>
+        <v>28579379</v>
       </c>
       <c r="AM23" s="17">
-        <v>28579379</v>
+        <v>54405475</v>
       </c>
       <c r="AN23" s="17">
-        <v>54405475</v>
+        <v>15146190</v>
       </c>
       <c r="AO23" s="17">
-        <v>15146190</v>
+        <v>40225540</v>
       </c>
       <c r="AP23" s="17">
-        <v>40225540</v>
+        <v>46730322</v>
       </c>
       <c r="AQ23" s="17">
-        <v>46730322</v>
+        <v>22417361</v>
       </c>
       <c r="AR23" s="17">
-        <v>22417361</v>
+        <v>20834755</v>
       </c>
       <c r="AS23" s="17">
-        <v>20834755</v>
+        <v>24547096</v>
       </c>
       <c r="AT23" s="17">
-        <v>24547096</v>
+        <v>12321035</v>
       </c>
       <c r="AU23" s="17">
-        <v>12321035</v>
+        <v>41718525</v>
       </c>
       <c r="AV23" s="17">
-        <v>41718525</v>
+        <v>39547156</v>
       </c>
       <c r="AW23" s="17">
-        <v>39547156</v>
+        <v>34154328</v>
       </c>
       <c r="AX23" s="17">
-        <v>34154328</v>
+        <v>24053102</v>
       </c>
       <c r="AY23" s="17">
-        <v>24053102</v>
+        <v>25945705</v>
       </c>
       <c r="AZ23" s="17">
-        <v>25945705</v>
+        <v>15403588</v>
       </c>
       <c r="BA23" s="17">
-        <v>15403588</v>
+        <v>36448182</v>
       </c>
       <c r="BB23" s="17">
-        <v>39350062</v>
+        <v>51250767</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -3408,7 +3443,7 @@
       <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3463,7 +3498,7 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3518,7 +3553,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>72</v>
       </c>
@@ -3675,7 +3710,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3730,7 +3765,7 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>72</v>
       </c>
@@ -3787,7 +3822,7 @@
       <c r="BA29" s="9"/>
       <c r="BB29" s="9"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>55</v>
       </c>
@@ -3796,157 +3831,157 @@
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
+        <v>176040</v>
+      </c>
+      <c r="F30" s="11">
         <v>234720</v>
       </c>
-      <c r="F30" s="11">
+      <c r="G30" s="11">
+        <v>352070</v>
+      </c>
+      <c r="H30" s="11">
+        <v>29665</v>
+      </c>
+      <c r="I30" s="11">
+        <v>4800</v>
+      </c>
+      <c r="J30" s="11">
+        <v>0</v>
+      </c>
+      <c r="K30" s="11">
+        <v>0</v>
+      </c>
+      <c r="L30" s="11">
+        <v>0</v>
+      </c>
+      <c r="M30" s="11">
+        <v>0</v>
+      </c>
+      <c r="N30" s="11">
+        <v>0</v>
+      </c>
+      <c r="O30" s="11">
+        <v>117300</v>
+      </c>
+      <c r="P30" s="11">
+        <v>293160</v>
+      </c>
+      <c r="Q30" s="11">
+        <v>406050</v>
+      </c>
+      <c r="R30" s="11">
+        <v>427680</v>
+      </c>
+      <c r="S30" s="11">
+        <v>310560</v>
+      </c>
+      <c r="T30" s="11">
+        <v>232480</v>
+      </c>
+      <c r="U30" s="11">
+        <v>471680</v>
+      </c>
+      <c r="V30" s="11">
+        <v>117360</v>
+      </c>
+      <c r="W30" s="11">
+        <v>352080</v>
+      </c>
+      <c r="X30" s="11">
+        <v>293280</v>
+      </c>
+      <c r="Y30" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="11">
+        <v>293250</v>
+      </c>
+      <c r="AA30" s="11">
+        <v>58680</v>
+      </c>
+      <c r="AB30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="11">
+        <v>116280</v>
+      </c>
+      <c r="AE30" s="11">
+        <v>293400</v>
+      </c>
+      <c r="AF30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="11">
+        <v>58680</v>
+      </c>
+      <c r="AI30" s="11">
+        <v>234600</v>
+      </c>
+      <c r="AJ30" s="11">
+        <v>112530</v>
+      </c>
+      <c r="AK30" s="11">
+        <v>210960</v>
+      </c>
+      <c r="AL30" s="11">
+        <v>42240</v>
+      </c>
+      <c r="AM30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN30" s="11">
         <v>176040</v>
       </c>
-      <c r="G30" s="11">
-        <v>234720</v>
-      </c>
-      <c r="H30" s="11">
-        <v>352070</v>
-      </c>
-      <c r="I30" s="11">
-        <v>29665</v>
-      </c>
-      <c r="J30" s="11">
-        <v>4800</v>
-      </c>
-      <c r="K30" s="11">
-        <v>0</v>
-      </c>
-      <c r="L30" s="11">
-        <v>0</v>
-      </c>
-      <c r="M30" s="11">
-        <v>0</v>
-      </c>
-      <c r="N30" s="11">
-        <v>0</v>
-      </c>
-      <c r="O30" s="11">
-        <v>0</v>
-      </c>
-      <c r="P30" s="11">
-        <v>117300</v>
-      </c>
-      <c r="Q30" s="11">
-        <v>293160</v>
-      </c>
-      <c r="R30" s="11">
-        <v>406050</v>
-      </c>
-      <c r="S30" s="11">
-        <v>427680</v>
-      </c>
-      <c r="T30" s="11">
-        <v>310560</v>
-      </c>
-      <c r="U30" s="11">
-        <v>232480</v>
-      </c>
-      <c r="V30" s="11">
-        <v>471680</v>
-      </c>
-      <c r="W30" s="11">
-        <v>117360</v>
-      </c>
-      <c r="X30" s="11">
-        <v>352080</v>
-      </c>
-      <c r="Y30" s="11">
-        <v>293280</v>
-      </c>
-      <c r="Z30" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="11">
-        <v>293250</v>
-      </c>
-      <c r="AB30" s="11">
-        <v>58680</v>
-      </c>
-      <c r="AC30" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE30" s="11">
-        <v>116280</v>
-      </c>
-      <c r="AF30" s="11">
+      <c r="AO30" s="11">
+        <v>207360</v>
+      </c>
+      <c r="AP30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS30" s="11">
+        <v>60000</v>
+      </c>
+      <c r="AT30" s="11">
+        <v>233400</v>
+      </c>
+      <c r="AU30" s="11">
+        <v>45137</v>
+      </c>
+      <c r="AV30" s="11">
         <v>293400</v>
       </c>
-      <c r="AG30" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH30" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI30" s="11">
-        <v>58680</v>
-      </c>
-      <c r="AJ30" s="11">
-        <v>234600</v>
-      </c>
-      <c r="AK30" s="11">
-        <v>112530</v>
-      </c>
-      <c r="AL30" s="11">
-        <v>210960</v>
-      </c>
-      <c r="AM30" s="11">
-        <v>42240</v>
-      </c>
-      <c r="AN30" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO30" s="11">
-        <v>176040</v>
-      </c>
-      <c r="AP30" s="11">
-        <v>207360</v>
-      </c>
-      <c r="AQ30" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR30" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS30" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT30" s="11">
-        <v>60000</v>
-      </c>
-      <c r="AU30" s="11">
-        <v>233400</v>
-      </c>
-      <c r="AV30" s="11">
-        <v>45137</v>
-      </c>
       <c r="AW30" s="11">
-        <v>293400</v>
+        <v>232320</v>
       </c>
       <c r="AX30" s="11">
-        <v>232320</v>
+        <v>0</v>
       </c>
       <c r="AY30" s="11">
-        <v>0</v>
+        <v>88712</v>
       </c>
       <c r="AZ30" s="11">
-        <v>88712</v>
+        <v>357560</v>
       </c>
       <c r="BA30" s="11">
-        <v>357560</v>
+        <v>194398</v>
       </c>
       <c r="BB30" s="11">
-        <v>194398</v>
+        <v>76169</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B31" s="12" t="s">
         <v>57</v>
       </c>
@@ -3955,157 +3990,157 @@
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="13">
-        <v>449068</v>
+        <v>326649</v>
       </c>
       <c r="F31" s="13">
-        <v>326649</v>
+        <v>535610</v>
       </c>
       <c r="G31" s="13">
-        <v>535610</v>
+        <v>249880</v>
       </c>
       <c r="H31" s="13">
-        <v>249880</v>
+        <v>450307</v>
       </c>
       <c r="I31" s="13">
-        <v>450307</v>
+        <v>276076</v>
       </c>
       <c r="J31" s="13">
-        <v>276076</v>
+        <v>86485</v>
       </c>
       <c r="K31" s="13">
-        <v>86485</v>
+        <v>580021</v>
       </c>
       <c r="L31" s="13">
-        <v>580021</v>
+        <v>318008</v>
       </c>
       <c r="M31" s="13">
-        <v>318008</v>
+        <v>388914</v>
       </c>
       <c r="N31" s="13">
-        <v>388914</v>
+        <v>298264</v>
       </c>
       <c r="O31" s="13">
-        <v>298264</v>
+        <v>843370</v>
       </c>
       <c r="P31" s="13">
-        <v>843370</v>
+        <v>295460</v>
       </c>
       <c r="Q31" s="13">
-        <v>295460</v>
+        <v>531310</v>
       </c>
       <c r="R31" s="13">
-        <v>531310</v>
+        <v>441064</v>
       </c>
       <c r="S31" s="13">
-        <v>441064</v>
+        <v>674920</v>
       </c>
       <c r="T31" s="13">
-        <v>674920</v>
+        <v>707878</v>
       </c>
       <c r="U31" s="13">
-        <v>707878</v>
+        <v>452250</v>
       </c>
       <c r="V31" s="13">
-        <v>452250</v>
+        <v>261259</v>
       </c>
       <c r="W31" s="13">
-        <v>261259</v>
+        <v>350036</v>
       </c>
       <c r="X31" s="13">
-        <v>350036</v>
+        <v>314605</v>
       </c>
       <c r="Y31" s="13">
-        <v>314605</v>
+        <v>749791</v>
       </c>
       <c r="Z31" s="13">
-        <v>749791</v>
+        <v>521049</v>
       </c>
       <c r="AA31" s="13">
-        <v>521049</v>
+        <v>617582</v>
       </c>
       <c r="AB31" s="13">
-        <v>617582</v>
+        <v>652210</v>
       </c>
       <c r="AC31" s="13">
-        <v>652210</v>
+        <v>411366</v>
       </c>
       <c r="AD31" s="13">
-        <v>411366</v>
+        <v>554704</v>
       </c>
       <c r="AE31" s="13">
-        <v>554704</v>
+        <v>16900</v>
       </c>
       <c r="AF31" s="13">
-        <v>16900</v>
+        <v>0</v>
       </c>
       <c r="AG31" s="13">
-        <v>0</v>
+        <v>384770</v>
       </c>
       <c r="AH31" s="13">
-        <v>384770</v>
+        <v>225058</v>
       </c>
       <c r="AI31" s="13">
-        <v>225058</v>
+        <v>66194</v>
       </c>
       <c r="AJ31" s="13">
-        <v>66194</v>
+        <v>462605</v>
       </c>
       <c r="AK31" s="13">
-        <v>462605</v>
+        <v>590694</v>
       </c>
       <c r="AL31" s="13">
-        <v>590694</v>
+        <v>623854</v>
       </c>
       <c r="AM31" s="13">
-        <v>623854</v>
+        <v>223425</v>
       </c>
       <c r="AN31" s="13">
-        <v>223425</v>
+        <v>264913</v>
       </c>
       <c r="AO31" s="13">
-        <v>264913</v>
+        <v>637709</v>
       </c>
       <c r="AP31" s="13">
-        <v>637709</v>
+        <v>814046</v>
       </c>
       <c r="AQ31" s="13">
-        <v>814046</v>
+        <v>681703</v>
       </c>
       <c r="AR31" s="13">
-        <v>681703</v>
+        <v>351924</v>
       </c>
       <c r="AS31" s="13">
-        <v>351924</v>
+        <v>175467</v>
       </c>
       <c r="AT31" s="13">
-        <v>175467</v>
+        <v>155901</v>
       </c>
       <c r="AU31" s="13">
-        <v>155901</v>
+        <v>186323</v>
       </c>
       <c r="AV31" s="13">
-        <v>186323</v>
+        <v>76001</v>
       </c>
       <c r="AW31" s="13">
-        <v>76001</v>
+        <v>146648</v>
       </c>
       <c r="AX31" s="13">
-        <v>146648</v>
+        <v>121962</v>
       </c>
       <c r="AY31" s="13">
-        <v>121962</v>
+        <v>497348</v>
       </c>
       <c r="AZ31" s="13">
-        <v>497348</v>
+        <v>801639</v>
       </c>
       <c r="BA31" s="13">
-        <v>801639</v>
+        <v>883420</v>
       </c>
       <c r="BB31" s="13">
-        <v>883420</v>
+        <v>457990</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>59</v>
       </c>
@@ -4114,94 +4149,94 @@
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
-        <v>135290</v>
+        <v>108274</v>
       </c>
       <c r="F32" s="11">
-        <v>108274</v>
+        <v>0</v>
       </c>
       <c r="G32" s="11">
-        <v>0</v>
+        <v>407985</v>
       </c>
       <c r="H32" s="11">
-        <v>407985</v>
+        <v>407526</v>
       </c>
       <c r="I32" s="11">
-        <v>407526</v>
+        <v>226636</v>
       </c>
       <c r="J32" s="11">
-        <v>226636</v>
+        <v>296808</v>
       </c>
       <c r="K32" s="11">
-        <v>296808</v>
+        <v>64732</v>
       </c>
       <c r="L32" s="11">
-        <v>64732</v>
+        <v>0</v>
       </c>
       <c r="M32" s="11">
-        <v>0</v>
+        <v>314390</v>
       </c>
       <c r="N32" s="11">
-        <v>314390</v>
+        <v>360900</v>
       </c>
       <c r="O32" s="11">
-        <v>360900</v>
+        <v>225144</v>
       </c>
       <c r="P32" s="11">
-        <v>225144</v>
+        <v>328555</v>
       </c>
       <c r="Q32" s="11">
-        <v>328555</v>
+        <v>164716</v>
       </c>
       <c r="R32" s="11">
-        <v>164716</v>
+        <v>403550</v>
       </c>
       <c r="S32" s="11">
-        <v>403550</v>
+        <v>39988</v>
       </c>
       <c r="T32" s="11">
-        <v>39988</v>
+        <v>35996</v>
       </c>
       <c r="U32" s="11">
-        <v>35996</v>
+        <v>319754</v>
       </c>
       <c r="V32" s="11">
-        <v>319754</v>
+        <v>87685</v>
       </c>
       <c r="W32" s="11">
-        <v>87685</v>
+        <v>127596</v>
       </c>
       <c r="X32" s="11">
-        <v>127596</v>
+        <v>26000</v>
       </c>
       <c r="Y32" s="11">
-        <v>26000</v>
+        <v>72010</v>
       </c>
       <c r="Z32" s="11">
-        <v>72010</v>
+        <v>41800</v>
       </c>
       <c r="AA32" s="11">
-        <v>41800</v>
+        <v>279000</v>
       </c>
       <c r="AB32" s="11">
-        <v>279000</v>
+        <v>446982</v>
       </c>
       <c r="AC32" s="11">
-        <v>446982</v>
+        <v>32396</v>
       </c>
       <c r="AD32" s="11">
-        <v>32396</v>
+        <v>33668</v>
       </c>
       <c r="AE32" s="11">
-        <v>33668</v>
+        <v>0</v>
       </c>
       <c r="AF32" s="11">
         <v>0</v>
       </c>
       <c r="AG32" s="11">
-        <v>0</v>
+        <v>203696</v>
       </c>
       <c r="AH32" s="11">
-        <v>203696</v>
+        <v>0</v>
       </c>
       <c r="AI32" s="11">
         <v>0</v>
@@ -4213,34 +4248,34 @@
         <v>0</v>
       </c>
       <c r="AL32" s="11">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AM32" s="11">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="AN32" s="11">
-        <v>15000</v>
+        <v>247971</v>
       </c>
       <c r="AO32" s="11">
-        <v>247971</v>
+        <v>135324</v>
       </c>
       <c r="AP32" s="11">
-        <v>135324</v>
+        <v>0</v>
       </c>
       <c r="AQ32" s="11">
-        <v>0</v>
+        <v>179340</v>
       </c>
       <c r="AR32" s="11">
-        <v>179340</v>
+        <v>180894</v>
       </c>
       <c r="AS32" s="11">
-        <v>180894</v>
+        <v>4430</v>
       </c>
       <c r="AT32" s="11">
-        <v>4430</v>
+        <v>44254</v>
       </c>
       <c r="AU32" s="11">
-        <v>44254</v>
+        <v>0</v>
       </c>
       <c r="AV32" s="11">
         <v>0</v>
@@ -4258,13 +4293,13 @@
         <v>0</v>
       </c>
       <c r="BA32" s="11">
-        <v>0</v>
+        <v>279450</v>
       </c>
       <c r="BB32" s="11">
-        <v>279450</v>
+        <v>362381</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B33" s="12" t="s">
         <v>61</v>
       </c>
@@ -4273,157 +4308,157 @@
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="13">
-        <v>10778460</v>
+        <v>5757730</v>
       </c>
       <c r="F33" s="13">
-        <v>5757730</v>
+        <v>14739720</v>
       </c>
       <c r="G33" s="13">
-        <v>14739720</v>
+        <v>9988100</v>
       </c>
       <c r="H33" s="13">
-        <v>9988100</v>
+        <v>14988080</v>
       </c>
       <c r="I33" s="13">
-        <v>14988080</v>
+        <v>14021894</v>
       </c>
       <c r="J33" s="13">
-        <v>14021894</v>
+        <v>5062092</v>
       </c>
       <c r="K33" s="13">
-        <v>5062092</v>
+        <v>7143120</v>
       </c>
       <c r="L33" s="13">
-        <v>7143120</v>
+        <v>6516892</v>
       </c>
       <c r="M33" s="13">
-        <v>6516892</v>
+        <v>9835002</v>
       </c>
       <c r="N33" s="13">
-        <v>9835002</v>
+        <v>11293340</v>
       </c>
       <c r="O33" s="13">
-        <v>11293340</v>
+        <v>17785540</v>
       </c>
       <c r="P33" s="13">
-        <v>17785540</v>
+        <v>24072020</v>
       </c>
       <c r="Q33" s="13">
-        <v>24072020</v>
+        <v>26013240</v>
       </c>
       <c r="R33" s="13">
-        <v>26013240</v>
+        <v>18920240</v>
       </c>
       <c r="S33" s="13">
-        <v>18920240</v>
+        <v>20779140</v>
       </c>
       <c r="T33" s="13">
-        <v>20779140</v>
+        <v>27268094</v>
       </c>
       <c r="U33" s="13">
-        <v>27268094</v>
+        <v>29154500</v>
       </c>
       <c r="V33" s="13">
-        <v>29154500</v>
+        <v>3161100</v>
       </c>
       <c r="W33" s="13">
-        <v>3161100</v>
+        <v>9808340</v>
       </c>
       <c r="X33" s="13">
-        <v>9808340</v>
+        <v>26264800</v>
       </c>
       <c r="Y33" s="13">
-        <v>26264800</v>
+        <v>25781960</v>
       </c>
       <c r="Z33" s="13">
-        <v>25781960</v>
+        <v>14958930</v>
       </c>
       <c r="AA33" s="13">
-        <v>14958930</v>
+        <v>3650278</v>
       </c>
       <c r="AB33" s="13">
-        <v>3650278</v>
+        <v>3313698</v>
       </c>
       <c r="AC33" s="13">
-        <v>3313698</v>
+        <v>29056350</v>
       </c>
       <c r="AD33" s="13">
-        <v>29056350</v>
+        <v>18249450</v>
       </c>
       <c r="AE33" s="13">
-        <v>18249450</v>
+        <v>3319694</v>
       </c>
       <c r="AF33" s="13">
-        <v>3319694</v>
+        <v>5095000</v>
       </c>
       <c r="AG33" s="13">
-        <v>5095000</v>
+        <v>16123430</v>
       </c>
       <c r="AH33" s="13">
-        <v>16123430</v>
+        <v>5246250</v>
       </c>
       <c r="AI33" s="13">
-        <v>5246250</v>
+        <v>10389950</v>
       </c>
       <c r="AJ33" s="13">
-        <v>10389950</v>
+        <v>4586768</v>
       </c>
       <c r="AK33" s="13">
-        <v>4586768</v>
+        <v>55923024</v>
       </c>
       <c r="AL33" s="13">
-        <v>55923024</v>
+        <v>24923336</v>
       </c>
       <c r="AM33" s="13">
-        <v>24923336</v>
+        <v>51018720</v>
       </c>
       <c r="AN33" s="13">
-        <v>51018720</v>
+        <v>10668860</v>
       </c>
       <c r="AO33" s="13">
-        <v>10668860</v>
+        <v>34980130</v>
       </c>
       <c r="AP33" s="13">
-        <v>34980130</v>
+        <v>44978050</v>
       </c>
       <c r="AQ33" s="13">
-        <v>44978050</v>
+        <v>19983750</v>
       </c>
       <c r="AR33" s="13">
-        <v>19983750</v>
+        <v>17294200</v>
       </c>
       <c r="AS33" s="13">
-        <v>17294200</v>
+        <v>22223050</v>
       </c>
       <c r="AT33" s="13">
-        <v>22223050</v>
+        <v>9391220</v>
       </c>
       <c r="AU33" s="13">
-        <v>9391220</v>
+        <v>38699600</v>
       </c>
       <c r="AV33" s="13">
-        <v>38699600</v>
+        <v>34421030</v>
       </c>
       <c r="AW33" s="13">
-        <v>34421030</v>
+        <v>26777450</v>
       </c>
       <c r="AX33" s="13">
-        <v>26777450</v>
+        <v>28959360</v>
       </c>
       <c r="AY33" s="13">
-        <v>28959360</v>
+        <v>20009370</v>
       </c>
       <c r="AZ33" s="13">
-        <v>20009370</v>
+        <v>7543550</v>
       </c>
       <c r="BA33" s="13">
-        <v>7543550</v>
+        <v>32461460</v>
       </c>
       <c r="BB33" s="13">
-        <v>32461460</v>
+        <v>49846060</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>62</v>
       </c>
@@ -4432,157 +4467,157 @@
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
-        <v>2466985</v>
+        <v>2994892</v>
       </c>
       <c r="F34" s="11">
-        <v>2994892</v>
+        <v>4231625</v>
       </c>
       <c r="G34" s="11">
-        <v>4231625</v>
+        <v>4488935</v>
       </c>
       <c r="H34" s="11">
-        <v>4488935</v>
+        <v>3406150</v>
       </c>
       <c r="I34" s="11">
-        <v>3406150</v>
+        <v>5376015</v>
       </c>
       <c r="J34" s="11">
-        <v>5376015</v>
+        <v>396800</v>
       </c>
       <c r="K34" s="11">
-        <v>396800</v>
+        <v>1306988</v>
       </c>
       <c r="L34" s="11">
-        <v>1306988</v>
+        <v>3292625</v>
       </c>
       <c r="M34" s="11">
-        <v>3292625</v>
+        <v>2270906</v>
       </c>
       <c r="N34" s="11">
-        <v>2270906</v>
+        <v>5248095</v>
       </c>
       <c r="O34" s="11">
-        <v>5248095</v>
+        <v>3310140</v>
       </c>
       <c r="P34" s="11">
-        <v>3310140</v>
+        <v>1900080</v>
       </c>
       <c r="Q34" s="11">
-        <v>1900080</v>
+        <v>1319050</v>
       </c>
       <c r="R34" s="11">
-        <v>1319050</v>
+        <v>897775</v>
       </c>
       <c r="S34" s="11">
-        <v>897775</v>
+        <v>86440</v>
       </c>
       <c r="T34" s="11">
-        <v>86440</v>
+        <v>593327</v>
       </c>
       <c r="U34" s="11">
-        <v>593327</v>
+        <v>1742490</v>
       </c>
       <c r="V34" s="11">
-        <v>1742490</v>
+        <v>560300</v>
       </c>
       <c r="W34" s="11">
-        <v>560300</v>
+        <v>762326</v>
       </c>
       <c r="X34" s="11">
-        <v>762326</v>
+        <v>4024050</v>
       </c>
       <c r="Y34" s="11">
-        <v>4024050</v>
+        <v>1689961</v>
       </c>
       <c r="Z34" s="11">
-        <v>1689961</v>
+        <v>3586174</v>
       </c>
       <c r="AA34" s="11">
-        <v>3586174</v>
+        <v>1869520</v>
       </c>
       <c r="AB34" s="11">
-        <v>1869520</v>
+        <v>1701000</v>
       </c>
       <c r="AC34" s="11">
-        <v>1701000</v>
+        <v>2866590</v>
       </c>
       <c r="AD34" s="11">
-        <v>2866590</v>
+        <v>4088530</v>
       </c>
       <c r="AE34" s="11">
-        <v>4088530</v>
+        <v>5302230</v>
       </c>
       <c r="AF34" s="11">
-        <v>5302230</v>
+        <v>5243040</v>
       </c>
       <c r="AG34" s="11">
-        <v>5243040</v>
+        <v>640827</v>
       </c>
       <c r="AH34" s="11">
-        <v>640827</v>
+        <v>1091320</v>
       </c>
       <c r="AI34" s="11">
-        <v>1091320</v>
+        <v>1386230</v>
       </c>
       <c r="AJ34" s="11">
-        <v>1386230</v>
+        <v>3985760</v>
       </c>
       <c r="AK34" s="11">
-        <v>3985760</v>
+        <v>2484060</v>
       </c>
       <c r="AL34" s="11">
-        <v>2484060</v>
+        <v>4816465</v>
       </c>
       <c r="AM34" s="11">
-        <v>4816465</v>
+        <v>3258720</v>
       </c>
       <c r="AN34" s="11">
-        <v>3258720</v>
+        <v>2574820</v>
       </c>
       <c r="AO34" s="11">
-        <v>2574820</v>
+        <v>4036678</v>
       </c>
       <c r="AP34" s="11">
-        <v>4036678</v>
+        <v>1077780</v>
       </c>
       <c r="AQ34" s="11">
-        <v>1077780</v>
+        <v>1147800</v>
       </c>
       <c r="AR34" s="11">
-        <v>1147800</v>
+        <v>3867980</v>
       </c>
       <c r="AS34" s="11">
-        <v>3867980</v>
+        <v>1546240</v>
       </c>
       <c r="AT34" s="11">
-        <v>1546240</v>
+        <v>1342800</v>
       </c>
       <c r="AU34" s="11">
-        <v>1342800</v>
+        <v>4116468</v>
       </c>
       <c r="AV34" s="11">
-        <v>4116468</v>
+        <v>3355025</v>
       </c>
       <c r="AW34" s="11">
-        <v>3355025</v>
+        <v>2249560</v>
       </c>
       <c r="AX34" s="11">
-        <v>2249560</v>
+        <v>1702765</v>
       </c>
       <c r="AY34" s="11">
-        <v>1702765</v>
+        <v>3884700</v>
       </c>
       <c r="AZ34" s="11">
-        <v>3884700</v>
+        <v>2906720</v>
       </c>
       <c r="BA34" s="11">
-        <v>2906720</v>
+        <v>868740</v>
       </c>
       <c r="BB34" s="11">
-        <v>868740</v>
+        <v>1691420</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B35" s="12" t="s">
         <v>63</v>
       </c>
@@ -4605,8 +4640,8 @@
       <c r="I35" s="13">
         <v>0</v>
       </c>
-      <c r="J35" s="13">
-        <v>0</v>
+      <c r="J35" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="K35" s="13" t="s">
         <v>64</v>
@@ -4741,7 +4776,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>65</v>
       </c>
@@ -4764,8 +4799,8 @@
       <c r="I36" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="J36" s="11" t="s">
-        <v>64</v>
+      <c r="J36" s="11">
+        <v>0</v>
       </c>
       <c r="K36" s="11">
         <v>0</v>
@@ -4800,8 +4835,8 @@
       <c r="U36" s="11">
         <v>0</v>
       </c>
-      <c r="V36" s="11">
-        <v>0</v>
+      <c r="V36" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="W36" s="11" t="s">
         <v>64</v>
@@ -4836,8 +4871,8 @@
       <c r="AG36" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AH36" s="11" t="s">
-        <v>64</v>
+      <c r="AH36" s="11">
+        <v>0</v>
       </c>
       <c r="AI36" s="11">
         <v>0</v>
@@ -4900,7 +4935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
         <v>66</v>
       </c>
@@ -4959,18 +4994,18 @@
       <c r="U37" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="V37" s="13" t="s">
-        <v>64</v>
+      <c r="V37" s="13">
+        <v>2</v>
       </c>
       <c r="W37" s="13">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="X37" s="13">
-        <v>33</v>
-      </c>
-      <c r="Y37" s="13">
         <v>7</v>
       </c>
+      <c r="Y37" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="Z37" s="13" t="s">
         <v>64</v>
       </c>
@@ -5059,7 +5094,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>68</v>
       </c>
@@ -5116,7 +5151,7 @@
       <c r="BA38" s="9"/>
       <c r="BB38" s="9"/>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>66</v>
       </c>
@@ -5184,69 +5219,69 @@
       <c r="X39" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="Y39" s="11" t="s">
-        <v>64</v>
+      <c r="Y39" s="11">
+        <v>8</v>
       </c>
       <c r="Z39" s="11">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="AA39" s="11">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="AB39" s="11">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AC39" s="11">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="AD39" s="11">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE39" s="11">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AF39" s="11">
+        <v>3</v>
+      </c>
+      <c r="AG39" s="11">
+        <v>6</v>
+      </c>
+      <c r="AH39" s="11">
+        <v>13</v>
+      </c>
+      <c r="AI39" s="11">
+        <v>15</v>
+      </c>
+      <c r="AJ39" s="11">
+        <v>4</v>
+      </c>
+      <c r="AK39" s="11">
+        <v>3</v>
+      </c>
+      <c r="AL39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM39" s="11">
+        <v>51</v>
+      </c>
+      <c r="AN39" s="11">
         <v>5</v>
       </c>
-      <c r="AG39" s="11">
-        <v>3</v>
-      </c>
-      <c r="AH39" s="11">
-        <v>6</v>
-      </c>
-      <c r="AI39" s="11">
-        <v>13</v>
-      </c>
-      <c r="AJ39" s="11">
-        <v>15</v>
-      </c>
-      <c r="AK39" s="11">
-        <v>4</v>
-      </c>
-      <c r="AL39" s="11">
-        <v>3</v>
-      </c>
-      <c r="AM39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN39" s="11">
-        <v>51</v>
-      </c>
-      <c r="AO39" s="11">
-        <v>5</v>
-      </c>
-      <c r="AP39" s="11" t="s">
-        <v>64</v>
+      <c r="AO39" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP39" s="11">
+        <v>58</v>
       </c>
       <c r="AQ39" s="11">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="AR39" s="11">
-        <v>9</v>
-      </c>
-      <c r="AS39" s="11">
         <v>21</v>
       </c>
+      <c r="AS39" s="11" t="s">
+        <v>64</v>
+      </c>
       <c r="AT39" s="11" t="s">
         <v>64</v>
       </c>
@@ -5275,7 +5310,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B40" s="12" t="s">
         <v>69</v>
       </c>
@@ -5403,38 +5438,38 @@
       <c r="AR40" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AS40" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="AT40" s="13">
+      <c r="AS40" s="13">
         <v>1751428</v>
       </c>
-      <c r="AU40" s="13" t="s">
-        <v>64</v>
+      <c r="AT40" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU40" s="13">
+        <v>377858</v>
       </c>
       <c r="AV40" s="13">
-        <v>377858</v>
+        <v>480437</v>
       </c>
       <c r="AW40" s="13">
-        <v>480437</v>
+        <v>113565</v>
       </c>
       <c r="AX40" s="13">
-        <v>113565</v>
+        <v>128507</v>
       </c>
       <c r="AY40" s="13">
-        <v>128507</v>
-      </c>
-      <c r="AZ40" s="13">
         <v>498767</v>
       </c>
-      <c r="BA40" s="13" t="s">
-        <v>64</v>
+      <c r="AZ40" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA40" s="13">
+        <v>30187</v>
       </c>
       <c r="BB40" s="13">
-        <v>30187</v>
+        <v>11850</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>70</v>
       </c>
@@ -5500,98 +5535,98 @@
       <c r="X41" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="Y41" s="15" t="s">
-        <v>64</v>
+      <c r="Y41" s="15">
+        <v>8</v>
       </c>
       <c r="Z41" s="15">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="AA41" s="15">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="AB41" s="15">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AC41" s="15">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="AD41" s="15">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE41" s="15">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AF41" s="15">
+        <v>3</v>
+      </c>
+      <c r="AG41" s="15">
+        <v>6</v>
+      </c>
+      <c r="AH41" s="15">
+        <v>13</v>
+      </c>
+      <c r="AI41" s="15">
+        <v>15</v>
+      </c>
+      <c r="AJ41" s="15">
+        <v>4</v>
+      </c>
+      <c r="AK41" s="15">
+        <v>3</v>
+      </c>
+      <c r="AL41" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM41" s="15">
+        <v>51</v>
+      </c>
+      <c r="AN41" s="15">
         <v>5</v>
       </c>
-      <c r="AG41" s="15">
-        <v>3</v>
-      </c>
-      <c r="AH41" s="15">
-        <v>6</v>
-      </c>
-      <c r="AI41" s="15">
-        <v>13</v>
-      </c>
-      <c r="AJ41" s="15">
-        <v>15</v>
-      </c>
-      <c r="AK41" s="15">
-        <v>4</v>
-      </c>
-      <c r="AL41" s="15">
-        <v>3</v>
-      </c>
-      <c r="AM41" s="15">
-        <v>0</v>
-      </c>
-      <c r="AN41" s="15">
-        <v>51</v>
-      </c>
       <c r="AO41" s="15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AP41" s="15">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="AQ41" s="15">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="AR41" s="15">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AS41" s="15">
-        <v>21</v>
+        <v>1751428</v>
       </c>
       <c r="AT41" s="15">
-        <v>1751428</v>
+        <v>0</v>
       </c>
       <c r="AU41" s="15">
-        <v>0</v>
+        <v>377858</v>
       </c>
       <c r="AV41" s="15">
-        <v>377858</v>
+        <v>480437</v>
       </c>
       <c r="AW41" s="15">
-        <v>480437</v>
+        <v>113565</v>
       </c>
       <c r="AX41" s="15">
-        <v>113565</v>
+        <v>128507</v>
       </c>
       <c r="AY41" s="15">
-        <v>128507</v>
+        <v>498767</v>
       </c>
       <c r="AZ41" s="15">
-        <v>498767</v>
+        <v>0</v>
       </c>
       <c r="BA41" s="15">
-        <v>0</v>
+        <v>30187</v>
       </c>
       <c r="BB41" s="15">
-        <v>30187</v>
+        <v>11850</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>73</v>
       </c>
@@ -5648,7 +5683,7 @@
       <c r="BA42" s="9"/>
       <c r="BB42" s="9"/>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>55</v>
       </c>
@@ -5716,8 +5751,8 @@
       <c r="X43" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="Y43" s="11" t="s">
-        <v>64</v>
+      <c r="Y43" s="11">
+        <v>0</v>
       </c>
       <c r="Z43" s="11">
         <v>0</v>
@@ -5746,14 +5781,14 @@
       <c r="AH43" s="11">
         <v>0</v>
       </c>
-      <c r="AI43" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ43" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK43" s="11">
-        <v>0</v>
+      <c r="AI43" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ43" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK43" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="AL43" s="11" t="s">
         <v>64</v>
@@ -5770,11 +5805,11 @@
       <c r="AP43" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AQ43" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AR43" s="11">
-        <v>0</v>
+      <c r="AQ43" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR43" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="AS43" s="11" t="s">
         <v>64</v>
@@ -5800,14 +5835,14 @@
       <c r="AZ43" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="BA43" s="11" t="s">
-        <v>64</v>
+      <c r="BA43" s="11">
+        <v>0</v>
       </c>
       <c r="BB43" s="11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>57</v>
       </c>
@@ -5875,44 +5910,44 @@
       <c r="X44" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="Y44" s="13" t="s">
-        <v>64</v>
+      <c r="Y44" s="13">
+        <v>0</v>
       </c>
       <c r="Z44" s="13">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA44" s="13">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB44" s="13">
         <v>0</v>
       </c>
       <c r="AC44" s="13">
-        <v>0</v>
+        <v>-50000</v>
       </c>
       <c r="AD44" s="13">
-        <v>-50000</v>
+        <v>0</v>
       </c>
       <c r="AE44" s="13">
         <v>0</v>
       </c>
       <c r="AF44" s="13">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="AG44" s="13">
-        <v>-1500</v>
+        <v>0</v>
       </c>
       <c r="AH44" s="13">
         <v>0</v>
       </c>
-      <c r="AI44" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ44" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK44" s="13">
-        <v>0</v>
+      <c r="AI44" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ44" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK44" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="AL44" s="13" t="s">
         <v>64</v>
@@ -5929,11 +5964,11 @@
       <c r="AP44" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AQ44" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="AR44" s="13">
-        <v>0</v>
+      <c r="AQ44" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR44" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="AS44" s="13" t="s">
         <v>64</v>
@@ -5959,14 +5994,14 @@
       <c r="AZ44" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="BA44" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="BB44" s="13">
+      <c r="BA44" s="13">
         <v>-120</v>
       </c>
+      <c r="BB44" s="13" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>59</v>
       </c>
@@ -6034,8 +6069,8 @@
       <c r="X45" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="Y45" s="11" t="s">
-        <v>64</v>
+      <c r="Y45" s="11">
+        <v>0</v>
       </c>
       <c r="Z45" s="11">
         <v>0</v>
@@ -6064,14 +6099,14 @@
       <c r="AH45" s="11">
         <v>0</v>
       </c>
-      <c r="AI45" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ45" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK45" s="11">
-        <v>0</v>
+      <c r="AI45" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ45" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK45" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="AL45" s="11" t="s">
         <v>64</v>
@@ -6088,11 +6123,11 @@
       <c r="AP45" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AQ45" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AR45" s="11">
-        <v>0</v>
+      <c r="AQ45" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR45" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="AS45" s="11" t="s">
         <v>64</v>
@@ -6118,14 +6153,14 @@
       <c r="AZ45" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="BA45" s="11" t="s">
-        <v>64</v>
+      <c r="BA45" s="11">
+        <v>0</v>
       </c>
       <c r="BB45" s="11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B46" s="12" t="s">
         <v>61</v>
       </c>
@@ -6193,17 +6228,17 @@
       <c r="X46" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="Y46" s="13" t="s">
-        <v>64</v>
+      <c r="Y46" s="13">
+        <v>0</v>
       </c>
       <c r="Z46" s="13">
         <v>0</v>
       </c>
       <c r="AA46" s="13">
-        <v>0</v>
+        <v>-108000</v>
       </c>
       <c r="AB46" s="13">
-        <v>-108000</v>
+        <v>0</v>
       </c>
       <c r="AC46" s="13">
         <v>0</v>
@@ -6218,19 +6253,19 @@
         <v>0</v>
       </c>
       <c r="AG46" s="13">
-        <v>0</v>
+        <v>-450</v>
       </c>
       <c r="AH46" s="13">
-        <v>-450</v>
-      </c>
-      <c r="AI46" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ46" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK46" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AI46" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ46" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK46" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="AL46" s="13" t="s">
         <v>64</v>
@@ -6244,17 +6279,17 @@
       <c r="AO46" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AP46" s="13" t="s">
-        <v>64</v>
+      <c r="AP46" s="13">
+        <v>-414</v>
       </c>
       <c r="AQ46" s="13">
-        <v>-414</v>
+        <v>0</v>
       </c>
       <c r="AR46" s="13">
         <v>0</v>
       </c>
-      <c r="AS46" s="13">
-        <v>0</v>
+      <c r="AS46" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="AT46" s="13" t="s">
         <v>64</v>
@@ -6262,29 +6297,29 @@
       <c r="AU46" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AV46" s="13" t="s">
-        <v>64</v>
+      <c r="AV46" s="13">
+        <v>-62490</v>
       </c>
       <c r="AW46" s="13">
-        <v>-62490</v>
-      </c>
-      <c r="AX46" s="13">
         <v>-6120</v>
       </c>
+      <c r="AX46" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="AY46" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AZ46" s="13" t="s">
-        <v>64</v>
+      <c r="AZ46" s="13">
+        <v>-933650</v>
       </c>
       <c r="BA46" s="13">
-        <v>-933650</v>
-      </c>
-      <c r="BB46" s="13">
         <v>-1884400</v>
       </c>
+      <c r="BB46" s="13" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>62</v>
       </c>
@@ -6352,14 +6387,14 @@
       <c r="X47" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="Y47" s="11" t="s">
-        <v>64</v>
+      <c r="Y47" s="11">
+        <v>-10927</v>
       </c>
       <c r="Z47" s="11">
-        <v>-10927</v>
+        <v>-800</v>
       </c>
       <c r="AA47" s="11">
-        <v>-800</v>
+        <v>0</v>
       </c>
       <c r="AB47" s="11">
         <v>0</v>
@@ -6377,34 +6412,34 @@
         <v>0</v>
       </c>
       <c r="AG47" s="11">
-        <v>0</v>
+        <v>-471</v>
       </c>
       <c r="AH47" s="11">
-        <v>-471</v>
-      </c>
-      <c r="AI47" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ47" s="11" t="s">
-        <v>64</v>
+        <v>0</v>
+      </c>
+      <c r="AI47" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ47" s="11">
+        <v>0</v>
       </c>
       <c r="AK47" s="11">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="AL47" s="11">
-        <v>-2000</v>
+        <v>-5000</v>
       </c>
       <c r="AM47" s="11">
-        <v>-5000</v>
+        <v>-25720</v>
       </c>
       <c r="AN47" s="11">
-        <v>-25720</v>
+        <v>-21000</v>
       </c>
       <c r="AO47" s="11">
-        <v>-21000</v>
+        <v>-4860</v>
       </c>
       <c r="AP47" s="11">
-        <v>-4860</v>
+        <v>0</v>
       </c>
       <c r="AQ47" s="11">
         <v>0</v>
@@ -6412,8 +6447,8 @@
       <c r="AR47" s="11">
         <v>0</v>
       </c>
-      <c r="AS47" s="11">
-        <v>0</v>
+      <c r="AS47" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="AT47" s="11" t="s">
         <v>64</v>
@@ -6421,29 +6456,29 @@
       <c r="AU47" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AV47" s="11" t="s">
-        <v>64</v>
+      <c r="AV47" s="11">
+        <v>-13</v>
       </c>
       <c r="AW47" s="11">
-        <v>-13</v>
-      </c>
-      <c r="AX47" s="11">
         <v>-557600</v>
       </c>
+      <c r="AX47" s="11" t="s">
+        <v>64</v>
+      </c>
       <c r="AY47" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AZ47" s="11" t="s">
-        <v>64</v>
+      <c r="AZ47" s="11">
+        <v>-10000</v>
       </c>
       <c r="BA47" s="11">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="BB47" s="11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B48" s="12" t="s">
         <v>63</v>
       </c>
@@ -6538,17 +6573,17 @@
       <c r="AG48" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AH48" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI48" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ48" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK48" s="13">
-        <v>0</v>
+      <c r="AH48" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI48" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ48" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK48" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="AL48" s="13" t="s">
         <v>64</v>
@@ -6565,11 +6600,11 @@
       <c r="AP48" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AQ48" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="AR48" s="13">
-        <v>0</v>
+      <c r="AQ48" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR48" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="AS48" s="13" t="s">
         <v>64</v>
@@ -6602,7 +6637,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>65</v>
       </c>
@@ -6754,14 +6789,14 @@
       <c r="AZ49" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="BA49" s="11" t="s">
-        <v>64</v>
+      <c r="BA49" s="11">
+        <v>0</v>
       </c>
       <c r="BB49" s="11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B50" s="16" t="s">
         <v>74</v>
       </c>
@@ -6827,35 +6862,35 @@
       <c r="X50" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="Y50" s="17" t="s">
-        <v>64</v>
+      <c r="Y50" s="17">
+        <v>-10927</v>
       </c>
       <c r="Z50" s="17">
-        <v>-10927</v>
+        <v>-900</v>
       </c>
       <c r="AA50" s="17">
-        <v>-900</v>
+        <v>-108000</v>
       </c>
       <c r="AB50" s="17">
-        <v>-108000</v>
+        <v>0</v>
       </c>
       <c r="AC50" s="17">
-        <v>0</v>
+        <v>-50000</v>
       </c>
       <c r="AD50" s="17">
-        <v>-50000</v>
+        <v>0</v>
       </c>
       <c r="AE50" s="17">
         <v>0</v>
       </c>
       <c r="AF50" s="17">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="AG50" s="17">
-        <v>-1500</v>
+        <v>-921</v>
       </c>
       <c r="AH50" s="17">
-        <v>-921</v>
+        <v>0</v>
       </c>
       <c r="AI50" s="17">
         <v>0</v>
@@ -6864,25 +6899,25 @@
         <v>0</v>
       </c>
       <c r="AK50" s="17">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="AL50" s="17">
-        <v>-2000</v>
+        <v>-5000</v>
       </c>
       <c r="AM50" s="17">
-        <v>-5000</v>
+        <v>-25720</v>
       </c>
       <c r="AN50" s="17">
-        <v>-25720</v>
+        <v>-21000</v>
       </c>
       <c r="AO50" s="17">
-        <v>-21000</v>
+        <v>-4860</v>
       </c>
       <c r="AP50" s="17">
-        <v>-4860</v>
+        <v>-414</v>
       </c>
       <c r="AQ50" s="17">
-        <v>-414</v>
+        <v>0</v>
       </c>
       <c r="AR50" s="17">
         <v>0</v>
@@ -6897,185 +6932,185 @@
         <v>0</v>
       </c>
       <c r="AV50" s="17">
-        <v>0</v>
+        <v>-62503</v>
       </c>
       <c r="AW50" s="17">
-        <v>-62503</v>
+        <v>-563720</v>
       </c>
       <c r="AX50" s="17">
-        <v>-563720</v>
+        <v>0</v>
       </c>
       <c r="AY50" s="17">
         <v>0</v>
       </c>
       <c r="AZ50" s="17">
-        <v>0</v>
+        <v>-943650</v>
       </c>
       <c r="BA50" s="17">
-        <v>-943650</v>
+        <v>-1884520</v>
       </c>
       <c r="BB50" s="17">
-        <v>-1884520</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
         <v>71</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15">
-        <v>14064523</v>
+        <v>9363585</v>
       </c>
       <c r="F51" s="15">
-        <v>9363585</v>
+        <v>19741675</v>
       </c>
       <c r="G51" s="15">
-        <v>19741675</v>
+        <v>15486970</v>
       </c>
       <c r="H51" s="15">
-        <v>15486970</v>
+        <v>19281728</v>
       </c>
       <c r="I51" s="15">
-        <v>19281728</v>
+        <v>19905421</v>
       </c>
       <c r="J51" s="15">
-        <v>19905421</v>
+        <v>5842185</v>
       </c>
       <c r="K51" s="15">
-        <v>5842185</v>
+        <v>9094861</v>
       </c>
       <c r="L51" s="15">
-        <v>9094861</v>
+        <v>10127525</v>
       </c>
       <c r="M51" s="15">
-        <v>10127525</v>
+        <v>12809212</v>
       </c>
       <c r="N51" s="15">
-        <v>12809212</v>
+        <v>17200599</v>
       </c>
       <c r="O51" s="15">
-        <v>17200599</v>
+        <v>22281494</v>
       </c>
       <c r="P51" s="15">
-        <v>22281494</v>
+        <v>26889275</v>
       </c>
       <c r="Q51" s="15">
-        <v>26889275</v>
+        <v>28434366</v>
       </c>
       <c r="R51" s="15">
-        <v>28434366</v>
+        <v>21090309</v>
       </c>
       <c r="S51" s="15">
-        <v>21090309</v>
+        <v>21891048</v>
       </c>
       <c r="T51" s="15">
-        <v>21891048</v>
+        <v>28837775</v>
       </c>
       <c r="U51" s="15">
-        <v>28837775</v>
+        <v>32140674</v>
       </c>
       <c r="V51" s="15">
-        <v>32140674</v>
+        <v>4187706</v>
       </c>
       <c r="W51" s="15">
-        <v>4187706</v>
+        <v>11400411</v>
       </c>
       <c r="X51" s="15">
-        <v>11400411</v>
+        <v>30922742</v>
       </c>
       <c r="Y51" s="15">
-        <v>30922742</v>
+        <v>28282803</v>
       </c>
       <c r="Z51" s="15">
-        <v>28282803</v>
+        <v>19400331</v>
       </c>
       <c r="AA51" s="15">
-        <v>19400331</v>
+        <v>6367072</v>
       </c>
       <c r="AB51" s="15">
-        <v>6367072</v>
+        <v>6113920</v>
       </c>
       <c r="AC51" s="15">
-        <v>6113920</v>
+        <v>32316709</v>
       </c>
       <c r="AD51" s="15">
-        <v>32316709</v>
+        <v>23042643</v>
       </c>
       <c r="AE51" s="15">
-        <v>23042643</v>
+        <v>8932229</v>
       </c>
       <c r="AF51" s="15">
-        <v>8932229</v>
+        <v>10336543</v>
       </c>
       <c r="AG51" s="15">
-        <v>10336543</v>
+        <v>17351808</v>
       </c>
       <c r="AH51" s="15">
-        <v>17351808</v>
+        <v>6621321</v>
       </c>
       <c r="AI51" s="15">
-        <v>6621321</v>
+        <v>12076989</v>
       </c>
       <c r="AJ51" s="15">
-        <v>12076989</v>
+        <v>9147667</v>
       </c>
       <c r="AK51" s="15">
-        <v>9147667</v>
+        <v>59206741</v>
       </c>
       <c r="AL51" s="15">
-        <v>59206741</v>
+        <v>30420895</v>
       </c>
       <c r="AM51" s="15">
-        <v>30420895</v>
+        <v>54490196</v>
       </c>
       <c r="AN51" s="15">
-        <v>54490196</v>
+        <v>13911609</v>
       </c>
       <c r="AO51" s="15">
-        <v>13911609</v>
+        <v>39992341</v>
       </c>
       <c r="AP51" s="15">
-        <v>39992341</v>
+        <v>46869520</v>
       </c>
       <c r="AQ51" s="15">
-        <v>46869520</v>
+        <v>21992602</v>
       </c>
       <c r="AR51" s="15">
-        <v>21992602</v>
+        <v>21695019</v>
       </c>
       <c r="AS51" s="15">
-        <v>21695019</v>
+        <v>25760615</v>
       </c>
       <c r="AT51" s="15">
-        <v>25760615</v>
+        <v>11167575</v>
       </c>
       <c r="AU51" s="15">
-        <v>11167575</v>
+        <v>43425386</v>
       </c>
       <c r="AV51" s="15">
-        <v>43425386</v>
+        <v>38563390</v>
       </c>
       <c r="AW51" s="15">
-        <v>38563390</v>
+        <v>28955823</v>
       </c>
       <c r="AX51" s="15">
-        <v>28955823</v>
+        <v>30912594</v>
       </c>
       <c r="AY51" s="15">
-        <v>30912594</v>
+        <v>24978897</v>
       </c>
       <c r="AZ51" s="15">
-        <v>24978897</v>
+        <v>10665819</v>
       </c>
       <c r="BA51" s="15">
-        <v>10665819</v>
+        <v>32833135</v>
       </c>
       <c r="BB51" s="15">
-        <v>32833135</v>
+        <v>52445870</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -7130,7 +7165,7 @@
       <c r="BA52" s="1"/>
       <c r="BB52" s="1"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -7185,7 +7220,7 @@
       <c r="BA53" s="1"/>
       <c r="BB53" s="1"/>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -7240,7 +7275,7 @@
       <c r="BA54" s="1"/>
       <c r="BB54" s="1"/>
     </row>
-    <row r="55" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
         <v>75</v>
       </c>
@@ -7397,7 +7432,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -7452,7 +7487,7 @@
       <c r="BA56" s="1"/>
       <c r="BB56" s="1"/>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>75</v>
       </c>
@@ -7509,7 +7544,7 @@
       <c r="BA57" s="9"/>
       <c r="BB57" s="9"/>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>55</v>
       </c>
@@ -7518,22 +7553,22 @@
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
-        <v>5065</v>
+        <v>2993</v>
       </c>
       <c r="F58" s="11">
-        <v>2993</v>
+        <v>5624</v>
       </c>
       <c r="G58" s="11">
-        <v>5624</v>
+        <v>8453</v>
       </c>
       <c r="H58" s="11">
-        <v>8453</v>
+        <v>943</v>
       </c>
       <c r="I58" s="11">
-        <v>943</v>
+        <v>306</v>
       </c>
       <c r="J58" s="11">
-        <v>306</v>
+        <v>0</v>
       </c>
       <c r="K58" s="11">
         <v>0</v>
@@ -7548,88 +7583,88 @@
         <v>0</v>
       </c>
       <c r="O58" s="11">
-        <v>0</v>
+        <v>2815</v>
       </c>
       <c r="P58" s="11">
-        <v>2815</v>
+        <v>8217</v>
       </c>
       <c r="Q58" s="11">
-        <v>8217</v>
+        <v>8945</v>
       </c>
       <c r="R58" s="11">
-        <v>8945</v>
+        <v>12520</v>
       </c>
       <c r="S58" s="11">
-        <v>12520</v>
+        <v>8013</v>
       </c>
       <c r="T58" s="11">
-        <v>8013</v>
+        <v>4263</v>
       </c>
       <c r="U58" s="11">
-        <v>4263</v>
+        <v>10227</v>
       </c>
       <c r="V58" s="11">
-        <v>10227</v>
+        <v>3436</v>
       </c>
       <c r="W58" s="11">
-        <v>3436</v>
+        <v>10307</v>
       </c>
       <c r="X58" s="11">
-        <v>10307</v>
+        <v>8157</v>
       </c>
       <c r="Y58" s="11">
-        <v>8157</v>
+        <v>0</v>
       </c>
       <c r="Z58" s="11">
-        <v>0</v>
+        <v>8585</v>
       </c>
       <c r="AA58" s="11">
-        <v>8585</v>
+        <v>1718</v>
       </c>
       <c r="AB58" s="11">
-        <v>1718</v>
+        <v>0</v>
       </c>
       <c r="AC58" s="11">
         <v>0</v>
       </c>
       <c r="AD58" s="11">
-        <v>0</v>
+        <v>4658</v>
       </c>
       <c r="AE58" s="11">
-        <v>4658</v>
+        <v>11754</v>
       </c>
       <c r="AF58" s="11">
-        <v>11754</v>
+        <v>0</v>
       </c>
       <c r="AG58" s="11">
         <v>0</v>
       </c>
       <c r="AH58" s="11">
-        <v>0</v>
+        <v>2351</v>
       </c>
       <c r="AI58" s="11">
-        <v>2351</v>
+        <v>9399</v>
       </c>
       <c r="AJ58" s="11">
-        <v>9399</v>
+        <v>3791</v>
       </c>
       <c r="AK58" s="11">
-        <v>3791</v>
+        <v>10909</v>
       </c>
       <c r="AL58" s="11">
-        <v>10909</v>
+        <v>1692</v>
       </c>
       <c r="AM58" s="11">
-        <v>1692</v>
+        <v>0</v>
       </c>
       <c r="AN58" s="11">
-        <v>0</v>
+        <v>9330</v>
       </c>
       <c r="AO58" s="11">
-        <v>9330</v>
+        <v>10990</v>
       </c>
       <c r="AP58" s="11">
-        <v>10990</v>
+        <v>0</v>
       </c>
       <c r="AQ58" s="11">
         <v>0</v>
@@ -7638,37 +7673,37 @@
         <v>0</v>
       </c>
       <c r="AS58" s="11">
-        <v>0</v>
+        <v>3180</v>
       </c>
       <c r="AT58" s="11">
-        <v>3180</v>
+        <v>12370</v>
       </c>
       <c r="AU58" s="11">
-        <v>12370</v>
+        <v>2392</v>
       </c>
       <c r="AV58" s="11">
-        <v>2392</v>
+        <v>15550</v>
       </c>
       <c r="AW58" s="11">
-        <v>15550</v>
+        <v>12313</v>
       </c>
       <c r="AX58" s="11">
-        <v>12313</v>
+        <v>0</v>
       </c>
       <c r="AY58" s="11">
-        <v>0</v>
+        <v>8291</v>
       </c>
       <c r="AZ58" s="11">
-        <v>8291</v>
+        <v>21779</v>
       </c>
       <c r="BA58" s="11">
-        <v>21779</v>
+        <v>9420</v>
       </c>
       <c r="BB58" s="11">
-        <v>9420</v>
+        <v>9521</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B59" s="12" t="s">
         <v>57</v>
       </c>
@@ -7677,157 +7712,157 @@
       </c>
       <c r="D59" s="13"/>
       <c r="E59" s="13">
-        <v>41238</v>
+        <v>32506</v>
       </c>
       <c r="F59" s="13">
-        <v>32506</v>
+        <v>56571</v>
       </c>
       <c r="G59" s="13">
-        <v>56571</v>
+        <v>23841</v>
       </c>
       <c r="H59" s="13">
-        <v>23841</v>
+        <v>41396</v>
       </c>
       <c r="I59" s="13">
-        <v>41396</v>
+        <v>22536</v>
       </c>
       <c r="J59" s="13">
-        <v>22536</v>
+        <v>12499</v>
       </c>
       <c r="K59" s="13">
-        <v>12499</v>
+        <v>74087</v>
       </c>
       <c r="L59" s="13">
-        <v>74087</v>
+        <v>40820</v>
       </c>
       <c r="M59" s="13">
-        <v>40820</v>
+        <v>53279</v>
       </c>
       <c r="N59" s="13">
-        <v>53279</v>
+        <v>32547</v>
       </c>
       <c r="O59" s="13">
-        <v>32547</v>
+        <v>88997</v>
       </c>
       <c r="P59" s="13">
-        <v>88997</v>
+        <v>17847</v>
       </c>
       <c r="Q59" s="13">
-        <v>17847</v>
+        <v>43213</v>
       </c>
       <c r="R59" s="13">
-        <v>43213</v>
+        <v>61631</v>
       </c>
       <c r="S59" s="13">
-        <v>61631</v>
+        <v>61758</v>
       </c>
       <c r="T59" s="13">
-        <v>61758</v>
+        <v>42570</v>
       </c>
       <c r="U59" s="13">
-        <v>42570</v>
+        <v>63655</v>
       </c>
       <c r="V59" s="13">
-        <v>63655</v>
+        <v>35925</v>
       </c>
       <c r="W59" s="13">
-        <v>35925</v>
+        <v>47991</v>
       </c>
       <c r="X59" s="13">
-        <v>47991</v>
+        <v>60447</v>
       </c>
       <c r="Y59" s="13">
-        <v>60447</v>
+        <v>161256</v>
       </c>
       <c r="Z59" s="13">
-        <v>161256</v>
+        <v>212547</v>
       </c>
       <c r="AA59" s="13">
-        <v>212547</v>
+        <v>307590</v>
       </c>
       <c r="AB59" s="13">
-        <v>307590</v>
+        <v>247431</v>
       </c>
       <c r="AC59" s="13">
-        <v>247431</v>
+        <v>172764</v>
       </c>
       <c r="AD59" s="13">
-        <v>172764</v>
+        <v>108790</v>
       </c>
       <c r="AE59" s="13">
-        <v>108790</v>
+        <v>3322</v>
       </c>
       <c r="AF59" s="13">
-        <v>3322</v>
+        <v>0</v>
       </c>
       <c r="AG59" s="13">
-        <v>0</v>
+        <v>90097</v>
       </c>
       <c r="AH59" s="13">
-        <v>90097</v>
+        <v>58098</v>
       </c>
       <c r="AI59" s="13">
-        <v>58098</v>
+        <v>28297</v>
       </c>
       <c r="AJ59" s="13">
-        <v>28297</v>
+        <v>151540</v>
       </c>
       <c r="AK59" s="13">
-        <v>151540</v>
+        <v>174366</v>
       </c>
       <c r="AL59" s="13">
-        <v>174366</v>
+        <v>242443</v>
       </c>
       <c r="AM59" s="13">
-        <v>242443</v>
+        <v>97097</v>
       </c>
       <c r="AN59" s="13">
-        <v>97097</v>
+        <v>76651</v>
       </c>
       <c r="AO59" s="13">
-        <v>76651</v>
+        <v>177613</v>
       </c>
       <c r="AP59" s="13">
-        <v>177613</v>
+        <v>276757</v>
       </c>
       <c r="AQ59" s="13">
-        <v>276757</v>
+        <v>145962</v>
       </c>
       <c r="AR59" s="13">
-        <v>145962</v>
+        <v>100349</v>
       </c>
       <c r="AS59" s="13">
-        <v>100349</v>
+        <v>16181</v>
       </c>
       <c r="AT59" s="13">
-        <v>16181</v>
+        <v>22580</v>
       </c>
       <c r="AU59" s="13">
-        <v>22580</v>
+        <v>28980</v>
       </c>
       <c r="AV59" s="13">
-        <v>28980</v>
+        <v>7594</v>
       </c>
       <c r="AW59" s="13">
-        <v>7594</v>
+        <v>42876</v>
       </c>
       <c r="AX59" s="13">
-        <v>42876</v>
+        <v>23552</v>
       </c>
       <c r="AY59" s="13">
-        <v>23552</v>
+        <v>193370</v>
       </c>
       <c r="AZ59" s="13">
-        <v>193370</v>
+        <v>278000</v>
       </c>
       <c r="BA59" s="13">
-        <v>278000</v>
+        <v>296732</v>
       </c>
       <c r="BB59" s="13">
-        <v>296732</v>
+        <v>196240</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>59</v>
       </c>
@@ -7836,94 +7871,94 @@
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11">
-        <v>4059</v>
+        <v>3248</v>
       </c>
       <c r="F60" s="11">
-        <v>3248</v>
+        <v>73</v>
       </c>
       <c r="G60" s="11">
-        <v>73</v>
+        <v>12241</v>
       </c>
       <c r="H60" s="11">
-        <v>12241</v>
+        <v>12226</v>
       </c>
       <c r="I60" s="11">
-        <v>12226</v>
+        <v>6052</v>
       </c>
       <c r="J60" s="11">
-        <v>6052</v>
+        <v>8904</v>
       </c>
       <c r="K60" s="11">
-        <v>8904</v>
+        <v>1942</v>
       </c>
       <c r="L60" s="11">
-        <v>1942</v>
+        <v>0</v>
       </c>
       <c r="M60" s="11">
-        <v>0</v>
+        <v>9432</v>
       </c>
       <c r="N60" s="11">
-        <v>9432</v>
+        <v>10827</v>
       </c>
       <c r="O60" s="11">
-        <v>10827</v>
+        <v>9020</v>
       </c>
       <c r="P60" s="11">
-        <v>9020</v>
+        <v>12802</v>
       </c>
       <c r="Q60" s="11">
-        <v>12802</v>
+        <v>6599</v>
       </c>
       <c r="R60" s="11">
-        <v>6599</v>
+        <v>16167</v>
       </c>
       <c r="S60" s="11">
-        <v>16167</v>
+        <v>1482</v>
       </c>
       <c r="T60" s="11">
-        <v>1482</v>
+        <v>1242</v>
       </c>
       <c r="U60" s="11">
-        <v>1242</v>
+        <v>13945</v>
       </c>
       <c r="V60" s="11">
-        <v>13945</v>
+        <v>4830</v>
       </c>
       <c r="W60" s="11">
-        <v>4830</v>
+        <v>6428</v>
       </c>
       <c r="X60" s="11">
-        <v>6428</v>
+        <v>1042</v>
       </c>
       <c r="Y60" s="11">
-        <v>1042</v>
+        <v>3204</v>
       </c>
       <c r="Z60" s="11">
-        <v>3204</v>
+        <v>2452</v>
       </c>
       <c r="AA60" s="11">
-        <v>2452</v>
+        <v>14868</v>
       </c>
       <c r="AB60" s="11">
-        <v>14868</v>
+        <v>27178</v>
       </c>
       <c r="AC60" s="11">
-        <v>27178</v>
+        <v>1824</v>
       </c>
       <c r="AD60" s="11">
-        <v>1824</v>
+        <v>1540</v>
       </c>
       <c r="AE60" s="11">
-        <v>1540</v>
+        <v>0</v>
       </c>
       <c r="AF60" s="11">
         <v>0</v>
       </c>
       <c r="AG60" s="11">
-        <v>0</v>
+        <v>14254</v>
       </c>
       <c r="AH60" s="11">
-        <v>14254</v>
+        <v>0</v>
       </c>
       <c r="AI60" s="11">
         <v>0</v>
@@ -7935,34 +7970,34 @@
         <v>0</v>
       </c>
       <c r="AL60" s="11">
-        <v>0</v>
+        <v>1351</v>
       </c>
       <c r="AM60" s="11">
-        <v>1351</v>
+        <v>1013</v>
       </c>
       <c r="AN60" s="11">
-        <v>1013</v>
+        <v>13913</v>
       </c>
       <c r="AO60" s="11">
-        <v>13913</v>
+        <v>7443</v>
       </c>
       <c r="AP60" s="11">
-        <v>7443</v>
+        <v>0</v>
       </c>
       <c r="AQ60" s="11">
-        <v>0</v>
+        <v>13451</v>
       </c>
       <c r="AR60" s="11">
-        <v>13451</v>
+        <v>13567</v>
       </c>
       <c r="AS60" s="11">
-        <v>13567</v>
+        <v>487</v>
       </c>
       <c r="AT60" s="11">
-        <v>487</v>
+        <v>3319</v>
       </c>
       <c r="AU60" s="11">
-        <v>3319</v>
+        <v>0</v>
       </c>
       <c r="AV60" s="11">
         <v>0</v>
@@ -7980,13 +8015,13 @@
         <v>0</v>
       </c>
       <c r="BA60" s="11">
-        <v>0</v>
+        <v>56643</v>
       </c>
       <c r="BB60" s="11">
-        <v>56643</v>
+        <v>72284</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B61" s="12" t="s">
         <v>61</v>
       </c>
@@ -7995,157 +8030,157 @@
       </c>
       <c r="D61" s="13"/>
       <c r="E61" s="13">
-        <v>27351</v>
+        <v>24811</v>
       </c>
       <c r="F61" s="13">
-        <v>24811</v>
+        <v>44055</v>
       </c>
       <c r="G61" s="13">
-        <v>44055</v>
+        <v>41147</v>
       </c>
       <c r="H61" s="13">
-        <v>41147</v>
+        <v>47664</v>
       </c>
       <c r="I61" s="13">
-        <v>47664</v>
+        <v>38409</v>
       </c>
       <c r="J61" s="13">
-        <v>38409</v>
+        <v>9466</v>
       </c>
       <c r="K61" s="13">
-        <v>9466</v>
+        <v>67425</v>
       </c>
       <c r="L61" s="13">
-        <v>67425</v>
+        <v>23784</v>
       </c>
       <c r="M61" s="13">
-        <v>23784</v>
+        <v>45964</v>
       </c>
       <c r="N61" s="13">
-        <v>45964</v>
+        <v>74802</v>
       </c>
       <c r="O61" s="13">
-        <v>74802</v>
+        <v>75508</v>
       </c>
       <c r="P61" s="13">
-        <v>75508</v>
+        <v>78377</v>
       </c>
       <c r="Q61" s="13">
-        <v>78377</v>
+        <v>63419</v>
       </c>
       <c r="R61" s="13">
-        <v>63419</v>
+        <v>50911</v>
       </c>
       <c r="S61" s="13">
-        <v>50911</v>
+        <v>55058</v>
       </c>
       <c r="T61" s="13">
-        <v>55058</v>
+        <v>78502</v>
       </c>
       <c r="U61" s="13">
-        <v>78502</v>
+        <v>93737</v>
       </c>
       <c r="V61" s="13">
-        <v>93737</v>
+        <v>15485</v>
       </c>
       <c r="W61" s="13">
-        <v>15485</v>
+        <v>58107</v>
       </c>
       <c r="X61" s="13">
-        <v>58107</v>
+        <v>72192</v>
       </c>
       <c r="Y61" s="13">
-        <v>72192</v>
+        <v>125966</v>
       </c>
       <c r="Z61" s="13">
-        <v>125966</v>
+        <v>42461</v>
       </c>
       <c r="AA61" s="13">
-        <v>42461</v>
+        <v>21704</v>
       </c>
       <c r="AB61" s="13">
-        <v>21704</v>
+        <v>46637</v>
       </c>
       <c r="AC61" s="13">
-        <v>46637</v>
+        <v>128731</v>
       </c>
       <c r="AD61" s="13">
-        <v>128731</v>
+        <v>92702</v>
       </c>
       <c r="AE61" s="13">
-        <v>92702</v>
+        <v>19910</v>
       </c>
       <c r="AF61" s="13">
-        <v>19910</v>
+        <v>29784</v>
       </c>
       <c r="AG61" s="13">
-        <v>29784</v>
+        <v>97643</v>
       </c>
       <c r="AH61" s="13">
-        <v>97643</v>
+        <v>24411</v>
       </c>
       <c r="AI61" s="13">
-        <v>24411</v>
+        <v>47975</v>
       </c>
       <c r="AJ61" s="13">
-        <v>47975</v>
+        <v>19510</v>
       </c>
       <c r="AK61" s="13">
-        <v>19510</v>
+        <v>475336</v>
       </c>
       <c r="AL61" s="13">
-        <v>475336</v>
+        <v>179921</v>
       </c>
       <c r="AM61" s="13">
-        <v>179921</v>
+        <v>429215</v>
       </c>
       <c r="AN61" s="13">
-        <v>429215</v>
+        <v>55755</v>
       </c>
       <c r="AO61" s="13">
-        <v>55755</v>
+        <v>234475</v>
       </c>
       <c r="AP61" s="13">
-        <v>234475</v>
+        <v>339821</v>
       </c>
       <c r="AQ61" s="13">
-        <v>339821</v>
+        <v>120407</v>
       </c>
       <c r="AR61" s="13">
-        <v>120407</v>
+        <v>104790</v>
       </c>
       <c r="AS61" s="13">
-        <v>104790</v>
+        <v>177478</v>
       </c>
       <c r="AT61" s="13">
-        <v>177478</v>
+        <v>110070</v>
       </c>
       <c r="AU61" s="13">
-        <v>110070</v>
+        <v>349688</v>
       </c>
       <c r="AV61" s="13">
-        <v>349688</v>
+        <v>278033</v>
       </c>
       <c r="AW61" s="13">
-        <v>278033</v>
+        <v>232174</v>
       </c>
       <c r="AX61" s="13">
-        <v>232174</v>
+        <v>237308</v>
       </c>
       <c r="AY61" s="13">
-        <v>237308</v>
+        <v>210039</v>
       </c>
       <c r="AZ61" s="13">
-        <v>210039</v>
+        <v>91005</v>
       </c>
       <c r="BA61" s="13">
-        <v>91005</v>
+        <v>389632</v>
       </c>
       <c r="BB61" s="13">
-        <v>389632</v>
+        <v>632033</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>62</v>
       </c>
@@ -8154,157 +8189,157 @@
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11">
-        <v>100630</v>
+        <v>117873</v>
       </c>
       <c r="F62" s="11">
-        <v>117873</v>
+        <v>137417</v>
       </c>
       <c r="G62" s="11">
-        <v>137417</v>
+        <v>111533</v>
       </c>
       <c r="H62" s="11">
-        <v>111533</v>
+        <v>67380</v>
       </c>
       <c r="I62" s="11">
-        <v>67380</v>
+        <v>98320</v>
       </c>
       <c r="J62" s="11">
-        <v>98320</v>
+        <v>6976</v>
       </c>
       <c r="K62" s="11">
-        <v>6976</v>
+        <v>57250</v>
       </c>
       <c r="L62" s="11">
-        <v>57250</v>
+        <v>100876</v>
       </c>
       <c r="M62" s="11">
-        <v>100876</v>
+        <v>76963</v>
       </c>
       <c r="N62" s="11">
-        <v>76963</v>
+        <v>143115</v>
       </c>
       <c r="O62" s="11">
-        <v>143115</v>
+        <v>179519</v>
       </c>
       <c r="P62" s="11">
-        <v>179519</v>
+        <v>64971</v>
       </c>
       <c r="Q62" s="11">
-        <v>64971</v>
+        <v>36263</v>
       </c>
       <c r="R62" s="11">
-        <v>36263</v>
+        <v>25806</v>
       </c>
       <c r="S62" s="11">
-        <v>25806</v>
+        <v>1573</v>
       </c>
       <c r="T62" s="11">
-        <v>1573</v>
+        <v>13203</v>
       </c>
       <c r="U62" s="11">
-        <v>13203</v>
+        <v>4145</v>
       </c>
       <c r="V62" s="11">
-        <v>4145</v>
+        <v>62451</v>
       </c>
       <c r="W62" s="11">
-        <v>62451</v>
+        <v>60546</v>
       </c>
       <c r="X62" s="11">
-        <v>60546</v>
+        <v>141894</v>
       </c>
       <c r="Y62" s="11">
-        <v>141894</v>
+        <v>85005</v>
       </c>
       <c r="Z62" s="11">
-        <v>85005</v>
+        <v>136854</v>
       </c>
       <c r="AA62" s="11">
-        <v>136854</v>
+        <v>100090</v>
       </c>
       <c r="AB62" s="11">
-        <v>100090</v>
+        <v>84238</v>
       </c>
       <c r="AC62" s="11">
-        <v>84238</v>
+        <v>125014</v>
       </c>
       <c r="AD62" s="11">
-        <v>125014</v>
+        <v>175782</v>
       </c>
       <c r="AE62" s="11">
-        <v>175782</v>
+        <v>230730</v>
       </c>
       <c r="AF62" s="11">
-        <v>230730</v>
+        <v>229744</v>
       </c>
       <c r="AG62" s="11">
-        <v>229744</v>
+        <v>20814</v>
       </c>
       <c r="AH62" s="11">
-        <v>20814</v>
+        <v>29141</v>
       </c>
       <c r="AI62" s="11">
-        <v>29141</v>
+        <v>137842</v>
       </c>
       <c r="AJ62" s="11">
-        <v>137842</v>
+        <v>203737</v>
       </c>
       <c r="AK62" s="11">
-        <v>203737</v>
+        <v>97889</v>
       </c>
       <c r="AL62" s="11">
-        <v>97889</v>
+        <v>212354</v>
       </c>
       <c r="AM62" s="11">
-        <v>212354</v>
+        <v>183639</v>
       </c>
       <c r="AN62" s="11">
-        <v>183639</v>
+        <v>146001</v>
       </c>
       <c r="AO62" s="11">
-        <v>146001</v>
+        <v>189691</v>
       </c>
       <c r="AP62" s="11">
-        <v>189691</v>
+        <v>51604</v>
       </c>
       <c r="AQ62" s="11">
-        <v>51604</v>
+        <v>52676</v>
       </c>
       <c r="AR62" s="11">
-        <v>52676</v>
+        <v>220945</v>
       </c>
       <c r="AS62" s="11">
-        <v>220945</v>
+        <v>135164</v>
       </c>
       <c r="AT62" s="11">
-        <v>135164</v>
+        <v>53711</v>
       </c>
       <c r="AU62" s="11">
-        <v>53711</v>
+        <v>170814</v>
       </c>
       <c r="AV62" s="11">
-        <v>170814</v>
+        <v>123193</v>
       </c>
       <c r="AW62" s="11">
-        <v>123193</v>
+        <v>439004</v>
       </c>
       <c r="AX62" s="11">
-        <v>439004</v>
+        <v>267284</v>
       </c>
       <c r="AY62" s="11">
-        <v>267284</v>
+        <v>652686</v>
       </c>
       <c r="AZ62" s="11">
-        <v>652686</v>
+        <v>372804</v>
       </c>
       <c r="BA62" s="11">
-        <v>372804</v>
+        <v>125385</v>
       </c>
       <c r="BB62" s="11">
-        <v>125385</v>
+        <v>157486</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B63" s="12" t="s">
         <v>63</v>
       </c>
@@ -8327,8 +8362,8 @@
       <c r="I63" s="13">
         <v>0</v>
       </c>
-      <c r="J63" s="13">
-        <v>0</v>
+      <c r="J63" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="K63" s="13" t="s">
         <v>64</v>
@@ -8463,7 +8498,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>65</v>
       </c>
@@ -8486,8 +8521,8 @@
       <c r="I64" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="J64" s="11" t="s">
-        <v>64</v>
+      <c r="J64" s="11">
+        <v>0</v>
       </c>
       <c r="K64" s="11">
         <v>0</v>
@@ -8522,8 +8557,8 @@
       <c r="U64" s="11">
         <v>0</v>
       </c>
-      <c r="V64" s="11">
-        <v>0</v>
+      <c r="V64" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="W64" s="11" t="s">
         <v>64</v>
@@ -8558,8 +8593,8 @@
       <c r="AG64" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AH64" s="11" t="s">
-        <v>64</v>
+      <c r="AH64" s="11">
+        <v>0</v>
       </c>
       <c r="AI64" s="11">
         <v>0</v>
@@ -8622,7 +8657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
         <v>66</v>
       </c>
@@ -8681,18 +8716,18 @@
       <c r="U65" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="V65" s="13" t="s">
-        <v>64</v>
+      <c r="V65" s="13">
+        <v>25</v>
       </c>
       <c r="W65" s="13">
-        <v>25</v>
+        <v>783</v>
       </c>
       <c r="X65" s="13">
-        <v>783</v>
-      </c>
-      <c r="Y65" s="13">
         <v>131</v>
       </c>
+      <c r="Y65" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="Z65" s="13" t="s">
         <v>64</v>
       </c>
@@ -8781,7 +8816,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>77</v>
       </c>
@@ -8838,7 +8873,7 @@
       <c r="BA66" s="9"/>
       <c r="BB66" s="9"/>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>66</v>
       </c>
@@ -8906,69 +8941,69 @@
       <c r="X67" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="Y67" s="11" t="s">
-        <v>64</v>
+      <c r="Y67" s="11">
+        <v>208</v>
       </c>
       <c r="Z67" s="11">
-        <v>208</v>
+        <v>791</v>
       </c>
       <c r="AA67" s="11">
-        <v>791</v>
+        <v>160</v>
       </c>
       <c r="AB67" s="11">
-        <v>160</v>
+        <v>484</v>
       </c>
       <c r="AC67" s="11">
-        <v>484</v>
+        <v>42</v>
       </c>
       <c r="AD67" s="11">
-        <v>42</v>
+        <v>297</v>
       </c>
       <c r="AE67" s="11">
-        <v>297</v>
+        <v>64</v>
       </c>
       <c r="AF67" s="11">
-        <v>64</v>
+        <v>230</v>
       </c>
       <c r="AG67" s="11">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="AH67" s="11">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="AI67" s="11">
-        <v>227</v>
+        <v>371</v>
       </c>
       <c r="AJ67" s="11">
-        <v>371</v>
+        <v>14</v>
       </c>
       <c r="AK67" s="11">
-        <v>14</v>
+        <v>210</v>
       </c>
       <c r="AL67" s="11">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AM67" s="11">
-        <v>0</v>
+        <v>916</v>
       </c>
       <c r="AN67" s="11">
-        <v>916</v>
+        <v>94</v>
       </c>
       <c r="AO67" s="11">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="AP67" s="11">
-        <v>0</v>
+        <v>1401</v>
       </c>
       <c r="AQ67" s="11">
-        <v>1401</v>
+        <v>261</v>
       </c>
       <c r="AR67" s="11">
-        <v>261</v>
-      </c>
-      <c r="AS67" s="11">
         <v>902</v>
       </c>
+      <c r="AS67" s="11" t="s">
+        <v>64</v>
+      </c>
       <c r="AT67" s="11" t="s">
         <v>64</v>
       </c>
@@ -8997,7 +9032,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
         <v>69</v>
       </c>
@@ -9125,38 +9160,38 @@
       <c r="AR68" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AS68" s="13" t="s">
-        <v>64</v>
+      <c r="AS68" s="13">
+        <v>84477</v>
       </c>
       <c r="AT68" s="13">
-        <v>84477</v>
+        <v>0</v>
       </c>
       <c r="AU68" s="13">
-        <v>0</v>
+        <v>22360</v>
       </c>
       <c r="AV68" s="13">
-        <v>22360</v>
+        <v>23707</v>
       </c>
       <c r="AW68" s="13">
-        <v>23707</v>
+        <v>5167</v>
       </c>
       <c r="AX68" s="13">
-        <v>5167</v>
+        <v>9875</v>
       </c>
       <c r="AY68" s="13">
-        <v>9875</v>
+        <v>27883</v>
       </c>
       <c r="AZ68" s="13">
-        <v>27883</v>
+        <v>0</v>
       </c>
       <c r="BA68" s="13">
-        <v>0</v>
+        <v>5858</v>
       </c>
       <c r="BB68" s="13">
-        <v>5858</v>
+        <v>12755</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B69" s="14" t="s">
         <v>70</v>
       </c>
@@ -9224,98 +9259,98 @@
       <c r="X69" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="Y69" s="15" t="s">
-        <v>64</v>
+      <c r="Y69" s="15">
+        <v>208</v>
       </c>
       <c r="Z69" s="15">
-        <v>208</v>
+        <v>791</v>
       </c>
       <c r="AA69" s="15">
-        <v>791</v>
+        <v>160</v>
       </c>
       <c r="AB69" s="15">
-        <v>160</v>
+        <v>484</v>
       </c>
       <c r="AC69" s="15">
-        <v>484</v>
+        <v>42</v>
       </c>
       <c r="AD69" s="15">
-        <v>42</v>
+        <v>297</v>
       </c>
       <c r="AE69" s="15">
-        <v>297</v>
+        <v>64</v>
       </c>
       <c r="AF69" s="15">
-        <v>64</v>
+        <v>230</v>
       </c>
       <c r="AG69" s="15">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="AH69" s="15">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="AI69" s="15">
-        <v>227</v>
+        <v>371</v>
       </c>
       <c r="AJ69" s="15">
-        <v>371</v>
+        <v>14</v>
       </c>
       <c r="AK69" s="15">
-        <v>14</v>
+        <v>210</v>
       </c>
       <c r="AL69" s="15">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AM69" s="15">
-        <v>0</v>
+        <v>916</v>
       </c>
       <c r="AN69" s="15">
-        <v>916</v>
+        <v>94</v>
       </c>
       <c r="AO69" s="15">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="AP69" s="15">
-        <v>0</v>
+        <v>1401</v>
       </c>
       <c r="AQ69" s="15">
-        <v>1401</v>
+        <v>261</v>
       </c>
       <c r="AR69" s="15">
-        <v>261</v>
+        <v>902</v>
       </c>
       <c r="AS69" s="15">
-        <v>902</v>
+        <v>84477</v>
       </c>
       <c r="AT69" s="15">
-        <v>84477</v>
+        <v>0</v>
       </c>
       <c r="AU69" s="15">
-        <v>0</v>
+        <v>22360</v>
       </c>
       <c r="AV69" s="15">
-        <v>22360</v>
+        <v>23707</v>
       </c>
       <c r="AW69" s="15">
-        <v>23707</v>
+        <v>5167</v>
       </c>
       <c r="AX69" s="15">
-        <v>5167</v>
+        <v>9875</v>
       </c>
       <c r="AY69" s="15">
-        <v>9875</v>
+        <v>27883</v>
       </c>
       <c r="AZ69" s="15">
-        <v>27883</v>
+        <v>0</v>
       </c>
       <c r="BA69" s="15">
-        <v>0</v>
+        <v>5858</v>
       </c>
       <c r="BB69" s="15">
-        <v>5858</v>
+        <v>12755</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>78</v>
       </c>
@@ -9372,7 +9407,7 @@
       <c r="BA70" s="9"/>
       <c r="BB70" s="9"/>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>55</v>
       </c>
@@ -9440,8 +9475,8 @@
       <c r="X71" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="Y71" s="11" t="s">
-        <v>64</v>
+      <c r="Y71" s="11">
+        <v>0</v>
       </c>
       <c r="Z71" s="11">
         <v>0</v>
@@ -9503,14 +9538,14 @@
       <c r="AS71" s="11">
         <v>0</v>
       </c>
-      <c r="AT71" s="11">
-        <v>0</v>
+      <c r="AT71" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="AU71" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AV71" s="11" t="s">
-        <v>64</v>
+      <c r="AV71" s="11">
+        <v>0</v>
       </c>
       <c r="AW71" s="11">
         <v>0</v>
@@ -9531,7 +9566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>57</v>
       </c>
@@ -9599,32 +9634,32 @@
       <c r="X72" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="Y72" s="13" t="s">
-        <v>64</v>
+      <c r="Y72" s="13">
+        <v>0</v>
       </c>
       <c r="Z72" s="13">
-        <v>0</v>
+        <v>-41</v>
       </c>
       <c r="AA72" s="13">
-        <v>-41</v>
+        <v>0</v>
       </c>
       <c r="AB72" s="13">
         <v>0</v>
       </c>
       <c r="AC72" s="13">
-        <v>0</v>
+        <v>-80979</v>
       </c>
       <c r="AD72" s="13">
-        <v>-80979</v>
+        <v>0</v>
       </c>
       <c r="AE72" s="13">
         <v>0</v>
       </c>
       <c r="AF72" s="13">
-        <v>0</v>
+        <v>-2429</v>
       </c>
       <c r="AG72" s="13">
-        <v>-2429</v>
+        <v>0</v>
       </c>
       <c r="AH72" s="13">
         <v>0</v>
@@ -9662,14 +9697,14 @@
       <c r="AS72" s="13">
         <v>0</v>
       </c>
-      <c r="AT72" s="13">
-        <v>0</v>
+      <c r="AT72" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="AU72" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AV72" s="13" t="s">
-        <v>64</v>
+      <c r="AV72" s="13">
+        <v>0</v>
       </c>
       <c r="AW72" s="13">
         <v>0</v>
@@ -9684,13 +9719,13 @@
         <v>0</v>
       </c>
       <c r="BA72" s="13">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="BB72" s="13">
-        <v>-80</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>59</v>
       </c>
@@ -9758,8 +9793,8 @@
       <c r="X73" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="Y73" s="11" t="s">
-        <v>64</v>
+      <c r="Y73" s="11">
+        <v>0</v>
       </c>
       <c r="Z73" s="11">
         <v>0</v>
@@ -9821,14 +9856,14 @@
       <c r="AS73" s="11">
         <v>0</v>
       </c>
-      <c r="AT73" s="11">
-        <v>0</v>
+      <c r="AT73" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="AU73" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AV73" s="11" t="s">
-        <v>64</v>
+      <c r="AV73" s="11">
+        <v>0</v>
       </c>
       <c r="AW73" s="11">
         <v>0</v>
@@ -9849,7 +9884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B74" s="12" t="s">
         <v>61</v>
       </c>
@@ -9917,17 +9952,17 @@
       <c r="X74" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="Y74" s="13" t="s">
-        <v>64</v>
+      <c r="Y74" s="13">
+        <v>0</v>
       </c>
       <c r="Z74" s="13">
         <v>0</v>
       </c>
       <c r="AA74" s="13">
-        <v>0</v>
+        <v>-2714</v>
       </c>
       <c r="AB74" s="13">
-        <v>-2714</v>
+        <v>0</v>
       </c>
       <c r="AC74" s="13">
         <v>0</v>
@@ -9942,10 +9977,10 @@
         <v>0</v>
       </c>
       <c r="AG74" s="13">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH74" s="13">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI74" s="13">
         <v>0</v>
@@ -9969,10 +10004,10 @@
         <v>0</v>
       </c>
       <c r="AP74" s="13">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AQ74" s="13">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AR74" s="13">
         <v>0</v>
@@ -9980,35 +10015,35 @@
       <c r="AS74" s="13">
         <v>0</v>
       </c>
-      <c r="AT74" s="13">
-        <v>0</v>
+      <c r="AT74" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="AU74" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AV74" s="13" t="s">
-        <v>64</v>
+      <c r="AV74" s="13">
+        <v>-233</v>
       </c>
       <c r="AW74" s="13">
-        <v>-233</v>
+        <v>-26</v>
       </c>
       <c r="AX74" s="13">
-        <v>-26</v>
+        <v>0</v>
       </c>
       <c r="AY74" s="13">
         <v>0</v>
       </c>
       <c r="AZ74" s="13">
-        <v>0</v>
+        <v>-6965</v>
       </c>
       <c r="BA74" s="13">
-        <v>-6965</v>
+        <v>-18844</v>
       </c>
       <c r="BB74" s="13">
-        <v>-18844</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>62</v>
       </c>
@@ -10076,14 +10111,14 @@
       <c r="X75" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="Y75" s="11" t="s">
-        <v>64</v>
+      <c r="Y75" s="11">
+        <v>-768</v>
       </c>
       <c r="Z75" s="11">
-        <v>-768</v>
+        <v>-24</v>
       </c>
       <c r="AA75" s="11">
-        <v>-24</v>
+        <v>0</v>
       </c>
       <c r="AB75" s="11">
         <v>0</v>
@@ -10101,10 +10136,10 @@
         <v>0</v>
       </c>
       <c r="AG75" s="11">
-        <v>0</v>
+        <v>-47</v>
       </c>
       <c r="AH75" s="11">
-        <v>-47</v>
+        <v>0</v>
       </c>
       <c r="AI75" s="11">
         <v>0</v>
@@ -10113,22 +10148,22 @@
         <v>0</v>
       </c>
       <c r="AK75" s="11">
-        <v>0</v>
+        <v>-74</v>
       </c>
       <c r="AL75" s="11">
-        <v>-74</v>
+        <v>-175</v>
       </c>
       <c r="AM75" s="11">
-        <v>-175</v>
+        <v>-1183</v>
       </c>
       <c r="AN75" s="11">
-        <v>-1183</v>
+        <v>-568</v>
       </c>
       <c r="AO75" s="11">
-        <v>-568</v>
+        <v>-1030</v>
       </c>
       <c r="AP75" s="11">
-        <v>-1030</v>
+        <v>0</v>
       </c>
       <c r="AQ75" s="11">
         <v>0</v>
@@ -10139,35 +10174,35 @@
       <c r="AS75" s="11">
         <v>0</v>
       </c>
-      <c r="AT75" s="11">
-        <v>0</v>
+      <c r="AT75" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="AU75" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AV75" s="11" t="s">
-        <v>64</v>
+      <c r="AV75" s="11">
+        <v>-1</v>
       </c>
       <c r="AW75" s="11">
-        <v>-1</v>
+        <v>-18959</v>
       </c>
       <c r="AX75" s="11">
-        <v>-18959</v>
+        <v>0</v>
       </c>
       <c r="AY75" s="11">
         <v>0</v>
       </c>
       <c r="AZ75" s="11">
-        <v>0</v>
+        <v>-4275</v>
       </c>
       <c r="BA75" s="11">
-        <v>-4275</v>
+        <v>0</v>
       </c>
       <c r="BB75" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B76" s="12" t="s">
         <v>63</v>
       </c>
@@ -10262,8 +10297,8 @@
       <c r="AG76" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AH76" s="13" t="s">
-        <v>64</v>
+      <c r="AH76" s="13">
+        <v>0</v>
       </c>
       <c r="AI76" s="13">
         <v>0</v>
@@ -10298,8 +10333,8 @@
       <c r="AS76" s="13">
         <v>0</v>
       </c>
-      <c r="AT76" s="13">
-        <v>0</v>
+      <c r="AT76" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="AU76" s="13" t="s">
         <v>64</v>
@@ -10326,7 +10361,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>65</v>
       </c>
@@ -10463,8 +10498,8 @@
       <c r="AU77" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AV77" s="11" t="s">
-        <v>64</v>
+      <c r="AV77" s="11">
+        <v>0</v>
       </c>
       <c r="AW77" s="11">
         <v>0</v>
@@ -10485,7 +10520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B78" s="16" t="s">
         <v>74</v>
       </c>
@@ -10553,35 +10588,35 @@
       <c r="X78" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="Y78" s="17" t="s">
-        <v>64</v>
+      <c r="Y78" s="17">
+        <v>-768</v>
       </c>
       <c r="Z78" s="17">
-        <v>-768</v>
+        <v>-65</v>
       </c>
       <c r="AA78" s="17">
-        <v>-65</v>
+        <v>-2714</v>
       </c>
       <c r="AB78" s="17">
-        <v>-2714</v>
+        <v>0</v>
       </c>
       <c r="AC78" s="17">
-        <v>0</v>
+        <v>-80979</v>
       </c>
       <c r="AD78" s="17">
-        <v>-80979</v>
+        <v>0</v>
       </c>
       <c r="AE78" s="17">
         <v>0</v>
       </c>
       <c r="AF78" s="17">
-        <v>0</v>
+        <v>-2429</v>
       </c>
       <c r="AG78" s="17">
-        <v>-2429</v>
+        <v>-49</v>
       </c>
       <c r="AH78" s="17">
-        <v>-49</v>
+        <v>0</v>
       </c>
       <c r="AI78" s="17">
         <v>0</v>
@@ -10590,25 +10625,25 @@
         <v>0</v>
       </c>
       <c r="AK78" s="17">
-        <v>0</v>
+        <v>-74</v>
       </c>
       <c r="AL78" s="17">
-        <v>-74</v>
+        <v>-175</v>
       </c>
       <c r="AM78" s="17">
-        <v>-175</v>
+        <v>-1183</v>
       </c>
       <c r="AN78" s="17">
-        <v>-1183</v>
+        <v>-568</v>
       </c>
       <c r="AO78" s="17">
-        <v>-568</v>
+        <v>-1030</v>
       </c>
       <c r="AP78" s="17">
-        <v>-1030</v>
+        <v>-3</v>
       </c>
       <c r="AQ78" s="17">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AR78" s="17">
         <v>0</v>
@@ -10623,28 +10658,28 @@
         <v>0</v>
       </c>
       <c r="AV78" s="17">
-        <v>0</v>
+        <v>-234</v>
       </c>
       <c r="AW78" s="17">
-        <v>-234</v>
+        <v>-18985</v>
       </c>
       <c r="AX78" s="17">
-        <v>-18985</v>
+        <v>0</v>
       </c>
       <c r="AY78" s="17">
         <v>0</v>
       </c>
       <c r="AZ78" s="17">
-        <v>0</v>
+        <v>-11240</v>
       </c>
       <c r="BA78" s="17">
-        <v>-11240</v>
+        <v>-18924</v>
       </c>
       <c r="BB78" s="17">
-        <v>-18924</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>79</v>
       </c>
@@ -10701,7 +10736,7 @@
       <c r="BA79" s="9"/>
       <c r="BB79" s="9"/>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>80</v>
       </c>
@@ -10769,255 +10804,255 @@
       <c r="X80" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="Y80" s="11" t="s">
-        <v>64</v>
+      <c r="Y80" s="11">
+        <v>-53535</v>
       </c>
       <c r="Z80" s="11">
-        <v>-53535</v>
+        <v>-26683</v>
       </c>
       <c r="AA80" s="11">
-        <v>-26683</v>
+        <v>-51250</v>
       </c>
       <c r="AB80" s="11">
-        <v>-51250</v>
+        <v>-19708</v>
       </c>
       <c r="AC80" s="11">
-        <v>-19708</v>
+        <v>-20840</v>
       </c>
       <c r="AD80" s="11">
-        <v>-20840</v>
+        <v>-40908</v>
       </c>
       <c r="AE80" s="11">
-        <v>-40908</v>
+        <v>-54275</v>
       </c>
       <c r="AF80" s="11">
-        <v>-54275</v>
+        <v>-56779</v>
       </c>
       <c r="AG80" s="11">
-        <v>-56779</v>
+        <v>-51415</v>
       </c>
       <c r="AH80" s="11">
-        <v>-51415</v>
+        <v>0</v>
       </c>
       <c r="AI80" s="11">
-        <v>0</v>
+        <v>-16580</v>
       </c>
       <c r="AJ80" s="11">
-        <v>-16580</v>
+        <v>-23757</v>
       </c>
       <c r="AK80" s="11">
-        <v>-23757</v>
+        <v>-24507</v>
       </c>
       <c r="AL80" s="11">
-        <v>-24507</v>
+        <v>-37338</v>
       </c>
       <c r="AM80" s="11">
-        <v>-37338</v>
+        <v>-109756</v>
       </c>
       <c r="AN80" s="11">
-        <v>-109756</v>
+        <v>-14216</v>
       </c>
       <c r="AO80" s="11">
-        <v>-14216</v>
+        <v>-62287</v>
       </c>
       <c r="AP80" s="11">
-        <v>-62287</v>
+        <v>-64914</v>
       </c>
       <c r="AQ80" s="11">
-        <v>-64914</v>
+        <v>-29034</v>
       </c>
       <c r="AR80" s="11">
-        <v>-29034</v>
+        <v>-58989</v>
       </c>
       <c r="AS80" s="11">
-        <v>-58989</v>
+        <v>-71192</v>
       </c>
       <c r="AT80" s="11">
-        <v>-71192</v>
+        <v>-6276</v>
       </c>
       <c r="AU80" s="11">
-        <v>-6276</v>
+        <v>-44107</v>
       </c>
       <c r="AV80" s="11">
-        <v>-44107</v>
+        <v>-83965</v>
       </c>
       <c r="AW80" s="11">
-        <v>-83965</v>
+        <v>-62345</v>
       </c>
       <c r="AX80" s="11">
-        <v>-62345</v>
+        <v>-64805</v>
       </c>
       <c r="AY80" s="11">
-        <v>-64805</v>
+        <v>-127801</v>
       </c>
       <c r="AZ80" s="11">
-        <v>-127801</v>
+        <v>-76623</v>
       </c>
       <c r="BA80" s="11">
-        <v>-76623</v>
+        <v>-58198</v>
       </c>
       <c r="BB80" s="11">
-        <v>-58198</v>
+        <v>-122441</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B81" s="16" t="s">
         <v>71</v>
       </c>
       <c r="C81" s="17"/>
       <c r="D81" s="17"/>
       <c r="E81" s="17">
-        <v>178343</v>
+        <v>181431</v>
       </c>
       <c r="F81" s="17">
-        <v>181431</v>
+        <v>243740</v>
       </c>
       <c r="G81" s="17">
-        <v>243740</v>
+        <v>197215</v>
       </c>
       <c r="H81" s="17">
-        <v>197215</v>
+        <v>169609</v>
       </c>
       <c r="I81" s="17">
-        <v>169609</v>
+        <v>165623</v>
       </c>
       <c r="J81" s="17">
-        <v>165623</v>
+        <v>37845</v>
       </c>
       <c r="K81" s="17">
-        <v>37845</v>
+        <v>200704</v>
       </c>
       <c r="L81" s="17">
-        <v>200704</v>
+        <v>165480</v>
       </c>
       <c r="M81" s="17">
-        <v>165480</v>
+        <v>185638</v>
       </c>
       <c r="N81" s="17">
-        <v>185638</v>
+        <v>261291</v>
       </c>
       <c r="O81" s="17">
-        <v>261291</v>
+        <v>355859</v>
       </c>
       <c r="P81" s="17">
-        <v>355859</v>
+        <v>182214</v>
       </c>
       <c r="Q81" s="17">
-        <v>182214</v>
+        <v>158439</v>
       </c>
       <c r="R81" s="17">
-        <v>158439</v>
+        <v>167035</v>
       </c>
       <c r="S81" s="17">
-        <v>167035</v>
+        <v>127884</v>
       </c>
       <c r="T81" s="17">
-        <v>127884</v>
+        <v>139780</v>
       </c>
       <c r="U81" s="17">
-        <v>139780</v>
+        <v>185709</v>
       </c>
       <c r="V81" s="17">
-        <v>185709</v>
+        <v>122152</v>
       </c>
       <c r="W81" s="17">
-        <v>122152</v>
+        <v>184162</v>
       </c>
       <c r="X81" s="17">
-        <v>184162</v>
+        <v>283863</v>
       </c>
       <c r="Y81" s="17">
-        <v>283863</v>
+        <v>321336</v>
       </c>
       <c r="Z81" s="17">
-        <v>321336</v>
+        <v>376942</v>
       </c>
       <c r="AA81" s="17">
-        <v>376942</v>
+        <v>392166</v>
       </c>
       <c r="AB81" s="17">
-        <v>392166</v>
+        <v>386260</v>
       </c>
       <c r="AC81" s="17">
-        <v>386260</v>
+        <v>326556</v>
       </c>
       <c r="AD81" s="17">
-        <v>326556</v>
+        <v>342861</v>
       </c>
       <c r="AE81" s="17">
-        <v>342861</v>
+        <v>211505</v>
       </c>
       <c r="AF81" s="17">
-        <v>211505</v>
+        <v>200550</v>
       </c>
       <c r="AG81" s="17">
-        <v>200550</v>
+        <v>171601</v>
       </c>
       <c r="AH81" s="17">
-        <v>171601</v>
+        <v>114228</v>
       </c>
       <c r="AI81" s="17">
-        <v>114228</v>
+        <v>207304</v>
       </c>
       <c r="AJ81" s="17">
-        <v>207304</v>
+        <v>354835</v>
       </c>
       <c r="AK81" s="17">
-        <v>354835</v>
+        <v>734129</v>
       </c>
       <c r="AL81" s="17">
-        <v>734129</v>
+        <v>600248</v>
       </c>
       <c r="AM81" s="17">
-        <v>600248</v>
+        <v>600941</v>
       </c>
       <c r="AN81" s="17">
-        <v>600941</v>
+        <v>286960</v>
       </c>
       <c r="AO81" s="17">
-        <v>286960</v>
+        <v>556895</v>
       </c>
       <c r="AP81" s="17">
-        <v>556895</v>
+        <v>604666</v>
       </c>
       <c r="AQ81" s="17">
-        <v>604666</v>
+        <v>303723</v>
       </c>
       <c r="AR81" s="17">
-        <v>303723</v>
+        <v>381564</v>
       </c>
       <c r="AS81" s="17">
-        <v>381564</v>
+        <v>345775</v>
       </c>
       <c r="AT81" s="17">
-        <v>345775</v>
+        <v>195774</v>
       </c>
       <c r="AU81" s="17">
-        <v>195774</v>
+        <v>530127</v>
       </c>
       <c r="AV81" s="17">
-        <v>530127</v>
+        <v>363878</v>
       </c>
       <c r="AW81" s="17">
-        <v>363878</v>
+        <v>650204</v>
       </c>
       <c r="AX81" s="17">
-        <v>650204</v>
+        <v>473214</v>
       </c>
       <c r="AY81" s="17">
-        <v>473214</v>
+        <v>964468</v>
       </c>
       <c r="AZ81" s="17">
-        <v>964468</v>
+        <v>675725</v>
       </c>
       <c r="BA81" s="17">
-        <v>675725</v>
+        <v>806548</v>
       </c>
       <c r="BB81" s="17">
-        <v>806548</v>
+        <v>957878</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -11072,7 +11107,7 @@
       <c r="BA82" s="1"/>
       <c r="BB82" s="1"/>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -11127,7 +11162,7 @@
       <c r="BA83" s="1"/>
       <c r="BB83" s="1"/>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -11182,7 +11217,7 @@
       <c r="BA84" s="1"/>
       <c r="BB84" s="1"/>
     </row>
-    <row r="85" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B85" s="7" t="s">
         <v>81</v>
       </c>
@@ -11339,7 +11374,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -11394,7 +11429,7 @@
       <c r="BA86" s="1"/>
       <c r="BB86" s="1"/>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>82</v>
       </c>
@@ -11451,7 +11486,7 @@
       <c r="BA87" s="9"/>
       <c r="BB87" s="9"/>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>55</v>
       </c>
@@ -11460,22 +11495,22 @@
       </c>
       <c r="D88" s="11"/>
       <c r="E88" s="11">
-        <v>21579</v>
+        <v>17002</v>
       </c>
       <c r="F88" s="11">
-        <v>17002</v>
+        <v>23960</v>
       </c>
       <c r="G88" s="11">
-        <v>23960</v>
+        <v>24009</v>
       </c>
       <c r="H88" s="11">
-        <v>24009</v>
+        <v>31788</v>
       </c>
       <c r="I88" s="11">
-        <v>31788</v>
+        <v>63750</v>
       </c>
       <c r="J88" s="11">
-        <v>63750</v>
+        <v>0</v>
       </c>
       <c r="K88" s="11">
         <v>0</v>
@@ -11490,127 +11525,127 @@
         <v>0</v>
       </c>
       <c r="O88" s="11">
-        <v>0</v>
+        <v>23998</v>
       </c>
       <c r="P88" s="11">
-        <v>23998</v>
+        <v>28029</v>
       </c>
       <c r="Q88" s="11">
-        <v>28029</v>
+        <v>22029</v>
       </c>
       <c r="R88" s="11">
-        <v>22029</v>
+        <v>29274</v>
       </c>
       <c r="S88" s="11">
-        <v>29274</v>
+        <v>25802</v>
       </c>
       <c r="T88" s="11">
-        <v>25802</v>
+        <v>18337</v>
       </c>
       <c r="U88" s="11">
-        <v>18337</v>
+        <v>21682</v>
       </c>
       <c r="V88" s="11">
-        <v>21682</v>
+        <v>29277</v>
       </c>
       <c r="W88" s="11">
+        <v>29275</v>
+      </c>
+      <c r="X88" s="11">
+        <v>27813</v>
+      </c>
+      <c r="Y88" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z88" s="11">
+        <v>29275</v>
+      </c>
+      <c r="AA88" s="11">
         <v>29277</v>
       </c>
-      <c r="X88" s="11">
-        <v>29275</v>
-      </c>
-      <c r="Y88" s="11">
-        <v>27813</v>
-      </c>
-      <c r="Z88" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA88" s="11">
-        <v>29275</v>
-      </c>
-      <c r="AB88" s="11">
-        <v>29277</v>
+      <c r="AB88" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="AC88" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AD88" s="11" t="s">
-        <v>64</v>
+      <c r="AD88" s="11">
+        <v>40058</v>
       </c>
       <c r="AE88" s="11">
-        <v>40058</v>
-      </c>
-      <c r="AF88" s="11">
         <v>40061</v>
       </c>
+      <c r="AF88" s="11" t="s">
+        <v>64</v>
+      </c>
       <c r="AG88" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AH88" s="11" t="s">
-        <v>64</v>
+      <c r="AH88" s="11">
+        <v>40065</v>
       </c>
       <c r="AI88" s="11">
-        <v>40065</v>
+        <v>40064</v>
       </c>
       <c r="AJ88" s="11">
-        <v>40064</v>
+        <v>33689</v>
       </c>
       <c r="AK88" s="11">
-        <v>33689</v>
+        <v>51711</v>
       </c>
       <c r="AL88" s="11">
-        <v>51711</v>
-      </c>
-      <c r="AM88" s="11">
         <v>40057</v>
       </c>
-      <c r="AN88" s="11" t="s">
-        <v>64</v>
+      <c r="AM88" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN88" s="11">
+        <v>52999</v>
       </c>
       <c r="AO88" s="11">
+        <v>53000</v>
+      </c>
+      <c r="AP88" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ88" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR88" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS88" s="11">
+        <v>53000</v>
+      </c>
+      <c r="AT88" s="11">
         <v>52999</v>
       </c>
-      <c r="AP88" s="11">
+      <c r="AU88" s="11">
+        <v>52994</v>
+      </c>
+      <c r="AV88" s="11">
+        <v>52999</v>
+      </c>
+      <c r="AW88" s="11">
         <v>53000</v>
       </c>
-      <c r="AQ88" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AR88" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS88" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AT88" s="11">
-        <v>53000</v>
-      </c>
-      <c r="AU88" s="11">
-        <v>52999</v>
-      </c>
-      <c r="AV88" s="11">
-        <v>52994</v>
-      </c>
-      <c r="AW88" s="11">
-        <v>52999</v>
-      </c>
-      <c r="AX88" s="11">
-        <v>53000</v>
-      </c>
-      <c r="AY88" s="11" t="s">
-        <v>64</v>
+      <c r="AX88" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY88" s="11">
+        <v>93460</v>
       </c>
       <c r="AZ88" s="11">
-        <v>93460</v>
+        <v>60910</v>
       </c>
       <c r="BA88" s="11">
-        <v>60910</v>
+        <v>48457</v>
       </c>
       <c r="BB88" s="11">
-        <v>48457</v>
+        <v>124998</v>
       </c>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B89" s="12" t="s">
         <v>57</v>
       </c>
@@ -11619,157 +11654,157 @@
       </c>
       <c r="D89" s="13"/>
       <c r="E89" s="13">
-        <v>91830</v>
+        <v>99514</v>
       </c>
       <c r="F89" s="13">
-        <v>99514</v>
+        <v>105620</v>
       </c>
       <c r="G89" s="13">
-        <v>105620</v>
+        <v>95410</v>
       </c>
       <c r="H89" s="13">
-        <v>95410</v>
+        <v>91928</v>
       </c>
       <c r="I89" s="13">
-        <v>91928</v>
+        <v>81630</v>
       </c>
       <c r="J89" s="13">
-        <v>81630</v>
+        <v>144522</v>
       </c>
       <c r="K89" s="13">
-        <v>144522</v>
+        <v>127732</v>
       </c>
       <c r="L89" s="13">
-        <v>127732</v>
+        <v>128362</v>
       </c>
       <c r="M89" s="13">
-        <v>128362</v>
+        <v>136994</v>
       </c>
       <c r="N89" s="13">
-        <v>136994</v>
+        <v>109121</v>
       </c>
       <c r="O89" s="13">
-        <v>109121</v>
+        <v>105525</v>
       </c>
       <c r="P89" s="13">
-        <v>105525</v>
+        <v>60404</v>
       </c>
       <c r="Q89" s="13">
-        <v>60404</v>
+        <v>81333</v>
       </c>
       <c r="R89" s="13">
-        <v>81333</v>
+        <v>139733</v>
       </c>
       <c r="S89" s="13">
-        <v>139733</v>
+        <v>91504</v>
       </c>
       <c r="T89" s="13">
-        <v>91504</v>
+        <v>60137</v>
       </c>
       <c r="U89" s="13">
-        <v>60137</v>
+        <v>140752</v>
       </c>
       <c r="V89" s="13">
-        <v>140752</v>
+        <v>137507</v>
       </c>
       <c r="W89" s="13">
-        <v>137507</v>
+        <v>137103</v>
       </c>
       <c r="X89" s="13">
-        <v>137103</v>
+        <v>192136</v>
       </c>
       <c r="Y89" s="13">
-        <v>192136</v>
+        <v>215068</v>
       </c>
       <c r="Z89" s="13">
-        <v>215068</v>
+        <v>407921</v>
       </c>
       <c r="AA89" s="13">
-        <v>407921</v>
+        <v>498055</v>
       </c>
       <c r="AB89" s="13">
-        <v>498055</v>
+        <v>379373</v>
       </c>
       <c r="AC89" s="13">
-        <v>379373</v>
+        <v>419976</v>
       </c>
       <c r="AD89" s="13">
-        <v>419976</v>
+        <v>196123</v>
       </c>
       <c r="AE89" s="13">
-        <v>196123</v>
-      </c>
-      <c r="AF89" s="13">
         <v>196568</v>
       </c>
-      <c r="AG89" s="13" t="s">
-        <v>64</v>
+      <c r="AF89" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG89" s="13">
+        <v>234158</v>
       </c>
       <c r="AH89" s="13">
-        <v>234158</v>
+        <v>258147</v>
       </c>
       <c r="AI89" s="13">
-        <v>258147</v>
+        <v>427486</v>
       </c>
       <c r="AJ89" s="13">
-        <v>427486</v>
+        <v>327580</v>
       </c>
       <c r="AK89" s="13">
-        <v>327580</v>
+        <v>295188</v>
       </c>
       <c r="AL89" s="13">
-        <v>295188</v>
+        <v>388621</v>
       </c>
       <c r="AM89" s="13">
-        <v>388621</v>
+        <v>434584</v>
       </c>
       <c r="AN89" s="13">
-        <v>434584</v>
+        <v>289344</v>
       </c>
       <c r="AO89" s="13">
-        <v>289344</v>
+        <v>278517</v>
       </c>
       <c r="AP89" s="13">
-        <v>278517</v>
+        <v>339977</v>
       </c>
       <c r="AQ89" s="13">
-        <v>339977</v>
+        <v>214114</v>
       </c>
       <c r="AR89" s="13">
-        <v>214114</v>
+        <v>285144</v>
       </c>
       <c r="AS89" s="13">
-        <v>285144</v>
+        <v>92217</v>
       </c>
       <c r="AT89" s="13">
-        <v>92217</v>
+        <v>144836</v>
       </c>
       <c r="AU89" s="13">
-        <v>144836</v>
+        <v>155536</v>
       </c>
       <c r="AV89" s="13">
-        <v>155536</v>
+        <v>99920</v>
       </c>
       <c r="AW89" s="13">
-        <v>99920</v>
+        <v>292374</v>
       </c>
       <c r="AX89" s="13">
-        <v>292374</v>
+        <v>193109</v>
       </c>
       <c r="AY89" s="13">
-        <v>193109</v>
+        <v>388802</v>
       </c>
       <c r="AZ89" s="13">
-        <v>388802</v>
+        <v>346790</v>
       </c>
       <c r="BA89" s="13">
-        <v>346790</v>
+        <v>335890</v>
       </c>
       <c r="BB89" s="13">
-        <v>335890</v>
+        <v>428481</v>
       </c>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>59</v>
       </c>
@@ -11778,95 +11813,95 @@
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11">
-        <v>30002</v>
+        <v>29998</v>
       </c>
       <c r="F90" s="11">
-        <v>29998</v>
+        <v>0</v>
       </c>
       <c r="G90" s="11">
-        <v>0</v>
+        <v>30004</v>
       </c>
       <c r="H90" s="11">
-        <v>30004</v>
+        <v>30001</v>
       </c>
       <c r="I90" s="11">
+        <v>26704</v>
+      </c>
+      <c r="J90" s="11">
+        <v>29999</v>
+      </c>
+      <c r="K90" s="11">
         <v>30001</v>
       </c>
-      <c r="J90" s="11">
-        <v>26704</v>
-      </c>
-      <c r="K90" s="11">
-        <v>29999</v>
-      </c>
       <c r="L90" s="11">
+        <v>0</v>
+      </c>
+      <c r="M90" s="11">
         <v>30001</v>
       </c>
-      <c r="M90" s="11">
-        <v>0</v>
-      </c>
       <c r="N90" s="11">
-        <v>30001</v>
+        <v>30000</v>
       </c>
       <c r="O90" s="11">
-        <v>30000</v>
+        <v>40063</v>
       </c>
       <c r="P90" s="11">
+        <v>38965</v>
+      </c>
+      <c r="Q90" s="11">
         <v>40063</v>
       </c>
-      <c r="Q90" s="11">
-        <v>38965</v>
-      </c>
       <c r="R90" s="11">
-        <v>40063</v>
+        <v>40062</v>
       </c>
       <c r="S90" s="11">
-        <v>40062</v>
+        <v>37061</v>
       </c>
       <c r="T90" s="11">
-        <v>37061</v>
+        <v>34504</v>
       </c>
       <c r="U90" s="11">
-        <v>34504</v>
+        <v>43612</v>
       </c>
       <c r="V90" s="11">
-        <v>43612</v>
+        <v>55084</v>
       </c>
       <c r="W90" s="11">
-        <v>55084</v>
+        <v>50378</v>
       </c>
       <c r="X90" s="11">
-        <v>50378</v>
+        <v>40077</v>
       </c>
       <c r="Y90" s="11">
-        <v>40077</v>
+        <v>44494</v>
       </c>
       <c r="Z90" s="11">
-        <v>44494</v>
+        <v>58660</v>
       </c>
       <c r="AA90" s="11">
-        <v>58660</v>
+        <v>53290</v>
       </c>
       <c r="AB90" s="11">
-        <v>53290</v>
+        <v>60803</v>
       </c>
       <c r="AC90" s="11">
-        <v>60803</v>
+        <v>56303</v>
       </c>
       <c r="AD90" s="11">
-        <v>56303</v>
-      </c>
-      <c r="AE90" s="11">
         <v>45741</v>
       </c>
+      <c r="AE90" s="11" t="s">
+        <v>64</v>
+      </c>
       <c r="AF90" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AG90" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH90" s="11">
+      <c r="AG90" s="11">
         <v>69977</v>
       </c>
+      <c r="AH90" s="11" t="s">
+        <v>64</v>
+      </c>
       <c r="AI90" s="11" t="s">
         <v>64</v>
       </c>
@@ -11876,36 +11911,36 @@
       <c r="AK90" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AL90" s="11" t="s">
-        <v>64</v>
+      <c r="AL90" s="11">
+        <v>67550</v>
       </c>
       <c r="AM90" s="11">
-        <v>67550</v>
+        <v>67533</v>
       </c>
       <c r="AN90" s="11">
-        <v>67533</v>
+        <v>56107</v>
       </c>
       <c r="AO90" s="11">
-        <v>56107</v>
-      </c>
-      <c r="AP90" s="11">
         <v>55001</v>
       </c>
-      <c r="AQ90" s="11" t="s">
-        <v>64</v>
+      <c r="AP90" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ90" s="11">
+        <v>75003</v>
       </c>
       <c r="AR90" s="11">
-        <v>75003</v>
+        <v>75000</v>
       </c>
       <c r="AS90" s="11">
-        <v>75000</v>
+        <v>109932</v>
       </c>
       <c r="AT90" s="11">
-        <v>109932</v>
-      </c>
-      <c r="AU90" s="11">
         <v>74999</v>
       </c>
+      <c r="AU90" s="11" t="s">
+        <v>64</v>
+      </c>
       <c r="AV90" s="11" t="s">
         <v>64</v>
       </c>
@@ -11921,14 +11956,14 @@
       <c r="AZ90" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="BA90" s="11" t="s">
-        <v>64</v>
+      <c r="BA90" s="11">
+        <v>202695</v>
       </c>
       <c r="BB90" s="11">
-        <v>202695</v>
+        <v>199470</v>
       </c>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B91" s="12" t="s">
         <v>61</v>
       </c>
@@ -11937,157 +11972,157 @@
       </c>
       <c r="D91" s="13"/>
       <c r="E91" s="13">
-        <v>2538</v>
+        <v>4309</v>
       </c>
       <c r="F91" s="13">
-        <v>4309</v>
+        <v>2989</v>
       </c>
       <c r="G91" s="13">
-        <v>2989</v>
+        <v>4120</v>
       </c>
       <c r="H91" s="13">
-        <v>4120</v>
+        <v>3180</v>
       </c>
       <c r="I91" s="13">
-        <v>3180</v>
+        <v>2739</v>
       </c>
       <c r="J91" s="13">
-        <v>2739</v>
+        <v>1870</v>
       </c>
       <c r="K91" s="13">
-        <v>1870</v>
+        <v>9439</v>
       </c>
       <c r="L91" s="13">
-        <v>9439</v>
+        <v>3650</v>
       </c>
       <c r="M91" s="13">
-        <v>3650</v>
+        <v>4674</v>
       </c>
       <c r="N91" s="13">
-        <v>4674</v>
+        <v>6624</v>
       </c>
       <c r="O91" s="13">
-        <v>6624</v>
+        <v>4245</v>
       </c>
       <c r="P91" s="13">
-        <v>4245</v>
+        <v>3256</v>
       </c>
       <c r="Q91" s="13">
-        <v>3256</v>
+        <v>2438</v>
       </c>
       <c r="R91" s="13">
-        <v>2438</v>
+        <v>2691</v>
       </c>
       <c r="S91" s="13">
-        <v>2691</v>
+        <v>2650</v>
       </c>
       <c r="T91" s="13">
-        <v>2650</v>
+        <v>2879</v>
       </c>
       <c r="U91" s="13">
-        <v>2879</v>
+        <v>3215</v>
       </c>
       <c r="V91" s="13">
-        <v>3215</v>
+        <v>4899</v>
       </c>
       <c r="W91" s="13">
-        <v>4899</v>
+        <v>5924</v>
       </c>
       <c r="X91" s="13">
-        <v>5924</v>
+        <v>2749</v>
       </c>
       <c r="Y91" s="13">
-        <v>2749</v>
+        <v>4886</v>
       </c>
       <c r="Z91" s="13">
-        <v>4886</v>
+        <v>2839</v>
       </c>
       <c r="AA91" s="13">
-        <v>2839</v>
+        <v>5946</v>
       </c>
       <c r="AB91" s="13">
-        <v>5946</v>
+        <v>14074</v>
       </c>
       <c r="AC91" s="13">
-        <v>14074</v>
+        <v>4430</v>
       </c>
       <c r="AD91" s="13">
-        <v>4430</v>
+        <v>5080</v>
       </c>
       <c r="AE91" s="13">
-        <v>5080</v>
+        <v>5998</v>
       </c>
       <c r="AF91" s="13">
-        <v>5998</v>
+        <v>5846</v>
       </c>
       <c r="AG91" s="13">
-        <v>5846</v>
+        <v>6056</v>
       </c>
       <c r="AH91" s="13">
-        <v>6056</v>
+        <v>4653</v>
       </c>
       <c r="AI91" s="13">
-        <v>4653</v>
+        <v>4617</v>
       </c>
       <c r="AJ91" s="13">
-        <v>4617</v>
+        <v>4254</v>
       </c>
       <c r="AK91" s="13">
-        <v>4254</v>
+        <v>8500</v>
       </c>
       <c r="AL91" s="13">
-        <v>8500</v>
+        <v>7219</v>
       </c>
       <c r="AM91" s="13">
-        <v>7219</v>
+        <v>8413</v>
       </c>
       <c r="AN91" s="13">
-        <v>8413</v>
+        <v>5226</v>
       </c>
       <c r="AO91" s="13">
-        <v>5226</v>
+        <v>6703</v>
       </c>
       <c r="AP91" s="13">
-        <v>6703</v>
+        <v>7555</v>
       </c>
       <c r="AQ91" s="13">
-        <v>7555</v>
+        <v>6025</v>
       </c>
       <c r="AR91" s="13">
-        <v>6025</v>
+        <v>6059</v>
       </c>
       <c r="AS91" s="13">
-        <v>6059</v>
+        <v>7986</v>
       </c>
       <c r="AT91" s="13">
-        <v>7986</v>
+        <v>11721</v>
       </c>
       <c r="AU91" s="13">
-        <v>11721</v>
+        <v>9036</v>
       </c>
       <c r="AV91" s="13">
-        <v>9036</v>
+        <v>8077</v>
       </c>
       <c r="AW91" s="13">
-        <v>8077</v>
+        <v>8671</v>
       </c>
       <c r="AX91" s="13">
-        <v>8671</v>
+        <v>8195</v>
       </c>
       <c r="AY91" s="13">
-        <v>8195</v>
+        <v>10497</v>
       </c>
       <c r="AZ91" s="13">
-        <v>10497</v>
+        <v>12064</v>
       </c>
       <c r="BA91" s="13">
-        <v>12064</v>
+        <v>12003</v>
       </c>
       <c r="BB91" s="13">
-        <v>12003</v>
+        <v>12680</v>
       </c>
     </row>
-    <row r="92" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>62</v>
       </c>
@@ -12096,157 +12131,157 @@
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11">
-        <v>40791</v>
+        <v>39358</v>
       </c>
       <c r="F92" s="11">
-        <v>39358</v>
+        <v>32474</v>
       </c>
       <c r="G92" s="11">
-        <v>32474</v>
+        <v>24846</v>
       </c>
       <c r="H92" s="11">
-        <v>24846</v>
+        <v>19782</v>
       </c>
       <c r="I92" s="11">
-        <v>19782</v>
+        <v>18289</v>
       </c>
       <c r="J92" s="11">
-        <v>18289</v>
+        <v>17581</v>
       </c>
       <c r="K92" s="11">
-        <v>17581</v>
+        <v>43803</v>
       </c>
       <c r="L92" s="11">
-        <v>43803</v>
+        <v>30637</v>
       </c>
       <c r="M92" s="11">
-        <v>30637</v>
+        <v>33891</v>
       </c>
       <c r="N92" s="11">
-        <v>33891</v>
+        <v>27270</v>
       </c>
       <c r="O92" s="11">
-        <v>27270</v>
+        <v>54233</v>
       </c>
       <c r="P92" s="11">
-        <v>54233</v>
+        <v>34194</v>
       </c>
       <c r="Q92" s="11">
-        <v>34194</v>
+        <v>27492</v>
       </c>
       <c r="R92" s="11">
-        <v>27492</v>
+        <v>28744</v>
       </c>
       <c r="S92" s="11">
-        <v>28744</v>
+        <v>18198</v>
       </c>
       <c r="T92" s="11">
-        <v>18198</v>
+        <v>22252</v>
       </c>
       <c r="U92" s="11">
-        <v>22252</v>
+        <v>2379</v>
       </c>
       <c r="V92" s="11">
-        <v>2379</v>
+        <v>111460</v>
       </c>
       <c r="W92" s="11">
-        <v>111460</v>
+        <v>79423</v>
       </c>
       <c r="X92" s="11">
-        <v>79423</v>
+        <v>35261</v>
       </c>
       <c r="Y92" s="11">
-        <v>35261</v>
+        <v>50300</v>
       </c>
       <c r="Z92" s="11">
-        <v>50300</v>
+        <v>38162</v>
       </c>
       <c r="AA92" s="11">
-        <v>38162</v>
+        <v>53538</v>
       </c>
       <c r="AB92" s="11">
-        <v>53538</v>
+        <v>49523</v>
       </c>
       <c r="AC92" s="11">
-        <v>49523</v>
+        <v>43611</v>
       </c>
       <c r="AD92" s="11">
-        <v>43611</v>
+        <v>42994</v>
       </c>
       <c r="AE92" s="11">
-        <v>42994</v>
+        <v>43516</v>
       </c>
       <c r="AF92" s="11">
-        <v>43516</v>
+        <v>43819</v>
       </c>
       <c r="AG92" s="11">
-        <v>43819</v>
+        <v>32480</v>
       </c>
       <c r="AH92" s="11">
-        <v>32480</v>
+        <v>26703</v>
       </c>
       <c r="AI92" s="11">
-        <v>26703</v>
+        <v>99437</v>
       </c>
       <c r="AJ92" s="11">
-        <v>99437</v>
+        <v>51116</v>
       </c>
       <c r="AK92" s="11">
-        <v>51116</v>
+        <v>39407</v>
       </c>
       <c r="AL92" s="11">
-        <v>39407</v>
+        <v>44089</v>
       </c>
       <c r="AM92" s="11">
-        <v>44089</v>
+        <v>56353</v>
       </c>
       <c r="AN92" s="11">
-        <v>56353</v>
+        <v>56703</v>
       </c>
       <c r="AO92" s="11">
-        <v>56703</v>
+        <v>46992</v>
       </c>
       <c r="AP92" s="11">
-        <v>46992</v>
+        <v>47880</v>
       </c>
       <c r="AQ92" s="11">
-        <v>47880</v>
+        <v>45893</v>
       </c>
       <c r="AR92" s="11">
-        <v>45893</v>
+        <v>57122</v>
       </c>
       <c r="AS92" s="11">
-        <v>57122</v>
+        <v>87415</v>
       </c>
       <c r="AT92" s="11">
-        <v>87415</v>
+        <v>39999</v>
       </c>
       <c r="AU92" s="11">
-        <v>39999</v>
+        <v>41495</v>
       </c>
       <c r="AV92" s="11">
-        <v>41495</v>
+        <v>36719</v>
       </c>
       <c r="AW92" s="11">
-        <v>36719</v>
+        <v>195151</v>
       </c>
       <c r="AX92" s="11">
-        <v>195151</v>
+        <v>156971</v>
       </c>
       <c r="AY92" s="11">
-        <v>156971</v>
+        <v>168015</v>
       </c>
       <c r="AZ92" s="11">
-        <v>168015</v>
+        <v>128256</v>
       </c>
       <c r="BA92" s="11">
-        <v>128256</v>
+        <v>144330</v>
       </c>
       <c r="BB92" s="11">
-        <v>144330</v>
+        <v>93109</v>
       </c>
     </row>
-    <row r="93" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B93" s="12" t="s">
         <v>63</v>
       </c>
@@ -12269,8 +12304,8 @@
       <c r="I93" s="13">
         <v>0</v>
       </c>
-      <c r="J93" s="13">
-        <v>0</v>
+      <c r="J93" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="K93" s="13" t="s">
         <v>64</v>
@@ -12405,7 +12440,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="94" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>65</v>
       </c>
@@ -12428,8 +12463,8 @@
       <c r="I94" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="J94" s="11" t="s">
-        <v>64</v>
+      <c r="J94" s="11">
+        <v>0</v>
       </c>
       <c r="K94" s="11">
         <v>0</v>
@@ -12464,8 +12499,8 @@
       <c r="U94" s="11">
         <v>0</v>
       </c>
-      <c r="V94" s="11">
-        <v>0</v>
+      <c r="V94" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="W94" s="11" t="s">
         <v>64</v>
@@ -12564,7 +12599,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="95" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B95" s="12" t="s">
         <v>66</v>
       </c>
@@ -12623,18 +12658,18 @@
       <c r="U95" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="V95" s="13" t="s">
-        <v>64</v>
+      <c r="V95" s="13">
+        <v>12500000</v>
       </c>
       <c r="W95" s="13">
-        <v>12500000</v>
+        <v>23727273</v>
       </c>
       <c r="X95" s="13">
-        <v>23727273</v>
-      </c>
-      <c r="Y95" s="13">
         <v>18714286</v>
       </c>
+      <c r="Y95" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="Z95" s="13" t="s">
         <v>64</v>
       </c>
@@ -12723,7 +12758,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="96" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>87</v>
       </c>
@@ -12780,7 +12815,7 @@
       <c r="BA96" s="9"/>
       <c r="BB96" s="9"/>
     </row>
-    <row r="97" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>66</v>
       </c>
@@ -12848,69 +12883,69 @@
       <c r="X97" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="Y97" s="11" t="s">
-        <v>64</v>
+      <c r="Y97" s="11">
+        <v>26000000</v>
       </c>
       <c r="Z97" s="11">
-        <v>26000000</v>
+        <v>28250000</v>
       </c>
       <c r="AA97" s="11">
-        <v>28250000</v>
+        <v>13333333</v>
       </c>
       <c r="AB97" s="11">
-        <v>13333333</v>
+        <v>16133333</v>
       </c>
       <c r="AC97" s="11">
-        <v>16133333</v>
+        <v>6000000</v>
       </c>
       <c r="AD97" s="11">
-        <v>6000000</v>
+        <v>27000000</v>
       </c>
       <c r="AE97" s="11">
-        <v>27000000</v>
+        <v>12800000</v>
       </c>
       <c r="AF97" s="11">
-        <v>12800000</v>
+        <v>76666667</v>
       </c>
       <c r="AG97" s="11">
-        <v>76666667</v>
+        <v>42833333</v>
       </c>
       <c r="AH97" s="11">
-        <v>42833333</v>
+        <v>17461538</v>
       </c>
       <c r="AI97" s="11">
-        <v>17461538</v>
+        <v>24733333</v>
       </c>
       <c r="AJ97" s="11">
-        <v>24733333</v>
+        <v>3500000</v>
       </c>
       <c r="AK97" s="11">
-        <v>3500000</v>
+        <v>70000000</v>
       </c>
       <c r="AL97" s="11">
-        <v>70000000</v>
+        <v>0</v>
       </c>
       <c r="AM97" s="11">
-        <v>0</v>
+        <v>17960784</v>
       </c>
       <c r="AN97" s="11">
-        <v>17960784</v>
+        <v>18800000</v>
       </c>
       <c r="AO97" s="11">
-        <v>18800000</v>
+        <v>0</v>
       </c>
       <c r="AP97" s="11">
-        <v>0</v>
+        <v>24155172</v>
       </c>
       <c r="AQ97" s="11">
-        <v>24155172</v>
+        <v>29000000</v>
       </c>
       <c r="AR97" s="11">
-        <v>29000000</v>
-      </c>
-      <c r="AS97" s="11">
         <v>42952381</v>
       </c>
+      <c r="AS97" s="11" t="s">
+        <v>64</v>
+      </c>
       <c r="AT97" s="11" t="s">
         <v>64</v>
       </c>
@@ -12939,7 +12974,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="98" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B98" s="12" t="s">
         <v>69</v>
       </c>
@@ -13067,35 +13102,35 @@
       <c r="AR98" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AS98" s="13" t="s">
-        <v>64</v>
+      <c r="AS98" s="13">
+        <v>48233</v>
       </c>
       <c r="AT98" s="13">
-        <v>48233</v>
+        <v>0</v>
       </c>
       <c r="AU98" s="13">
-        <v>0</v>
+        <v>59176</v>
       </c>
       <c r="AV98" s="13">
-        <v>59176</v>
+        <v>49345</v>
       </c>
       <c r="AW98" s="13">
-        <v>49345</v>
+        <v>45498</v>
       </c>
       <c r="AX98" s="13">
-        <v>45498</v>
+        <v>76844</v>
       </c>
       <c r="AY98" s="13">
-        <v>76844</v>
+        <v>55904</v>
       </c>
       <c r="AZ98" s="13">
-        <v>55904</v>
+        <v>0</v>
       </c>
       <c r="BA98" s="13">
-        <v>0</v>
+        <v>194057</v>
       </c>
       <c r="BB98" s="13">
-        <v>194057</v>
+        <v>1076371</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/darou/dejaber/product/monthly.xlsx
+++ b/database/industries/darou/dejaber/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\dejaber\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\dejaber\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD80A7F-065F-49EB-BE6F-C829E9400597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6503EE-F21E-48D0-AA20-0268B2B76BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="88">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>دجابر-داروسازی‌ جابرابن‌حیان‌</t>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>پماد</t>
@@ -760,12 +760,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -820,7 +820,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -877,7 +877,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -934,7 +934,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -989,7 +989,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1046,7 +1046,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1103,7 +1103,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1158,7 +1158,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1370,7 +1370,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1427,7 +1427,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1436,157 +1436,157 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>176040</v>
+        <v>352080</v>
       </c>
       <c r="F11" s="11">
+        <v>58680</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
+        <v>117360</v>
+      </c>
+      <c r="N11" s="11">
+        <v>293160</v>
+      </c>
+      <c r="O11" s="11">
+        <v>440280</v>
+      </c>
+      <c r="P11" s="11">
+        <v>469440</v>
+      </c>
+      <c r="Q11" s="11">
         <v>234720</v>
       </c>
-      <c r="G11" s="11">
+      <c r="R11" s="11">
+        <v>232480</v>
+      </c>
+      <c r="S11" s="11">
+        <v>471680</v>
+      </c>
+      <c r="T11" s="11">
+        <v>117360</v>
+      </c>
+      <c r="U11" s="11">
         <v>352080</v>
       </c>
-      <c r="H11" s="11">
-        <v>58680</v>
-      </c>
-      <c r="I11" s="11">
-        <v>0</v>
-      </c>
-      <c r="J11" s="11">
-        <v>0</v>
-      </c>
-      <c r="K11" s="11">
-        <v>0</v>
-      </c>
-      <c r="L11" s="11">
-        <v>0</v>
-      </c>
-      <c r="M11" s="11">
-        <v>0</v>
-      </c>
-      <c r="N11" s="11">
-        <v>0</v>
-      </c>
-      <c r="O11" s="11">
-        <v>117360</v>
-      </c>
-      <c r="P11" s="11">
-        <v>293160</v>
-      </c>
-      <c r="Q11" s="11">
-        <v>440280</v>
-      </c>
-      <c r="R11" s="11">
-        <v>469440</v>
-      </c>
-      <c r="S11" s="11">
-        <v>234720</v>
-      </c>
-      <c r="T11" s="11">
-        <v>232480</v>
-      </c>
-      <c r="U11" s="11">
-        <v>471680</v>
-      </c>
       <c r="V11" s="11">
-        <v>117360</v>
+        <v>293400</v>
       </c>
       <c r="W11" s="11">
-        <v>352080</v>
+        <v>0</v>
       </c>
       <c r="X11" s="11">
         <v>293400</v>
       </c>
       <c r="Y11" s="11">
-        <v>0</v>
+        <v>58680</v>
       </c>
       <c r="Z11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="11">
+        <v>116280</v>
+      </c>
+      <c r="AC11" s="11">
         <v>293400</v>
       </c>
-      <c r="AA11" s="11">
+      <c r="AD11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="11">
         <v>58680</v>
       </c>
-      <c r="AB11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="11">
-        <v>116280</v>
-      </c>
-      <c r="AE11" s="11">
+      <c r="AG11" s="11">
+        <v>234720</v>
+      </c>
+      <c r="AH11" s="11">
+        <v>234720</v>
+      </c>
+      <c r="AI11" s="11">
+        <v>131280</v>
+      </c>
+      <c r="AJ11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="11">
+        <v>176040</v>
+      </c>
+      <c r="AM11" s="11">
+        <v>207360</v>
+      </c>
+      <c r="AN11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="11">
+        <v>141940</v>
+      </c>
+      <c r="AR11" s="11">
+        <v>214560</v>
+      </c>
+      <c r="AS11" s="11">
+        <v>122740</v>
+      </c>
+      <c r="AT11" s="11">
         <v>293400</v>
       </c>
-      <c r="AF11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="11">
-        <v>58680</v>
-      </c>
-      <c r="AI11" s="11">
-        <v>234720</v>
-      </c>
-      <c r="AJ11" s="11">
-        <v>234720</v>
-      </c>
-      <c r="AK11" s="11">
-        <v>131280</v>
-      </c>
-      <c r="AL11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="11">
-        <v>176040</v>
-      </c>
-      <c r="AO11" s="11">
-        <v>207360</v>
-      </c>
-      <c r="AP11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS11" s="11">
-        <v>141940</v>
-      </c>
-      <c r="AT11" s="11">
-        <v>214560</v>
-      </c>
       <c r="AU11" s="11">
-        <v>122740</v>
+        <v>232320</v>
       </c>
       <c r="AV11" s="11">
-        <v>293400</v>
+        <v>0</v>
       </c>
       <c r="AW11" s="11">
-        <v>232320</v>
+        <v>69720</v>
       </c>
       <c r="AX11" s="11">
-        <v>0</v>
+        <v>314040</v>
       </c>
       <c r="AY11" s="11">
-        <v>69720</v>
+        <v>117360</v>
       </c>
       <c r="AZ11" s="11">
-        <v>314040</v>
+        <v>111190</v>
       </c>
       <c r="BA11" s="11">
-        <v>117360</v>
+        <v>153480</v>
       </c>
       <c r="BB11" s="11">
-        <v>111190</v>
+        <v>193233</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>57</v>
       </c>
@@ -1595,157 +1595,157 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>569083</v>
+        <v>341214</v>
       </c>
       <c r="F12" s="13">
-        <v>389630</v>
+        <v>337216</v>
       </c>
       <c r="G12" s="13">
-        <v>341214</v>
+        <v>325417</v>
       </c>
       <c r="H12" s="13">
-        <v>337216</v>
+        <v>207619</v>
       </c>
       <c r="I12" s="13">
-        <v>325417</v>
+        <v>207725</v>
       </c>
       <c r="J12" s="13">
-        <v>207619</v>
+        <v>312435</v>
       </c>
       <c r="K12" s="13">
-        <v>207725</v>
+        <v>639768</v>
       </c>
       <c r="L12" s="13">
-        <v>312435</v>
+        <v>435394</v>
       </c>
       <c r="M12" s="13">
-        <v>639768</v>
+        <v>440054</v>
       </c>
       <c r="N12" s="13">
-        <v>435394</v>
+        <v>314113</v>
       </c>
       <c r="O12" s="13">
-        <v>440054</v>
+        <v>548358</v>
       </c>
       <c r="P12" s="13">
-        <v>314113</v>
+        <v>452808</v>
       </c>
       <c r="Q12" s="13">
-        <v>548358</v>
+        <v>780911</v>
       </c>
       <c r="R12" s="13">
-        <v>452808</v>
+        <v>579616</v>
       </c>
       <c r="S12" s="13">
-        <v>780911</v>
+        <v>452580</v>
       </c>
       <c r="T12" s="13">
-        <v>579616</v>
+        <v>218170</v>
       </c>
       <c r="U12" s="13">
-        <v>452580</v>
+        <v>392102</v>
       </c>
       <c r="V12" s="13">
-        <v>218170</v>
+        <v>529616</v>
       </c>
       <c r="W12" s="13">
-        <v>392102</v>
+        <v>650529</v>
       </c>
       <c r="X12" s="13">
-        <v>529616</v>
+        <v>604365</v>
       </c>
       <c r="Y12" s="13">
-        <v>650529</v>
+        <v>498279</v>
       </c>
       <c r="Z12" s="13">
-        <v>604365</v>
+        <v>625845</v>
       </c>
       <c r="AA12" s="13">
-        <v>498279</v>
+        <v>363106</v>
       </c>
       <c r="AB12" s="13">
-        <v>625845</v>
+        <v>468335</v>
       </c>
       <c r="AC12" s="13">
-        <v>363106</v>
+        <v>23879</v>
       </c>
       <c r="AD12" s="13">
-        <v>468335</v>
+        <v>10764</v>
       </c>
       <c r="AE12" s="13">
-        <v>23879</v>
+        <v>384995</v>
       </c>
       <c r="AF12" s="13">
-        <v>10764</v>
+        <v>274124</v>
       </c>
       <c r="AG12" s="13">
-        <v>384995</v>
+        <v>45133</v>
       </c>
       <c r="AH12" s="13">
-        <v>274124</v>
+        <v>460825</v>
       </c>
       <c r="AI12" s="13">
-        <v>45133</v>
+        <v>580498</v>
       </c>
       <c r="AJ12" s="13">
-        <v>460825</v>
+        <v>553403</v>
       </c>
       <c r="AK12" s="13">
-        <v>580498</v>
+        <v>222225</v>
       </c>
       <c r="AL12" s="13">
-        <v>553403</v>
+        <v>298736</v>
       </c>
       <c r="AM12" s="13">
-        <v>222225</v>
+        <v>721038</v>
       </c>
       <c r="AN12" s="13">
-        <v>298736</v>
+        <v>697700</v>
       </c>
       <c r="AO12" s="13">
-        <v>721038</v>
+        <v>682353</v>
       </c>
       <c r="AP12" s="13">
-        <v>697700</v>
+        <v>370331</v>
       </c>
       <c r="AQ12" s="13">
-        <v>682353</v>
+        <v>157176</v>
       </c>
       <c r="AR12" s="13">
-        <v>370331</v>
+        <v>158641</v>
       </c>
       <c r="AS12" s="13">
-        <v>157176</v>
+        <v>191087</v>
       </c>
       <c r="AT12" s="13">
-        <v>158641</v>
+        <v>76001</v>
       </c>
       <c r="AU12" s="13">
-        <v>191087</v>
+        <v>146768</v>
       </c>
       <c r="AV12" s="13">
-        <v>76001</v>
+        <v>122082</v>
       </c>
       <c r="AW12" s="13">
-        <v>146768</v>
+        <v>505915</v>
       </c>
       <c r="AX12" s="13">
-        <v>122082</v>
+        <v>812508</v>
       </c>
       <c r="AY12" s="13">
-        <v>505915</v>
+        <v>906122</v>
       </c>
       <c r="AZ12" s="13">
-        <v>812508</v>
+        <v>451003</v>
       </c>
       <c r="BA12" s="13">
-        <v>906122</v>
+        <v>89655</v>
       </c>
       <c r="BB12" s="13">
-        <v>451003</v>
+        <v>449147</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1754,82 +1754,82 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>63252</v>
+        <v>407995</v>
       </c>
       <c r="F13" s="11">
-        <v>0</v>
+        <v>407526</v>
       </c>
       <c r="G13" s="11">
-        <v>407995</v>
+        <v>226636</v>
       </c>
       <c r="H13" s="11">
-        <v>407526</v>
+        <v>316212</v>
       </c>
       <c r="I13" s="11">
-        <v>226636</v>
+        <v>45328</v>
       </c>
       <c r="J13" s="11">
-        <v>316212</v>
+        <v>0</v>
       </c>
       <c r="K13" s="11">
-        <v>45328</v>
+        <v>314390</v>
       </c>
       <c r="L13" s="11">
-        <v>0</v>
+        <v>360900</v>
       </c>
       <c r="M13" s="11">
-        <v>314390</v>
+        <v>225144</v>
       </c>
       <c r="N13" s="11">
-        <v>360900</v>
+        <v>358325</v>
       </c>
       <c r="O13" s="11">
-        <v>225144</v>
+        <v>134946</v>
       </c>
       <c r="P13" s="11">
-        <v>358325</v>
+        <v>403550</v>
       </c>
       <c r="Q13" s="11">
-        <v>134946</v>
+        <v>90359</v>
       </c>
       <c r="R13" s="11">
-        <v>403550</v>
+        <v>180936</v>
       </c>
       <c r="S13" s="11">
-        <v>90359</v>
+        <v>312687</v>
       </c>
       <c r="T13" s="11">
-        <v>180936</v>
+        <v>149911</v>
       </c>
       <c r="U13" s="11">
-        <v>312687</v>
+        <v>87680</v>
       </c>
       <c r="V13" s="11">
-        <v>149911</v>
+        <v>0</v>
       </c>
       <c r="W13" s="11">
-        <v>87680</v>
+        <v>21930</v>
       </c>
       <c r="X13" s="11">
-        <v>0</v>
+        <v>41880</v>
       </c>
       <c r="Y13" s="11">
-        <v>21930</v>
+        <v>374780</v>
       </c>
       <c r="Z13" s="11">
-        <v>41880</v>
+        <v>247116</v>
       </c>
       <c r="AA13" s="11">
-        <v>374780</v>
+        <v>219796</v>
       </c>
       <c r="AB13" s="11">
-        <v>247116</v>
+        <v>21916</v>
       </c>
       <c r="AC13" s="11">
-        <v>219796</v>
+        <v>0</v>
       </c>
       <c r="AD13" s="11">
-        <v>21916</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="11">
         <v>0</v>
@@ -1844,40 +1844,40 @@
         <v>0</v>
       </c>
       <c r="AI13" s="11">
-        <v>0</v>
+        <v>48937</v>
       </c>
       <c r="AJ13" s="11">
-        <v>0</v>
+        <v>8160</v>
       </c>
       <c r="AK13" s="11">
-        <v>48937</v>
+        <v>0</v>
       </c>
       <c r="AL13" s="11">
-        <v>8160</v>
+        <v>226044</v>
       </c>
       <c r="AM13" s="11">
-        <v>0</v>
+        <v>135324</v>
       </c>
       <c r="AN13" s="11">
-        <v>226044</v>
+        <v>135072</v>
       </c>
       <c r="AO13" s="11">
-        <v>135324</v>
+        <v>44268</v>
       </c>
       <c r="AP13" s="11">
-        <v>135072</v>
+        <v>185404</v>
       </c>
       <c r="AQ13" s="11">
-        <v>44268</v>
+        <v>0</v>
       </c>
       <c r="AR13" s="11">
-        <v>185404</v>
+        <v>44254</v>
       </c>
       <c r="AS13" s="11">
         <v>0</v>
       </c>
       <c r="AT13" s="11">
-        <v>44254</v>
+        <v>0</v>
       </c>
       <c r="AU13" s="11">
         <v>0</v>
@@ -1892,19 +1892,19 @@
         <v>0</v>
       </c>
       <c r="AY13" s="11">
-        <v>0</v>
+        <v>279650</v>
       </c>
       <c r="AZ13" s="11">
-        <v>0</v>
+        <v>362384</v>
       </c>
       <c r="BA13" s="11">
-        <v>279650</v>
+        <v>279000</v>
       </c>
       <c r="BB13" s="11">
-        <v>362384</v>
+        <v>328932</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
@@ -1913,157 +1913,157 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>6548600</v>
+        <v>13662522</v>
       </c>
       <c r="F14" s="13">
-        <v>15455544</v>
+        <v>16858390</v>
       </c>
       <c r="G14" s="13">
-        <v>13662522</v>
+        <v>12996168</v>
       </c>
       <c r="H14" s="13">
-        <v>16858390</v>
+        <v>4466170</v>
       </c>
       <c r="I14" s="13">
-        <v>12996168</v>
+        <v>3969802</v>
       </c>
       <c r="J14" s="13">
-        <v>4466170</v>
+        <v>6153500</v>
       </c>
       <c r="K14" s="13">
-        <v>3969802</v>
+        <v>9755674</v>
       </c>
       <c r="L14" s="13">
-        <v>6153500</v>
+        <v>11356900</v>
       </c>
       <c r="M14" s="13">
-        <v>9755674</v>
+        <v>17785540</v>
       </c>
       <c r="N14" s="13">
-        <v>11356900</v>
+        <v>24337820</v>
       </c>
       <c r="O14" s="13">
-        <v>17785540</v>
+        <v>25429800</v>
       </c>
       <c r="P14" s="13">
-        <v>24337820</v>
+        <v>18401680</v>
       </c>
       <c r="Q14" s="13">
-        <v>25429800</v>
+        <v>24253050</v>
       </c>
       <c r="R14" s="13">
-        <v>18401680</v>
+        <v>26181964</v>
       </c>
       <c r="S14" s="13">
-        <v>24253050</v>
+        <v>26771500</v>
       </c>
       <c r="T14" s="13">
-        <v>26181964</v>
+        <v>5875800</v>
       </c>
       <c r="U14" s="13">
-        <v>26771500</v>
+        <v>8075390</v>
       </c>
       <c r="V14" s="13">
-        <v>5875800</v>
+        <v>26547714</v>
       </c>
       <c r="W14" s="13">
-        <v>8075390</v>
+        <v>24142146</v>
       </c>
       <c r="X14" s="13">
-        <v>26547714</v>
+        <v>14879334</v>
       </c>
       <c r="Y14" s="13">
-        <v>24142146</v>
+        <v>10550250</v>
       </c>
       <c r="Z14" s="13">
-        <v>14879334</v>
+        <v>11872090</v>
       </c>
       <c r="AA14" s="13">
-        <v>10550250</v>
+        <v>17866800</v>
       </c>
       <c r="AB14" s="13">
-        <v>11872090</v>
+        <v>16834100</v>
       </c>
       <c r="AC14" s="13">
-        <v>17866800</v>
+        <v>5409254</v>
       </c>
       <c r="AD14" s="13">
-        <v>16834100</v>
+        <v>3055600</v>
       </c>
       <c r="AE14" s="13">
-        <v>5409254</v>
+        <v>15014300</v>
       </c>
       <c r="AF14" s="13">
-        <v>3055600</v>
+        <v>5002430</v>
       </c>
       <c r="AG14" s="13">
-        <v>15014300</v>
+        <v>11650816</v>
       </c>
       <c r="AH14" s="13">
-        <v>5002430</v>
+        <v>13152630</v>
       </c>
       <c r="AI14" s="13">
-        <v>11650816</v>
+        <v>46259244</v>
       </c>
       <c r="AJ14" s="13">
-        <v>13152630</v>
+        <v>23761286</v>
       </c>
       <c r="AK14" s="13">
-        <v>46259244</v>
+        <v>50864400</v>
       </c>
       <c r="AL14" s="13">
-        <v>23761286</v>
+        <v>11910410</v>
       </c>
       <c r="AM14" s="13">
-        <v>50864400</v>
+        <v>35183260</v>
       </c>
       <c r="AN14" s="13">
-        <v>11910410</v>
+        <v>44400500</v>
       </c>
       <c r="AO14" s="13">
-        <v>35183260</v>
+        <v>20591790</v>
       </c>
       <c r="AP14" s="13">
-        <v>44400500</v>
+        <v>16864160</v>
       </c>
       <c r="AQ14" s="13">
-        <v>20591790</v>
+        <v>22755860</v>
       </c>
       <c r="AR14" s="13">
-        <v>16864160</v>
+        <v>10328380</v>
       </c>
       <c r="AS14" s="13">
-        <v>22755860</v>
+        <v>37519980</v>
       </c>
       <c r="AT14" s="13">
-        <v>10328380</v>
+        <v>35653030</v>
       </c>
       <c r="AU14" s="13">
-        <v>37519980</v>
+        <v>32215080</v>
       </c>
       <c r="AV14" s="13">
-        <v>35653030</v>
+        <v>22228010</v>
       </c>
       <c r="AW14" s="13">
-        <v>32215080</v>
+        <v>21341380</v>
       </c>
       <c r="AX14" s="13">
-        <v>22228010</v>
+        <v>11357570</v>
       </c>
       <c r="AY14" s="13">
-        <v>21341380</v>
+        <v>34414210</v>
       </c>
       <c r="AZ14" s="13">
-        <v>11357570</v>
+        <v>48657360</v>
       </c>
       <c r="BA14" s="13">
-        <v>34414210</v>
+        <v>25016650</v>
       </c>
       <c r="BB14" s="13">
-        <v>48657360</v>
+        <v>37104670</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>62</v>
       </c>
@@ -2072,157 +2072,157 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>3386210</v>
+        <v>5533055</v>
       </c>
       <c r="F15" s="11">
-        <v>5086135</v>
+        <v>2539225</v>
       </c>
       <c r="G15" s="11">
-        <v>5533055</v>
+        <v>2875930</v>
       </c>
       <c r="H15" s="11">
-        <v>2539225</v>
+        <v>635528</v>
       </c>
       <c r="I15" s="11">
-        <v>2875930</v>
+        <v>1368120</v>
       </c>
       <c r="J15" s="11">
-        <v>635528</v>
+        <v>2811995</v>
       </c>
       <c r="K15" s="11">
-        <v>1368120</v>
+        <v>2842980</v>
       </c>
       <c r="L15" s="11">
-        <v>2811995</v>
+        <v>4894200</v>
       </c>
       <c r="M15" s="11">
-        <v>2842980</v>
+        <v>3829628</v>
       </c>
       <c r="N15" s="11">
-        <v>4894200</v>
+        <v>1976890</v>
       </c>
       <c r="O15" s="11">
-        <v>3829628</v>
+        <v>1414200</v>
       </c>
       <c r="P15" s="11">
-        <v>1976890</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="11">
-        <v>1414200</v>
+        <v>82000</v>
       </c>
       <c r="R15" s="11">
-        <v>0</v>
+        <v>537570</v>
       </c>
       <c r="S15" s="11">
-        <v>82000</v>
+        <v>1742780</v>
       </c>
       <c r="T15" s="11">
-        <v>537570</v>
+        <v>676890</v>
       </c>
       <c r="U15" s="11">
-        <v>1742780</v>
+        <v>784079</v>
       </c>
       <c r="V15" s="11">
-        <v>676890</v>
+        <v>3962360</v>
       </c>
       <c r="W15" s="11">
-        <v>784079</v>
+        <v>2057514</v>
       </c>
       <c r="X15" s="11">
-        <v>3962360</v>
+        <v>3218491</v>
       </c>
       <c r="Y15" s="11">
-        <v>2057514</v>
+        <v>2880950</v>
       </c>
       <c r="Z15" s="11">
-        <v>3218491</v>
+        <v>2368190</v>
       </c>
       <c r="AA15" s="11">
-        <v>2880950</v>
+        <v>3255450</v>
       </c>
       <c r="AB15" s="11">
-        <v>2368190</v>
+        <v>1967002</v>
       </c>
       <c r="AC15" s="11">
-        <v>3255450</v>
+        <v>6528321</v>
       </c>
       <c r="AD15" s="11">
-        <v>1967002</v>
+        <v>4198826</v>
       </c>
       <c r="AE15" s="11">
-        <v>6528321</v>
+        <v>573600</v>
       </c>
       <c r="AF15" s="11">
-        <v>4198826</v>
+        <v>1377000</v>
       </c>
       <c r="AG15" s="11">
-        <v>573600</v>
+        <v>1405665</v>
       </c>
       <c r="AH15" s="11">
-        <v>1377000</v>
+        <v>3970080</v>
       </c>
       <c r="AI15" s="11">
-        <v>1405665</v>
+        <v>2776560</v>
       </c>
       <c r="AJ15" s="11">
-        <v>3970080</v>
+        <v>4256530</v>
       </c>
       <c r="AK15" s="11">
-        <v>2776560</v>
+        <v>3318850</v>
       </c>
       <c r="AL15" s="11">
-        <v>4256530</v>
+        <v>2534960</v>
       </c>
       <c r="AM15" s="11">
-        <v>3318850</v>
+        <v>3978558</v>
       </c>
       <c r="AN15" s="11">
-        <v>2534960</v>
+        <v>1497050</v>
       </c>
       <c r="AO15" s="11">
-        <v>3978558</v>
+        <v>1098950</v>
       </c>
       <c r="AP15" s="11">
-        <v>1497050</v>
+        <v>3414860</v>
       </c>
       <c r="AQ15" s="11">
-        <v>1098950</v>
+        <v>1492120</v>
       </c>
       <c r="AR15" s="11">
-        <v>3414860</v>
+        <v>1575200</v>
       </c>
       <c r="AS15" s="11">
-        <v>1492120</v>
+        <v>3884718</v>
       </c>
       <c r="AT15" s="11">
-        <v>1575200</v>
+        <v>3524725</v>
       </c>
       <c r="AU15" s="11">
-        <v>3884718</v>
+        <v>1560160</v>
       </c>
       <c r="AV15" s="11">
-        <v>3524725</v>
+        <v>1703010</v>
       </c>
       <c r="AW15" s="11">
-        <v>1560160</v>
+        <v>4028690</v>
       </c>
       <c r="AX15" s="11">
-        <v>1703010</v>
+        <v>2919470</v>
       </c>
       <c r="AY15" s="11">
-        <v>4028690</v>
+        <v>3632720</v>
       </c>
       <c r="AZ15" s="11">
-        <v>2919470</v>
+        <v>1668830</v>
       </c>
       <c r="BA15" s="11">
-        <v>730840</v>
+        <v>3127632</v>
       </c>
       <c r="BB15" s="11">
-        <v>1668830</v>
+        <v>2269180</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>63</v>
       </c>
@@ -2239,11 +2239,11 @@
       <c r="G16" s="13">
         <v>0</v>
       </c>
-      <c r="H16" s="13">
-        <v>0</v>
-      </c>
-      <c r="I16" s="13">
-        <v>0</v>
+      <c r="H16" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="J16" s="13" t="s">
         <v>64</v>
@@ -2381,7 +2381,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>65</v>
       </c>
@@ -2398,11 +2398,11 @@
       <c r="G17" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="H17" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>64</v>
+      <c r="H17" s="11">
+        <v>0</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0</v>
       </c>
       <c r="J17" s="11">
         <v>0</v>
@@ -2434,11 +2434,11 @@
       <c r="S17" s="11">
         <v>0</v>
       </c>
-      <c r="T17" s="11">
-        <v>0</v>
-      </c>
-      <c r="U17" s="11">
-        <v>0</v>
+      <c r="T17" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="U17" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="V17" s="11" t="s">
         <v>64</v>
@@ -2470,11 +2470,11 @@
       <c r="AE17" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AF17" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG17" s="11" t="s">
-        <v>64</v>
+      <c r="AF17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="11">
+        <v>0</v>
       </c>
       <c r="AH17" s="11">
         <v>0</v>
@@ -2540,7 +2540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>66</v>
       </c>
@@ -2593,20 +2593,20 @@
       <c r="S18" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="T18" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="U18" s="13" t="s">
-        <v>64</v>
+      <c r="T18" s="13">
+        <v>0</v>
+      </c>
+      <c r="U18" s="13">
+        <v>0</v>
       </c>
       <c r="V18" s="13">
         <v>0</v>
       </c>
-      <c r="W18" s="13">
-        <v>0</v>
-      </c>
-      <c r="X18" s="13">
-        <v>0</v>
+      <c r="W18" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="X18" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="Y18" s="13" t="s">
         <v>64</v>
@@ -2699,7 +2699,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>68</v>
       </c>
@@ -2756,7 +2756,7 @@
       <c r="BA19" s="9"/>
       <c r="BB19" s="9"/>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
         <v>66</v>
       </c>
@@ -2818,11 +2818,11 @@
       <c r="V20" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="W20" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="X20" s="11" t="s">
-        <v>64</v>
+      <c r="W20" s="11">
+        <v>0</v>
+      </c>
+      <c r="X20" s="11">
+        <v>0</v>
       </c>
       <c r="Y20" s="11">
         <v>0</v>
@@ -2851,35 +2851,35 @@
       <c r="AG20" s="11">
         <v>0</v>
       </c>
-      <c r="AH20" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI20" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ20" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK20" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL20" s="11">
-        <v>0</v>
+      <c r="AH20" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI20" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ20" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="AM20" s="11">
         <v>0</v>
       </c>
-      <c r="AN20" s="11" t="s">
-        <v>64</v>
+      <c r="AN20" s="11">
+        <v>0</v>
       </c>
       <c r="AO20" s="11">
         <v>0</v>
       </c>
-      <c r="AP20" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ20" s="11">
-        <v>0</v>
+      <c r="AP20" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ20" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="AR20" s="11" t="s">
         <v>64</v>
@@ -2915,7 +2915,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
         <v>69</v>
       </c>
@@ -3037,14 +3037,14 @@
       <c r="AP21" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AQ21" s="13" t="s">
-        <v>64</v>
+      <c r="AQ21" s="13">
+        <v>0</v>
       </c>
       <c r="AR21" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AS21" s="13">
-        <v>0</v>
+      <c r="AS21" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="AT21" s="13" t="s">
         <v>64</v>
@@ -3058,8 +3058,8 @@
       <c r="AW21" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AX21" s="13" t="s">
-        <v>64</v>
+      <c r="AX21" s="13">
+        <v>0</v>
       </c>
       <c r="AY21" s="13" t="s">
         <v>64</v>
@@ -3067,14 +3067,14 @@
       <c r="AZ21" s="13">
         <v>0</v>
       </c>
-      <c r="BA21" s="13">
-        <v>0</v>
-      </c>
-      <c r="BB21" s="13">
-        <v>0</v>
+      <c r="BA21" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="BB21" s="13" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
         <v>70</v>
       </c>
@@ -3134,11 +3134,11 @@
       <c r="V22" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="W22" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="X22" s="15" t="s">
-        <v>64</v>
+      <c r="W22" s="15">
+        <v>0</v>
+      </c>
+      <c r="X22" s="15">
+        <v>0</v>
       </c>
       <c r="Y22" s="15">
         <v>0</v>
@@ -3231,164 +3231,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
         <v>71</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
       <c r="E23" s="17">
-        <v>10743185</v>
+        <v>20296866</v>
       </c>
       <c r="F23" s="17">
-        <v>21166029</v>
+        <v>20201037</v>
       </c>
       <c r="G23" s="17">
-        <v>20296866</v>
+        <v>16424151</v>
       </c>
       <c r="H23" s="17">
-        <v>20201037</v>
+        <v>5625529</v>
       </c>
       <c r="I23" s="17">
-        <v>16424151</v>
+        <v>5590975</v>
       </c>
       <c r="J23" s="17">
-        <v>5625529</v>
+        <v>9277930</v>
       </c>
       <c r="K23" s="17">
-        <v>5590975</v>
+        <v>13552812</v>
       </c>
       <c r="L23" s="17">
-        <v>9277930</v>
+        <v>17047394</v>
       </c>
       <c r="M23" s="17">
-        <v>13552812</v>
+        <v>22397726</v>
       </c>
       <c r="N23" s="17">
-        <v>17047394</v>
+        <v>27280308</v>
       </c>
       <c r="O23" s="17">
-        <v>22397726</v>
+        <v>27967584</v>
       </c>
       <c r="P23" s="17">
-        <v>27280308</v>
+        <v>19727478</v>
       </c>
       <c r="Q23" s="17">
-        <v>27967584</v>
+        <v>25441040</v>
       </c>
       <c r="R23" s="17">
-        <v>19727478</v>
+        <v>27712566</v>
       </c>
       <c r="S23" s="17">
-        <v>25441040</v>
+        <v>29751227</v>
       </c>
       <c r="T23" s="17">
-        <v>27712566</v>
+        <v>7038131</v>
       </c>
       <c r="U23" s="17">
-        <v>29751227</v>
+        <v>9691331</v>
       </c>
       <c r="V23" s="17">
-        <v>7038131</v>
+        <v>31333090</v>
       </c>
       <c r="W23" s="17">
-        <v>9691331</v>
+        <v>26872119</v>
       </c>
       <c r="X23" s="17">
-        <v>31333090</v>
+        <v>19037470</v>
       </c>
       <c r="Y23" s="17">
-        <v>26872119</v>
+        <v>14362939</v>
       </c>
       <c r="Z23" s="17">
-        <v>19037470</v>
+        <v>15113241</v>
       </c>
       <c r="AA23" s="17">
-        <v>14362939</v>
+        <v>21705152</v>
       </c>
       <c r="AB23" s="17">
-        <v>15113241</v>
+        <v>19407633</v>
       </c>
       <c r="AC23" s="17">
-        <v>21705152</v>
+        <v>12254854</v>
       </c>
       <c r="AD23" s="17">
-        <v>19407633</v>
+        <v>7265190</v>
       </c>
       <c r="AE23" s="17">
-        <v>12254854</v>
+        <v>15972895</v>
       </c>
       <c r="AF23" s="17">
-        <v>7265190</v>
+        <v>6712234</v>
       </c>
       <c r="AG23" s="17">
-        <v>15972895</v>
+        <v>13336334</v>
       </c>
       <c r="AH23" s="17">
-        <v>6712234</v>
+        <v>17818255</v>
       </c>
       <c r="AI23" s="17">
-        <v>13336334</v>
+        <v>49796519</v>
       </c>
       <c r="AJ23" s="17">
-        <v>17818255</v>
+        <v>28579379</v>
       </c>
       <c r="AK23" s="17">
-        <v>49796519</v>
+        <v>54405475</v>
       </c>
       <c r="AL23" s="17">
-        <v>28579379</v>
+        <v>15146190</v>
       </c>
       <c r="AM23" s="17">
-        <v>54405475</v>
+        <v>40225540</v>
       </c>
       <c r="AN23" s="17">
-        <v>15146190</v>
+        <v>46730322</v>
       </c>
       <c r="AO23" s="17">
-        <v>40225540</v>
+        <v>22417361</v>
       </c>
       <c r="AP23" s="17">
-        <v>46730322</v>
+        <v>20834755</v>
       </c>
       <c r="AQ23" s="17">
-        <v>22417361</v>
+        <v>24547096</v>
       </c>
       <c r="AR23" s="17">
-        <v>20834755</v>
+        <v>12321035</v>
       </c>
       <c r="AS23" s="17">
-        <v>24547096</v>
+        <v>41718525</v>
       </c>
       <c r="AT23" s="17">
-        <v>12321035</v>
+        <v>39547156</v>
       </c>
       <c r="AU23" s="17">
-        <v>41718525</v>
+        <v>34154328</v>
       </c>
       <c r="AV23" s="17">
-        <v>39547156</v>
+        <v>24053102</v>
       </c>
       <c r="AW23" s="17">
-        <v>34154328</v>
+        <v>25945705</v>
       </c>
       <c r="AX23" s="17">
-        <v>24053102</v>
+        <v>15403588</v>
       </c>
       <c r="AY23" s="17">
-        <v>25945705</v>
+        <v>39350062</v>
       </c>
       <c r="AZ23" s="17">
-        <v>15403588</v>
+        <v>51250767</v>
       </c>
       <c r="BA23" s="17">
-        <v>36448182</v>
+        <v>28666417</v>
       </c>
       <c r="BB23" s="17">
-        <v>51250767</v>
+        <v>40345162</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -3443,7 +3443,7 @@
       <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3498,7 +3498,7 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3553,7 +3553,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>72</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3765,7 +3765,7 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
         <v>72</v>
       </c>
@@ -3822,7 +3822,7 @@
       <c r="BA29" s="9"/>
       <c r="BB29" s="9"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>55</v>
       </c>
@@ -3831,157 +3831,157 @@
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
+        <v>352070</v>
+      </c>
+      <c r="F30" s="11">
+        <v>29665</v>
+      </c>
+      <c r="G30" s="11">
+        <v>4800</v>
+      </c>
+      <c r="H30" s="11">
+        <v>0</v>
+      </c>
+      <c r="I30" s="11">
+        <v>0</v>
+      </c>
+      <c r="J30" s="11">
+        <v>0</v>
+      </c>
+      <c r="K30" s="11">
+        <v>0</v>
+      </c>
+      <c r="L30" s="11">
+        <v>0</v>
+      </c>
+      <c r="M30" s="11">
+        <v>117300</v>
+      </c>
+      <c r="N30" s="11">
+        <v>293160</v>
+      </c>
+      <c r="O30" s="11">
+        <v>406050</v>
+      </c>
+      <c r="P30" s="11">
+        <v>427680</v>
+      </c>
+      <c r="Q30" s="11">
+        <v>310560</v>
+      </c>
+      <c r="R30" s="11">
+        <v>232480</v>
+      </c>
+      <c r="S30" s="11">
+        <v>471680</v>
+      </c>
+      <c r="T30" s="11">
+        <v>117360</v>
+      </c>
+      <c r="U30" s="11">
+        <v>352080</v>
+      </c>
+      <c r="V30" s="11">
+        <v>293280</v>
+      </c>
+      <c r="W30" s="11">
+        <v>0</v>
+      </c>
+      <c r="X30" s="11">
+        <v>293250</v>
+      </c>
+      <c r="Y30" s="11">
+        <v>58680</v>
+      </c>
+      <c r="Z30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="11">
+        <v>116280</v>
+      </c>
+      <c r="AC30" s="11">
+        <v>293400</v>
+      </c>
+      <c r="AD30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="11">
+        <v>58680</v>
+      </c>
+      <c r="AG30" s="11">
+        <v>234600</v>
+      </c>
+      <c r="AH30" s="11">
+        <v>112530</v>
+      </c>
+      <c r="AI30" s="11">
+        <v>210960</v>
+      </c>
+      <c r="AJ30" s="11">
+        <v>42240</v>
+      </c>
+      <c r="AK30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="11">
         <v>176040</v>
       </c>
-      <c r="F30" s="11">
-        <v>234720</v>
-      </c>
-      <c r="G30" s="11">
-        <v>352070</v>
-      </c>
-      <c r="H30" s="11">
-        <v>29665</v>
-      </c>
-      <c r="I30" s="11">
-        <v>4800</v>
-      </c>
-      <c r="J30" s="11">
-        <v>0</v>
-      </c>
-      <c r="K30" s="11">
-        <v>0</v>
-      </c>
-      <c r="L30" s="11">
-        <v>0</v>
-      </c>
-      <c r="M30" s="11">
-        <v>0</v>
-      </c>
-      <c r="N30" s="11">
-        <v>0</v>
-      </c>
-      <c r="O30" s="11">
-        <v>117300</v>
-      </c>
-      <c r="P30" s="11">
-        <v>293160</v>
-      </c>
-      <c r="Q30" s="11">
-        <v>406050</v>
-      </c>
-      <c r="R30" s="11">
-        <v>427680</v>
-      </c>
-      <c r="S30" s="11">
-        <v>310560</v>
-      </c>
-      <c r="T30" s="11">
-        <v>232480</v>
-      </c>
-      <c r="U30" s="11">
-        <v>471680</v>
-      </c>
-      <c r="V30" s="11">
-        <v>117360</v>
-      </c>
-      <c r="W30" s="11">
-        <v>352080</v>
-      </c>
-      <c r="X30" s="11">
-        <v>293280</v>
-      </c>
-      <c r="Y30" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="11">
-        <v>293250</v>
-      </c>
-      <c r="AA30" s="11">
-        <v>58680</v>
-      </c>
-      <c r="AB30" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="11">
-        <v>116280</v>
-      </c>
-      <c r="AE30" s="11">
+      <c r="AM30" s="11">
+        <v>207360</v>
+      </c>
+      <c r="AN30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ30" s="11">
+        <v>60000</v>
+      </c>
+      <c r="AR30" s="11">
+        <v>233400</v>
+      </c>
+      <c r="AS30" s="11">
+        <v>45137</v>
+      </c>
+      <c r="AT30" s="11">
         <v>293400</v>
       </c>
-      <c r="AF30" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG30" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH30" s="11">
-        <v>58680</v>
-      </c>
-      <c r="AI30" s="11">
-        <v>234600</v>
-      </c>
-      <c r="AJ30" s="11">
-        <v>112530</v>
-      </c>
-      <c r="AK30" s="11">
-        <v>210960</v>
-      </c>
-      <c r="AL30" s="11">
-        <v>42240</v>
-      </c>
-      <c r="AM30" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN30" s="11">
-        <v>176040</v>
-      </c>
-      <c r="AO30" s="11">
-        <v>207360</v>
-      </c>
-      <c r="AP30" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ30" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR30" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS30" s="11">
-        <v>60000</v>
-      </c>
-      <c r="AT30" s="11">
-        <v>233400</v>
-      </c>
       <c r="AU30" s="11">
-        <v>45137</v>
+        <v>232320</v>
       </c>
       <c r="AV30" s="11">
-        <v>293400</v>
+        <v>0</v>
       </c>
       <c r="AW30" s="11">
-        <v>232320</v>
+        <v>88712</v>
       </c>
       <c r="AX30" s="11">
-        <v>0</v>
+        <v>357560</v>
       </c>
       <c r="AY30" s="11">
-        <v>88712</v>
+        <v>194398</v>
       </c>
       <c r="AZ30" s="11">
-        <v>357560</v>
+        <v>76169</v>
       </c>
       <c r="BA30" s="11">
-        <v>194398</v>
+        <v>104791</v>
       </c>
       <c r="BB30" s="11">
-        <v>76169</v>
+        <v>150000</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
         <v>57</v>
       </c>
@@ -3990,157 +3990,157 @@
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="13">
-        <v>326649</v>
+        <v>249880</v>
       </c>
       <c r="F31" s="13">
-        <v>535610</v>
+        <v>450307</v>
       </c>
       <c r="G31" s="13">
-        <v>249880</v>
+        <v>276076</v>
       </c>
       <c r="H31" s="13">
-        <v>450307</v>
+        <v>86485</v>
       </c>
       <c r="I31" s="13">
-        <v>276076</v>
+        <v>580021</v>
       </c>
       <c r="J31" s="13">
-        <v>86485</v>
+        <v>318008</v>
       </c>
       <c r="K31" s="13">
-        <v>580021</v>
+        <v>388914</v>
       </c>
       <c r="L31" s="13">
-        <v>318008</v>
+        <v>298264</v>
       </c>
       <c r="M31" s="13">
-        <v>388914</v>
+        <v>843370</v>
       </c>
       <c r="N31" s="13">
-        <v>298264</v>
+        <v>295460</v>
       </c>
       <c r="O31" s="13">
-        <v>843370</v>
+        <v>531310</v>
       </c>
       <c r="P31" s="13">
-        <v>295460</v>
+        <v>441064</v>
       </c>
       <c r="Q31" s="13">
-        <v>531310</v>
+        <v>674920</v>
       </c>
       <c r="R31" s="13">
-        <v>441064</v>
+        <v>707878</v>
       </c>
       <c r="S31" s="13">
-        <v>674920</v>
+        <v>452250</v>
       </c>
       <c r="T31" s="13">
-        <v>707878</v>
+        <v>261259</v>
       </c>
       <c r="U31" s="13">
-        <v>452250</v>
+        <v>350036</v>
       </c>
       <c r="V31" s="13">
-        <v>261259</v>
+        <v>314605</v>
       </c>
       <c r="W31" s="13">
-        <v>350036</v>
+        <v>749791</v>
       </c>
       <c r="X31" s="13">
-        <v>314605</v>
+        <v>521049</v>
       </c>
       <c r="Y31" s="13">
-        <v>749791</v>
+        <v>617582</v>
       </c>
       <c r="Z31" s="13">
-        <v>521049</v>
+        <v>652210</v>
       </c>
       <c r="AA31" s="13">
-        <v>617582</v>
+        <v>411366</v>
       </c>
       <c r="AB31" s="13">
-        <v>652210</v>
+        <v>554704</v>
       </c>
       <c r="AC31" s="13">
-        <v>411366</v>
+        <v>16900</v>
       </c>
       <c r="AD31" s="13">
-        <v>554704</v>
+        <v>0</v>
       </c>
       <c r="AE31" s="13">
-        <v>16900</v>
+        <v>384770</v>
       </c>
       <c r="AF31" s="13">
-        <v>0</v>
+        <v>225058</v>
       </c>
       <c r="AG31" s="13">
-        <v>384770</v>
+        <v>66194</v>
       </c>
       <c r="AH31" s="13">
-        <v>225058</v>
+        <v>462605</v>
       </c>
       <c r="AI31" s="13">
-        <v>66194</v>
+        <v>590694</v>
       </c>
       <c r="AJ31" s="13">
-        <v>462605</v>
+        <v>623854</v>
       </c>
       <c r="AK31" s="13">
-        <v>590694</v>
+        <v>223425</v>
       </c>
       <c r="AL31" s="13">
-        <v>623854</v>
+        <v>264913</v>
       </c>
       <c r="AM31" s="13">
-        <v>223425</v>
+        <v>637709</v>
       </c>
       <c r="AN31" s="13">
-        <v>264913</v>
+        <v>814046</v>
       </c>
       <c r="AO31" s="13">
-        <v>637709</v>
+        <v>681703</v>
       </c>
       <c r="AP31" s="13">
-        <v>814046</v>
+        <v>351924</v>
       </c>
       <c r="AQ31" s="13">
-        <v>681703</v>
+        <v>175467</v>
       </c>
       <c r="AR31" s="13">
-        <v>351924</v>
+        <v>155901</v>
       </c>
       <c r="AS31" s="13">
-        <v>175467</v>
+        <v>186323</v>
       </c>
       <c r="AT31" s="13">
-        <v>155901</v>
+        <v>76001</v>
       </c>
       <c r="AU31" s="13">
-        <v>186323</v>
+        <v>146648</v>
       </c>
       <c r="AV31" s="13">
-        <v>76001</v>
+        <v>121962</v>
       </c>
       <c r="AW31" s="13">
-        <v>146648</v>
+        <v>497348</v>
       </c>
       <c r="AX31" s="13">
-        <v>121962</v>
+        <v>801639</v>
       </c>
       <c r="AY31" s="13">
-        <v>497348</v>
+        <v>883420</v>
       </c>
       <c r="AZ31" s="13">
-        <v>801639</v>
+        <v>457990</v>
       </c>
       <c r="BA31" s="13">
-        <v>883420</v>
+        <v>106084</v>
       </c>
       <c r="BB31" s="13">
-        <v>457990</v>
+        <v>448907</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
         <v>59</v>
       </c>
@@ -4149,157 +4149,157 @@
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
-        <v>108274</v>
+        <v>407985</v>
       </c>
       <c r="F32" s="11">
-        <v>0</v>
+        <v>407526</v>
       </c>
       <c r="G32" s="11">
-        <v>407985</v>
+        <v>226636</v>
       </c>
       <c r="H32" s="11">
-        <v>407526</v>
+        <v>296808</v>
       </c>
       <c r="I32" s="11">
-        <v>226636</v>
+        <v>64732</v>
       </c>
       <c r="J32" s="11">
-        <v>296808</v>
+        <v>0</v>
       </c>
       <c r="K32" s="11">
-        <v>64732</v>
+        <v>314390</v>
       </c>
       <c r="L32" s="11">
-        <v>0</v>
+        <v>360900</v>
       </c>
       <c r="M32" s="11">
-        <v>314390</v>
+        <v>225144</v>
       </c>
       <c r="N32" s="11">
-        <v>360900</v>
+        <v>328555</v>
       </c>
       <c r="O32" s="11">
-        <v>225144</v>
+        <v>164716</v>
       </c>
       <c r="P32" s="11">
-        <v>328555</v>
+        <v>403550</v>
       </c>
       <c r="Q32" s="11">
-        <v>164716</v>
+        <v>39988</v>
       </c>
       <c r="R32" s="11">
-        <v>403550</v>
+        <v>35996</v>
       </c>
       <c r="S32" s="11">
-        <v>39988</v>
+        <v>319754</v>
       </c>
       <c r="T32" s="11">
-        <v>35996</v>
+        <v>87685</v>
       </c>
       <c r="U32" s="11">
-        <v>319754</v>
+        <v>127596</v>
       </c>
       <c r="V32" s="11">
-        <v>87685</v>
+        <v>26000</v>
       </c>
       <c r="W32" s="11">
-        <v>127596</v>
+        <v>72010</v>
       </c>
       <c r="X32" s="11">
-        <v>26000</v>
+        <v>41800</v>
       </c>
       <c r="Y32" s="11">
-        <v>72010</v>
+        <v>279000</v>
       </c>
       <c r="Z32" s="11">
-        <v>41800</v>
+        <v>446982</v>
       </c>
       <c r="AA32" s="11">
+        <v>32396</v>
+      </c>
+      <c r="AB32" s="11">
+        <v>33668</v>
+      </c>
+      <c r="AC32" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="11">
+        <v>203696</v>
+      </c>
+      <c r="AF32" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="11">
+        <v>20000</v>
+      </c>
+      <c r="AK32" s="11">
+        <v>15000</v>
+      </c>
+      <c r="AL32" s="11">
+        <v>247971</v>
+      </c>
+      <c r="AM32" s="11">
+        <v>135324</v>
+      </c>
+      <c r="AN32" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO32" s="11">
+        <v>179340</v>
+      </c>
+      <c r="AP32" s="11">
+        <v>180894</v>
+      </c>
+      <c r="AQ32" s="11">
+        <v>4430</v>
+      </c>
+      <c r="AR32" s="11">
+        <v>44254</v>
+      </c>
+      <c r="AS32" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT32" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU32" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV32" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW32" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX32" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY32" s="11">
+        <v>279450</v>
+      </c>
+      <c r="AZ32" s="11">
+        <v>362381</v>
+      </c>
+      <c r="BA32" s="11">
         <v>279000</v>
       </c>
-      <c r="AB32" s="11">
-        <v>446982</v>
-      </c>
-      <c r="AC32" s="11">
-        <v>32396</v>
-      </c>
-      <c r="AD32" s="11">
-        <v>33668</v>
-      </c>
-      <c r="AE32" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF32" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG32" s="11">
-        <v>203696</v>
-      </c>
-      <c r="AH32" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI32" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ32" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK32" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL32" s="11">
-        <v>20000</v>
-      </c>
-      <c r="AM32" s="11">
-        <v>15000</v>
-      </c>
-      <c r="AN32" s="11">
-        <v>247971</v>
-      </c>
-      <c r="AO32" s="11">
-        <v>135324</v>
-      </c>
-      <c r="AP32" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ32" s="11">
-        <v>179340</v>
-      </c>
-      <c r="AR32" s="11">
-        <v>180894</v>
-      </c>
-      <c r="AS32" s="11">
-        <v>4430</v>
-      </c>
-      <c r="AT32" s="11">
-        <v>44254</v>
-      </c>
-      <c r="AU32" s="11">
-        <v>0</v>
-      </c>
-      <c r="AV32" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW32" s="11">
-        <v>0</v>
-      </c>
-      <c r="AX32" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY32" s="11">
-        <v>0</v>
-      </c>
-      <c r="AZ32" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA32" s="11">
-        <v>279450</v>
-      </c>
       <c r="BB32" s="11">
-        <v>362381</v>
+        <v>328852</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
         <v>61</v>
       </c>
@@ -4308,157 +4308,157 @@
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="13">
-        <v>5757730</v>
+        <v>9988100</v>
       </c>
       <c r="F33" s="13">
-        <v>14739720</v>
+        <v>14988080</v>
       </c>
       <c r="G33" s="13">
-        <v>9988100</v>
+        <v>14021894</v>
       </c>
       <c r="H33" s="13">
-        <v>14988080</v>
+        <v>5062092</v>
       </c>
       <c r="I33" s="13">
-        <v>14021894</v>
+        <v>7143120</v>
       </c>
       <c r="J33" s="13">
-        <v>5062092</v>
+        <v>6516892</v>
       </c>
       <c r="K33" s="13">
-        <v>7143120</v>
+        <v>9835002</v>
       </c>
       <c r="L33" s="13">
-        <v>6516892</v>
+        <v>11293340</v>
       </c>
       <c r="M33" s="13">
-        <v>9835002</v>
+        <v>17785540</v>
       </c>
       <c r="N33" s="13">
-        <v>11293340</v>
+        <v>24072020</v>
       </c>
       <c r="O33" s="13">
-        <v>17785540</v>
+        <v>26013240</v>
       </c>
       <c r="P33" s="13">
-        <v>24072020</v>
+        <v>18920240</v>
       </c>
       <c r="Q33" s="13">
-        <v>26013240</v>
+        <v>20779140</v>
       </c>
       <c r="R33" s="13">
-        <v>18920240</v>
+        <v>27268094</v>
       </c>
       <c r="S33" s="13">
-        <v>20779140</v>
+        <v>29154500</v>
       </c>
       <c r="T33" s="13">
-        <v>27268094</v>
+        <v>3161100</v>
       </c>
       <c r="U33" s="13">
-        <v>29154500</v>
+        <v>9808340</v>
       </c>
       <c r="V33" s="13">
-        <v>3161100</v>
+        <v>26264800</v>
       </c>
       <c r="W33" s="13">
-        <v>9808340</v>
+        <v>25781960</v>
       </c>
       <c r="X33" s="13">
-        <v>26264800</v>
+        <v>14958930</v>
       </c>
       <c r="Y33" s="13">
-        <v>25781960</v>
+        <v>3650278</v>
       </c>
       <c r="Z33" s="13">
-        <v>14958930</v>
+        <v>3313698</v>
       </c>
       <c r="AA33" s="13">
-        <v>3650278</v>
+        <v>29056350</v>
       </c>
       <c r="AB33" s="13">
-        <v>3313698</v>
+        <v>18249450</v>
       </c>
       <c r="AC33" s="13">
-        <v>29056350</v>
+        <v>3319694</v>
       </c>
       <c r="AD33" s="13">
-        <v>18249450</v>
+        <v>5095000</v>
       </c>
       <c r="AE33" s="13">
-        <v>3319694</v>
+        <v>16123430</v>
       </c>
       <c r="AF33" s="13">
-        <v>5095000</v>
+        <v>5246250</v>
       </c>
       <c r="AG33" s="13">
-        <v>16123430</v>
+        <v>10389950</v>
       </c>
       <c r="AH33" s="13">
-        <v>5246250</v>
+        <v>4586768</v>
       </c>
       <c r="AI33" s="13">
-        <v>10389950</v>
+        <v>55923024</v>
       </c>
       <c r="AJ33" s="13">
-        <v>4586768</v>
+        <v>24923336</v>
       </c>
       <c r="AK33" s="13">
-        <v>55923024</v>
+        <v>51018720</v>
       </c>
       <c r="AL33" s="13">
-        <v>24923336</v>
+        <v>10668860</v>
       </c>
       <c r="AM33" s="13">
-        <v>51018720</v>
+        <v>34980130</v>
       </c>
       <c r="AN33" s="13">
-        <v>10668860</v>
+        <v>44978050</v>
       </c>
       <c r="AO33" s="13">
-        <v>34980130</v>
+        <v>19983750</v>
       </c>
       <c r="AP33" s="13">
-        <v>44978050</v>
+        <v>17294200</v>
       </c>
       <c r="AQ33" s="13">
-        <v>19983750</v>
+        <v>22223050</v>
       </c>
       <c r="AR33" s="13">
-        <v>17294200</v>
+        <v>9391220</v>
       </c>
       <c r="AS33" s="13">
-        <v>22223050</v>
+        <v>38699600</v>
       </c>
       <c r="AT33" s="13">
-        <v>9391220</v>
+        <v>34421030</v>
       </c>
       <c r="AU33" s="13">
-        <v>38699600</v>
+        <v>26777450</v>
       </c>
       <c r="AV33" s="13">
-        <v>34421030</v>
+        <v>28959360</v>
       </c>
       <c r="AW33" s="13">
-        <v>26777450</v>
+        <v>20009370</v>
       </c>
       <c r="AX33" s="13">
-        <v>28959360</v>
+        <v>7543550</v>
       </c>
       <c r="AY33" s="13">
-        <v>20009370</v>
+        <v>32461460</v>
       </c>
       <c r="AZ33" s="13">
-        <v>7543550</v>
+        <v>49846060</v>
       </c>
       <c r="BA33" s="13">
-        <v>32461460</v>
+        <v>31931740</v>
       </c>
       <c r="BB33" s="13">
-        <v>49846060</v>
+        <v>35708130</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
         <v>62</v>
       </c>
@@ -4467,157 +4467,157 @@
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
-        <v>2994892</v>
+        <v>4488935</v>
       </c>
       <c r="F34" s="11">
-        <v>4231625</v>
+        <v>3406150</v>
       </c>
       <c r="G34" s="11">
-        <v>4488935</v>
+        <v>5376015</v>
       </c>
       <c r="H34" s="11">
-        <v>3406150</v>
+        <v>396800</v>
       </c>
       <c r="I34" s="11">
-        <v>5376015</v>
+        <v>1306988</v>
       </c>
       <c r="J34" s="11">
-        <v>396800</v>
+        <v>3292625</v>
       </c>
       <c r="K34" s="11">
-        <v>1306988</v>
+        <v>2270906</v>
       </c>
       <c r="L34" s="11">
-        <v>3292625</v>
+        <v>5248095</v>
       </c>
       <c r="M34" s="11">
-        <v>2270906</v>
+        <v>3310140</v>
       </c>
       <c r="N34" s="11">
-        <v>5248095</v>
+        <v>1900080</v>
       </c>
       <c r="O34" s="11">
-        <v>3310140</v>
+        <v>1319050</v>
       </c>
       <c r="P34" s="11">
-        <v>1900080</v>
+        <v>897775</v>
       </c>
       <c r="Q34" s="11">
-        <v>1319050</v>
+        <v>86440</v>
       </c>
       <c r="R34" s="11">
-        <v>897775</v>
+        <v>593327</v>
       </c>
       <c r="S34" s="11">
-        <v>86440</v>
+        <v>1742490</v>
       </c>
       <c r="T34" s="11">
-        <v>593327</v>
+        <v>560300</v>
       </c>
       <c r="U34" s="11">
-        <v>1742490</v>
+        <v>762326</v>
       </c>
       <c r="V34" s="11">
-        <v>560300</v>
+        <v>4024050</v>
       </c>
       <c r="W34" s="11">
-        <v>762326</v>
+        <v>1689961</v>
       </c>
       <c r="X34" s="11">
-        <v>4024050</v>
+        <v>3586174</v>
       </c>
       <c r="Y34" s="11">
-        <v>1689961</v>
+        <v>1869520</v>
       </c>
       <c r="Z34" s="11">
-        <v>3586174</v>
+        <v>1701000</v>
       </c>
       <c r="AA34" s="11">
-        <v>1869520</v>
+        <v>2866590</v>
       </c>
       <c r="AB34" s="11">
-        <v>1701000</v>
+        <v>4088530</v>
       </c>
       <c r="AC34" s="11">
-        <v>2866590</v>
+        <v>5302230</v>
       </c>
       <c r="AD34" s="11">
-        <v>4088530</v>
+        <v>5243040</v>
       </c>
       <c r="AE34" s="11">
-        <v>5302230</v>
+        <v>640827</v>
       </c>
       <c r="AF34" s="11">
-        <v>5243040</v>
+        <v>1091320</v>
       </c>
       <c r="AG34" s="11">
-        <v>640827</v>
+        <v>1386230</v>
       </c>
       <c r="AH34" s="11">
-        <v>1091320</v>
+        <v>3985760</v>
       </c>
       <c r="AI34" s="11">
-        <v>1386230</v>
+        <v>2484060</v>
       </c>
       <c r="AJ34" s="11">
-        <v>3985760</v>
+        <v>4816465</v>
       </c>
       <c r="AK34" s="11">
-        <v>2484060</v>
+        <v>3258720</v>
       </c>
       <c r="AL34" s="11">
-        <v>4816465</v>
+        <v>2574820</v>
       </c>
       <c r="AM34" s="11">
-        <v>3258720</v>
+        <v>4036678</v>
       </c>
       <c r="AN34" s="11">
-        <v>2574820</v>
+        <v>1077780</v>
       </c>
       <c r="AO34" s="11">
-        <v>4036678</v>
+        <v>1147800</v>
       </c>
       <c r="AP34" s="11">
-        <v>1077780</v>
+        <v>3867980</v>
       </c>
       <c r="AQ34" s="11">
-        <v>1147800</v>
+        <v>1546240</v>
       </c>
       <c r="AR34" s="11">
-        <v>3867980</v>
+        <v>1342800</v>
       </c>
       <c r="AS34" s="11">
-        <v>1546240</v>
+        <v>4116468</v>
       </c>
       <c r="AT34" s="11">
-        <v>1342800</v>
+        <v>3355025</v>
       </c>
       <c r="AU34" s="11">
-        <v>4116468</v>
+        <v>2249560</v>
       </c>
       <c r="AV34" s="11">
-        <v>3355025</v>
+        <v>1702765</v>
       </c>
       <c r="AW34" s="11">
-        <v>2249560</v>
+        <v>3884700</v>
       </c>
       <c r="AX34" s="11">
-        <v>1702765</v>
+        <v>2906720</v>
       </c>
       <c r="AY34" s="11">
-        <v>3884700</v>
+        <v>868740</v>
       </c>
       <c r="AZ34" s="11">
-        <v>2906720</v>
+        <v>1691420</v>
       </c>
       <c r="BA34" s="11">
-        <v>868740</v>
+        <v>2614182</v>
       </c>
       <c r="BB34" s="11">
-        <v>1691420</v>
+        <v>2450040</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
         <v>63</v>
       </c>
@@ -4634,11 +4634,11 @@
       <c r="G35" s="13">
         <v>0</v>
       </c>
-      <c r="H35" s="13">
-        <v>0</v>
-      </c>
-      <c r="I35" s="13">
-        <v>0</v>
+      <c r="H35" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="J35" s="13" t="s">
         <v>64</v>
@@ -4776,7 +4776,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
         <v>65</v>
       </c>
@@ -4793,11 +4793,11 @@
       <c r="G36" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="H36" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>64</v>
+      <c r="H36" s="11">
+        <v>0</v>
+      </c>
+      <c r="I36" s="11">
+        <v>0</v>
       </c>
       <c r="J36" s="11">
         <v>0</v>
@@ -4829,11 +4829,11 @@
       <c r="S36" s="11">
         <v>0</v>
       </c>
-      <c r="T36" s="11">
-        <v>0</v>
-      </c>
-      <c r="U36" s="11">
-        <v>0</v>
+      <c r="T36" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="U36" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="V36" s="11" t="s">
         <v>64</v>
@@ -4865,11 +4865,11 @@
       <c r="AE36" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AF36" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG36" s="11" t="s">
-        <v>64</v>
+      <c r="AF36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="11">
+        <v>0</v>
       </c>
       <c r="AH36" s="11">
         <v>0</v>
@@ -4935,7 +4935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
         <v>66</v>
       </c>
@@ -4988,21 +4988,21 @@
       <c r="S37" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="T37" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="U37" s="13" t="s">
-        <v>64</v>
+      <c r="T37" s="13">
+        <v>2</v>
+      </c>
+      <c r="U37" s="13">
+        <v>33</v>
       </c>
       <c r="V37" s="13">
-        <v>2</v>
-      </c>
-      <c r="W37" s="13">
-        <v>33</v>
-      </c>
-      <c r="X37" s="13">
         <v>7</v>
       </c>
+      <c r="W37" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="X37" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="Y37" s="13" t="s">
         <v>64</v>
       </c>
@@ -5094,7 +5094,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>68</v>
       </c>
@@ -5151,7 +5151,7 @@
       <c r="BA38" s="9"/>
       <c r="BB38" s="9"/>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>66</v>
       </c>
@@ -5213,72 +5213,72 @@
       <c r="V39" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="W39" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="X39" s="11" t="s">
-        <v>64</v>
+      <c r="W39" s="11">
+        <v>8</v>
+      </c>
+      <c r="X39" s="11">
+        <v>28</v>
       </c>
       <c r="Y39" s="11">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Z39" s="11">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AA39" s="11">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AB39" s="11">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="AC39" s="11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AD39" s="11">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AE39" s="11">
+        <v>6</v>
+      </c>
+      <c r="AF39" s="11">
+        <v>13</v>
+      </c>
+      <c r="AG39" s="11">
+        <v>15</v>
+      </c>
+      <c r="AH39" s="11">
+        <v>4</v>
+      </c>
+      <c r="AI39" s="11">
+        <v>3</v>
+      </c>
+      <c r="AJ39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK39" s="11">
+        <v>51</v>
+      </c>
+      <c r="AL39" s="11">
         <v>5</v>
       </c>
-      <c r="AF39" s="11">
-        <v>3</v>
-      </c>
-      <c r="AG39" s="11">
-        <v>6</v>
-      </c>
-      <c r="AH39" s="11">
-        <v>13</v>
-      </c>
-      <c r="AI39" s="11">
-        <v>15</v>
-      </c>
-      <c r="AJ39" s="11">
-        <v>4</v>
-      </c>
-      <c r="AK39" s="11">
-        <v>3</v>
-      </c>
-      <c r="AL39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM39" s="11">
-        <v>51</v>
+      <c r="AM39" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="AN39" s="11">
-        <v>5</v>
-      </c>
-      <c r="AO39" s="11" t="s">
-        <v>64</v>
+        <v>58</v>
+      </c>
+      <c r="AO39" s="11">
+        <v>9</v>
       </c>
       <c r="AP39" s="11">
-        <v>58</v>
-      </c>
-      <c r="AQ39" s="11">
-        <v>9</v>
-      </c>
-      <c r="AR39" s="11">
         <v>21</v>
       </c>
+      <c r="AQ39" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR39" s="11" t="s">
+        <v>64</v>
+      </c>
       <c r="AS39" s="11" t="s">
         <v>64</v>
       </c>
@@ -5310,7 +5310,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
         <v>69</v>
       </c>
@@ -5432,44 +5432,44 @@
       <c r="AP40" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AQ40" s="13" t="s">
-        <v>64</v>
+      <c r="AQ40" s="13">
+        <v>1751428</v>
       </c>
       <c r="AR40" s="13" t="s">
         <v>64</v>
       </c>
       <c r="AS40" s="13">
-        <v>1751428</v>
-      </c>
-      <c r="AT40" s="13" t="s">
-        <v>64</v>
+        <v>377858</v>
+      </c>
+      <c r="AT40" s="13">
+        <v>480437</v>
       </c>
       <c r="AU40" s="13">
-        <v>377858</v>
+        <v>113565</v>
       </c>
       <c r="AV40" s="13">
-        <v>480437</v>
+        <v>128507</v>
       </c>
       <c r="AW40" s="13">
-        <v>113565</v>
-      </c>
-      <c r="AX40" s="13">
-        <v>128507</v>
+        <v>498767</v>
+      </c>
+      <c r="AX40" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="AY40" s="13">
-        <v>498767</v>
-      </c>
-      <c r="AZ40" s="13" t="s">
-        <v>64</v>
+        <v>30187</v>
+      </c>
+      <c r="AZ40" s="13">
+        <v>11850</v>
       </c>
       <c r="BA40" s="13">
-        <v>30187</v>
+        <v>354846</v>
       </c>
       <c r="BB40" s="13">
-        <v>11850</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
         <v>70</v>
       </c>
@@ -5529,104 +5529,104 @@
       <c r="V41" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="W41" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="X41" s="15" t="s">
-        <v>64</v>
+      <c r="W41" s="15">
+        <v>8</v>
+      </c>
+      <c r="X41" s="15">
+        <v>28</v>
       </c>
       <c r="Y41" s="15">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Z41" s="15">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AA41" s="15">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AB41" s="15">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="AC41" s="15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AD41" s="15">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AE41" s="15">
+        <v>6</v>
+      </c>
+      <c r="AF41" s="15">
+        <v>13</v>
+      </c>
+      <c r="AG41" s="15">
+        <v>15</v>
+      </c>
+      <c r="AH41" s="15">
+        <v>4</v>
+      </c>
+      <c r="AI41" s="15">
+        <v>3</v>
+      </c>
+      <c r="AJ41" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK41" s="15">
+        <v>51</v>
+      </c>
+      <c r="AL41" s="15">
         <v>5</v>
       </c>
-      <c r="AF41" s="15">
-        <v>3</v>
-      </c>
-      <c r="AG41" s="15">
-        <v>6</v>
-      </c>
-      <c r="AH41" s="15">
-        <v>13</v>
-      </c>
-      <c r="AI41" s="15">
-        <v>15</v>
-      </c>
-      <c r="AJ41" s="15">
-        <v>4</v>
-      </c>
-      <c r="AK41" s="15">
-        <v>3</v>
-      </c>
-      <c r="AL41" s="15">
-        <v>0</v>
-      </c>
       <c r="AM41" s="15">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="AN41" s="15">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="AO41" s="15">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AP41" s="15">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="AQ41" s="15">
-        <v>9</v>
+        <v>1751428</v>
       </c>
       <c r="AR41" s="15">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AS41" s="15">
-        <v>1751428</v>
+        <v>377858</v>
       </c>
       <c r="AT41" s="15">
-        <v>0</v>
+        <v>480437</v>
       </c>
       <c r="AU41" s="15">
-        <v>377858</v>
+        <v>113565</v>
       </c>
       <c r="AV41" s="15">
-        <v>480437</v>
+        <v>128507</v>
       </c>
       <c r="AW41" s="15">
-        <v>113565</v>
+        <v>498767</v>
       </c>
       <c r="AX41" s="15">
-        <v>128507</v>
+        <v>0</v>
       </c>
       <c r="AY41" s="15">
-        <v>498767</v>
+        <v>30187</v>
       </c>
       <c r="AZ41" s="15">
-        <v>0</v>
+        <v>11850</v>
       </c>
       <c r="BA41" s="15">
-        <v>30187</v>
+        <v>354846</v>
       </c>
       <c r="BB41" s="15">
-        <v>11850</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
         <v>73</v>
       </c>
@@ -5683,7 +5683,7 @@
       <c r="BA42" s="9"/>
       <c r="BB42" s="9"/>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
         <v>55</v>
       </c>
@@ -5745,11 +5745,11 @@
       <c r="V43" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="W43" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="X43" s="11" t="s">
-        <v>64</v>
+      <c r="W43" s="11">
+        <v>0</v>
+      </c>
+      <c r="X43" s="11">
+        <v>0</v>
       </c>
       <c r="Y43" s="11">
         <v>0</v>
@@ -5775,8 +5775,8 @@
       <c r="AF43" s="11">
         <v>0</v>
       </c>
-      <c r="AG43" s="11">
-        <v>0</v>
+      <c r="AG43" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="AH43" s="11">
         <v>0</v>
@@ -5784,8 +5784,8 @@
       <c r="AI43" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AJ43" s="11">
-        <v>0</v>
+      <c r="AJ43" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="AK43" s="11" t="s">
         <v>64</v>
@@ -5799,14 +5799,14 @@
       <c r="AN43" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AO43" s="11" t="s">
-        <v>64</v>
+      <c r="AO43" s="11">
+        <v>0</v>
       </c>
       <c r="AP43" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AQ43" s="11">
-        <v>0</v>
+      <c r="AQ43" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="AR43" s="11" t="s">
         <v>64</v>
@@ -5835,14 +5835,14 @@
       <c r="AZ43" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="BA43" s="11">
-        <v>0</v>
+      <c r="BA43" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="BB43" s="11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
         <v>57</v>
       </c>
@@ -5904,38 +5904,38 @@
       <c r="V44" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="W44" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="X44" s="13" t="s">
-        <v>64</v>
+      <c r="W44" s="13">
+        <v>0</v>
+      </c>
+      <c r="X44" s="13">
+        <v>-100</v>
       </c>
       <c r="Y44" s="13">
         <v>0</v>
       </c>
       <c r="Z44" s="13">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA44" s="13">
-        <v>0</v>
+        <v>-50000</v>
       </c>
       <c r="AB44" s="13">
         <v>0</v>
       </c>
       <c r="AC44" s="13">
-        <v>-50000</v>
+        <v>0</v>
       </c>
       <c r="AD44" s="13">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="AE44" s="13">
         <v>0</v>
       </c>
       <c r="AF44" s="13">
-        <v>-1500</v>
-      </c>
-      <c r="AG44" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AG44" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="AH44" s="13">
         <v>0</v>
@@ -5943,8 +5943,8 @@
       <c r="AI44" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AJ44" s="13">
-        <v>0</v>
+      <c r="AJ44" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="AK44" s="13" t="s">
         <v>64</v>
@@ -5958,14 +5958,14 @@
       <c r="AN44" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AO44" s="13" t="s">
-        <v>64</v>
+      <c r="AO44" s="13">
+        <v>0</v>
       </c>
       <c r="AP44" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AQ44" s="13">
-        <v>0</v>
+      <c r="AQ44" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="AR44" s="13" t="s">
         <v>64</v>
@@ -5988,20 +5988,20 @@
       <c r="AX44" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AY44" s="13" t="s">
-        <v>64</v>
+      <c r="AY44" s="13">
+        <v>-120</v>
       </c>
       <c r="AZ44" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="BA44" s="13">
-        <v>-120</v>
+      <c r="BA44" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="BB44" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>59</v>
       </c>
@@ -6063,11 +6063,11 @@
       <c r="V45" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="W45" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="X45" s="11" t="s">
-        <v>64</v>
+      <c r="W45" s="11">
+        <v>0</v>
+      </c>
+      <c r="X45" s="11">
+        <v>0</v>
       </c>
       <c r="Y45" s="11">
         <v>0</v>
@@ -6093,8 +6093,8 @@
       <c r="AF45" s="11">
         <v>0</v>
       </c>
-      <c r="AG45" s="11">
-        <v>0</v>
+      <c r="AG45" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="AH45" s="11">
         <v>0</v>
@@ -6102,8 +6102,8 @@
       <c r="AI45" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AJ45" s="11">
-        <v>0</v>
+      <c r="AJ45" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="AK45" s="11" t="s">
         <v>64</v>
@@ -6117,14 +6117,14 @@
       <c r="AN45" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AO45" s="11" t="s">
-        <v>64</v>
+      <c r="AO45" s="11">
+        <v>0</v>
       </c>
       <c r="AP45" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AQ45" s="11">
-        <v>0</v>
+      <c r="AQ45" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="AR45" s="11" t="s">
         <v>64</v>
@@ -6153,14 +6153,14 @@
       <c r="AZ45" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="BA45" s="11">
-        <v>0</v>
+      <c r="BA45" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="BB45" s="11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="12" t="s">
         <v>61</v>
       </c>
@@ -6222,20 +6222,20 @@
       <c r="V46" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="W46" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="X46" s="13" t="s">
-        <v>64</v>
+      <c r="W46" s="13">
+        <v>0</v>
+      </c>
+      <c r="X46" s="13">
+        <v>0</v>
       </c>
       <c r="Y46" s="13">
-        <v>0</v>
+        <v>-108000</v>
       </c>
       <c r="Z46" s="13">
         <v>0</v>
       </c>
       <c r="AA46" s="13">
-        <v>-108000</v>
+        <v>0</v>
       </c>
       <c r="AB46" s="13">
         <v>0</v>
@@ -6247,13 +6247,13 @@
         <v>0</v>
       </c>
       <c r="AE46" s="13">
-        <v>0</v>
+        <v>-450</v>
       </c>
       <c r="AF46" s="13">
         <v>0</v>
       </c>
-      <c r="AG46" s="13">
-        <v>-450</v>
+      <c r="AG46" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="AH46" s="13">
         <v>0</v>
@@ -6261,8 +6261,8 @@
       <c r="AI46" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AJ46" s="13">
-        <v>0</v>
+      <c r="AJ46" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="AK46" s="13" t="s">
         <v>64</v>
@@ -6273,53 +6273,53 @@
       <c r="AM46" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AN46" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO46" s="13" t="s">
-        <v>64</v>
+      <c r="AN46" s="13">
+        <v>-414</v>
+      </c>
+      <c r="AO46" s="13">
+        <v>0</v>
       </c>
       <c r="AP46" s="13">
-        <v>-414</v>
-      </c>
-      <c r="AQ46" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR46" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AQ46" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR46" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="AS46" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AT46" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU46" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="AV46" s="13">
+      <c r="AT46" s="13">
         <v>-62490</v>
       </c>
-      <c r="AW46" s="13">
+      <c r="AU46" s="13">
         <v>-6120</v>
       </c>
-      <c r="AX46" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY46" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="AZ46" s="13">
+      <c r="AV46" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW46" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AX46" s="13">
         <v>-933650</v>
       </c>
+      <c r="AY46" s="13">
+        <v>-1884400</v>
+      </c>
+      <c r="AZ46" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="BA46" s="13">
-        <v>-1884400</v>
+        <v>-25950</v>
       </c>
       <c r="BB46" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
         <v>62</v>
       </c>
@@ -6381,17 +6381,17 @@
       <c r="V47" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="W47" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="X47" s="11" t="s">
-        <v>64</v>
+      <c r="W47" s="11">
+        <v>-10927</v>
+      </c>
+      <c r="X47" s="11">
+        <v>-800</v>
       </c>
       <c r="Y47" s="11">
-        <v>-10927</v>
+        <v>0</v>
       </c>
       <c r="Z47" s="11">
-        <v>-800</v>
+        <v>0</v>
       </c>
       <c r="AA47" s="11">
         <v>0</v>
@@ -6406,79 +6406,79 @@
         <v>0</v>
       </c>
       <c r="AE47" s="11">
-        <v>0</v>
+        <v>-471</v>
       </c>
       <c r="AF47" s="11">
         <v>0</v>
       </c>
-      <c r="AG47" s="11">
-        <v>-471</v>
+      <c r="AG47" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="AH47" s="11">
         <v>0</v>
       </c>
-      <c r="AI47" s="11" t="s">
-        <v>64</v>
+      <c r="AI47" s="11">
+        <v>-2000</v>
       </c>
       <c r="AJ47" s="11">
-        <v>0</v>
+        <v>-5000</v>
       </c>
       <c r="AK47" s="11">
-        <v>-2000</v>
+        <v>-25720</v>
       </c>
       <c r="AL47" s="11">
-        <v>-5000</v>
+        <v>-21000</v>
       </c>
       <c r="AM47" s="11">
-        <v>-25720</v>
+        <v>-4860</v>
       </c>
       <c r="AN47" s="11">
-        <v>-21000</v>
+        <v>0</v>
       </c>
       <c r="AO47" s="11">
-        <v>-4860</v>
+        <v>0</v>
       </c>
       <c r="AP47" s="11">
         <v>0</v>
       </c>
-      <c r="AQ47" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR47" s="11">
-        <v>0</v>
+      <c r="AQ47" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR47" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="AS47" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AT47" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU47" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AV47" s="11">
+      <c r="AT47" s="11">
         <v>-13</v>
       </c>
-      <c r="AW47" s="11">
+      <c r="AU47" s="11">
         <v>-557600</v>
       </c>
-      <c r="AX47" s="11" t="s">
-        <v>64</v>
+      <c r="AV47" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW47" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AX47" s="11">
+        <v>-10000</v>
       </c>
       <c r="AY47" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AZ47" s="11">
-        <v>-10000</v>
+      <c r="AZ47" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="BA47" s="11">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="BB47" s="11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
         <v>63</v>
       </c>
@@ -6567,8 +6567,8 @@
       <c r="AE48" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AF48" s="13" t="s">
-        <v>64</v>
+      <c r="AF48" s="13">
+        <v>0</v>
       </c>
       <c r="AG48" s="13" t="s">
         <v>64</v>
@@ -6579,8 +6579,8 @@
       <c r="AI48" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AJ48" s="13">
-        <v>0</v>
+      <c r="AJ48" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="AK48" s="13" t="s">
         <v>64</v>
@@ -6594,14 +6594,14 @@
       <c r="AN48" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AO48" s="13" t="s">
-        <v>64</v>
+      <c r="AO48" s="13">
+        <v>0</v>
       </c>
       <c r="AP48" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AQ48" s="13">
-        <v>0</v>
+      <c r="AQ48" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="AR48" s="13" t="s">
         <v>64</v>
@@ -6637,7 +6637,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
         <v>65</v>
       </c>
@@ -6789,14 +6789,14 @@
       <c r="AZ49" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="BA49" s="11">
-        <v>0</v>
+      <c r="BA49" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="BB49" s="11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="16" t="s">
         <v>74</v>
       </c>
@@ -6856,65 +6856,65 @@
       <c r="V50" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="W50" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="X50" s="17" t="s">
-        <v>64</v>
+      <c r="W50" s="17">
+        <v>-10927</v>
+      </c>
+      <c r="X50" s="17">
+        <v>-900</v>
       </c>
       <c r="Y50" s="17">
-        <v>-10927</v>
+        <v>-108000</v>
       </c>
       <c r="Z50" s="17">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="AA50" s="17">
-        <v>-108000</v>
+        <v>-50000</v>
       </c>
       <c r="AB50" s="17">
         <v>0</v>
       </c>
       <c r="AC50" s="17">
-        <v>-50000</v>
+        <v>0</v>
       </c>
       <c r="AD50" s="17">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="AE50" s="17">
-        <v>0</v>
+        <v>-921</v>
       </c>
       <c r="AF50" s="17">
-        <v>-1500</v>
+        <v>0</v>
       </c>
       <c r="AG50" s="17">
-        <v>-921</v>
+        <v>0</v>
       </c>
       <c r="AH50" s="17">
         <v>0</v>
       </c>
       <c r="AI50" s="17">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="AJ50" s="17">
-        <v>0</v>
+        <v>-5000</v>
       </c>
       <c r="AK50" s="17">
-        <v>-2000</v>
+        <v>-25720</v>
       </c>
       <c r="AL50" s="17">
-        <v>-5000</v>
+        <v>-21000</v>
       </c>
       <c r="AM50" s="17">
-        <v>-25720</v>
+        <v>-4860</v>
       </c>
       <c r="AN50" s="17">
-        <v>-21000</v>
+        <v>-414</v>
       </c>
       <c r="AO50" s="17">
-        <v>-4860</v>
+        <v>0</v>
       </c>
       <c r="AP50" s="17">
-        <v>-414</v>
+        <v>0</v>
       </c>
       <c r="AQ50" s="17">
         <v>0</v>
@@ -6926,191 +6926,191 @@
         <v>0</v>
       </c>
       <c r="AT50" s="17">
-        <v>0</v>
+        <v>-62503</v>
       </c>
       <c r="AU50" s="17">
-        <v>0</v>
+        <v>-563720</v>
       </c>
       <c r="AV50" s="17">
-        <v>-62503</v>
+        <v>0</v>
       </c>
       <c r="AW50" s="17">
-        <v>-563720</v>
+        <v>0</v>
       </c>
       <c r="AX50" s="17">
-        <v>0</v>
+        <v>-943650</v>
       </c>
       <c r="AY50" s="17">
-        <v>0</v>
+        <v>-1884520</v>
       </c>
       <c r="AZ50" s="17">
-        <v>-943650</v>
+        <v>0</v>
       </c>
       <c r="BA50" s="17">
-        <v>-1884520</v>
+        <v>-26000</v>
       </c>
       <c r="BB50" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
         <v>71</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15">
-        <v>9363585</v>
+        <v>15486970</v>
       </c>
       <c r="F51" s="15">
-        <v>19741675</v>
+        <v>19281728</v>
       </c>
       <c r="G51" s="15">
-        <v>15486970</v>
+        <v>19905421</v>
       </c>
       <c r="H51" s="15">
-        <v>19281728</v>
+        <v>5842185</v>
       </c>
       <c r="I51" s="15">
-        <v>19905421</v>
+        <v>9094861</v>
       </c>
       <c r="J51" s="15">
-        <v>5842185</v>
+        <v>10127525</v>
       </c>
       <c r="K51" s="15">
-        <v>9094861</v>
+        <v>12809212</v>
       </c>
       <c r="L51" s="15">
-        <v>10127525</v>
+        <v>17200599</v>
       </c>
       <c r="M51" s="15">
-        <v>12809212</v>
+        <v>22281494</v>
       </c>
       <c r="N51" s="15">
-        <v>17200599</v>
+        <v>26889275</v>
       </c>
       <c r="O51" s="15">
-        <v>22281494</v>
+        <v>28434366</v>
       </c>
       <c r="P51" s="15">
-        <v>26889275</v>
+        <v>21090309</v>
       </c>
       <c r="Q51" s="15">
-        <v>28434366</v>
+        <v>21891048</v>
       </c>
       <c r="R51" s="15">
-        <v>21090309</v>
+        <v>28837775</v>
       </c>
       <c r="S51" s="15">
-        <v>21891048</v>
+        <v>32140674</v>
       </c>
       <c r="T51" s="15">
-        <v>28837775</v>
+        <v>4187706</v>
       </c>
       <c r="U51" s="15">
-        <v>32140674</v>
+        <v>11400411</v>
       </c>
       <c r="V51" s="15">
-        <v>4187706</v>
+        <v>30922742</v>
       </c>
       <c r="W51" s="15">
-        <v>11400411</v>
+        <v>28282803</v>
       </c>
       <c r="X51" s="15">
-        <v>30922742</v>
+        <v>19400331</v>
       </c>
       <c r="Y51" s="15">
-        <v>28282803</v>
+        <v>6367072</v>
       </c>
       <c r="Z51" s="15">
-        <v>19400331</v>
+        <v>6113920</v>
       </c>
       <c r="AA51" s="15">
-        <v>6367072</v>
+        <v>32316709</v>
       </c>
       <c r="AB51" s="15">
-        <v>6113920</v>
+        <v>23042643</v>
       </c>
       <c r="AC51" s="15">
-        <v>32316709</v>
+        <v>8932229</v>
       </c>
       <c r="AD51" s="15">
-        <v>23042643</v>
+        <v>10336543</v>
       </c>
       <c r="AE51" s="15">
-        <v>8932229</v>
+        <v>17351808</v>
       </c>
       <c r="AF51" s="15">
-        <v>10336543</v>
+        <v>6621321</v>
       </c>
       <c r="AG51" s="15">
-        <v>17351808</v>
+        <v>12076989</v>
       </c>
       <c r="AH51" s="15">
-        <v>6621321</v>
+        <v>9147667</v>
       </c>
       <c r="AI51" s="15">
-        <v>12076989</v>
+        <v>59206741</v>
       </c>
       <c r="AJ51" s="15">
-        <v>9147667</v>
+        <v>30420895</v>
       </c>
       <c r="AK51" s="15">
-        <v>59206741</v>
+        <v>54490196</v>
       </c>
       <c r="AL51" s="15">
-        <v>30420895</v>
+        <v>13911609</v>
       </c>
       <c r="AM51" s="15">
-        <v>54490196</v>
+        <v>39992341</v>
       </c>
       <c r="AN51" s="15">
-        <v>13911609</v>
+        <v>46869520</v>
       </c>
       <c r="AO51" s="15">
-        <v>39992341</v>
+        <v>21992602</v>
       </c>
       <c r="AP51" s="15">
-        <v>46869520</v>
+        <v>21695019</v>
       </c>
       <c r="AQ51" s="15">
-        <v>21992602</v>
+        <v>25760615</v>
       </c>
       <c r="AR51" s="15">
-        <v>21695019</v>
+        <v>11167575</v>
       </c>
       <c r="AS51" s="15">
-        <v>25760615</v>
+        <v>43425386</v>
       </c>
       <c r="AT51" s="15">
-        <v>11167575</v>
+        <v>38563390</v>
       </c>
       <c r="AU51" s="15">
-        <v>43425386</v>
+        <v>28955823</v>
       </c>
       <c r="AV51" s="15">
-        <v>38563390</v>
+        <v>30912594</v>
       </c>
       <c r="AW51" s="15">
-        <v>28955823</v>
+        <v>24978897</v>
       </c>
       <c r="AX51" s="15">
-        <v>30912594</v>
+        <v>10665819</v>
       </c>
       <c r="AY51" s="15">
-        <v>24978897</v>
+        <v>32833135</v>
       </c>
       <c r="AZ51" s="15">
-        <v>10665819</v>
+        <v>52445870</v>
       </c>
       <c r="BA51" s="15">
-        <v>32833135</v>
+        <v>35364643</v>
       </c>
       <c r="BB51" s="15">
-        <v>52445870</v>
+        <v>39085929</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -7165,7 +7165,7 @@
       <c r="BA52" s="1"/>
       <c r="BB52" s="1"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -7220,7 +7220,7 @@
       <c r="BA53" s="1"/>
       <c r="BB53" s="1"/>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -7275,7 +7275,7 @@
       <c r="BA54" s="1"/>
       <c r="BB54" s="1"/>
     </row>
-    <row r="55" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
         <v>75</v>
       </c>
@@ -7432,7 +7432,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -7487,7 +7487,7 @@
       <c r="BA56" s="1"/>
       <c r="BB56" s="1"/>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
         <v>75</v>
       </c>
@@ -7544,7 +7544,7 @@
       <c r="BA57" s="9"/>
       <c r="BB57" s="9"/>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>55</v>
       </c>
@@ -7553,19 +7553,19 @@
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
-        <v>2993</v>
+        <v>8453</v>
       </c>
       <c r="F58" s="11">
-        <v>5624</v>
+        <v>943</v>
       </c>
       <c r="G58" s="11">
-        <v>8453</v>
+        <v>306</v>
       </c>
       <c r="H58" s="11">
-        <v>943</v>
+        <v>0</v>
       </c>
       <c r="I58" s="11">
-        <v>306</v>
+        <v>0</v>
       </c>
       <c r="J58" s="11">
         <v>0</v>
@@ -7577,133 +7577,133 @@
         <v>0</v>
       </c>
       <c r="M58" s="11">
-        <v>0</v>
+        <v>2815</v>
       </c>
       <c r="N58" s="11">
-        <v>0</v>
+        <v>8217</v>
       </c>
       <c r="O58" s="11">
-        <v>2815</v>
+        <v>8945</v>
       </c>
       <c r="P58" s="11">
-        <v>8217</v>
+        <v>12520</v>
       </c>
       <c r="Q58" s="11">
-        <v>8945</v>
+        <v>8013</v>
       </c>
       <c r="R58" s="11">
-        <v>12520</v>
+        <v>4263</v>
       </c>
       <c r="S58" s="11">
-        <v>8013</v>
+        <v>10227</v>
       </c>
       <c r="T58" s="11">
-        <v>4263</v>
+        <v>3436</v>
       </c>
       <c r="U58" s="11">
-        <v>10227</v>
+        <v>10307</v>
       </c>
       <c r="V58" s="11">
-        <v>3436</v>
+        <v>8157</v>
       </c>
       <c r="W58" s="11">
-        <v>10307</v>
+        <v>0</v>
       </c>
       <c r="X58" s="11">
-        <v>8157</v>
+        <v>8585</v>
       </c>
       <c r="Y58" s="11">
-        <v>0</v>
+        <v>1718</v>
       </c>
       <c r="Z58" s="11">
-        <v>8585</v>
+        <v>0</v>
       </c>
       <c r="AA58" s="11">
-        <v>1718</v>
+        <v>0</v>
       </c>
       <c r="AB58" s="11">
-        <v>0</v>
+        <v>4658</v>
       </c>
       <c r="AC58" s="11">
-        <v>0</v>
+        <v>11754</v>
       </c>
       <c r="AD58" s="11">
-        <v>4658</v>
+        <v>0</v>
       </c>
       <c r="AE58" s="11">
-        <v>11754</v>
+        <v>0</v>
       </c>
       <c r="AF58" s="11">
-        <v>0</v>
+        <v>2351</v>
       </c>
       <c r="AG58" s="11">
-        <v>0</v>
+        <v>9399</v>
       </c>
       <c r="AH58" s="11">
-        <v>2351</v>
+        <v>3791</v>
       </c>
       <c r="AI58" s="11">
-        <v>9399</v>
+        <v>10909</v>
       </c>
       <c r="AJ58" s="11">
-        <v>3791</v>
+        <v>1692</v>
       </c>
       <c r="AK58" s="11">
-        <v>10909</v>
+        <v>0</v>
       </c>
       <c r="AL58" s="11">
-        <v>1692</v>
+        <v>9330</v>
       </c>
       <c r="AM58" s="11">
-        <v>0</v>
+        <v>10990</v>
       </c>
       <c r="AN58" s="11">
-        <v>9330</v>
+        <v>0</v>
       </c>
       <c r="AO58" s="11">
-        <v>10990</v>
+        <v>0</v>
       </c>
       <c r="AP58" s="11">
         <v>0</v>
       </c>
       <c r="AQ58" s="11">
-        <v>0</v>
+        <v>3180</v>
       </c>
       <c r="AR58" s="11">
-        <v>0</v>
+        <v>12370</v>
       </c>
       <c r="AS58" s="11">
-        <v>3180</v>
+        <v>2392</v>
       </c>
       <c r="AT58" s="11">
-        <v>12370</v>
+        <v>15550</v>
       </c>
       <c r="AU58" s="11">
-        <v>2392</v>
+        <v>12313</v>
       </c>
       <c r="AV58" s="11">
-        <v>15550</v>
+        <v>0</v>
       </c>
       <c r="AW58" s="11">
-        <v>12313</v>
+        <v>8291</v>
       </c>
       <c r="AX58" s="11">
-        <v>0</v>
+        <v>21779</v>
       </c>
       <c r="AY58" s="11">
-        <v>8291</v>
+        <v>9420</v>
       </c>
       <c r="AZ58" s="11">
-        <v>21779</v>
+        <v>9521</v>
       </c>
       <c r="BA58" s="11">
-        <v>9420</v>
+        <v>13099</v>
       </c>
       <c r="BB58" s="11">
-        <v>9521</v>
+        <v>15150</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="12" t="s">
         <v>57</v>
       </c>
@@ -7712,157 +7712,157 @@
       </c>
       <c r="D59" s="13"/>
       <c r="E59" s="13">
-        <v>32506</v>
+        <v>23841</v>
       </c>
       <c r="F59" s="13">
-        <v>56571</v>
+        <v>41396</v>
       </c>
       <c r="G59" s="13">
-        <v>23841</v>
+        <v>22536</v>
       </c>
       <c r="H59" s="13">
-        <v>41396</v>
+        <v>12499</v>
       </c>
       <c r="I59" s="13">
-        <v>22536</v>
+        <v>74087</v>
       </c>
       <c r="J59" s="13">
-        <v>12499</v>
+        <v>40820</v>
       </c>
       <c r="K59" s="13">
-        <v>74087</v>
+        <v>53279</v>
       </c>
       <c r="L59" s="13">
-        <v>40820</v>
+        <v>32547</v>
       </c>
       <c r="M59" s="13">
-        <v>53279</v>
+        <v>88997</v>
       </c>
       <c r="N59" s="13">
-        <v>32547</v>
+        <v>17847</v>
       </c>
       <c r="O59" s="13">
-        <v>88997</v>
+        <v>43213</v>
       </c>
       <c r="P59" s="13">
-        <v>17847</v>
+        <v>61631</v>
       </c>
       <c r="Q59" s="13">
-        <v>43213</v>
+        <v>61758</v>
       </c>
       <c r="R59" s="13">
-        <v>61631</v>
+        <v>42570</v>
       </c>
       <c r="S59" s="13">
-        <v>61758</v>
+        <v>63655</v>
       </c>
       <c r="T59" s="13">
-        <v>42570</v>
+        <v>35925</v>
       </c>
       <c r="U59" s="13">
-        <v>63655</v>
+        <v>47991</v>
       </c>
       <c r="V59" s="13">
-        <v>35925</v>
+        <v>60447</v>
       </c>
       <c r="W59" s="13">
-        <v>47991</v>
+        <v>161256</v>
       </c>
       <c r="X59" s="13">
-        <v>60447</v>
+        <v>212547</v>
       </c>
       <c r="Y59" s="13">
-        <v>161256</v>
+        <v>307590</v>
       </c>
       <c r="Z59" s="13">
-        <v>212547</v>
+        <v>247431</v>
       </c>
       <c r="AA59" s="13">
-        <v>307590</v>
+        <v>172764</v>
       </c>
       <c r="AB59" s="13">
-        <v>247431</v>
+        <v>108790</v>
       </c>
       <c r="AC59" s="13">
-        <v>172764</v>
+        <v>3322</v>
       </c>
       <c r="AD59" s="13">
-        <v>108790</v>
+        <v>0</v>
       </c>
       <c r="AE59" s="13">
-        <v>3322</v>
+        <v>90097</v>
       </c>
       <c r="AF59" s="13">
-        <v>0</v>
+        <v>58098</v>
       </c>
       <c r="AG59" s="13">
-        <v>90097</v>
+        <v>28297</v>
       </c>
       <c r="AH59" s="13">
-        <v>58098</v>
+        <v>151540</v>
       </c>
       <c r="AI59" s="13">
-        <v>28297</v>
+        <v>174366</v>
       </c>
       <c r="AJ59" s="13">
-        <v>151540</v>
+        <v>242443</v>
       </c>
       <c r="AK59" s="13">
-        <v>174366</v>
+        <v>97097</v>
       </c>
       <c r="AL59" s="13">
-        <v>242443</v>
+        <v>76651</v>
       </c>
       <c r="AM59" s="13">
-        <v>97097</v>
+        <v>177613</v>
       </c>
       <c r="AN59" s="13">
-        <v>76651</v>
+        <v>276757</v>
       </c>
       <c r="AO59" s="13">
-        <v>177613</v>
+        <v>145962</v>
       </c>
       <c r="AP59" s="13">
-        <v>276757</v>
+        <v>100349</v>
       </c>
       <c r="AQ59" s="13">
-        <v>145962</v>
+        <v>16181</v>
       </c>
       <c r="AR59" s="13">
-        <v>100349</v>
+        <v>22580</v>
       </c>
       <c r="AS59" s="13">
-        <v>16181</v>
+        <v>28980</v>
       </c>
       <c r="AT59" s="13">
-        <v>22580</v>
+        <v>7594</v>
       </c>
       <c r="AU59" s="13">
-        <v>28980</v>
+        <v>42876</v>
       </c>
       <c r="AV59" s="13">
-        <v>7594</v>
+        <v>23552</v>
       </c>
       <c r="AW59" s="13">
-        <v>42876</v>
+        <v>193370</v>
       </c>
       <c r="AX59" s="13">
-        <v>23552</v>
+        <v>278000</v>
       </c>
       <c r="AY59" s="13">
-        <v>193370</v>
+        <v>296732</v>
       </c>
       <c r="AZ59" s="13">
-        <v>278000</v>
+        <v>196240</v>
       </c>
       <c r="BA59" s="13">
-        <v>296732</v>
+        <v>42434</v>
       </c>
       <c r="BB59" s="13">
-        <v>196240</v>
+        <v>174774</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>59</v>
       </c>
@@ -7871,91 +7871,91 @@
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11">
-        <v>3248</v>
+        <v>12241</v>
       </c>
       <c r="F60" s="11">
-        <v>73</v>
+        <v>12226</v>
       </c>
       <c r="G60" s="11">
-        <v>12241</v>
+        <v>6052</v>
       </c>
       <c r="H60" s="11">
-        <v>12226</v>
+        <v>8904</v>
       </c>
       <c r="I60" s="11">
-        <v>6052</v>
+        <v>1942</v>
       </c>
       <c r="J60" s="11">
-        <v>8904</v>
+        <v>0</v>
       </c>
       <c r="K60" s="11">
-        <v>1942</v>
+        <v>9432</v>
       </c>
       <c r="L60" s="11">
-        <v>0</v>
+        <v>10827</v>
       </c>
       <c r="M60" s="11">
-        <v>9432</v>
+        <v>9020</v>
       </c>
       <c r="N60" s="11">
-        <v>10827</v>
+        <v>12802</v>
       </c>
       <c r="O60" s="11">
-        <v>9020</v>
+        <v>6599</v>
       </c>
       <c r="P60" s="11">
-        <v>12802</v>
+        <v>16167</v>
       </c>
       <c r="Q60" s="11">
-        <v>6599</v>
+        <v>1482</v>
       </c>
       <c r="R60" s="11">
-        <v>16167</v>
+        <v>1242</v>
       </c>
       <c r="S60" s="11">
-        <v>1482</v>
+        <v>13945</v>
       </c>
       <c r="T60" s="11">
-        <v>1242</v>
+        <v>4830</v>
       </c>
       <c r="U60" s="11">
-        <v>13945</v>
+        <v>6428</v>
       </c>
       <c r="V60" s="11">
-        <v>4830</v>
+        <v>1042</v>
       </c>
       <c r="W60" s="11">
-        <v>6428</v>
+        <v>3204</v>
       </c>
       <c r="X60" s="11">
-        <v>1042</v>
+        <v>2452</v>
       </c>
       <c r="Y60" s="11">
-        <v>3204</v>
+        <v>14868</v>
       </c>
       <c r="Z60" s="11">
-        <v>2452</v>
+        <v>27178</v>
       </c>
       <c r="AA60" s="11">
-        <v>14868</v>
+        <v>1824</v>
       </c>
       <c r="AB60" s="11">
-        <v>27178</v>
+        <v>1540</v>
       </c>
       <c r="AC60" s="11">
-        <v>1824</v>
+        <v>0</v>
       </c>
       <c r="AD60" s="11">
-        <v>1540</v>
+        <v>0</v>
       </c>
       <c r="AE60" s="11">
-        <v>0</v>
+        <v>14254</v>
       </c>
       <c r="AF60" s="11">
         <v>0</v>
       </c>
       <c r="AG60" s="11">
-        <v>14254</v>
+        <v>0</v>
       </c>
       <c r="AH60" s="11">
         <v>0</v>
@@ -7964,37 +7964,37 @@
         <v>0</v>
       </c>
       <c r="AJ60" s="11">
-        <v>0</v>
+        <v>1351</v>
       </c>
       <c r="AK60" s="11">
-        <v>0</v>
+        <v>1013</v>
       </c>
       <c r="AL60" s="11">
-        <v>1351</v>
+        <v>13913</v>
       </c>
       <c r="AM60" s="11">
-        <v>1013</v>
+        <v>7443</v>
       </c>
       <c r="AN60" s="11">
-        <v>13913</v>
+        <v>0</v>
       </c>
       <c r="AO60" s="11">
-        <v>7443</v>
+        <v>13451</v>
       </c>
       <c r="AP60" s="11">
-        <v>0</v>
+        <v>13567</v>
       </c>
       <c r="AQ60" s="11">
-        <v>13451</v>
+        <v>487</v>
       </c>
       <c r="AR60" s="11">
-        <v>13567</v>
+        <v>3319</v>
       </c>
       <c r="AS60" s="11">
-        <v>487</v>
+        <v>0</v>
       </c>
       <c r="AT60" s="11">
-        <v>3319</v>
+        <v>0</v>
       </c>
       <c r="AU60" s="11">
         <v>0</v>
@@ -8009,19 +8009,19 @@
         <v>0</v>
       </c>
       <c r="AY60" s="11">
-        <v>0</v>
+        <v>56643</v>
       </c>
       <c r="AZ60" s="11">
-        <v>0</v>
+        <v>72284</v>
       </c>
       <c r="BA60" s="11">
-        <v>56643</v>
+        <v>53497</v>
       </c>
       <c r="BB60" s="11">
-        <v>72284</v>
+        <v>57081</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="12" t="s">
         <v>61</v>
       </c>
@@ -8030,157 +8030,157 @@
       </c>
       <c r="D61" s="13"/>
       <c r="E61" s="13">
-        <v>24811</v>
+        <v>41147</v>
       </c>
       <c r="F61" s="13">
-        <v>44055</v>
+        <v>47664</v>
       </c>
       <c r="G61" s="13">
-        <v>41147</v>
+        <v>38409</v>
       </c>
       <c r="H61" s="13">
-        <v>47664</v>
+        <v>9466</v>
       </c>
       <c r="I61" s="13">
-        <v>38409</v>
+        <v>67425</v>
       </c>
       <c r="J61" s="13">
-        <v>9466</v>
+        <v>23784</v>
       </c>
       <c r="K61" s="13">
-        <v>67425</v>
+        <v>45964</v>
       </c>
       <c r="L61" s="13">
-        <v>23784</v>
+        <v>74802</v>
       </c>
       <c r="M61" s="13">
-        <v>45964</v>
+        <v>75508</v>
       </c>
       <c r="N61" s="13">
-        <v>74802</v>
+        <v>78377</v>
       </c>
       <c r="O61" s="13">
-        <v>75508</v>
+        <v>63419</v>
       </c>
       <c r="P61" s="13">
-        <v>78377</v>
+        <v>50911</v>
       </c>
       <c r="Q61" s="13">
-        <v>63419</v>
+        <v>55058</v>
       </c>
       <c r="R61" s="13">
-        <v>50911</v>
+        <v>78502</v>
       </c>
       <c r="S61" s="13">
-        <v>55058</v>
+        <v>93737</v>
       </c>
       <c r="T61" s="13">
-        <v>78502</v>
+        <v>15485</v>
       </c>
       <c r="U61" s="13">
-        <v>93737</v>
+        <v>58107</v>
       </c>
       <c r="V61" s="13">
-        <v>15485</v>
+        <v>72192</v>
       </c>
       <c r="W61" s="13">
-        <v>58107</v>
+        <v>125966</v>
       </c>
       <c r="X61" s="13">
-        <v>72192</v>
+        <v>42461</v>
       </c>
       <c r="Y61" s="13">
-        <v>125966</v>
+        <v>21704</v>
       </c>
       <c r="Z61" s="13">
-        <v>42461</v>
+        <v>46637</v>
       </c>
       <c r="AA61" s="13">
-        <v>21704</v>
+        <v>128731</v>
       </c>
       <c r="AB61" s="13">
-        <v>46637</v>
+        <v>92702</v>
       </c>
       <c r="AC61" s="13">
-        <v>128731</v>
+        <v>19910</v>
       </c>
       <c r="AD61" s="13">
-        <v>92702</v>
+        <v>29784</v>
       </c>
       <c r="AE61" s="13">
-        <v>19910</v>
+        <v>97643</v>
       </c>
       <c r="AF61" s="13">
-        <v>29784</v>
+        <v>24411</v>
       </c>
       <c r="AG61" s="13">
-        <v>97643</v>
+        <v>47975</v>
       </c>
       <c r="AH61" s="13">
-        <v>24411</v>
+        <v>19510</v>
       </c>
       <c r="AI61" s="13">
-        <v>47975</v>
+        <v>475336</v>
       </c>
       <c r="AJ61" s="13">
-        <v>19510</v>
+        <v>179921</v>
       </c>
       <c r="AK61" s="13">
-        <v>475336</v>
+        <v>429215</v>
       </c>
       <c r="AL61" s="13">
-        <v>179921</v>
+        <v>55755</v>
       </c>
       <c r="AM61" s="13">
-        <v>429215</v>
+        <v>234475</v>
       </c>
       <c r="AN61" s="13">
-        <v>55755</v>
+        <v>339821</v>
       </c>
       <c r="AO61" s="13">
-        <v>234475</v>
+        <v>120407</v>
       </c>
       <c r="AP61" s="13">
-        <v>339821</v>
+        <v>104790</v>
       </c>
       <c r="AQ61" s="13">
-        <v>120407</v>
+        <v>177478</v>
       </c>
       <c r="AR61" s="13">
-        <v>104790</v>
+        <v>110070</v>
       </c>
       <c r="AS61" s="13">
-        <v>177478</v>
+        <v>349688</v>
       </c>
       <c r="AT61" s="13">
-        <v>110070</v>
+        <v>278033</v>
       </c>
       <c r="AU61" s="13">
-        <v>349688</v>
+        <v>232174</v>
       </c>
       <c r="AV61" s="13">
-        <v>278033</v>
+        <v>237308</v>
       </c>
       <c r="AW61" s="13">
-        <v>232174</v>
+        <v>210039</v>
       </c>
       <c r="AX61" s="13">
-        <v>237308</v>
+        <v>91005</v>
       </c>
       <c r="AY61" s="13">
-        <v>210039</v>
+        <v>389632</v>
       </c>
       <c r="AZ61" s="13">
-        <v>91005</v>
+        <v>632033</v>
       </c>
       <c r="BA61" s="13">
-        <v>389632</v>
+        <v>348098</v>
       </c>
       <c r="BB61" s="13">
-        <v>632033</v>
+        <v>457077</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
         <v>62</v>
       </c>
@@ -8189,157 +8189,157 @@
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11">
-        <v>117873</v>
+        <v>111533</v>
       </c>
       <c r="F62" s="11">
-        <v>137417</v>
+        <v>67380</v>
       </c>
       <c r="G62" s="11">
-        <v>111533</v>
+        <v>98320</v>
       </c>
       <c r="H62" s="11">
-        <v>67380</v>
+        <v>6976</v>
       </c>
       <c r="I62" s="11">
-        <v>98320</v>
+        <v>57250</v>
       </c>
       <c r="J62" s="11">
-        <v>6976</v>
+        <v>100876</v>
       </c>
       <c r="K62" s="11">
-        <v>57250</v>
+        <v>76963</v>
       </c>
       <c r="L62" s="11">
-        <v>100876</v>
+        <v>143115</v>
       </c>
       <c r="M62" s="11">
-        <v>76963</v>
+        <v>179519</v>
       </c>
       <c r="N62" s="11">
-        <v>143115</v>
+        <v>64971</v>
       </c>
       <c r="O62" s="11">
-        <v>179519</v>
+        <v>36263</v>
       </c>
       <c r="P62" s="11">
-        <v>64971</v>
+        <v>25806</v>
       </c>
       <c r="Q62" s="11">
-        <v>36263</v>
+        <v>1573</v>
       </c>
       <c r="R62" s="11">
-        <v>25806</v>
+        <v>13203</v>
       </c>
       <c r="S62" s="11">
-        <v>1573</v>
+        <v>4145</v>
       </c>
       <c r="T62" s="11">
-        <v>13203</v>
+        <v>62451</v>
       </c>
       <c r="U62" s="11">
-        <v>4145</v>
+        <v>60546</v>
       </c>
       <c r="V62" s="11">
-        <v>62451</v>
+        <v>141894</v>
       </c>
       <c r="W62" s="11">
-        <v>60546</v>
+        <v>85005</v>
       </c>
       <c r="X62" s="11">
-        <v>141894</v>
+        <v>136854</v>
       </c>
       <c r="Y62" s="11">
-        <v>85005</v>
+        <v>100090</v>
       </c>
       <c r="Z62" s="11">
-        <v>136854</v>
+        <v>84238</v>
       </c>
       <c r="AA62" s="11">
-        <v>100090</v>
+        <v>125014</v>
       </c>
       <c r="AB62" s="11">
-        <v>84238</v>
+        <v>175782</v>
       </c>
       <c r="AC62" s="11">
-        <v>125014</v>
+        <v>230730</v>
       </c>
       <c r="AD62" s="11">
-        <v>175782</v>
+        <v>229744</v>
       </c>
       <c r="AE62" s="11">
-        <v>230730</v>
+        <v>20814</v>
       </c>
       <c r="AF62" s="11">
-        <v>229744</v>
+        <v>29141</v>
       </c>
       <c r="AG62" s="11">
-        <v>20814</v>
+        <v>137842</v>
       </c>
       <c r="AH62" s="11">
-        <v>29141</v>
+        <v>203737</v>
       </c>
       <c r="AI62" s="11">
-        <v>137842</v>
+        <v>97889</v>
       </c>
       <c r="AJ62" s="11">
-        <v>203737</v>
+        <v>212354</v>
       </c>
       <c r="AK62" s="11">
-        <v>97889</v>
+        <v>183639</v>
       </c>
       <c r="AL62" s="11">
-        <v>212354</v>
+        <v>146001</v>
       </c>
       <c r="AM62" s="11">
-        <v>183639</v>
+        <v>189691</v>
       </c>
       <c r="AN62" s="11">
-        <v>146001</v>
+        <v>51604</v>
       </c>
       <c r="AO62" s="11">
-        <v>189691</v>
+        <v>52676</v>
       </c>
       <c r="AP62" s="11">
-        <v>51604</v>
+        <v>220945</v>
       </c>
       <c r="AQ62" s="11">
-        <v>52676</v>
+        <v>135164</v>
       </c>
       <c r="AR62" s="11">
-        <v>220945</v>
+        <v>53711</v>
       </c>
       <c r="AS62" s="11">
-        <v>135164</v>
+        <v>170814</v>
       </c>
       <c r="AT62" s="11">
-        <v>53711</v>
+        <v>123193</v>
       </c>
       <c r="AU62" s="11">
-        <v>170814</v>
+        <v>439004</v>
       </c>
       <c r="AV62" s="11">
-        <v>123193</v>
+        <v>267284</v>
       </c>
       <c r="AW62" s="11">
-        <v>439004</v>
+        <v>652686</v>
       </c>
       <c r="AX62" s="11">
-        <v>267284</v>
+        <v>372804</v>
       </c>
       <c r="AY62" s="11">
-        <v>652686</v>
+        <v>125385</v>
       </c>
       <c r="AZ62" s="11">
-        <v>372804</v>
+        <v>157486</v>
       </c>
       <c r="BA62" s="11">
-        <v>125385</v>
+        <v>368913</v>
       </c>
       <c r="BB62" s="11">
-        <v>157486</v>
+        <v>249682</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="12" t="s">
         <v>63</v>
       </c>
@@ -8356,11 +8356,11 @@
       <c r="G63" s="13">
         <v>0</v>
       </c>
-      <c r="H63" s="13">
-        <v>0</v>
-      </c>
-      <c r="I63" s="13">
-        <v>0</v>
+      <c r="H63" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I63" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="J63" s="13" t="s">
         <v>64</v>
@@ -8498,7 +8498,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
         <v>65</v>
       </c>
@@ -8515,11 +8515,11 @@
       <c r="G64" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="H64" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="I64" s="11" t="s">
-        <v>64</v>
+      <c r="H64" s="11">
+        <v>0</v>
+      </c>
+      <c r="I64" s="11">
+        <v>0</v>
       </c>
       <c r="J64" s="11">
         <v>0</v>
@@ -8551,11 +8551,11 @@
       <c r="S64" s="11">
         <v>0</v>
       </c>
-      <c r="T64" s="11">
-        <v>0</v>
-      </c>
-      <c r="U64" s="11">
-        <v>0</v>
+      <c r="T64" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="U64" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="V64" s="11" t="s">
         <v>64</v>
@@ -8587,11 +8587,11 @@
       <c r="AE64" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AF64" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG64" s="11" t="s">
-        <v>64</v>
+      <c r="AF64" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG64" s="11">
+        <v>0</v>
       </c>
       <c r="AH64" s="11">
         <v>0</v>
@@ -8657,7 +8657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
         <v>66</v>
       </c>
@@ -8710,21 +8710,21 @@
       <c r="S65" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="T65" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="U65" s="13" t="s">
-        <v>64</v>
+      <c r="T65" s="13">
+        <v>25</v>
+      </c>
+      <c r="U65" s="13">
+        <v>783</v>
       </c>
       <c r="V65" s="13">
-        <v>25</v>
-      </c>
-      <c r="W65" s="13">
-        <v>783</v>
-      </c>
-      <c r="X65" s="13">
         <v>131</v>
       </c>
+      <c r="W65" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="X65" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="Y65" s="13" t="s">
         <v>64</v>
       </c>
@@ -8816,7 +8816,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
         <v>77</v>
       </c>
@@ -8873,7 +8873,7 @@
       <c r="BA66" s="9"/>
       <c r="BB66" s="9"/>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
         <v>66</v>
       </c>
@@ -8935,72 +8935,72 @@
       <c r="V67" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="W67" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="X67" s="11" t="s">
-        <v>64</v>
+      <c r="W67" s="11">
+        <v>208</v>
+      </c>
+      <c r="X67" s="11">
+        <v>791</v>
       </c>
       <c r="Y67" s="11">
-        <v>208</v>
+        <v>160</v>
       </c>
       <c r="Z67" s="11">
-        <v>791</v>
+        <v>484</v>
       </c>
       <c r="AA67" s="11">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="AB67" s="11">
-        <v>484</v>
+        <v>297</v>
       </c>
       <c r="AC67" s="11">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="AD67" s="11">
-        <v>297</v>
+        <v>230</v>
       </c>
       <c r="AE67" s="11">
-        <v>64</v>
+        <v>257</v>
       </c>
       <c r="AF67" s="11">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AG67" s="11">
-        <v>257</v>
+        <v>371</v>
       </c>
       <c r="AH67" s="11">
-        <v>227</v>
+        <v>14</v>
       </c>
       <c r="AI67" s="11">
-        <v>371</v>
+        <v>210</v>
       </c>
       <c r="AJ67" s="11">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AK67" s="11">
-        <v>210</v>
+        <v>916</v>
       </c>
       <c r="AL67" s="11">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="AM67" s="11">
-        <v>916</v>
+        <v>0</v>
       </c>
       <c r="AN67" s="11">
-        <v>94</v>
+        <v>1401</v>
       </c>
       <c r="AO67" s="11">
-        <v>0</v>
+        <v>261</v>
       </c>
       <c r="AP67" s="11">
-        <v>1401</v>
-      </c>
-      <c r="AQ67" s="11">
-        <v>261</v>
-      </c>
-      <c r="AR67" s="11">
         <v>902</v>
       </c>
+      <c r="AQ67" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR67" s="11" t="s">
+        <v>64</v>
+      </c>
       <c r="AS67" s="11" t="s">
         <v>64</v>
       </c>
@@ -9032,7 +9032,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
         <v>69</v>
       </c>
@@ -9154,44 +9154,44 @@
       <c r="AP68" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AQ68" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="AR68" s="13" t="s">
-        <v>64</v>
+      <c r="AQ68" s="13">
+        <v>84477</v>
+      </c>
+      <c r="AR68" s="13">
+        <v>0</v>
       </c>
       <c r="AS68" s="13">
-        <v>84477</v>
+        <v>22360</v>
       </c>
       <c r="AT68" s="13">
-        <v>0</v>
+        <v>23707</v>
       </c>
       <c r="AU68" s="13">
-        <v>22360</v>
+        <v>5167</v>
       </c>
       <c r="AV68" s="13">
-        <v>23707</v>
+        <v>9875</v>
       </c>
       <c r="AW68" s="13">
-        <v>5167</v>
+        <v>27883</v>
       </c>
       <c r="AX68" s="13">
-        <v>9875</v>
+        <v>0</v>
       </c>
       <c r="AY68" s="13">
-        <v>27883</v>
+        <v>5858</v>
       </c>
       <c r="AZ68" s="13">
-        <v>0</v>
+        <v>12755</v>
       </c>
       <c r="BA68" s="13">
-        <v>5858</v>
+        <v>8668</v>
       </c>
       <c r="BB68" s="13">
-        <v>12755</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="14" t="s">
         <v>70</v>
       </c>
@@ -9253,104 +9253,104 @@
       <c r="V69" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="W69" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="X69" s="15" t="s">
-        <v>64</v>
+      <c r="W69" s="15">
+        <v>208</v>
+      </c>
+      <c r="X69" s="15">
+        <v>791</v>
       </c>
       <c r="Y69" s="15">
-        <v>208</v>
+        <v>160</v>
       </c>
       <c r="Z69" s="15">
-        <v>791</v>
+        <v>484</v>
       </c>
       <c r="AA69" s="15">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="AB69" s="15">
-        <v>484</v>
+        <v>297</v>
       </c>
       <c r="AC69" s="15">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="AD69" s="15">
-        <v>297</v>
+        <v>230</v>
       </c>
       <c r="AE69" s="15">
-        <v>64</v>
+        <v>257</v>
       </c>
       <c r="AF69" s="15">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AG69" s="15">
-        <v>257</v>
+        <v>371</v>
       </c>
       <c r="AH69" s="15">
-        <v>227</v>
+        <v>14</v>
       </c>
       <c r="AI69" s="15">
-        <v>371</v>
+        <v>210</v>
       </c>
       <c r="AJ69" s="15">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AK69" s="15">
-        <v>210</v>
+        <v>916</v>
       </c>
       <c r="AL69" s="15">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="AM69" s="15">
-        <v>916</v>
+        <v>0</v>
       </c>
       <c r="AN69" s="15">
-        <v>94</v>
+        <v>1401</v>
       </c>
       <c r="AO69" s="15">
-        <v>0</v>
+        <v>261</v>
       </c>
       <c r="AP69" s="15">
-        <v>1401</v>
+        <v>902</v>
       </c>
       <c r="AQ69" s="15">
-        <v>261</v>
+        <v>84477</v>
       </c>
       <c r="AR69" s="15">
-        <v>902</v>
+        <v>0</v>
       </c>
       <c r="AS69" s="15">
-        <v>84477</v>
+        <v>22360</v>
       </c>
       <c r="AT69" s="15">
-        <v>0</v>
+        <v>23707</v>
       </c>
       <c r="AU69" s="15">
-        <v>22360</v>
+        <v>5167</v>
       </c>
       <c r="AV69" s="15">
-        <v>23707</v>
+        <v>9875</v>
       </c>
       <c r="AW69" s="15">
-        <v>5167</v>
+        <v>27883</v>
       </c>
       <c r="AX69" s="15">
-        <v>9875</v>
+        <v>0</v>
       </c>
       <c r="AY69" s="15">
-        <v>27883</v>
+        <v>5858</v>
       </c>
       <c r="AZ69" s="15">
-        <v>0</v>
+        <v>12755</v>
       </c>
       <c r="BA69" s="15">
-        <v>5858</v>
+        <v>8668</v>
       </c>
       <c r="BB69" s="15">
-        <v>12755</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
         <v>78</v>
       </c>
@@ -9407,7 +9407,7 @@
       <c r="BA70" s="9"/>
       <c r="BB70" s="9"/>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
         <v>55</v>
       </c>
@@ -9469,11 +9469,11 @@
       <c r="V71" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="W71" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="X71" s="11" t="s">
-        <v>64</v>
+      <c r="W71" s="11">
+        <v>0</v>
+      </c>
+      <c r="X71" s="11">
+        <v>0</v>
       </c>
       <c r="Y71" s="11">
         <v>0</v>
@@ -9532,17 +9532,17 @@
       <c r="AQ71" s="11">
         <v>0</v>
       </c>
-      <c r="AR71" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS71" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT71" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU71" s="11" t="s">
-        <v>64</v>
+      <c r="AR71" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS71" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT71" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU71" s="11">
+        <v>0</v>
       </c>
       <c r="AV71" s="11">
         <v>0</v>
@@ -9566,7 +9566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="12" t="s">
         <v>57</v>
       </c>
@@ -9628,35 +9628,35 @@
       <c r="V72" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="W72" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="X72" s="13" t="s">
-        <v>64</v>
+      <c r="W72" s="13">
+        <v>0</v>
+      </c>
+      <c r="X72" s="13">
+        <v>-41</v>
       </c>
       <c r="Y72" s="13">
         <v>0</v>
       </c>
       <c r="Z72" s="13">
-        <v>-41</v>
+        <v>0</v>
       </c>
       <c r="AA72" s="13">
-        <v>0</v>
+        <v>-80979</v>
       </c>
       <c r="AB72" s="13">
         <v>0</v>
       </c>
       <c r="AC72" s="13">
-        <v>-80979</v>
+        <v>0</v>
       </c>
       <c r="AD72" s="13">
-        <v>0</v>
+        <v>-2429</v>
       </c>
       <c r="AE72" s="13">
         <v>0</v>
       </c>
       <c r="AF72" s="13">
-        <v>-2429</v>
+        <v>0</v>
       </c>
       <c r="AG72" s="13">
         <v>0</v>
@@ -9691,17 +9691,17 @@
       <c r="AQ72" s="13">
         <v>0</v>
       </c>
-      <c r="AR72" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS72" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT72" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU72" s="13" t="s">
-        <v>64</v>
+      <c r="AR72" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS72" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT72" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU72" s="13">
+        <v>0</v>
       </c>
       <c r="AV72" s="13">
         <v>0</v>
@@ -9713,19 +9713,19 @@
         <v>0</v>
       </c>
       <c r="AY72" s="13">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="AZ72" s="13">
         <v>0</v>
       </c>
       <c r="BA72" s="13">
-        <v>-80</v>
+        <v>0</v>
       </c>
       <c r="BB72" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
         <v>59</v>
       </c>
@@ -9787,11 +9787,11 @@
       <c r="V73" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="W73" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="X73" s="11" t="s">
-        <v>64</v>
+      <c r="W73" s="11">
+        <v>0</v>
+      </c>
+      <c r="X73" s="11">
+        <v>0</v>
       </c>
       <c r="Y73" s="11">
         <v>0</v>
@@ -9850,17 +9850,17 @@
       <c r="AQ73" s="11">
         <v>0</v>
       </c>
-      <c r="AR73" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS73" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT73" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU73" s="11" t="s">
-        <v>64</v>
+      <c r="AR73" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS73" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT73" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU73" s="11">
+        <v>0</v>
       </c>
       <c r="AV73" s="11">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="12" t="s">
         <v>61</v>
       </c>
@@ -9946,20 +9946,20 @@
       <c r="V74" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="W74" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="X74" s="13" t="s">
-        <v>64</v>
+      <c r="W74" s="13">
+        <v>0</v>
+      </c>
+      <c r="X74" s="13">
+        <v>0</v>
       </c>
       <c r="Y74" s="13">
-        <v>0</v>
+        <v>-2714</v>
       </c>
       <c r="Z74" s="13">
         <v>0</v>
       </c>
       <c r="AA74" s="13">
-        <v>-2714</v>
+        <v>0</v>
       </c>
       <c r="AB74" s="13">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="AE74" s="13">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF74" s="13">
         <v>0</v>
       </c>
       <c r="AG74" s="13">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH74" s="13">
         <v>0</v>
@@ -9998,52 +9998,52 @@
         <v>0</v>
       </c>
       <c r="AN74" s="13">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AO74" s="13">
         <v>0</v>
       </c>
       <c r="AP74" s="13">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AQ74" s="13">
         <v>0</v>
       </c>
-      <c r="AR74" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS74" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT74" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU74" s="13" t="s">
-        <v>64</v>
+      <c r="AR74" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS74" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT74" s="13">
+        <v>-233</v>
+      </c>
+      <c r="AU74" s="13">
+        <v>-26</v>
       </c>
       <c r="AV74" s="13">
-        <v>-233</v>
+        <v>0</v>
       </c>
       <c r="AW74" s="13">
-        <v>-26</v>
+        <v>0</v>
       </c>
       <c r="AX74" s="13">
-        <v>0</v>
+        <v>-6965</v>
       </c>
       <c r="AY74" s="13">
-        <v>0</v>
+        <v>-18844</v>
       </c>
       <c r="AZ74" s="13">
-        <v>-6965</v>
+        <v>0</v>
       </c>
       <c r="BA74" s="13">
-        <v>-18844</v>
+        <v>-295</v>
       </c>
       <c r="BB74" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
         <v>62</v>
       </c>
@@ -10105,17 +10105,17 @@
       <c r="V75" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="W75" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="X75" s="11" t="s">
-        <v>64</v>
+      <c r="W75" s="11">
+        <v>-768</v>
+      </c>
+      <c r="X75" s="11">
+        <v>-24</v>
       </c>
       <c r="Y75" s="11">
-        <v>-768</v>
+        <v>0</v>
       </c>
       <c r="Z75" s="11">
-        <v>-24</v>
+        <v>0</v>
       </c>
       <c r="AA75" s="11">
         <v>0</v>
@@ -10130,37 +10130,37 @@
         <v>0</v>
       </c>
       <c r="AE75" s="11">
-        <v>0</v>
+        <v>-47</v>
       </c>
       <c r="AF75" s="11">
         <v>0</v>
       </c>
       <c r="AG75" s="11">
-        <v>-47</v>
+        <v>0</v>
       </c>
       <c r="AH75" s="11">
         <v>0</v>
       </c>
       <c r="AI75" s="11">
-        <v>0</v>
+        <v>-74</v>
       </c>
       <c r="AJ75" s="11">
-        <v>0</v>
+        <v>-175</v>
       </c>
       <c r="AK75" s="11">
-        <v>-74</v>
+        <v>-1183</v>
       </c>
       <c r="AL75" s="11">
-        <v>-175</v>
+        <v>-568</v>
       </c>
       <c r="AM75" s="11">
-        <v>-1183</v>
+        <v>-1030</v>
       </c>
       <c r="AN75" s="11">
-        <v>-568</v>
+        <v>0</v>
       </c>
       <c r="AO75" s="11">
-        <v>-1030</v>
+        <v>0</v>
       </c>
       <c r="AP75" s="11">
         <v>0</v>
@@ -10168,41 +10168,41 @@
       <c r="AQ75" s="11">
         <v>0</v>
       </c>
-      <c r="AR75" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS75" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT75" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU75" s="11" t="s">
-        <v>64</v>
+      <c r="AR75" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS75" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT75" s="11">
+        <v>-1</v>
+      </c>
+      <c r="AU75" s="11">
+        <v>-18959</v>
       </c>
       <c r="AV75" s="11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AW75" s="11">
-        <v>-18959</v>
+        <v>0</v>
       </c>
       <c r="AX75" s="11">
-        <v>0</v>
+        <v>-4275</v>
       </c>
       <c r="AY75" s="11">
         <v>0</v>
       </c>
       <c r="AZ75" s="11">
-        <v>-4275</v>
+        <v>0</v>
       </c>
       <c r="BA75" s="11">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="BB75" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="12" t="s">
         <v>63</v>
       </c>
@@ -10291,11 +10291,11 @@
       <c r="AE76" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AF76" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG76" s="13" t="s">
-        <v>64</v>
+      <c r="AF76" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG76" s="13">
+        <v>0</v>
       </c>
       <c r="AH76" s="13">
         <v>0</v>
@@ -10327,11 +10327,11 @@
       <c r="AQ76" s="13">
         <v>0</v>
       </c>
-      <c r="AR76" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS76" s="13">
-        <v>0</v>
+      <c r="AR76" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS76" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="AT76" s="13" t="s">
         <v>64</v>
@@ -10361,7 +10361,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
         <v>65</v>
       </c>
@@ -10492,11 +10492,11 @@
       <c r="AS77" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AT77" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU77" s="11" t="s">
-        <v>64</v>
+      <c r="AT77" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU77" s="11">
+        <v>0</v>
       </c>
       <c r="AV77" s="11">
         <v>0</v>
@@ -10520,7 +10520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="16" t="s">
         <v>74</v>
       </c>
@@ -10582,65 +10582,65 @@
       <c r="V78" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="W78" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="X78" s="17" t="s">
-        <v>64</v>
+      <c r="W78" s="17">
+        <v>-768</v>
+      </c>
+      <c r="X78" s="17">
+        <v>-65</v>
       </c>
       <c r="Y78" s="17">
-        <v>-768</v>
+        <v>-2714</v>
       </c>
       <c r="Z78" s="17">
-        <v>-65</v>
+        <v>0</v>
       </c>
       <c r="AA78" s="17">
-        <v>-2714</v>
+        <v>-80979</v>
       </c>
       <c r="AB78" s="17">
         <v>0</v>
       </c>
       <c r="AC78" s="17">
-        <v>-80979</v>
+        <v>0</v>
       </c>
       <c r="AD78" s="17">
-        <v>0</v>
+        <v>-2429</v>
       </c>
       <c r="AE78" s="17">
-        <v>0</v>
+        <v>-49</v>
       </c>
       <c r="AF78" s="17">
-        <v>-2429</v>
+        <v>0</v>
       </c>
       <c r="AG78" s="17">
-        <v>-49</v>
+        <v>0</v>
       </c>
       <c r="AH78" s="17">
         <v>0</v>
       </c>
       <c r="AI78" s="17">
-        <v>0</v>
+        <v>-74</v>
       </c>
       <c r="AJ78" s="17">
-        <v>0</v>
+        <v>-175</v>
       </c>
       <c r="AK78" s="17">
-        <v>-74</v>
+        <v>-1183</v>
       </c>
       <c r="AL78" s="17">
-        <v>-175</v>
+        <v>-568</v>
       </c>
       <c r="AM78" s="17">
-        <v>-1183</v>
+        <v>-1030</v>
       </c>
       <c r="AN78" s="17">
-        <v>-568</v>
+        <v>-3</v>
       </c>
       <c r="AO78" s="17">
-        <v>-1030</v>
+        <v>0</v>
       </c>
       <c r="AP78" s="17">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AQ78" s="17">
         <v>0</v>
@@ -10652,34 +10652,34 @@
         <v>0</v>
       </c>
       <c r="AT78" s="17">
-        <v>0</v>
+        <v>-234</v>
       </c>
       <c r="AU78" s="17">
-        <v>0</v>
+        <v>-18985</v>
       </c>
       <c r="AV78" s="17">
-        <v>-234</v>
+        <v>0</v>
       </c>
       <c r="AW78" s="17">
-        <v>-18985</v>
+        <v>0</v>
       </c>
       <c r="AX78" s="17">
-        <v>0</v>
+        <v>-11240</v>
       </c>
       <c r="AY78" s="17">
-        <v>0</v>
+        <v>-18924</v>
       </c>
       <c r="AZ78" s="17">
-        <v>-11240</v>
+        <v>0</v>
       </c>
       <c r="BA78" s="17">
-        <v>-18924</v>
+        <v>-301</v>
       </c>
       <c r="BB78" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="s">
         <v>79</v>
       </c>
@@ -10736,7 +10736,7 @@
       <c r="BA79" s="9"/>
       <c r="BB79" s="9"/>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
         <v>80</v>
       </c>
@@ -10798,261 +10798,261 @@
       <c r="V80" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="W80" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="X80" s="11" t="s">
-        <v>64</v>
+      <c r="W80" s="11">
+        <v>-53535</v>
+      </c>
+      <c r="X80" s="11">
+        <v>-26683</v>
       </c>
       <c r="Y80" s="11">
-        <v>-53535</v>
+        <v>-51250</v>
       </c>
       <c r="Z80" s="11">
-        <v>-26683</v>
+        <v>-19708</v>
       </c>
       <c r="AA80" s="11">
-        <v>-51250</v>
+        <v>-20840</v>
       </c>
       <c r="AB80" s="11">
-        <v>-19708</v>
+        <v>-40908</v>
       </c>
       <c r="AC80" s="11">
-        <v>-20840</v>
+        <v>-54275</v>
       </c>
       <c r="AD80" s="11">
-        <v>-40908</v>
+        <v>-56779</v>
       </c>
       <c r="AE80" s="11">
-        <v>-54275</v>
+        <v>-51415</v>
       </c>
       <c r="AF80" s="11">
-        <v>-56779</v>
+        <v>0</v>
       </c>
       <c r="AG80" s="11">
-        <v>-51415</v>
+        <v>-16580</v>
       </c>
       <c r="AH80" s="11">
-        <v>0</v>
+        <v>-23757</v>
       </c>
       <c r="AI80" s="11">
-        <v>-16580</v>
+        <v>-24507</v>
       </c>
       <c r="AJ80" s="11">
-        <v>-23757</v>
+        <v>-37338</v>
       </c>
       <c r="AK80" s="11">
-        <v>-24507</v>
+        <v>-109756</v>
       </c>
       <c r="AL80" s="11">
-        <v>-37338</v>
+        <v>-14216</v>
       </c>
       <c r="AM80" s="11">
-        <v>-109756</v>
+        <v>-62287</v>
       </c>
       <c r="AN80" s="11">
-        <v>-14216</v>
+        <v>-64914</v>
       </c>
       <c r="AO80" s="11">
-        <v>-62287</v>
+        <v>-29034</v>
       </c>
       <c r="AP80" s="11">
-        <v>-64914</v>
+        <v>-58989</v>
       </c>
       <c r="AQ80" s="11">
-        <v>-29034</v>
+        <v>-71192</v>
       </c>
       <c r="AR80" s="11">
-        <v>-58989</v>
+        <v>-6276</v>
       </c>
       <c r="AS80" s="11">
-        <v>-71192</v>
+        <v>-44107</v>
       </c>
       <c r="AT80" s="11">
-        <v>-6276</v>
+        <v>-83965</v>
       </c>
       <c r="AU80" s="11">
-        <v>-44107</v>
+        <v>-62345</v>
       </c>
       <c r="AV80" s="11">
-        <v>-83965</v>
+        <v>-64805</v>
       </c>
       <c r="AW80" s="11">
-        <v>-62345</v>
+        <v>-127801</v>
       </c>
       <c r="AX80" s="11">
-        <v>-64805</v>
+        <v>-76623</v>
       </c>
       <c r="AY80" s="11">
-        <v>-127801</v>
+        <v>-58198</v>
       </c>
       <c r="AZ80" s="11">
-        <v>-76623</v>
+        <v>-122441</v>
       </c>
       <c r="BA80" s="11">
-        <v>-58198</v>
+        <v>-126273</v>
       </c>
       <c r="BB80" s="11">
-        <v>-122441</v>
+        <v>-33010</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="16" t="s">
         <v>71</v>
       </c>
       <c r="C81" s="17"/>
       <c r="D81" s="17"/>
       <c r="E81" s="17">
-        <v>181431</v>
+        <v>197215</v>
       </c>
       <c r="F81" s="17">
-        <v>243740</v>
+        <v>169609</v>
       </c>
       <c r="G81" s="17">
-        <v>197215</v>
+        <v>165623</v>
       </c>
       <c r="H81" s="17">
-        <v>169609</v>
+        <v>37845</v>
       </c>
       <c r="I81" s="17">
-        <v>165623</v>
+        <v>200704</v>
       </c>
       <c r="J81" s="17">
-        <v>37845</v>
+        <v>165480</v>
       </c>
       <c r="K81" s="17">
-        <v>200704</v>
+        <v>185638</v>
       </c>
       <c r="L81" s="17">
-        <v>165480</v>
+        <v>261291</v>
       </c>
       <c r="M81" s="17">
-        <v>185638</v>
+        <v>355859</v>
       </c>
       <c r="N81" s="17">
-        <v>261291</v>
+        <v>182214</v>
       </c>
       <c r="O81" s="17">
-        <v>355859</v>
+        <v>158439</v>
       </c>
       <c r="P81" s="17">
-        <v>182214</v>
+        <v>167035</v>
       </c>
       <c r="Q81" s="17">
-        <v>158439</v>
+        <v>127884</v>
       </c>
       <c r="R81" s="17">
-        <v>167035</v>
+        <v>139780</v>
       </c>
       <c r="S81" s="17">
-        <v>127884</v>
+        <v>185709</v>
       </c>
       <c r="T81" s="17">
-        <v>139780</v>
+        <v>122152</v>
       </c>
       <c r="U81" s="17">
-        <v>185709</v>
+        <v>184162</v>
       </c>
       <c r="V81" s="17">
-        <v>122152</v>
+        <v>283863</v>
       </c>
       <c r="W81" s="17">
-        <v>184162</v>
+        <v>321336</v>
       </c>
       <c r="X81" s="17">
-        <v>283863</v>
+        <v>376942</v>
       </c>
       <c r="Y81" s="17">
-        <v>321336</v>
+        <v>392166</v>
       </c>
       <c r="Z81" s="17">
-        <v>376942</v>
+        <v>386260</v>
       </c>
       <c r="AA81" s="17">
-        <v>392166</v>
+        <v>326556</v>
       </c>
       <c r="AB81" s="17">
-        <v>386260</v>
+        <v>342861</v>
       </c>
       <c r="AC81" s="17">
-        <v>326556</v>
+        <v>211505</v>
       </c>
       <c r="AD81" s="17">
-        <v>342861</v>
+        <v>200550</v>
       </c>
       <c r="AE81" s="17">
-        <v>211505</v>
+        <v>171601</v>
       </c>
       <c r="AF81" s="17">
-        <v>200550</v>
+        <v>114228</v>
       </c>
       <c r="AG81" s="17">
-        <v>171601</v>
+        <v>207304</v>
       </c>
       <c r="AH81" s="17">
-        <v>114228</v>
+        <v>354835</v>
       </c>
       <c r="AI81" s="17">
-        <v>207304</v>
+        <v>734129</v>
       </c>
       <c r="AJ81" s="17">
-        <v>354835</v>
+        <v>600248</v>
       </c>
       <c r="AK81" s="17">
-        <v>734129</v>
+        <v>600941</v>
       </c>
       <c r="AL81" s="17">
-        <v>600248</v>
+        <v>286960</v>
       </c>
       <c r="AM81" s="17">
-        <v>600941</v>
+        <v>556895</v>
       </c>
       <c r="AN81" s="17">
-        <v>286960</v>
+        <v>604666</v>
       </c>
       <c r="AO81" s="17">
-        <v>556895</v>
+        <v>303723</v>
       </c>
       <c r="AP81" s="17">
-        <v>604666</v>
+        <v>381564</v>
       </c>
       <c r="AQ81" s="17">
-        <v>303723</v>
+        <v>345775</v>
       </c>
       <c r="AR81" s="17">
-        <v>381564</v>
+        <v>195774</v>
       </c>
       <c r="AS81" s="17">
-        <v>345775</v>
+        <v>530127</v>
       </c>
       <c r="AT81" s="17">
-        <v>195774</v>
+        <v>363878</v>
       </c>
       <c r="AU81" s="17">
-        <v>530127</v>
+        <v>650204</v>
       </c>
       <c r="AV81" s="17">
-        <v>363878</v>
+        <v>473214</v>
       </c>
       <c r="AW81" s="17">
-        <v>650204</v>
+        <v>964468</v>
       </c>
       <c r="AX81" s="17">
-        <v>473214</v>
+        <v>675725</v>
       </c>
       <c r="AY81" s="17">
-        <v>964468</v>
+        <v>806548</v>
       </c>
       <c r="AZ81" s="17">
-        <v>675725</v>
+        <v>957878</v>
       </c>
       <c r="BA81" s="17">
-        <v>806548</v>
+        <v>708135</v>
       </c>
       <c r="BB81" s="17">
-        <v>957878</v>
+        <v>920754</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -11107,7 +11107,7 @@
       <c r="BA82" s="1"/>
       <c r="BB82" s="1"/>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -11162,7 +11162,7 @@
       <c r="BA83" s="1"/>
       <c r="BB83" s="1"/>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -11217,7 +11217,7 @@
       <c r="BA84" s="1"/>
       <c r="BB84" s="1"/>
     </row>
-    <row r="85" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B85" s="7" t="s">
         <v>81</v>
       </c>
@@ -11374,7 +11374,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -11429,7 +11429,7 @@
       <c r="BA86" s="1"/>
       <c r="BB86" s="1"/>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
         <v>82</v>
       </c>
@@ -11486,7 +11486,7 @@
       <c r="BA87" s="9"/>
       <c r="BB87" s="9"/>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
         <v>55</v>
       </c>
@@ -11495,19 +11495,19 @@
       </c>
       <c r="D88" s="11"/>
       <c r="E88" s="11">
-        <v>17002</v>
+        <v>24009</v>
       </c>
       <c r="F88" s="11">
-        <v>23960</v>
+        <v>31788</v>
       </c>
       <c r="G88" s="11">
-        <v>24009</v>
+        <v>63750</v>
       </c>
       <c r="H88" s="11">
-        <v>31788</v>
+        <v>0</v>
       </c>
       <c r="I88" s="11">
-        <v>63750</v>
+        <v>0</v>
       </c>
       <c r="J88" s="11">
         <v>0</v>
@@ -11519,133 +11519,133 @@
         <v>0</v>
       </c>
       <c r="M88" s="11">
-        <v>0</v>
+        <v>23998</v>
       </c>
       <c r="N88" s="11">
-        <v>0</v>
+        <v>28029</v>
       </c>
       <c r="O88" s="11">
-        <v>23998</v>
+        <v>22029</v>
       </c>
       <c r="P88" s="11">
-        <v>28029</v>
+        <v>29274</v>
       </c>
       <c r="Q88" s="11">
-        <v>22029</v>
+        <v>25802</v>
       </c>
       <c r="R88" s="11">
-        <v>29274</v>
+        <v>18337</v>
       </c>
       <c r="S88" s="11">
-        <v>25802</v>
+        <v>21682</v>
       </c>
       <c r="T88" s="11">
-        <v>18337</v>
+        <v>29277</v>
       </c>
       <c r="U88" s="11">
-        <v>21682</v>
+        <v>29275</v>
       </c>
       <c r="V88" s="11">
+        <v>27813</v>
+      </c>
+      <c r="W88" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="X88" s="11">
+        <v>29275</v>
+      </c>
+      <c r="Y88" s="11">
         <v>29277</v>
       </c>
-      <c r="W88" s="11">
-        <v>29275</v>
-      </c>
-      <c r="X88" s="11">
-        <v>27813</v>
-      </c>
-      <c r="Y88" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z88" s="11">
-        <v>29275</v>
-      </c>
-      <c r="AA88" s="11">
-        <v>29277</v>
-      </c>
-      <c r="AB88" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC88" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD88" s="11">
+      <c r="Z88" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA88" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB88" s="11">
         <v>40058</v>
       </c>
-      <c r="AE88" s="11">
+      <c r="AC88" s="11">
         <v>40061</v>
       </c>
-      <c r="AF88" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG88" s="11" t="s">
-        <v>64</v>
+      <c r="AD88" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE88" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF88" s="11">
+        <v>40065</v>
+      </c>
+      <c r="AG88" s="11">
+        <v>40064</v>
       </c>
       <c r="AH88" s="11">
-        <v>40065</v>
+        <v>33689</v>
       </c>
       <c r="AI88" s="11">
-        <v>40064</v>
+        <v>51711</v>
       </c>
       <c r="AJ88" s="11">
-        <v>33689</v>
-      </c>
-      <c r="AK88" s="11">
-        <v>51711</v>
+        <v>40057</v>
+      </c>
+      <c r="AK88" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="AL88" s="11">
-        <v>40057</v>
-      </c>
-      <c r="AM88" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN88" s="11">
         <v>52999</v>
       </c>
-      <c r="AO88" s="11">
+      <c r="AM88" s="11">
         <v>53000</v>
       </c>
+      <c r="AN88" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO88" s="11" t="s">
+        <v>64</v>
+      </c>
       <c r="AP88" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AQ88" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AR88" s="11" t="s">
-        <v>64</v>
+      <c r="AQ88" s="11">
+        <v>53000</v>
+      </c>
+      <c r="AR88" s="11">
+        <v>52999</v>
       </c>
       <c r="AS88" s="11">
-        <v>53000</v>
+        <v>52994</v>
       </c>
       <c r="AT88" s="11">
         <v>52999</v>
       </c>
       <c r="AU88" s="11">
-        <v>52994</v>
-      </c>
-      <c r="AV88" s="11">
-        <v>52999</v>
+        <v>53000</v>
+      </c>
+      <c r="AV88" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="AW88" s="11">
-        <v>53000</v>
-      </c>
-      <c r="AX88" s="11" t="s">
-        <v>64</v>
+        <v>93460</v>
+      </c>
+      <c r="AX88" s="11">
+        <v>60910</v>
       </c>
       <c r="AY88" s="11">
-        <v>93460</v>
+        <v>48457</v>
       </c>
       <c r="AZ88" s="11">
-        <v>60910</v>
+        <v>124998</v>
       </c>
       <c r="BA88" s="11">
-        <v>48457</v>
+        <v>125001</v>
       </c>
       <c r="BB88" s="11">
-        <v>124998</v>
+        <v>101000</v>
       </c>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B89" s="12" t="s">
         <v>57</v>
       </c>
@@ -11654,157 +11654,157 @@
       </c>
       <c r="D89" s="13"/>
       <c r="E89" s="13">
-        <v>99514</v>
+        <v>95410</v>
       </c>
       <c r="F89" s="13">
-        <v>105620</v>
+        <v>91928</v>
       </c>
       <c r="G89" s="13">
-        <v>95410</v>
+        <v>81630</v>
       </c>
       <c r="H89" s="13">
-        <v>91928</v>
+        <v>144522</v>
       </c>
       <c r="I89" s="13">
-        <v>81630</v>
+        <v>127732</v>
       </c>
       <c r="J89" s="13">
-        <v>144522</v>
+        <v>128362</v>
       </c>
       <c r="K89" s="13">
-        <v>127732</v>
+        <v>136994</v>
       </c>
       <c r="L89" s="13">
-        <v>128362</v>
+        <v>109121</v>
       </c>
       <c r="M89" s="13">
-        <v>136994</v>
+        <v>105525</v>
       </c>
       <c r="N89" s="13">
-        <v>109121</v>
+        <v>60404</v>
       </c>
       <c r="O89" s="13">
-        <v>105525</v>
+        <v>81333</v>
       </c>
       <c r="P89" s="13">
-        <v>60404</v>
+        <v>139733</v>
       </c>
       <c r="Q89" s="13">
-        <v>81333</v>
+        <v>91504</v>
       </c>
       <c r="R89" s="13">
-        <v>139733</v>
+        <v>60137</v>
       </c>
       <c r="S89" s="13">
-        <v>91504</v>
+        <v>140752</v>
       </c>
       <c r="T89" s="13">
-        <v>60137</v>
+        <v>137507</v>
       </c>
       <c r="U89" s="13">
-        <v>140752</v>
+        <v>137103</v>
       </c>
       <c r="V89" s="13">
-        <v>137507</v>
+        <v>192136</v>
       </c>
       <c r="W89" s="13">
-        <v>137103</v>
+        <v>215068</v>
       </c>
       <c r="X89" s="13">
-        <v>192136</v>
+        <v>407921</v>
       </c>
       <c r="Y89" s="13">
-        <v>215068</v>
+        <v>498055</v>
       </c>
       <c r="Z89" s="13">
-        <v>407921</v>
+        <v>379373</v>
       </c>
       <c r="AA89" s="13">
-        <v>498055</v>
+        <v>419976</v>
       </c>
       <c r="AB89" s="13">
-        <v>379373</v>
+        <v>196123</v>
       </c>
       <c r="AC89" s="13">
-        <v>419976</v>
-      </c>
-      <c r="AD89" s="13">
-        <v>196123</v>
+        <v>196568</v>
+      </c>
+      <c r="AD89" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="AE89" s="13">
-        <v>196568</v>
-      </c>
-      <c r="AF89" s="13" t="s">
-        <v>64</v>
+        <v>234158</v>
+      </c>
+      <c r="AF89" s="13">
+        <v>258147</v>
       </c>
       <c r="AG89" s="13">
-        <v>234158</v>
+        <v>427486</v>
       </c>
       <c r="AH89" s="13">
-        <v>258147</v>
+        <v>327580</v>
       </c>
       <c r="AI89" s="13">
-        <v>427486</v>
+        <v>295188</v>
       </c>
       <c r="AJ89" s="13">
-        <v>327580</v>
+        <v>388621</v>
       </c>
       <c r="AK89" s="13">
-        <v>295188</v>
+        <v>434584</v>
       </c>
       <c r="AL89" s="13">
-        <v>388621</v>
+        <v>289344</v>
       </c>
       <c r="AM89" s="13">
-        <v>434584</v>
+        <v>278517</v>
       </c>
       <c r="AN89" s="13">
-        <v>289344</v>
+        <v>339977</v>
       </c>
       <c r="AO89" s="13">
-        <v>278517</v>
+        <v>214114</v>
       </c>
       <c r="AP89" s="13">
-        <v>339977</v>
+        <v>285144</v>
       </c>
       <c r="AQ89" s="13">
-        <v>214114</v>
+        <v>92217</v>
       </c>
       <c r="AR89" s="13">
-        <v>285144</v>
+        <v>144836</v>
       </c>
       <c r="AS89" s="13">
-        <v>92217</v>
+        <v>155536</v>
       </c>
       <c r="AT89" s="13">
-        <v>144836</v>
+        <v>99920</v>
       </c>
       <c r="AU89" s="13">
-        <v>155536</v>
+        <v>292374</v>
       </c>
       <c r="AV89" s="13">
-        <v>99920</v>
+        <v>193109</v>
       </c>
       <c r="AW89" s="13">
-        <v>292374</v>
+        <v>388802</v>
       </c>
       <c r="AX89" s="13">
-        <v>193109</v>
+        <v>346790</v>
       </c>
       <c r="AY89" s="13">
-        <v>388802</v>
+        <v>335890</v>
       </c>
       <c r="AZ89" s="13">
-        <v>346790</v>
+        <v>428481</v>
       </c>
       <c r="BA89" s="13">
-        <v>335890</v>
+        <v>400004</v>
       </c>
       <c r="BB89" s="13">
-        <v>428481</v>
+        <v>389332</v>
       </c>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
         <v>59</v>
       </c>
@@ -11813,91 +11813,91 @@
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11">
-        <v>29998</v>
+        <v>30004</v>
       </c>
       <c r="F90" s="11">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="G90" s="11">
-        <v>30004</v>
+        <v>26704</v>
       </c>
       <c r="H90" s="11">
+        <v>29999</v>
+      </c>
+      <c r="I90" s="11">
         <v>30001</v>
       </c>
-      <c r="I90" s="11">
-        <v>26704</v>
-      </c>
       <c r="J90" s="11">
-        <v>29999</v>
+        <v>0</v>
       </c>
       <c r="K90" s="11">
         <v>30001</v>
       </c>
       <c r="L90" s="11">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="M90" s="11">
-        <v>30001</v>
+        <v>40063</v>
       </c>
       <c r="N90" s="11">
-        <v>30000</v>
+        <v>38965</v>
       </c>
       <c r="O90" s="11">
         <v>40063</v>
       </c>
       <c r="P90" s="11">
-        <v>38965</v>
+        <v>40062</v>
       </c>
       <c r="Q90" s="11">
-        <v>40063</v>
+        <v>37061</v>
       </c>
       <c r="R90" s="11">
-        <v>40062</v>
+        <v>34504</v>
       </c>
       <c r="S90" s="11">
-        <v>37061</v>
+        <v>43612</v>
       </c>
       <c r="T90" s="11">
-        <v>34504</v>
+        <v>55084</v>
       </c>
       <c r="U90" s="11">
-        <v>43612</v>
+        <v>50378</v>
       </c>
       <c r="V90" s="11">
-        <v>55084</v>
+        <v>40077</v>
       </c>
       <c r="W90" s="11">
-        <v>50378</v>
+        <v>44494</v>
       </c>
       <c r="X90" s="11">
-        <v>40077</v>
+        <v>58660</v>
       </c>
       <c r="Y90" s="11">
-        <v>44494</v>
+        <v>53290</v>
       </c>
       <c r="Z90" s="11">
-        <v>58660</v>
+        <v>60803</v>
       </c>
       <c r="AA90" s="11">
-        <v>53290</v>
+        <v>56303</v>
       </c>
       <c r="AB90" s="11">
-        <v>60803</v>
-      </c>
-      <c r="AC90" s="11">
-        <v>56303</v>
-      </c>
-      <c r="AD90" s="11">
         <v>45741</v>
       </c>
-      <c r="AE90" s="11" t="s">
-        <v>64</v>
+      <c r="AC90" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD90" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE90" s="11">
+        <v>69977</v>
       </c>
       <c r="AF90" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AG90" s="11">
-        <v>69977</v>
+      <c r="AG90" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="AH90" s="11" t="s">
         <v>64</v>
@@ -11905,39 +11905,39 @@
       <c r="AI90" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AJ90" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK90" s="11" t="s">
-        <v>64</v>
+      <c r="AJ90" s="11">
+        <v>67550</v>
+      </c>
+      <c r="AK90" s="11">
+        <v>67533</v>
       </c>
       <c r="AL90" s="11">
-        <v>67550</v>
+        <v>56107</v>
       </c>
       <c r="AM90" s="11">
-        <v>67533</v>
-      </c>
-      <c r="AN90" s="11">
-        <v>56107</v>
+        <v>55001</v>
+      </c>
+      <c r="AN90" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="AO90" s="11">
-        <v>55001</v>
-      </c>
-      <c r="AP90" s="11" t="s">
-        <v>64</v>
+        <v>75003</v>
+      </c>
+      <c r="AP90" s="11">
+        <v>75000</v>
       </c>
       <c r="AQ90" s="11">
-        <v>75003</v>
+        <v>109932</v>
       </c>
       <c r="AR90" s="11">
-        <v>75000</v>
-      </c>
-      <c r="AS90" s="11">
-        <v>109932</v>
-      </c>
-      <c r="AT90" s="11">
         <v>74999</v>
       </c>
+      <c r="AS90" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT90" s="11" t="s">
+        <v>64</v>
+      </c>
       <c r="AU90" s="11" t="s">
         <v>64</v>
       </c>
@@ -11950,20 +11950,20 @@
       <c r="AX90" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AY90" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AZ90" s="11" t="s">
-        <v>64</v>
+      <c r="AY90" s="11">
+        <v>202695</v>
+      </c>
+      <c r="AZ90" s="11">
+        <v>199470</v>
       </c>
       <c r="BA90" s="11">
-        <v>202695</v>
+        <v>191746</v>
       </c>
       <c r="BB90" s="11">
-        <v>199470</v>
+        <v>173577</v>
       </c>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B91" s="12" t="s">
         <v>61</v>
       </c>
@@ -11972,157 +11972,157 @@
       </c>
       <c r="D91" s="13"/>
       <c r="E91" s="13">
-        <v>4309</v>
+        <v>4120</v>
       </c>
       <c r="F91" s="13">
-        <v>2989</v>
+        <v>3180</v>
       </c>
       <c r="G91" s="13">
-        <v>4120</v>
+        <v>2739</v>
       </c>
       <c r="H91" s="13">
-        <v>3180</v>
+        <v>1870</v>
       </c>
       <c r="I91" s="13">
-        <v>2739</v>
+        <v>9439</v>
       </c>
       <c r="J91" s="13">
-        <v>1870</v>
+        <v>3650</v>
       </c>
       <c r="K91" s="13">
-        <v>9439</v>
+        <v>4674</v>
       </c>
       <c r="L91" s="13">
-        <v>3650</v>
+        <v>6624</v>
       </c>
       <c r="M91" s="13">
-        <v>4674</v>
+        <v>4245</v>
       </c>
       <c r="N91" s="13">
-        <v>6624</v>
+        <v>3256</v>
       </c>
       <c r="O91" s="13">
-        <v>4245</v>
+        <v>2438</v>
       </c>
       <c r="P91" s="13">
-        <v>3256</v>
+        <v>2691</v>
       </c>
       <c r="Q91" s="13">
-        <v>2438</v>
+        <v>2650</v>
       </c>
       <c r="R91" s="13">
-        <v>2691</v>
+        <v>2879</v>
       </c>
       <c r="S91" s="13">
-        <v>2650</v>
+        <v>3215</v>
       </c>
       <c r="T91" s="13">
-        <v>2879</v>
+        <v>4899</v>
       </c>
       <c r="U91" s="13">
-        <v>3215</v>
+        <v>5924</v>
       </c>
       <c r="V91" s="13">
-        <v>4899</v>
+        <v>2749</v>
       </c>
       <c r="W91" s="13">
-        <v>5924</v>
+        <v>4886</v>
       </c>
       <c r="X91" s="13">
-        <v>2749</v>
+        <v>2839</v>
       </c>
       <c r="Y91" s="13">
-        <v>4886</v>
+        <v>5946</v>
       </c>
       <c r="Z91" s="13">
-        <v>2839</v>
+        <v>14074</v>
       </c>
       <c r="AA91" s="13">
-        <v>5946</v>
+        <v>4430</v>
       </c>
       <c r="AB91" s="13">
-        <v>14074</v>
+        <v>5080</v>
       </c>
       <c r="AC91" s="13">
-        <v>4430</v>
+        <v>5998</v>
       </c>
       <c r="AD91" s="13">
-        <v>5080</v>
+        <v>5846</v>
       </c>
       <c r="AE91" s="13">
-        <v>5998</v>
+        <v>6056</v>
       </c>
       <c r="AF91" s="13">
-        <v>5846</v>
+        <v>4653</v>
       </c>
       <c r="AG91" s="13">
-        <v>6056</v>
+        <v>4617</v>
       </c>
       <c r="AH91" s="13">
-        <v>4653</v>
+        <v>4254</v>
       </c>
       <c r="AI91" s="13">
-        <v>4617</v>
+        <v>8500</v>
       </c>
       <c r="AJ91" s="13">
-        <v>4254</v>
+        <v>7219</v>
       </c>
       <c r="AK91" s="13">
-        <v>8500</v>
+        <v>8413</v>
       </c>
       <c r="AL91" s="13">
-        <v>7219</v>
+        <v>5226</v>
       </c>
       <c r="AM91" s="13">
-        <v>8413</v>
+        <v>6703</v>
       </c>
       <c r="AN91" s="13">
-        <v>5226</v>
+        <v>7555</v>
       </c>
       <c r="AO91" s="13">
-        <v>6703</v>
+        <v>6025</v>
       </c>
       <c r="AP91" s="13">
-        <v>7555</v>
+        <v>6059</v>
       </c>
       <c r="AQ91" s="13">
-        <v>6025</v>
+        <v>7986</v>
       </c>
       <c r="AR91" s="13">
-        <v>6059</v>
+        <v>11721</v>
       </c>
       <c r="AS91" s="13">
-        <v>7986</v>
+        <v>9036</v>
       </c>
       <c r="AT91" s="13">
-        <v>11721</v>
+        <v>8077</v>
       </c>
       <c r="AU91" s="13">
-        <v>9036</v>
+        <v>8671</v>
       </c>
       <c r="AV91" s="13">
-        <v>8077</v>
+        <v>8195</v>
       </c>
       <c r="AW91" s="13">
-        <v>8671</v>
+        <v>10497</v>
       </c>
       <c r="AX91" s="13">
-        <v>8195</v>
+        <v>12064</v>
       </c>
       <c r="AY91" s="13">
-        <v>10497</v>
+        <v>12003</v>
       </c>
       <c r="AZ91" s="13">
-        <v>12064</v>
+        <v>12680</v>
       </c>
       <c r="BA91" s="13">
-        <v>12003</v>
+        <v>10901</v>
       </c>
       <c r="BB91" s="13">
-        <v>12680</v>
+        <v>12800</v>
       </c>
     </row>
-    <row r="92" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B92" s="10" t="s">
         <v>62</v>
       </c>
@@ -12131,157 +12131,157 @@
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11">
-        <v>39358</v>
+        <v>24846</v>
       </c>
       <c r="F92" s="11">
-        <v>32474</v>
+        <v>19782</v>
       </c>
       <c r="G92" s="11">
-        <v>24846</v>
+        <v>18289</v>
       </c>
       <c r="H92" s="11">
-        <v>19782</v>
+        <v>17581</v>
       </c>
       <c r="I92" s="11">
-        <v>18289</v>
+        <v>43803</v>
       </c>
       <c r="J92" s="11">
-        <v>17581</v>
+        <v>30637</v>
       </c>
       <c r="K92" s="11">
-        <v>43803</v>
+        <v>33891</v>
       </c>
       <c r="L92" s="11">
-        <v>30637</v>
+        <v>27270</v>
       </c>
       <c r="M92" s="11">
-        <v>33891</v>
+        <v>54233</v>
       </c>
       <c r="N92" s="11">
-        <v>27270</v>
+        <v>34194</v>
       </c>
       <c r="O92" s="11">
-        <v>54233</v>
+        <v>27492</v>
       </c>
       <c r="P92" s="11">
-        <v>34194</v>
+        <v>28744</v>
       </c>
       <c r="Q92" s="11">
-        <v>27492</v>
+        <v>18198</v>
       </c>
       <c r="R92" s="11">
-        <v>28744</v>
+        <v>22252</v>
       </c>
       <c r="S92" s="11">
-        <v>18198</v>
+        <v>2379</v>
       </c>
       <c r="T92" s="11">
-        <v>22252</v>
+        <v>111460</v>
       </c>
       <c r="U92" s="11">
-        <v>2379</v>
+        <v>79423</v>
       </c>
       <c r="V92" s="11">
-        <v>111460</v>
+        <v>35261</v>
       </c>
       <c r="W92" s="11">
-        <v>79423</v>
+        <v>50300</v>
       </c>
       <c r="X92" s="11">
-        <v>35261</v>
+        <v>38162</v>
       </c>
       <c r="Y92" s="11">
-        <v>50300</v>
+        <v>53538</v>
       </c>
       <c r="Z92" s="11">
-        <v>38162</v>
+        <v>49523</v>
       </c>
       <c r="AA92" s="11">
-        <v>53538</v>
+        <v>43611</v>
       </c>
       <c r="AB92" s="11">
-        <v>49523</v>
+        <v>42994</v>
       </c>
       <c r="AC92" s="11">
-        <v>43611</v>
+        <v>43516</v>
       </c>
       <c r="AD92" s="11">
-        <v>42994</v>
+        <v>43819</v>
       </c>
       <c r="AE92" s="11">
-        <v>43516</v>
+        <v>32480</v>
       </c>
       <c r="AF92" s="11">
-        <v>43819</v>
+        <v>26703</v>
       </c>
       <c r="AG92" s="11">
-        <v>32480</v>
+        <v>99437</v>
       </c>
       <c r="AH92" s="11">
-        <v>26703</v>
+        <v>51116</v>
       </c>
       <c r="AI92" s="11">
-        <v>99437</v>
+        <v>39407</v>
       </c>
       <c r="AJ92" s="11">
-        <v>51116</v>
+        <v>44089</v>
       </c>
       <c r="AK92" s="11">
-        <v>39407</v>
+        <v>56353</v>
       </c>
       <c r="AL92" s="11">
-        <v>44089</v>
+        <v>56703</v>
       </c>
       <c r="AM92" s="11">
-        <v>56353</v>
+        <v>46992</v>
       </c>
       <c r="AN92" s="11">
-        <v>56703</v>
+        <v>47880</v>
       </c>
       <c r="AO92" s="11">
-        <v>46992</v>
+        <v>45893</v>
       </c>
       <c r="AP92" s="11">
-        <v>47880</v>
+        <v>57122</v>
       </c>
       <c r="AQ92" s="11">
-        <v>45893</v>
+        <v>87415</v>
       </c>
       <c r="AR92" s="11">
-        <v>57122</v>
+        <v>39999</v>
       </c>
       <c r="AS92" s="11">
-        <v>87415</v>
+        <v>41495</v>
       </c>
       <c r="AT92" s="11">
-        <v>39999</v>
+        <v>36719</v>
       </c>
       <c r="AU92" s="11">
-        <v>41495</v>
+        <v>195151</v>
       </c>
       <c r="AV92" s="11">
-        <v>36719</v>
+        <v>156971</v>
       </c>
       <c r="AW92" s="11">
-        <v>195151</v>
+        <v>168015</v>
       </c>
       <c r="AX92" s="11">
-        <v>156971</v>
+        <v>128256</v>
       </c>
       <c r="AY92" s="11">
-        <v>168015</v>
+        <v>144330</v>
       </c>
       <c r="AZ92" s="11">
-        <v>128256</v>
+        <v>93109</v>
       </c>
       <c r="BA92" s="11">
-        <v>144330</v>
+        <v>141120</v>
       </c>
       <c r="BB92" s="11">
-        <v>93109</v>
+        <v>101909</v>
       </c>
     </row>
-    <row r="93" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B93" s="12" t="s">
         <v>63</v>
       </c>
@@ -12298,11 +12298,11 @@
       <c r="G93" s="13">
         <v>0</v>
       </c>
-      <c r="H93" s="13">
-        <v>0</v>
-      </c>
-      <c r="I93" s="13">
-        <v>0</v>
+      <c r="H93" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I93" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="J93" s="13" t="s">
         <v>64</v>
@@ -12440,7 +12440,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="94" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B94" s="10" t="s">
         <v>65</v>
       </c>
@@ -12457,11 +12457,11 @@
       <c r="G94" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="H94" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="I94" s="11" t="s">
-        <v>64</v>
+      <c r="H94" s="11">
+        <v>0</v>
+      </c>
+      <c r="I94" s="11">
+        <v>0</v>
       </c>
       <c r="J94" s="11">
         <v>0</v>
@@ -12493,11 +12493,11 @@
       <c r="S94" s="11">
         <v>0</v>
       </c>
-      <c r="T94" s="11">
-        <v>0</v>
-      </c>
-      <c r="U94" s="11">
-        <v>0</v>
+      <c r="T94" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="U94" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="V94" s="11" t="s">
         <v>64</v>
@@ -12599,7 +12599,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="95" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B95" s="12" t="s">
         <v>66</v>
       </c>
@@ -12652,21 +12652,21 @@
       <c r="S95" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="T95" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="U95" s="13" t="s">
-        <v>64</v>
+      <c r="T95" s="13">
+        <v>12500000</v>
+      </c>
+      <c r="U95" s="13">
+        <v>23727273</v>
       </c>
       <c r="V95" s="13">
-        <v>12500000</v>
-      </c>
-      <c r="W95" s="13">
-        <v>23727273</v>
-      </c>
-      <c r="X95" s="13">
         <v>18714286</v>
       </c>
+      <c r="W95" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="X95" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="Y95" s="13" t="s">
         <v>64</v>
       </c>
@@ -12758,7 +12758,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="96" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B96" s="8" t="s">
         <v>87</v>
       </c>
@@ -12815,7 +12815,7 @@
       <c r="BA96" s="9"/>
       <c r="BB96" s="9"/>
     </row>
-    <row r="97" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
         <v>66</v>
       </c>
@@ -12877,72 +12877,72 @@
       <c r="V97" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="W97" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="X97" s="11" t="s">
-        <v>64</v>
+      <c r="W97" s="11">
+        <v>26000000</v>
+      </c>
+      <c r="X97" s="11">
+        <v>28250000</v>
       </c>
       <c r="Y97" s="11">
-        <v>26000000</v>
+        <v>13333333</v>
       </c>
       <c r="Z97" s="11">
-        <v>28250000</v>
+        <v>16133333</v>
       </c>
       <c r="AA97" s="11">
-        <v>13333333</v>
+        <v>6000000</v>
       </c>
       <c r="AB97" s="11">
-        <v>16133333</v>
+        <v>27000000</v>
       </c>
       <c r="AC97" s="11">
-        <v>6000000</v>
+        <v>12800000</v>
       </c>
       <c r="AD97" s="11">
-        <v>27000000</v>
+        <v>76666667</v>
       </c>
       <c r="AE97" s="11">
-        <v>12800000</v>
+        <v>42833333</v>
       </c>
       <c r="AF97" s="11">
-        <v>76666667</v>
+        <v>17461538</v>
       </c>
       <c r="AG97" s="11">
-        <v>42833333</v>
+        <v>24733333</v>
       </c>
       <c r="AH97" s="11">
-        <v>17461538</v>
+        <v>3500000</v>
       </c>
       <c r="AI97" s="11">
-        <v>24733333</v>
+        <v>70000000</v>
       </c>
       <c r="AJ97" s="11">
-        <v>3500000</v>
+        <v>0</v>
       </c>
       <c r="AK97" s="11">
-        <v>70000000</v>
+        <v>17960784</v>
       </c>
       <c r="AL97" s="11">
-        <v>0</v>
+        <v>18800000</v>
       </c>
       <c r="AM97" s="11">
-        <v>17960784</v>
+        <v>0</v>
       </c>
       <c r="AN97" s="11">
-        <v>18800000</v>
+        <v>24155172</v>
       </c>
       <c r="AO97" s="11">
-        <v>0</v>
+        <v>29000000</v>
       </c>
       <c r="AP97" s="11">
-        <v>24155172</v>
-      </c>
-      <c r="AQ97" s="11">
-        <v>29000000</v>
-      </c>
-      <c r="AR97" s="11">
         <v>42952381</v>
       </c>
+      <c r="AQ97" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR97" s="11" t="s">
+        <v>64</v>
+      </c>
       <c r="AS97" s="11" t="s">
         <v>64</v>
       </c>
@@ -12974,7 +12974,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="98" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B98" s="12" t="s">
         <v>69</v>
       </c>
@@ -13096,41 +13096,41 @@
       <c r="AP98" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AQ98" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="AR98" s="13" t="s">
-        <v>64</v>
+      <c r="AQ98" s="13">
+        <v>48233</v>
+      </c>
+      <c r="AR98" s="13">
+        <v>0</v>
       </c>
       <c r="AS98" s="13">
-        <v>48233</v>
+        <v>59176</v>
       </c>
       <c r="AT98" s="13">
-        <v>0</v>
+        <v>49345</v>
       </c>
       <c r="AU98" s="13">
-        <v>59176</v>
+        <v>45498</v>
       </c>
       <c r="AV98" s="13">
-        <v>49345</v>
+        <v>76844</v>
       </c>
       <c r="AW98" s="13">
-        <v>45498</v>
+        <v>55904</v>
       </c>
       <c r="AX98" s="13">
-        <v>76844</v>
+        <v>0</v>
       </c>
       <c r="AY98" s="13">
-        <v>55904</v>
+        <v>194057</v>
       </c>
       <c r="AZ98" s="13">
-        <v>0</v>
+        <v>1076371</v>
       </c>
       <c r="BA98" s="13">
-        <v>194057</v>
+        <v>24427</v>
       </c>
       <c r="BB98" s="13">
-        <v>1076371</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/darou/dejaber/product/monthly.xlsx
+++ b/database/industries/darou/dejaber/product/monthly.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="88">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3344,106 +3344,106 @@
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="12" t="n">
+        <v>117360</v>
+      </c>
+      <c r="L11" s="12" t="n">
+        <v>293160</v>
+      </c>
+      <c r="M11" s="12" t="n">
+        <v>440280</v>
+      </c>
+      <c r="N11" s="12" t="n">
+        <v>469440</v>
+      </c>
+      <c r="O11" s="12" t="n">
+        <v>234720</v>
+      </c>
+      <c r="P11" s="12" t="n">
+        <v>232480</v>
+      </c>
+      <c r="Q11" s="12" t="n">
+        <v>471680</v>
+      </c>
+      <c r="R11" s="12" t="n">
+        <v>117360</v>
+      </c>
+      <c r="S11" s="12" t="n">
+        <v>352080</v>
+      </c>
+      <c r="T11" s="12" t="n">
+        <v>293400</v>
+      </c>
+      <c r="U11" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" s="12" t="n">
+        <v>293400</v>
+      </c>
+      <c r="W11" s="12" t="n">
         <v>58680</v>
       </c>
-      <c r="F11" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" s="12" t="n">
-        <v>117360</v>
-      </c>
-      <c r="M11" s="12" t="n">
-        <v>293160</v>
-      </c>
-      <c r="N11" s="12" t="n">
-        <v>440280</v>
-      </c>
-      <c r="O11" s="12" t="n">
-        <v>469440</v>
-      </c>
-      <c r="P11" s="12" t="n">
+      <c r="X11" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="12" t="n">
+        <v>116280</v>
+      </c>
+      <c r="AA11" s="12" t="n">
+        <v>293400</v>
+      </c>
+      <c r="AB11" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="12" t="n">
+        <v>58680</v>
+      </c>
+      <c r="AE11" s="12" t="n">
         <v>234720</v>
-      </c>
-      <c r="Q11" s="12" t="n">
-        <v>232480</v>
-      </c>
-      <c r="R11" s="12" t="n">
-        <v>471680</v>
-      </c>
-      <c r="S11" s="12" t="n">
-        <v>117360</v>
-      </c>
-      <c r="T11" s="12" t="n">
-        <v>352080</v>
-      </c>
-      <c r="U11" s="12" t="n">
-        <v>293400</v>
-      </c>
-      <c r="V11" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" s="12" t="n">
-        <v>293400</v>
-      </c>
-      <c r="X11" s="12" t="n">
-        <v>58680</v>
-      </c>
-      <c r="Y11" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="12" t="n">
-        <v>116280</v>
-      </c>
-      <c r="AB11" s="12" t="n">
-        <v>293400</v>
-      </c>
-      <c r="AC11" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="12" t="n">
-        <v>58680</v>
       </c>
       <c r="AF11" s="12" t="n">
         <v>234720</v>
       </c>
       <c r="AG11" s="12" t="n">
-        <v>234720</v>
+        <v>131280</v>
       </c>
       <c r="AH11" s="12" t="n">
-        <v>131280</v>
+        <v>0</v>
       </c>
       <c r="AI11" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AJ11" s="12" t="n">
-        <v>0</v>
+        <v>176040</v>
       </c>
       <c r="AK11" s="12" t="n">
-        <v>176040</v>
+        <v>207360</v>
       </c>
       <c r="AL11" s="12" t="n">
-        <v>207360</v>
+        <v>0</v>
       </c>
       <c r="AM11" s="12" t="n">
         <v>0</v>
@@ -3452,46 +3452,46 @@
         <v>0</v>
       </c>
       <c r="AO11" s="12" t="n">
-        <v>0</v>
+        <v>141940</v>
       </c>
       <c r="AP11" s="12" t="n">
-        <v>141940</v>
+        <v>214560</v>
       </c>
       <c r="AQ11" s="12" t="n">
-        <v>214560</v>
+        <v>122740</v>
       </c>
       <c r="AR11" s="12" t="n">
-        <v>122740</v>
+        <v>293400</v>
       </c>
       <c r="AS11" s="12" t="n">
-        <v>293400</v>
+        <v>232320</v>
       </c>
       <c r="AT11" s="12" t="n">
-        <v>232320</v>
+        <v>0</v>
       </c>
       <c r="AU11" s="12" t="n">
-        <v>0</v>
+        <v>69720</v>
       </c>
       <c r="AV11" s="12" t="n">
-        <v>69720</v>
+        <v>314040</v>
       </c>
       <c r="AW11" s="12" t="n">
-        <v>314040</v>
+        <v>117360</v>
       </c>
       <c r="AX11" s="12" t="n">
-        <v>117360</v>
+        <v>111190</v>
       </c>
       <c r="AY11" s="12" t="n">
-        <v>111190</v>
+        <v>153480</v>
       </c>
       <c r="AZ11" s="12" t="n">
-        <v>153480</v>
+        <v>193233</v>
       </c>
       <c r="BA11" s="12" t="n">
-        <v>193233</v>
+        <v>0</v>
       </c>
       <c r="BB11" s="12" t="n">
-        <v>0</v>
+        <v>58710</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3503,154 +3503,154 @@
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="n">
-        <v>337216</v>
+        <v>325417</v>
       </c>
       <c r="F12" s="14" t="n">
-        <v>325417</v>
+        <v>207619</v>
       </c>
       <c r="G12" s="14" t="n">
-        <v>207619</v>
+        <v>207725</v>
       </c>
       <c r="H12" s="14" t="n">
-        <v>207725</v>
+        <v>312435</v>
       </c>
       <c r="I12" s="14" t="n">
-        <v>312435</v>
+        <v>639768</v>
       </c>
       <c r="J12" s="14" t="n">
-        <v>639768</v>
+        <v>435394</v>
       </c>
       <c r="K12" s="14" t="n">
-        <v>435394</v>
+        <v>440054</v>
       </c>
       <c r="L12" s="14" t="n">
-        <v>440054</v>
+        <v>314113</v>
       </c>
       <c r="M12" s="14" t="n">
-        <v>314113</v>
+        <v>548358</v>
       </c>
       <c r="N12" s="14" t="n">
-        <v>548358</v>
+        <v>452808</v>
       </c>
       <c r="O12" s="14" t="n">
-        <v>452808</v>
+        <v>780911</v>
       </c>
       <c r="P12" s="14" t="n">
-        <v>780911</v>
+        <v>579616</v>
       </c>
       <c r="Q12" s="14" t="n">
-        <v>579616</v>
+        <v>452580</v>
       </c>
       <c r="R12" s="14" t="n">
-        <v>452580</v>
+        <v>218170</v>
       </c>
       <c r="S12" s="14" t="n">
-        <v>218170</v>
+        <v>392102</v>
       </c>
       <c r="T12" s="14" t="n">
-        <v>392102</v>
+        <v>529616</v>
       </c>
       <c r="U12" s="14" t="n">
-        <v>529616</v>
+        <v>650529</v>
       </c>
       <c r="V12" s="14" t="n">
-        <v>650529</v>
+        <v>604365</v>
       </c>
       <c r="W12" s="14" t="n">
-        <v>604365</v>
+        <v>498279</v>
       </c>
       <c r="X12" s="14" t="n">
-        <v>498279</v>
+        <v>625845</v>
       </c>
       <c r="Y12" s="14" t="n">
-        <v>625845</v>
+        <v>363106</v>
       </c>
       <c r="Z12" s="14" t="n">
-        <v>363106</v>
+        <v>468335</v>
       </c>
       <c r="AA12" s="14" t="n">
-        <v>468335</v>
+        <v>23879</v>
       </c>
       <c r="AB12" s="14" t="n">
-        <v>23879</v>
+        <v>10764</v>
       </c>
       <c r="AC12" s="14" t="n">
-        <v>10764</v>
+        <v>384995</v>
       </c>
       <c r="AD12" s="14" t="n">
-        <v>384995</v>
+        <v>274124</v>
       </c>
       <c r="AE12" s="14" t="n">
-        <v>274124</v>
+        <v>45133</v>
       </c>
       <c r="AF12" s="14" t="n">
-        <v>45133</v>
+        <v>460825</v>
       </c>
       <c r="AG12" s="14" t="n">
-        <v>460825</v>
+        <v>580498</v>
       </c>
       <c r="AH12" s="14" t="n">
-        <v>580498</v>
+        <v>553403</v>
       </c>
       <c r="AI12" s="14" t="n">
-        <v>553403</v>
+        <v>222225</v>
       </c>
       <c r="AJ12" s="14" t="n">
-        <v>222225</v>
+        <v>298736</v>
       </c>
       <c r="AK12" s="14" t="n">
-        <v>298736</v>
+        <v>721038</v>
       </c>
       <c r="AL12" s="14" t="n">
-        <v>721038</v>
+        <v>697700</v>
       </c>
       <c r="AM12" s="14" t="n">
-        <v>697700</v>
+        <v>682353</v>
       </c>
       <c r="AN12" s="14" t="n">
-        <v>682353</v>
+        <v>370331</v>
       </c>
       <c r="AO12" s="14" t="n">
-        <v>370331</v>
+        <v>157176</v>
       </c>
       <c r="AP12" s="14" t="n">
-        <v>157176</v>
+        <v>158641</v>
       </c>
       <c r="AQ12" s="14" t="n">
-        <v>158641</v>
+        <v>191087</v>
       </c>
       <c r="AR12" s="14" t="n">
-        <v>191087</v>
+        <v>76001</v>
       </c>
       <c r="AS12" s="14" t="n">
-        <v>76001</v>
+        <v>146768</v>
       </c>
       <c r="AT12" s="14" t="n">
-        <v>146768</v>
+        <v>122082</v>
       </c>
       <c r="AU12" s="14" t="n">
-        <v>122082</v>
+        <v>505915</v>
       </c>
       <c r="AV12" s="14" t="n">
-        <v>505915</v>
+        <v>812508</v>
       </c>
       <c r="AW12" s="14" t="n">
-        <v>812508</v>
+        <v>906122</v>
       </c>
       <c r="AX12" s="14" t="n">
-        <v>906122</v>
+        <v>451003</v>
       </c>
       <c r="AY12" s="14" t="n">
-        <v>451003</v>
+        <v>89655</v>
       </c>
       <c r="AZ12" s="14" t="n">
-        <v>89655</v>
+        <v>449147</v>
       </c>
       <c r="BA12" s="14" t="n">
-        <v>449147</v>
+        <v>346340</v>
       </c>
       <c r="BB12" s="14" t="n">
-        <v>346340</v>
+        <v>347057</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3662,73 +3662,73 @@
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12" t="n">
-        <v>407526</v>
+        <v>226636</v>
       </c>
       <c r="F13" s="12" t="n">
-        <v>226636</v>
+        <v>316212</v>
       </c>
       <c r="G13" s="12" t="n">
-        <v>316212</v>
+        <v>45328</v>
       </c>
       <c r="H13" s="12" t="n">
-        <v>45328</v>
+        <v>0</v>
       </c>
       <c r="I13" s="12" t="n">
-        <v>0</v>
+        <v>314390</v>
       </c>
       <c r="J13" s="12" t="n">
-        <v>314390</v>
+        <v>360900</v>
       </c>
       <c r="K13" s="12" t="n">
-        <v>360900</v>
+        <v>225144</v>
       </c>
       <c r="L13" s="12" t="n">
-        <v>225144</v>
+        <v>358325</v>
       </c>
       <c r="M13" s="12" t="n">
-        <v>358325</v>
+        <v>134946</v>
       </c>
       <c r="N13" s="12" t="n">
-        <v>134946</v>
+        <v>403550</v>
       </c>
       <c r="O13" s="12" t="n">
-        <v>403550</v>
+        <v>90359</v>
       </c>
       <c r="P13" s="12" t="n">
-        <v>90359</v>
+        <v>180936</v>
       </c>
       <c r="Q13" s="12" t="n">
-        <v>180936</v>
+        <v>312687</v>
       </c>
       <c r="R13" s="12" t="n">
-        <v>312687</v>
+        <v>149911</v>
       </c>
       <c r="S13" s="12" t="n">
-        <v>149911</v>
+        <v>87680</v>
       </c>
       <c r="T13" s="12" t="n">
-        <v>87680</v>
+        <v>0</v>
       </c>
       <c r="U13" s="12" t="n">
-        <v>0</v>
+        <v>21930</v>
       </c>
       <c r="V13" s="12" t="n">
-        <v>21930</v>
+        <v>41880</v>
       </c>
       <c r="W13" s="12" t="n">
-        <v>41880</v>
+        <v>374780</v>
       </c>
       <c r="X13" s="12" t="n">
-        <v>374780</v>
+        <v>247116</v>
       </c>
       <c r="Y13" s="12" t="n">
-        <v>247116</v>
+        <v>219796</v>
       </c>
       <c r="Z13" s="12" t="n">
-        <v>219796</v>
+        <v>21916</v>
       </c>
       <c r="AA13" s="12" t="n">
-        <v>21916</v>
+        <v>0</v>
       </c>
       <c r="AB13" s="12" t="n">
         <v>0</v>
@@ -3746,37 +3746,37 @@
         <v>0</v>
       </c>
       <c r="AG13" s="12" t="n">
-        <v>0</v>
+        <v>48937</v>
       </c>
       <c r="AH13" s="12" t="n">
-        <v>48937</v>
+        <v>8160</v>
       </c>
       <c r="AI13" s="12" t="n">
-        <v>8160</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="12" t="n">
-        <v>0</v>
+        <v>226044</v>
       </c>
       <c r="AK13" s="12" t="n">
-        <v>226044</v>
+        <v>135324</v>
       </c>
       <c r="AL13" s="12" t="n">
-        <v>135324</v>
+        <v>135072</v>
       </c>
       <c r="AM13" s="12" t="n">
-        <v>135072</v>
+        <v>44268</v>
       </c>
       <c r="AN13" s="12" t="n">
-        <v>44268</v>
+        <v>185404</v>
       </c>
       <c r="AO13" s="12" t="n">
-        <v>185404</v>
+        <v>0</v>
       </c>
       <c r="AP13" s="12" t="n">
-        <v>0</v>
+        <v>44254</v>
       </c>
       <c r="AQ13" s="12" t="n">
-        <v>44254</v>
+        <v>0</v>
       </c>
       <c r="AR13" s="12" t="n">
         <v>0</v>
@@ -3794,22 +3794,22 @@
         <v>0</v>
       </c>
       <c r="AW13" s="12" t="n">
-        <v>0</v>
+        <v>279650</v>
       </c>
       <c r="AX13" s="12" t="n">
-        <v>279650</v>
+        <v>362384</v>
       </c>
       <c r="AY13" s="12" t="n">
-        <v>362384</v>
+        <v>279000</v>
       </c>
       <c r="AZ13" s="12" t="n">
-        <v>279000</v>
+        <v>328932</v>
       </c>
       <c r="BA13" s="12" t="n">
-        <v>328932</v>
+        <v>93400</v>
       </c>
       <c r="BB13" s="12" t="n">
-        <v>93400</v>
+        <v>149520</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3821,154 +3821,154 @@
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14" t="n">
-        <v>16858390</v>
+        <v>12996168</v>
       </c>
       <c r="F14" s="14" t="n">
-        <v>12996168</v>
+        <v>4466170</v>
       </c>
       <c r="G14" s="14" t="n">
-        <v>4466170</v>
+        <v>3969802</v>
       </c>
       <c r="H14" s="14" t="n">
-        <v>3969802</v>
+        <v>6153500</v>
       </c>
       <c r="I14" s="14" t="n">
-        <v>6153500</v>
+        <v>9755674</v>
       </c>
       <c r="J14" s="14" t="n">
-        <v>9755674</v>
+        <v>11356900</v>
       </c>
       <c r="K14" s="14" t="n">
-        <v>11356900</v>
+        <v>17785540</v>
       </c>
       <c r="L14" s="14" t="n">
-        <v>17785540</v>
+        <v>24337820</v>
       </c>
       <c r="M14" s="14" t="n">
-        <v>24337820</v>
+        <v>25429800</v>
       </c>
       <c r="N14" s="14" t="n">
-        <v>25429800</v>
+        <v>18401680</v>
       </c>
       <c r="O14" s="14" t="n">
-        <v>18401680</v>
+        <v>24253050</v>
       </c>
       <c r="P14" s="14" t="n">
-        <v>24253050</v>
+        <v>26181964</v>
       </c>
       <c r="Q14" s="14" t="n">
-        <v>26181964</v>
+        <v>26771500</v>
       </c>
       <c r="R14" s="14" t="n">
-        <v>26771500</v>
+        <v>5875800</v>
       </c>
       <c r="S14" s="14" t="n">
-        <v>5875800</v>
+        <v>8075390</v>
       </c>
       <c r="T14" s="14" t="n">
-        <v>8075390</v>
+        <v>26547714</v>
       </c>
       <c r="U14" s="14" t="n">
-        <v>26547714</v>
+        <v>24142146</v>
       </c>
       <c r="V14" s="14" t="n">
-        <v>24142146</v>
+        <v>14879334</v>
       </c>
       <c r="W14" s="14" t="n">
-        <v>14879334</v>
+        <v>10550250</v>
       </c>
       <c r="X14" s="14" t="n">
-        <v>10550250</v>
+        <v>11872090</v>
       </c>
       <c r="Y14" s="14" t="n">
-        <v>11872090</v>
+        <v>17866800</v>
       </c>
       <c r="Z14" s="14" t="n">
-        <v>17866800</v>
+        <v>16834100</v>
       </c>
       <c r="AA14" s="14" t="n">
-        <v>16834100</v>
+        <v>5409254</v>
       </c>
       <c r="AB14" s="14" t="n">
-        <v>5409254</v>
+        <v>3055600</v>
       </c>
       <c r="AC14" s="14" t="n">
-        <v>3055600</v>
+        <v>15014300</v>
       </c>
       <c r="AD14" s="14" t="n">
-        <v>15014300</v>
+        <v>5002430</v>
       </c>
       <c r="AE14" s="14" t="n">
-        <v>5002430</v>
+        <v>11650816</v>
       </c>
       <c r="AF14" s="14" t="n">
-        <v>11650816</v>
+        <v>13152630</v>
       </c>
       <c r="AG14" s="14" t="n">
-        <v>13152630</v>
+        <v>46259244</v>
       </c>
       <c r="AH14" s="14" t="n">
-        <v>46259244</v>
+        <v>23761286</v>
       </c>
       <c r="AI14" s="14" t="n">
-        <v>23761286</v>
+        <v>50864400</v>
       </c>
       <c r="AJ14" s="14" t="n">
-        <v>50864400</v>
+        <v>11910410</v>
       </c>
       <c r="AK14" s="14" t="n">
-        <v>11910410</v>
+        <v>35183260</v>
       </c>
       <c r="AL14" s="14" t="n">
-        <v>35183260</v>
+        <v>44400500</v>
       </c>
       <c r="AM14" s="14" t="n">
-        <v>44400500</v>
+        <v>20591790</v>
       </c>
       <c r="AN14" s="14" t="n">
-        <v>20591790</v>
+        <v>16864160</v>
       </c>
       <c r="AO14" s="14" t="n">
-        <v>16864160</v>
+        <v>22755860</v>
       </c>
       <c r="AP14" s="14" t="n">
-        <v>22755860</v>
+        <v>10328380</v>
       </c>
       <c r="AQ14" s="14" t="n">
-        <v>10328380</v>
+        <v>37519980</v>
       </c>
       <c r="AR14" s="14" t="n">
-        <v>37519980</v>
+        <v>35653030</v>
       </c>
       <c r="AS14" s="14" t="n">
-        <v>35653030</v>
+        <v>32215080</v>
       </c>
       <c r="AT14" s="14" t="n">
-        <v>32215080</v>
+        <v>22228010</v>
       </c>
       <c r="AU14" s="14" t="n">
-        <v>22228010</v>
+        <v>21341380</v>
       </c>
       <c r="AV14" s="14" t="n">
-        <v>21341380</v>
+        <v>11357570</v>
       </c>
       <c r="AW14" s="14" t="n">
-        <v>11357570</v>
+        <v>34414210</v>
       </c>
       <c r="AX14" s="14" t="n">
-        <v>34414210</v>
+        <v>48657360</v>
       </c>
       <c r="AY14" s="14" t="n">
-        <v>48657360</v>
+        <v>25016650</v>
       </c>
       <c r="AZ14" s="14" t="n">
-        <v>25016650</v>
+        <v>37104670</v>
       </c>
       <c r="BA14" s="14" t="n">
-        <v>37104670</v>
+        <v>26810500</v>
       </c>
       <c r="BB14" s="14" t="n">
-        <v>26810500</v>
+        <v>48866310</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3980,154 +3980,154 @@
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12" t="n">
-        <v>2539225</v>
+        <v>2875930</v>
       </c>
       <c r="F15" s="12" t="n">
-        <v>2875930</v>
+        <v>635528</v>
       </c>
       <c r="G15" s="12" t="n">
-        <v>635528</v>
+        <v>1368120</v>
       </c>
       <c r="H15" s="12" t="n">
-        <v>1368120</v>
+        <v>2811995</v>
       </c>
       <c r="I15" s="12" t="n">
-        <v>2811995</v>
+        <v>2842980</v>
       </c>
       <c r="J15" s="12" t="n">
-        <v>2842980</v>
+        <v>4894200</v>
       </c>
       <c r="K15" s="12" t="n">
-        <v>4894200</v>
+        <v>3829628</v>
       </c>
       <c r="L15" s="12" t="n">
-        <v>3829628</v>
+        <v>1976890</v>
       </c>
       <c r="M15" s="12" t="n">
-        <v>1976890</v>
+        <v>1414200</v>
       </c>
       <c r="N15" s="12" t="n">
-        <v>1414200</v>
+        <v>0</v>
       </c>
       <c r="O15" s="12" t="n">
-        <v>0</v>
+        <v>82000</v>
       </c>
       <c r="P15" s="12" t="n">
-        <v>82000</v>
+        <v>537570</v>
       </c>
       <c r="Q15" s="12" t="n">
-        <v>537570</v>
+        <v>1742780</v>
       </c>
       <c r="R15" s="12" t="n">
-        <v>1742780</v>
+        <v>676890</v>
       </c>
       <c r="S15" s="12" t="n">
-        <v>676890</v>
+        <v>784079</v>
       </c>
       <c r="T15" s="12" t="n">
-        <v>784079</v>
+        <v>3962360</v>
       </c>
       <c r="U15" s="12" t="n">
-        <v>3962360</v>
+        <v>2057514</v>
       </c>
       <c r="V15" s="12" t="n">
-        <v>2057514</v>
+        <v>3218491</v>
       </c>
       <c r="W15" s="12" t="n">
-        <v>3218491</v>
+        <v>2880950</v>
       </c>
       <c r="X15" s="12" t="n">
-        <v>2880950</v>
+        <v>2368190</v>
       </c>
       <c r="Y15" s="12" t="n">
-        <v>2368190</v>
+        <v>3255450</v>
       </c>
       <c r="Z15" s="12" t="n">
-        <v>3255450</v>
+        <v>1967002</v>
       </c>
       <c r="AA15" s="12" t="n">
-        <v>1967002</v>
+        <v>6528321</v>
       </c>
       <c r="AB15" s="12" t="n">
-        <v>6528321</v>
+        <v>4198826</v>
       </c>
       <c r="AC15" s="12" t="n">
-        <v>4198826</v>
+        <v>573600</v>
       </c>
       <c r="AD15" s="12" t="n">
-        <v>573600</v>
+        <v>1377000</v>
       </c>
       <c r="AE15" s="12" t="n">
-        <v>1377000</v>
+        <v>1405665</v>
       </c>
       <c r="AF15" s="12" t="n">
-        <v>1405665</v>
+        <v>3970080</v>
       </c>
       <c r="AG15" s="12" t="n">
-        <v>3970080</v>
+        <v>2776560</v>
       </c>
       <c r="AH15" s="12" t="n">
-        <v>2776560</v>
+        <v>4256530</v>
       </c>
       <c r="AI15" s="12" t="n">
-        <v>4256530</v>
+        <v>3318850</v>
       </c>
       <c r="AJ15" s="12" t="n">
-        <v>3318850</v>
+        <v>2534960</v>
       </c>
       <c r="AK15" s="12" t="n">
-        <v>2534960</v>
+        <v>3978558</v>
       </c>
       <c r="AL15" s="12" t="n">
-        <v>3978558</v>
+        <v>1497050</v>
       </c>
       <c r="AM15" s="12" t="n">
-        <v>1497050</v>
+        <v>1098950</v>
       </c>
       <c r="AN15" s="12" t="n">
-        <v>1098950</v>
+        <v>3414860</v>
       </c>
       <c r="AO15" s="12" t="n">
-        <v>3414860</v>
+        <v>1492120</v>
       </c>
       <c r="AP15" s="12" t="n">
-        <v>1492120</v>
+        <v>1575200</v>
       </c>
       <c r="AQ15" s="12" t="n">
-        <v>1575200</v>
+        <v>3884718</v>
       </c>
       <c r="AR15" s="12" t="n">
-        <v>3884718</v>
+        <v>3524725</v>
       </c>
       <c r="AS15" s="12" t="n">
-        <v>3524725</v>
+        <v>1560160</v>
       </c>
       <c r="AT15" s="12" t="n">
-        <v>1560160</v>
+        <v>1703010</v>
       </c>
       <c r="AU15" s="12" t="n">
-        <v>1703010</v>
+        <v>4028690</v>
       </c>
       <c r="AV15" s="12" t="n">
-        <v>4028690</v>
+        <v>2919470</v>
       </c>
       <c r="AW15" s="12" t="n">
-        <v>2919470</v>
+        <v>3632720</v>
       </c>
       <c r="AX15" s="12" t="n">
-        <v>3632720</v>
+        <v>1668830</v>
       </c>
       <c r="AY15" s="12" t="n">
-        <v>1668830</v>
+        <v>3127632</v>
       </c>
       <c r="AZ15" s="12" t="n">
-        <v>3127632</v>
+        <v>2269180</v>
       </c>
       <c r="BA15" s="12" t="n">
-        <v>2269180</v>
+        <v>58160</v>
       </c>
       <c r="BB15" s="12" t="n">
-        <v>58160</v>
+        <v>1933935</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4141,8 +4141,8 @@
       <c r="E16" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="F16" s="14" t="n">
-        <v>0</v>
+      <c r="F16" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="G16" s="15" t="s">
         <v>64</v>
@@ -4300,8 +4300,8 @@
       <c r="E17" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="16" t="s">
-        <v>64</v>
+      <c r="F17" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="G17" s="16" t="n">
         <v>0</v>
@@ -4336,8 +4336,8 @@
       <c r="Q17" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="R17" s="16" t="n">
-        <v>0</v>
+      <c r="R17" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="S17" s="16" t="s">
         <v>64</v>
@@ -4372,8 +4372,8 @@
       <c r="AC17" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="AD17" s="16" t="s">
-        <v>64</v>
+      <c r="AD17" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AE17" s="16" t="n">
         <v>0</v>
@@ -4495,8 +4495,8 @@
       <c r="Q18" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="R18" s="15" t="s">
-        <v>64</v>
+      <c r="R18" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="S18" s="15" t="n">
         <v>0</v>
@@ -4504,8 +4504,8 @@
       <c r="T18" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="U18" s="15" t="n">
-        <v>0</v>
+      <c r="U18" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="V18" s="15" t="s">
         <v>64</v>
@@ -4720,8 +4720,8 @@
       <c r="T20" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="U20" s="16" t="s">
-        <v>64</v>
+      <c r="U20" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V20" s="16" t="n">
         <v>0</v>
@@ -4753,23 +4753,23 @@
       <c r="AE20" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AF20" s="16" t="n">
-        <v>0</v>
+      <c r="AF20" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="AG20" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="AH20" s="16" t="s">
-        <v>64</v>
+      <c r="AH20" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AI20" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AJ20" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK20" s="16" t="s">
-        <v>64</v>
+      <c r="AJ20" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK20" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AL20" s="16" t="n">
         <v>0</v>
@@ -4777,8 +4777,8 @@
       <c r="AM20" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AN20" s="16" t="n">
-        <v>0</v>
+      <c r="AN20" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="AO20" s="16" t="s">
         <v>64</v>
@@ -4939,11 +4939,11 @@
       <c r="AN21" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="AO21" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP21" s="15" t="n">
-        <v>0</v>
+      <c r="AO21" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="AQ21" s="15" t="s">
         <v>64</v>
@@ -4960,17 +4960,17 @@
       <c r="AU21" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="AV21" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="AW21" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX21" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY21" s="15" t="n">
-        <v>0</v>
+      <c r="AV21" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AX21" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="AZ21" s="15" t="s">
         <v>64</v>
@@ -5036,8 +5036,8 @@
       <c r="T22" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="U22" s="18" t="s">
-        <v>64</v>
+      <c r="U22" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V22" s="18" t="n">
         <v>0</v>
@@ -5146,154 +5146,154 @@
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
       <c r="E23" s="20" t="n">
-        <v>20201037</v>
+        <v>16424151</v>
       </c>
       <c r="F23" s="20" t="n">
-        <v>16424151</v>
+        <v>5625529</v>
       </c>
       <c r="G23" s="20" t="n">
-        <v>5625529</v>
+        <v>5590975</v>
       </c>
       <c r="H23" s="20" t="n">
-        <v>5590975</v>
+        <v>9277930</v>
       </c>
       <c r="I23" s="20" t="n">
-        <v>9277930</v>
+        <v>13552812</v>
       </c>
       <c r="J23" s="20" t="n">
-        <v>13552812</v>
+        <v>17047394</v>
       </c>
       <c r="K23" s="20" t="n">
-        <v>17047394</v>
+        <v>22397726</v>
       </c>
       <c r="L23" s="20" t="n">
-        <v>22397726</v>
+        <v>27280308</v>
       </c>
       <c r="M23" s="20" t="n">
-        <v>27280308</v>
+        <v>27967584</v>
       </c>
       <c r="N23" s="20" t="n">
-        <v>27967584</v>
+        <v>19727478</v>
       </c>
       <c r="O23" s="20" t="n">
-        <v>19727478</v>
+        <v>25441040</v>
       </c>
       <c r="P23" s="20" t="n">
-        <v>25441040</v>
+        <v>27712566</v>
       </c>
       <c r="Q23" s="20" t="n">
-        <v>27712566</v>
+        <v>29751227</v>
       </c>
       <c r="R23" s="20" t="n">
-        <v>29751227</v>
+        <v>7038131</v>
       </c>
       <c r="S23" s="20" t="n">
-        <v>7038131</v>
+        <v>9691331</v>
       </c>
       <c r="T23" s="20" t="n">
-        <v>9691331</v>
+        <v>31333090</v>
       </c>
       <c r="U23" s="20" t="n">
-        <v>31333090</v>
+        <v>26872119</v>
       </c>
       <c r="V23" s="20" t="n">
-        <v>26872119</v>
+        <v>19037470</v>
       </c>
       <c r="W23" s="20" t="n">
-        <v>19037470</v>
+        <v>14362939</v>
       </c>
       <c r="X23" s="20" t="n">
-        <v>14362939</v>
+        <v>15113241</v>
       </c>
       <c r="Y23" s="20" t="n">
-        <v>15113241</v>
+        <v>21705152</v>
       </c>
       <c r="Z23" s="20" t="n">
-        <v>21705152</v>
+        <v>19407633</v>
       </c>
       <c r="AA23" s="20" t="n">
-        <v>19407633</v>
+        <v>12254854</v>
       </c>
       <c r="AB23" s="20" t="n">
-        <v>12254854</v>
+        <v>7265190</v>
       </c>
       <c r="AC23" s="20" t="n">
-        <v>7265190</v>
+        <v>15972895</v>
       </c>
       <c r="AD23" s="20" t="n">
-        <v>15972895</v>
+        <v>6712234</v>
       </c>
       <c r="AE23" s="20" t="n">
-        <v>6712234</v>
+        <v>13336334</v>
       </c>
       <c r="AF23" s="20" t="n">
-        <v>13336334</v>
+        <v>17818255</v>
       </c>
       <c r="AG23" s="20" t="n">
-        <v>17818255</v>
+        <v>49796519</v>
       </c>
       <c r="AH23" s="20" t="n">
-        <v>49796519</v>
+        <v>28579379</v>
       </c>
       <c r="AI23" s="20" t="n">
-        <v>28579379</v>
+        <v>54405475</v>
       </c>
       <c r="AJ23" s="20" t="n">
-        <v>54405475</v>
+        <v>15146190</v>
       </c>
       <c r="AK23" s="20" t="n">
-        <v>15146190</v>
+        <v>40225540</v>
       </c>
       <c r="AL23" s="20" t="n">
-        <v>40225540</v>
+        <v>46730322</v>
       </c>
       <c r="AM23" s="20" t="n">
-        <v>46730322</v>
+        <v>22417361</v>
       </c>
       <c r="AN23" s="20" t="n">
-        <v>22417361</v>
+        <v>20834755</v>
       </c>
       <c r="AO23" s="20" t="n">
-        <v>20834755</v>
+        <v>24547096</v>
       </c>
       <c r="AP23" s="20" t="n">
-        <v>24547096</v>
+        <v>12321035</v>
       </c>
       <c r="AQ23" s="20" t="n">
-        <v>12321035</v>
+        <v>41718525</v>
       </c>
       <c r="AR23" s="20" t="n">
-        <v>41718525</v>
+        <v>39547156</v>
       </c>
       <c r="AS23" s="20" t="n">
-        <v>39547156</v>
+        <v>34154328</v>
       </c>
       <c r="AT23" s="20" t="n">
-        <v>34154328</v>
+        <v>24053102</v>
       </c>
       <c r="AU23" s="20" t="n">
-        <v>24053102</v>
+        <v>25945705</v>
       </c>
       <c r="AV23" s="20" t="n">
-        <v>25945705</v>
+        <v>15403588</v>
       </c>
       <c r="AW23" s="20" t="n">
-        <v>15403588</v>
+        <v>39350062</v>
       </c>
       <c r="AX23" s="20" t="n">
-        <v>39350062</v>
+        <v>51250767</v>
       </c>
       <c r="AY23" s="20" t="n">
-        <v>51250767</v>
+        <v>28666417</v>
       </c>
       <c r="AZ23" s="20" t="n">
-        <v>28666417</v>
+        <v>40345162</v>
       </c>
       <c r="BA23" s="20" t="n">
-        <v>40345162</v>
+        <v>27308400</v>
       </c>
       <c r="BB23" s="20" t="n">
-        <v>27308400</v>
+        <v>51355532</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5739,10 +5739,10 @@
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="16" t="n">
-        <v>29665</v>
+        <v>4800</v>
       </c>
       <c r="F30" s="16" t="n">
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="G30" s="16" t="n">
         <v>0</v>
@@ -5757,136 +5757,136 @@
         <v>0</v>
       </c>
       <c r="K30" s="16" t="n">
-        <v>0</v>
+        <v>117300</v>
       </c>
       <c r="L30" s="16" t="n">
-        <v>117300</v>
+        <v>293160</v>
       </c>
       <c r="M30" s="16" t="n">
-        <v>293160</v>
+        <v>406050</v>
       </c>
       <c r="N30" s="16" t="n">
-        <v>406050</v>
+        <v>427680</v>
       </c>
       <c r="O30" s="16" t="n">
-        <v>427680</v>
+        <v>310560</v>
       </c>
       <c r="P30" s="16" t="n">
-        <v>310560</v>
+        <v>232480</v>
       </c>
       <c r="Q30" s="16" t="n">
-        <v>232480</v>
+        <v>471680</v>
       </c>
       <c r="R30" s="16" t="n">
-        <v>471680</v>
+        <v>117360</v>
       </c>
       <c r="S30" s="16" t="n">
-        <v>117360</v>
+        <v>352080</v>
       </c>
       <c r="T30" s="16" t="n">
-        <v>352080</v>
+        <v>293280</v>
       </c>
       <c r="U30" s="16" t="n">
-        <v>293280</v>
+        <v>0</v>
       </c>
       <c r="V30" s="16" t="n">
-        <v>0</v>
+        <v>293250</v>
       </c>
       <c r="W30" s="16" t="n">
-        <v>293250</v>
+        <v>58680</v>
       </c>
       <c r="X30" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="16" t="n">
+        <v>116280</v>
+      </c>
+      <c r="AA30" s="16" t="n">
+        <v>293400</v>
+      </c>
+      <c r="AB30" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="16" t="n">
         <v>58680</v>
       </c>
-      <c r="Y30" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="16" t="n">
-        <v>116280</v>
-      </c>
-      <c r="AB30" s="16" t="n">
+      <c r="AE30" s="16" t="n">
+        <v>234600</v>
+      </c>
+      <c r="AF30" s="16" t="n">
+        <v>112530</v>
+      </c>
+      <c r="AG30" s="16" t="n">
+        <v>210960</v>
+      </c>
+      <c r="AH30" s="16" t="n">
+        <v>42240</v>
+      </c>
+      <c r="AI30" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="16" t="n">
+        <v>176040</v>
+      </c>
+      <c r="AK30" s="16" t="n">
+        <v>207360</v>
+      </c>
+      <c r="AL30" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM30" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN30" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO30" s="16" t="n">
+        <v>60000</v>
+      </c>
+      <c r="AP30" s="16" t="n">
+        <v>233400</v>
+      </c>
+      <c r="AQ30" s="16" t="n">
+        <v>45137</v>
+      </c>
+      <c r="AR30" s="16" t="n">
         <v>293400</v>
       </c>
-      <c r="AC30" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE30" s="16" t="n">
-        <v>58680</v>
-      </c>
-      <c r="AF30" s="16" t="n">
-        <v>234600</v>
-      </c>
-      <c r="AG30" s="16" t="n">
-        <v>112530</v>
-      </c>
-      <c r="AH30" s="16" t="n">
-        <v>210960</v>
-      </c>
-      <c r="AI30" s="16" t="n">
-        <v>42240</v>
-      </c>
-      <c r="AJ30" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK30" s="16" t="n">
-        <v>176040</v>
-      </c>
-      <c r="AL30" s="16" t="n">
-        <v>207360</v>
-      </c>
-      <c r="AM30" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN30" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO30" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP30" s="16" t="n">
-        <v>60000</v>
-      </c>
-      <c r="AQ30" s="16" t="n">
-        <v>233400</v>
-      </c>
-      <c r="AR30" s="16" t="n">
-        <v>45137</v>
-      </c>
       <c r="AS30" s="16" t="n">
-        <v>293400</v>
+        <v>232320</v>
       </c>
       <c r="AT30" s="16" t="n">
-        <v>232320</v>
+        <v>0</v>
       </c>
       <c r="AU30" s="16" t="n">
-        <v>0</v>
+        <v>88712</v>
       </c>
       <c r="AV30" s="16" t="n">
-        <v>88712</v>
+        <v>357560</v>
       </c>
       <c r="AW30" s="16" t="n">
-        <v>357560</v>
+        <v>194398</v>
       </c>
       <c r="AX30" s="16" t="n">
-        <v>194398</v>
+        <v>76169</v>
       </c>
       <c r="AY30" s="16" t="n">
-        <v>76169</v>
+        <v>104791</v>
       </c>
       <c r="AZ30" s="16" t="n">
-        <v>104791</v>
+        <v>150000</v>
       </c>
       <c r="BA30" s="16" t="n">
-        <v>150000</v>
+        <v>40000</v>
       </c>
       <c r="BB30" s="16" t="n">
-        <v>40000</v>
+        <v>121672</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5898,154 +5898,154 @@
       </c>
       <c r="D31" s="15"/>
       <c r="E31" s="15" t="n">
-        <v>450307</v>
+        <v>276076</v>
       </c>
       <c r="F31" s="15" t="n">
-        <v>276076</v>
+        <v>86485</v>
       </c>
       <c r="G31" s="15" t="n">
-        <v>86485</v>
+        <v>580021</v>
       </c>
       <c r="H31" s="15" t="n">
-        <v>580021</v>
+        <v>318008</v>
       </c>
       <c r="I31" s="15" t="n">
-        <v>318008</v>
+        <v>388914</v>
       </c>
       <c r="J31" s="15" t="n">
-        <v>388914</v>
+        <v>298264</v>
       </c>
       <c r="K31" s="15" t="n">
-        <v>298264</v>
+        <v>843370</v>
       </c>
       <c r="L31" s="15" t="n">
-        <v>843370</v>
+        <v>295460</v>
       </c>
       <c r="M31" s="15" t="n">
-        <v>295460</v>
+        <v>531310</v>
       </c>
       <c r="N31" s="15" t="n">
-        <v>531310</v>
+        <v>441064</v>
       </c>
       <c r="O31" s="15" t="n">
-        <v>441064</v>
+        <v>674920</v>
       </c>
       <c r="P31" s="15" t="n">
-        <v>674920</v>
+        <v>707878</v>
       </c>
       <c r="Q31" s="15" t="n">
-        <v>707878</v>
+        <v>452250</v>
       </c>
       <c r="R31" s="15" t="n">
-        <v>452250</v>
+        <v>261259</v>
       </c>
       <c r="S31" s="15" t="n">
-        <v>261259</v>
+        <v>350036</v>
       </c>
       <c r="T31" s="15" t="n">
-        <v>350036</v>
+        <v>314605</v>
       </c>
       <c r="U31" s="15" t="n">
-        <v>314605</v>
+        <v>749791</v>
       </c>
       <c r="V31" s="15" t="n">
-        <v>749791</v>
+        <v>521049</v>
       </c>
       <c r="W31" s="15" t="n">
-        <v>521049</v>
+        <v>617582</v>
       </c>
       <c r="X31" s="15" t="n">
-        <v>617582</v>
+        <v>652210</v>
       </c>
       <c r="Y31" s="15" t="n">
-        <v>652210</v>
+        <v>411366</v>
       </c>
       <c r="Z31" s="15" t="n">
-        <v>411366</v>
+        <v>554704</v>
       </c>
       <c r="AA31" s="15" t="n">
-        <v>554704</v>
+        <v>16900</v>
       </c>
       <c r="AB31" s="15" t="n">
-        <v>16900</v>
+        <v>0</v>
       </c>
       <c r="AC31" s="15" t="n">
-        <v>0</v>
+        <v>384770</v>
       </c>
       <c r="AD31" s="15" t="n">
-        <v>384770</v>
+        <v>225058</v>
       </c>
       <c r="AE31" s="15" t="n">
-        <v>225058</v>
+        <v>66194</v>
       </c>
       <c r="AF31" s="15" t="n">
-        <v>66194</v>
+        <v>462605</v>
       </c>
       <c r="AG31" s="15" t="n">
-        <v>462605</v>
+        <v>590694</v>
       </c>
       <c r="AH31" s="15" t="n">
-        <v>590694</v>
+        <v>623854</v>
       </c>
       <c r="AI31" s="15" t="n">
-        <v>623854</v>
+        <v>223425</v>
       </c>
       <c r="AJ31" s="15" t="n">
-        <v>223425</v>
+        <v>264913</v>
       </c>
       <c r="AK31" s="15" t="n">
-        <v>264913</v>
+        <v>637709</v>
       </c>
       <c r="AL31" s="15" t="n">
-        <v>637709</v>
+        <v>814046</v>
       </c>
       <c r="AM31" s="15" t="n">
-        <v>814046</v>
+        <v>681703</v>
       </c>
       <c r="AN31" s="15" t="n">
-        <v>681703</v>
+        <v>351924</v>
       </c>
       <c r="AO31" s="15" t="n">
-        <v>351924</v>
+        <v>175467</v>
       </c>
       <c r="AP31" s="15" t="n">
-        <v>175467</v>
+        <v>155901</v>
       </c>
       <c r="AQ31" s="15" t="n">
-        <v>155901</v>
+        <v>186323</v>
       </c>
       <c r="AR31" s="15" t="n">
-        <v>186323</v>
+        <v>76001</v>
       </c>
       <c r="AS31" s="15" t="n">
-        <v>76001</v>
+        <v>146648</v>
       </c>
       <c r="AT31" s="15" t="n">
-        <v>146648</v>
+        <v>121962</v>
       </c>
       <c r="AU31" s="15" t="n">
-        <v>121962</v>
+        <v>497348</v>
       </c>
       <c r="AV31" s="15" t="n">
-        <v>497348</v>
+        <v>801639</v>
       </c>
       <c r="AW31" s="15" t="n">
-        <v>801639</v>
+        <v>883420</v>
       </c>
       <c r="AX31" s="15" t="n">
-        <v>883420</v>
+        <v>457990</v>
       </c>
       <c r="AY31" s="15" t="n">
-        <v>457990</v>
+        <v>106084</v>
       </c>
       <c r="AZ31" s="15" t="n">
-        <v>106084</v>
+        <v>448907</v>
       </c>
       <c r="BA31" s="15" t="n">
-        <v>448907</v>
+        <v>118773</v>
       </c>
       <c r="BB31" s="15" t="n">
-        <v>118773</v>
+        <v>457162</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6057,154 +6057,154 @@
       </c>
       <c r="D32" s="16"/>
       <c r="E32" s="16" t="n">
-        <v>407526</v>
+        <v>226636</v>
       </c>
       <c r="F32" s="16" t="n">
-        <v>226636</v>
+        <v>296808</v>
       </c>
       <c r="G32" s="16" t="n">
-        <v>296808</v>
+        <v>64732</v>
       </c>
       <c r="H32" s="16" t="n">
-        <v>64732</v>
+        <v>0</v>
       </c>
       <c r="I32" s="16" t="n">
-        <v>0</v>
+        <v>314390</v>
       </c>
       <c r="J32" s="16" t="n">
-        <v>314390</v>
+        <v>360900</v>
       </c>
       <c r="K32" s="16" t="n">
-        <v>360900</v>
+        <v>225144</v>
       </c>
       <c r="L32" s="16" t="n">
-        <v>225144</v>
+        <v>328555</v>
       </c>
       <c r="M32" s="16" t="n">
-        <v>328555</v>
+        <v>164716</v>
       </c>
       <c r="N32" s="16" t="n">
-        <v>164716</v>
+        <v>403550</v>
       </c>
       <c r="O32" s="16" t="n">
-        <v>403550</v>
+        <v>39988</v>
       </c>
       <c r="P32" s="16" t="n">
-        <v>39988</v>
+        <v>35996</v>
       </c>
       <c r="Q32" s="16" t="n">
-        <v>35996</v>
+        <v>319754</v>
       </c>
       <c r="R32" s="16" t="n">
-        <v>319754</v>
+        <v>87685</v>
       </c>
       <c r="S32" s="16" t="n">
-        <v>87685</v>
+        <v>127596</v>
       </c>
       <c r="T32" s="16" t="n">
-        <v>127596</v>
+        <v>26000</v>
       </c>
       <c r="U32" s="16" t="n">
-        <v>26000</v>
+        <v>72010</v>
       </c>
       <c r="V32" s="16" t="n">
-        <v>72010</v>
+        <v>41800</v>
       </c>
       <c r="W32" s="16" t="n">
-        <v>41800</v>
+        <v>279000</v>
       </c>
       <c r="X32" s="16" t="n">
+        <v>446982</v>
+      </c>
+      <c r="Y32" s="16" t="n">
+        <v>32396</v>
+      </c>
+      <c r="Z32" s="16" t="n">
+        <v>33668</v>
+      </c>
+      <c r="AA32" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="16" t="n">
+        <v>203696</v>
+      </c>
+      <c r="AD32" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="16" t="n">
+        <v>20000</v>
+      </c>
+      <c r="AI32" s="16" t="n">
+        <v>15000</v>
+      </c>
+      <c r="AJ32" s="16" t="n">
+        <v>247971</v>
+      </c>
+      <c r="AK32" s="16" t="n">
+        <v>135324</v>
+      </c>
+      <c r="AL32" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM32" s="16" t="n">
+        <v>179340</v>
+      </c>
+      <c r="AN32" s="16" t="n">
+        <v>180894</v>
+      </c>
+      <c r="AO32" s="16" t="n">
+        <v>4430</v>
+      </c>
+      <c r="AP32" s="16" t="n">
+        <v>44254</v>
+      </c>
+      <c r="AQ32" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR32" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS32" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT32" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU32" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV32" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW32" s="16" t="n">
+        <v>279450</v>
+      </c>
+      <c r="AX32" s="16" t="n">
+        <v>362381</v>
+      </c>
+      <c r="AY32" s="16" t="n">
         <v>279000</v>
       </c>
-      <c r="Y32" s="16" t="n">
-        <v>446982</v>
-      </c>
-      <c r="Z32" s="16" t="n">
-        <v>32396</v>
-      </c>
-      <c r="AA32" s="16" t="n">
-        <v>33668</v>
-      </c>
-      <c r="AB32" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="16" t="n">
-        <v>203696</v>
-      </c>
-      <c r="AE32" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF32" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG32" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH32" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI32" s="16" t="n">
-        <v>20000</v>
-      </c>
-      <c r="AJ32" s="16" t="n">
-        <v>15000</v>
-      </c>
-      <c r="AK32" s="16" t="n">
-        <v>247971</v>
-      </c>
-      <c r="AL32" s="16" t="n">
-        <v>135324</v>
-      </c>
-      <c r="AM32" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN32" s="16" t="n">
-        <v>179340</v>
-      </c>
-      <c r="AO32" s="16" t="n">
-        <v>180894</v>
-      </c>
-      <c r="AP32" s="16" t="n">
-        <v>4430</v>
-      </c>
-      <c r="AQ32" s="16" t="n">
-        <v>44254</v>
-      </c>
-      <c r="AR32" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS32" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT32" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU32" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV32" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW32" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX32" s="16" t="n">
-        <v>279450</v>
-      </c>
-      <c r="AY32" s="16" t="n">
-        <v>362381</v>
-      </c>
       <c r="AZ32" s="16" t="n">
-        <v>279000</v>
+        <v>328852</v>
       </c>
       <c r="BA32" s="16" t="n">
-        <v>328852</v>
+        <v>70000</v>
       </c>
       <c r="BB32" s="16" t="n">
-        <v>70000</v>
+        <v>125000</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6216,154 +6216,154 @@
       </c>
       <c r="D33" s="15"/>
       <c r="E33" s="15" t="n">
-        <v>14988080</v>
+        <v>14021894</v>
       </c>
       <c r="F33" s="15" t="n">
-        <v>14021894</v>
+        <v>5062092</v>
       </c>
       <c r="G33" s="15" t="n">
-        <v>5062092</v>
+        <v>7143120</v>
       </c>
       <c r="H33" s="15" t="n">
-        <v>7143120</v>
+        <v>6516892</v>
       </c>
       <c r="I33" s="15" t="n">
-        <v>6516892</v>
+        <v>9835002</v>
       </c>
       <c r="J33" s="15" t="n">
-        <v>9835002</v>
+        <v>11293340</v>
       </c>
       <c r="K33" s="15" t="n">
-        <v>11293340</v>
+        <v>17785540</v>
       </c>
       <c r="L33" s="15" t="n">
-        <v>17785540</v>
+        <v>24072020</v>
       </c>
       <c r="M33" s="15" t="n">
-        <v>24072020</v>
+        <v>26013240</v>
       </c>
       <c r="N33" s="15" t="n">
-        <v>26013240</v>
+        <v>18920240</v>
       </c>
       <c r="O33" s="15" t="n">
-        <v>18920240</v>
+        <v>20779140</v>
       </c>
       <c r="P33" s="15" t="n">
-        <v>20779140</v>
+        <v>27268094</v>
       </c>
       <c r="Q33" s="15" t="n">
-        <v>27268094</v>
+        <v>29154500</v>
       </c>
       <c r="R33" s="15" t="n">
-        <v>29154500</v>
+        <v>3161100</v>
       </c>
       <c r="S33" s="15" t="n">
-        <v>3161100</v>
+        <v>9808340</v>
       </c>
       <c r="T33" s="15" t="n">
-        <v>9808340</v>
+        <v>26264800</v>
       </c>
       <c r="U33" s="15" t="n">
-        <v>26264800</v>
+        <v>25781960</v>
       </c>
       <c r="V33" s="15" t="n">
-        <v>25781960</v>
+        <v>14958930</v>
       </c>
       <c r="W33" s="15" t="n">
-        <v>14958930</v>
+        <v>3650278</v>
       </c>
       <c r="X33" s="15" t="n">
-        <v>3650278</v>
+        <v>3313698</v>
       </c>
       <c r="Y33" s="15" t="n">
-        <v>3313698</v>
+        <v>29056350</v>
       </c>
       <c r="Z33" s="15" t="n">
-        <v>29056350</v>
+        <v>18249450</v>
       </c>
       <c r="AA33" s="15" t="n">
-        <v>18249450</v>
+        <v>3319694</v>
       </c>
       <c r="AB33" s="15" t="n">
-        <v>3319694</v>
+        <v>5095000</v>
       </c>
       <c r="AC33" s="15" t="n">
-        <v>5095000</v>
+        <v>16123430</v>
       </c>
       <c r="AD33" s="15" t="n">
-        <v>16123430</v>
+        <v>5246250</v>
       </c>
       <c r="AE33" s="15" t="n">
-        <v>5246250</v>
+        <v>10389950</v>
       </c>
       <c r="AF33" s="15" t="n">
-        <v>10389950</v>
+        <v>4586768</v>
       </c>
       <c r="AG33" s="15" t="n">
-        <v>4586768</v>
+        <v>55923024</v>
       </c>
       <c r="AH33" s="15" t="n">
-        <v>55923024</v>
+        <v>24923336</v>
       </c>
       <c r="AI33" s="15" t="n">
-        <v>24923336</v>
+        <v>51018720</v>
       </c>
       <c r="AJ33" s="15" t="n">
-        <v>51018720</v>
+        <v>10668860</v>
       </c>
       <c r="AK33" s="15" t="n">
-        <v>10668860</v>
+        <v>34980130</v>
       </c>
       <c r="AL33" s="15" t="n">
-        <v>34980130</v>
+        <v>44978050</v>
       </c>
       <c r="AM33" s="15" t="n">
-        <v>44978050</v>
+        <v>19983750</v>
       </c>
       <c r="AN33" s="15" t="n">
-        <v>19983750</v>
+        <v>17294200</v>
       </c>
       <c r="AO33" s="15" t="n">
-        <v>17294200</v>
+        <v>22223050</v>
       </c>
       <c r="AP33" s="15" t="n">
-        <v>22223050</v>
+        <v>9391220</v>
       </c>
       <c r="AQ33" s="15" t="n">
-        <v>9391220</v>
+        <v>38699600</v>
       </c>
       <c r="AR33" s="15" t="n">
-        <v>38699600</v>
+        <v>34421030</v>
       </c>
       <c r="AS33" s="15" t="n">
-        <v>34421030</v>
+        <v>26777450</v>
       </c>
       <c r="AT33" s="15" t="n">
-        <v>26777450</v>
+        <v>28959360</v>
       </c>
       <c r="AU33" s="15" t="n">
-        <v>28959360</v>
+        <v>20009370</v>
       </c>
       <c r="AV33" s="15" t="n">
-        <v>20009370</v>
+        <v>7543550</v>
       </c>
       <c r="AW33" s="15" t="n">
-        <v>7543550</v>
+        <v>32461460</v>
       </c>
       <c r="AX33" s="15" t="n">
-        <v>32461460</v>
+        <v>49846060</v>
       </c>
       <c r="AY33" s="15" t="n">
-        <v>49846060</v>
+        <v>31931740</v>
       </c>
       <c r="AZ33" s="15" t="n">
-        <v>31931740</v>
+        <v>35708130</v>
       </c>
       <c r="BA33" s="15" t="n">
-        <v>35708130</v>
+        <v>23398550</v>
       </c>
       <c r="BB33" s="15" t="n">
-        <v>23398550</v>
+        <v>49388440</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6375,154 +6375,154 @@
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="16" t="n">
-        <v>3406150</v>
+        <v>5376015</v>
       </c>
       <c r="F34" s="16" t="n">
-        <v>5376015</v>
+        <v>396800</v>
       </c>
       <c r="G34" s="16" t="n">
-        <v>396800</v>
+        <v>1306988</v>
       </c>
       <c r="H34" s="16" t="n">
-        <v>1306988</v>
+        <v>3292625</v>
       </c>
       <c r="I34" s="16" t="n">
-        <v>3292625</v>
+        <v>2270906</v>
       </c>
       <c r="J34" s="16" t="n">
-        <v>2270906</v>
+        <v>5248095</v>
       </c>
       <c r="K34" s="16" t="n">
-        <v>5248095</v>
+        <v>3310140</v>
       </c>
       <c r="L34" s="16" t="n">
-        <v>3310140</v>
+        <v>1900080</v>
       </c>
       <c r="M34" s="16" t="n">
-        <v>1900080</v>
+        <v>1319050</v>
       </c>
       <c r="N34" s="16" t="n">
-        <v>1319050</v>
+        <v>897775</v>
       </c>
       <c r="O34" s="16" t="n">
-        <v>897775</v>
+        <v>86440</v>
       </c>
       <c r="P34" s="16" t="n">
-        <v>86440</v>
+        <v>593327</v>
       </c>
       <c r="Q34" s="16" t="n">
-        <v>593327</v>
+        <v>1742490</v>
       </c>
       <c r="R34" s="16" t="n">
-        <v>1742490</v>
+        <v>560300</v>
       </c>
       <c r="S34" s="16" t="n">
-        <v>560300</v>
+        <v>762326</v>
       </c>
       <c r="T34" s="16" t="n">
-        <v>762326</v>
+        <v>4024050</v>
       </c>
       <c r="U34" s="16" t="n">
-        <v>4024050</v>
+        <v>1689961</v>
       </c>
       <c r="V34" s="16" t="n">
-        <v>1689961</v>
+        <v>3586174</v>
       </c>
       <c r="W34" s="16" t="n">
-        <v>3586174</v>
+        <v>1869520</v>
       </c>
       <c r="X34" s="16" t="n">
-        <v>1869520</v>
+        <v>1701000</v>
       </c>
       <c r="Y34" s="16" t="n">
-        <v>1701000</v>
+        <v>2866590</v>
       </c>
       <c r="Z34" s="16" t="n">
-        <v>2866590</v>
+        <v>4088530</v>
       </c>
       <c r="AA34" s="16" t="n">
-        <v>4088530</v>
+        <v>5302230</v>
       </c>
       <c r="AB34" s="16" t="n">
-        <v>5302230</v>
+        <v>5243040</v>
       </c>
       <c r="AC34" s="16" t="n">
-        <v>5243040</v>
+        <v>640827</v>
       </c>
       <c r="AD34" s="16" t="n">
-        <v>640827</v>
+        <v>1091320</v>
       </c>
       <c r="AE34" s="16" t="n">
-        <v>1091320</v>
+        <v>1386230</v>
       </c>
       <c r="AF34" s="16" t="n">
-        <v>1386230</v>
+        <v>3985760</v>
       </c>
       <c r="AG34" s="16" t="n">
-        <v>3985760</v>
+        <v>2484060</v>
       </c>
       <c r="AH34" s="16" t="n">
-        <v>2484060</v>
+        <v>4816465</v>
       </c>
       <c r="AI34" s="16" t="n">
-        <v>4816465</v>
+        <v>3258720</v>
       </c>
       <c r="AJ34" s="16" t="n">
-        <v>3258720</v>
+        <v>2574820</v>
       </c>
       <c r="AK34" s="16" t="n">
-        <v>2574820</v>
+        <v>4036678</v>
       </c>
       <c r="AL34" s="16" t="n">
-        <v>4036678</v>
+        <v>1077780</v>
       </c>
       <c r="AM34" s="16" t="n">
-        <v>1077780</v>
+        <v>1147800</v>
       </c>
       <c r="AN34" s="16" t="n">
-        <v>1147800</v>
+        <v>3867980</v>
       </c>
       <c r="AO34" s="16" t="n">
-        <v>3867980</v>
+        <v>1546240</v>
       </c>
       <c r="AP34" s="16" t="n">
-        <v>1546240</v>
+        <v>1342800</v>
       </c>
       <c r="AQ34" s="16" t="n">
-        <v>1342800</v>
+        <v>4116468</v>
       </c>
       <c r="AR34" s="16" t="n">
-        <v>4116468</v>
+        <v>3355025</v>
       </c>
       <c r="AS34" s="16" t="n">
-        <v>3355025</v>
+        <v>2249560</v>
       </c>
       <c r="AT34" s="16" t="n">
-        <v>2249560</v>
+        <v>1702765</v>
       </c>
       <c r="AU34" s="16" t="n">
-        <v>1702765</v>
+        <v>3884700</v>
       </c>
       <c r="AV34" s="16" t="n">
-        <v>3884700</v>
+        <v>2906720</v>
       </c>
       <c r="AW34" s="16" t="n">
-        <v>2906720</v>
+        <v>868740</v>
       </c>
       <c r="AX34" s="16" t="n">
-        <v>868740</v>
+        <v>1691420</v>
       </c>
       <c r="AY34" s="16" t="n">
-        <v>1691420</v>
+        <v>2614182</v>
       </c>
       <c r="AZ34" s="16" t="n">
-        <v>2614182</v>
+        <v>2450040</v>
       </c>
       <c r="BA34" s="16" t="n">
-        <v>2450040</v>
+        <v>53200</v>
       </c>
       <c r="BB34" s="16" t="n">
-        <v>53200</v>
+        <v>1836475</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6536,8 +6536,8 @@
       <c r="E35" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="F35" s="15" t="n">
-        <v>0</v>
+      <c r="F35" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="G35" s="15" t="s">
         <v>64</v>
@@ -6695,8 +6695,8 @@
       <c r="E36" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F36" s="16" t="s">
-        <v>64</v>
+      <c r="F36" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="G36" s="16" t="n">
         <v>0</v>
@@ -6731,8 +6731,8 @@
       <c r="Q36" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="R36" s="16" t="n">
-        <v>0</v>
+      <c r="R36" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="S36" s="16" t="s">
         <v>64</v>
@@ -6767,8 +6767,8 @@
       <c r="AC36" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="AD36" s="16" t="s">
-        <v>64</v>
+      <c r="AD36" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AE36" s="16" t="n">
         <v>0</v>
@@ -6890,17 +6890,17 @@
       <c r="Q37" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="R37" s="15" t="s">
-        <v>64</v>
+      <c r="R37" s="15" t="n">
+        <v>2</v>
       </c>
       <c r="S37" s="15" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="T37" s="15" t="n">
-        <v>33</v>
-      </c>
-      <c r="U37" s="15" t="n">
         <v>7</v>
+      </c>
+      <c r="U37" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="V37" s="15" t="s">
         <v>64</v>
@@ -7115,68 +7115,68 @@
       <c r="T39" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="U39" s="16" t="s">
-        <v>64</v>
+      <c r="U39" s="16" t="n">
+        <v>8</v>
       </c>
       <c r="V39" s="16" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="W39" s="16" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="X39" s="16" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="Y39" s="16" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="Z39" s="16" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AA39" s="16" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AB39" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC39" s="16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD39" s="16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE39" s="16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF39" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG39" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH39" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ39" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="AC39" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD39" s="16" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE39" s="16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF39" s="16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG39" s="16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AH39" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI39" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ39" s="16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK39" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AL39" s="16" t="s">
-        <v>64</v>
+      <c r="AK39" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL39" s="16" t="n">
+        <v>58</v>
       </c>
       <c r="AM39" s="16" t="n">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="AN39" s="16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AO39" s="16" t="n">
         <v>21</v>
+      </c>
+      <c r="AO39" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="AP39" s="16" t="s">
         <v>64</v>
@@ -7334,47 +7334,47 @@
       <c r="AN40" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="AO40" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP40" s="15" t="n">
+      <c r="AO40" s="15" t="n">
         <v>1751428</v>
       </c>
-      <c r="AQ40" s="15" t="s">
-        <v>64</v>
+      <c r="AP40" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ40" s="15" t="n">
+        <v>377858</v>
       </c>
       <c r="AR40" s="15" t="n">
-        <v>377858</v>
+        <v>480437</v>
       </c>
       <c r="AS40" s="15" t="n">
-        <v>480437</v>
+        <v>113565</v>
       </c>
       <c r="AT40" s="15" t="n">
-        <v>113565</v>
+        <v>128507</v>
       </c>
       <c r="AU40" s="15" t="n">
-        <v>128507</v>
-      </c>
-      <c r="AV40" s="15" t="n">
         <v>498767</v>
       </c>
-      <c r="AW40" s="15" t="s">
-        <v>64</v>
+      <c r="AV40" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW40" s="15" t="n">
+        <v>30187</v>
       </c>
       <c r="AX40" s="15" t="n">
-        <v>30187</v>
+        <v>11850</v>
       </c>
       <c r="AY40" s="15" t="n">
-        <v>11850</v>
+        <v>354846</v>
       </c>
       <c r="AZ40" s="15" t="n">
-        <v>354846</v>
+        <v>0</v>
       </c>
       <c r="BA40" s="15" t="n">
-        <v>0</v>
+        <v>180000</v>
       </c>
       <c r="BB40" s="15" t="n">
-        <v>180000</v>
+        <v>1078419</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7431,107 +7431,107 @@
       <c r="T41" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="U41" s="18" t="s">
-        <v>64</v>
+      <c r="U41" s="18" t="n">
+        <v>8</v>
       </c>
       <c r="V41" s="18" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="W41" s="18" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="X41" s="18" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="Y41" s="18" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="Z41" s="18" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AA41" s="18" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AB41" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC41" s="18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD41" s="18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE41" s="18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF41" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG41" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH41" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI41" s="18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ41" s="18" t="n">
         <v>5</v>
       </c>
-      <c r="AC41" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD41" s="18" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE41" s="18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF41" s="18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG41" s="18" t="n">
-        <v>4</v>
-      </c>
-      <c r="AH41" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI41" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ41" s="18" t="n">
-        <v>51</v>
-      </c>
       <c r="AK41" s="18" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AL41" s="18" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="AM41" s="18" t="n">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="AN41" s="18" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AO41" s="18" t="n">
-        <v>21</v>
+        <v>1751428</v>
       </c>
       <c r="AP41" s="18" t="n">
-        <v>1751428</v>
+        <v>0</v>
       </c>
       <c r="AQ41" s="18" t="n">
-        <v>0</v>
+        <v>377858</v>
       </c>
       <c r="AR41" s="18" t="n">
-        <v>377858</v>
+        <v>480437</v>
       </c>
       <c r="AS41" s="18" t="n">
-        <v>480437</v>
+        <v>113565</v>
       </c>
       <c r="AT41" s="18" t="n">
-        <v>113565</v>
+        <v>128507</v>
       </c>
       <c r="AU41" s="18" t="n">
-        <v>128507</v>
+        <v>498767</v>
       </c>
       <c r="AV41" s="18" t="n">
-        <v>498767</v>
+        <v>0</v>
       </c>
       <c r="AW41" s="18" t="n">
-        <v>0</v>
+        <v>30187</v>
       </c>
       <c r="AX41" s="18" t="n">
-        <v>30187</v>
+        <v>11850</v>
       </c>
       <c r="AY41" s="18" t="n">
-        <v>11850</v>
+        <v>354846</v>
       </c>
       <c r="AZ41" s="18" t="n">
-        <v>354846</v>
+        <v>0</v>
       </c>
       <c r="BA41" s="18" t="n">
-        <v>0</v>
+        <v>180000</v>
       </c>
       <c r="BB41" s="18" t="n">
-        <v>180000</v>
+        <v>1078419</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7647,8 +7647,8 @@
       <c r="T43" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="U43" s="16" t="s">
-        <v>64</v>
+      <c r="U43" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V43" s="16" t="n">
         <v>0</v>
@@ -7677,14 +7677,14 @@
       <c r="AD43" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AE43" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF43" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG43" s="16" t="n">
-        <v>0</v>
+      <c r="AE43" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF43" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="AH43" s="16" t="s">
         <v>64</v>
@@ -7701,11 +7701,11 @@
       <c r="AL43" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="AM43" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN43" s="16" t="n">
-        <v>0</v>
+      <c r="AM43" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN43" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="AO43" s="16" t="s">
         <v>64</v>
@@ -7806,44 +7806,44 @@
       <c r="T44" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="U44" s="15" t="s">
-        <v>64</v>
+      <c r="U44" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="V44" s="15" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W44" s="15" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X44" s="15" t="n">
         <v>0</v>
       </c>
       <c r="Y44" s="15" t="n">
-        <v>0</v>
+        <v>-50000</v>
       </c>
       <c r="Z44" s="15" t="n">
-        <v>-50000</v>
+        <v>0</v>
       </c>
       <c r="AA44" s="15" t="n">
         <v>0</v>
       </c>
       <c r="AB44" s="15" t="n">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="AC44" s="15" t="n">
-        <v>-1500</v>
+        <v>0</v>
       </c>
       <c r="AD44" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="AE44" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF44" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG44" s="15" t="n">
-        <v>0</v>
+      <c r="AE44" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF44" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="AH44" s="15" t="s">
         <v>64</v>
@@ -7860,11 +7860,11 @@
       <c r="AL44" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="AM44" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN44" s="15" t="n">
-        <v>0</v>
+      <c r="AM44" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN44" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="AO44" s="15" t="s">
         <v>64</v>
@@ -7890,23 +7890,23 @@
       <c r="AV44" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="AW44" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="AX44" s="15" t="n">
+      <c r="AW44" s="15" t="n">
         <v>-120</v>
       </c>
+      <c r="AX44" s="15" t="s">
+        <v>64</v>
+      </c>
       <c r="AY44" s="15" t="s">
         <v>64</v>
       </c>
       <c r="AZ44" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="BA44" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="BB44" s="15" t="n">
-        <v>0</v>
+      <c r="BA44" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB44" s="15" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7965,8 +7965,8 @@
       <c r="T45" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="U45" s="16" t="s">
-        <v>64</v>
+      <c r="U45" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V45" s="16" t="n">
         <v>0</v>
@@ -7995,14 +7995,14 @@
       <c r="AD45" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AE45" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF45" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG45" s="16" t="n">
-        <v>0</v>
+      <c r="AE45" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF45" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="AH45" s="16" t="s">
         <v>64</v>
@@ -8019,11 +8019,11 @@
       <c r="AL45" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="AM45" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN45" s="16" t="n">
-        <v>0</v>
+      <c r="AM45" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN45" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="AO45" s="16" t="s">
         <v>64</v>
@@ -8124,17 +8124,17 @@
       <c r="T46" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="U46" s="15" t="s">
-        <v>64</v>
+      <c r="U46" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="V46" s="15" t="n">
         <v>0</v>
       </c>
       <c r="W46" s="15" t="n">
-        <v>0</v>
+        <v>-108000</v>
       </c>
       <c r="X46" s="15" t="n">
-        <v>-108000</v>
+        <v>0</v>
       </c>
       <c r="Y46" s="15" t="n">
         <v>0</v>
@@ -8149,19 +8149,19 @@
         <v>0</v>
       </c>
       <c r="AC46" s="15" t="n">
-        <v>0</v>
+        <v>-450</v>
       </c>
       <c r="AD46" s="15" t="n">
-        <v>-450</v>
-      </c>
-      <c r="AE46" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF46" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG46" s="15" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AE46" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF46" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="AH46" s="15" t="s">
         <v>64</v>
@@ -8175,17 +8175,17 @@
       <c r="AK46" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="AL46" s="15" t="s">
-        <v>64</v>
+      <c r="AL46" s="15" t="n">
+        <v>-414</v>
       </c>
       <c r="AM46" s="15" t="n">
-        <v>-414</v>
+        <v>0</v>
       </c>
       <c r="AN46" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="AO46" s="15" t="n">
-        <v>0</v>
+      <c r="AO46" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="AP46" s="15" t="s">
         <v>64</v>
@@ -8193,38 +8193,38 @@
       <c r="AQ46" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="AR46" s="15" t="s">
-        <v>64</v>
+      <c r="AR46" s="15" t="n">
+        <v>-62490</v>
       </c>
       <c r="AS46" s="15" t="n">
-        <v>-62490</v>
-      </c>
-      <c r="AT46" s="15" t="n">
         <v>-6120</v>
       </c>
+      <c r="AT46" s="15" t="s">
+        <v>64</v>
+      </c>
       <c r="AU46" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="AV46" s="15" t="s">
-        <v>64</v>
+      <c r="AV46" s="15" t="n">
+        <v>-933650</v>
       </c>
       <c r="AW46" s="15" t="n">
-        <v>-933650</v>
-      </c>
-      <c r="AX46" s="15" t="n">
         <v>-1884400</v>
       </c>
-      <c r="AY46" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="AZ46" s="15" t="n">
+      <c r="AX46" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY46" s="15" t="n">
         <v>-25950</v>
       </c>
-      <c r="BA46" s="15" t="s">
-        <v>64</v>
+      <c r="AZ46" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA46" s="15" t="n">
+        <v>-4750</v>
       </c>
       <c r="BB46" s="15" t="n">
-        <v>-4750</v>
+        <v>-1200000</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8283,14 +8283,14 @@
       <c r="T47" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="U47" s="16" t="s">
-        <v>64</v>
+      <c r="U47" s="16" t="n">
+        <v>-10927</v>
       </c>
       <c r="V47" s="16" t="n">
-        <v>-10927</v>
+        <v>-800</v>
       </c>
       <c r="W47" s="16" t="n">
-        <v>-800</v>
+        <v>0</v>
       </c>
       <c r="X47" s="16" t="n">
         <v>0</v>
@@ -8308,34 +8308,34 @@
         <v>0</v>
       </c>
       <c r="AC47" s="16" t="n">
-        <v>0</v>
+        <v>-471</v>
       </c>
       <c r="AD47" s="16" t="n">
-        <v>-471</v>
-      </c>
-      <c r="AE47" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF47" s="16" t="s">
-        <v>64</v>
+        <v>0</v>
+      </c>
+      <c r="AE47" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF47" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AG47" s="16" t="n">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="AH47" s="16" t="n">
-        <v>-2000</v>
+        <v>-5000</v>
       </c>
       <c r="AI47" s="16" t="n">
-        <v>-5000</v>
+        <v>-25720</v>
       </c>
       <c r="AJ47" s="16" t="n">
-        <v>-25720</v>
+        <v>-21000</v>
       </c>
       <c r="AK47" s="16" t="n">
-        <v>-21000</v>
+        <v>-4860</v>
       </c>
       <c r="AL47" s="16" t="n">
-        <v>-4860</v>
+        <v>0</v>
       </c>
       <c r="AM47" s="16" t="n">
         <v>0</v>
@@ -8343,8 +8343,8 @@
       <c r="AN47" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AO47" s="16" t="n">
-        <v>0</v>
+      <c r="AO47" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="AP47" s="16" t="s">
         <v>64</v>
@@ -8352,32 +8352,32 @@
       <c r="AQ47" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="AR47" s="16" t="s">
-        <v>64</v>
+      <c r="AR47" s="16" t="n">
+        <v>-13</v>
       </c>
       <c r="AS47" s="16" t="n">
-        <v>-13</v>
-      </c>
-      <c r="AT47" s="16" t="n">
         <v>-557600</v>
       </c>
+      <c r="AT47" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="AU47" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="AV47" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="AW47" s="16" t="n">
+      <c r="AV47" s="16" t="n">
         <v>-10000</v>
       </c>
+      <c r="AW47" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="AX47" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="AY47" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="AZ47" s="16" t="n">
+      <c r="AY47" s="16" t="n">
         <v>-50</v>
+      </c>
+      <c r="AZ47" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="BA47" s="16" t="s">
         <v>64</v>
@@ -8469,17 +8469,17 @@
       <c r="AC48" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="AD48" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE48" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF48" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG48" s="15" t="n">
-        <v>0</v>
+      <c r="AD48" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF48" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG48" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="AH48" s="15" t="s">
         <v>64</v>
@@ -8496,11 +8496,11 @@
       <c r="AL48" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="AM48" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN48" s="15" t="n">
-        <v>0</v>
+      <c r="AM48" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN48" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="AO48" s="15" t="s">
         <v>64</v>
@@ -8758,35 +8758,35 @@
       <c r="T50" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="U50" s="20" t="s">
-        <v>64</v>
+      <c r="U50" s="20" t="n">
+        <v>-10927</v>
       </c>
       <c r="V50" s="20" t="n">
-        <v>-10927</v>
+        <v>-900</v>
       </c>
       <c r="W50" s="20" t="n">
-        <v>-900</v>
+        <v>-108000</v>
       </c>
       <c r="X50" s="20" t="n">
-        <v>-108000</v>
+        <v>0</v>
       </c>
       <c r="Y50" s="20" t="n">
-        <v>0</v>
+        <v>-50000</v>
       </c>
       <c r="Z50" s="20" t="n">
-        <v>-50000</v>
+        <v>0</v>
       </c>
       <c r="AA50" s="20" t="n">
         <v>0</v>
       </c>
       <c r="AB50" s="20" t="n">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="AC50" s="20" t="n">
-        <v>-1500</v>
+        <v>-921</v>
       </c>
       <c r="AD50" s="20" t="n">
-        <v>-921</v>
+        <v>0</v>
       </c>
       <c r="AE50" s="20" t="n">
         <v>0</v>
@@ -8795,25 +8795,25 @@
         <v>0</v>
       </c>
       <c r="AG50" s="20" t="n">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="AH50" s="20" t="n">
-        <v>-2000</v>
+        <v>-5000</v>
       </c>
       <c r="AI50" s="20" t="n">
-        <v>-5000</v>
+        <v>-25720</v>
       </c>
       <c r="AJ50" s="20" t="n">
-        <v>-25720</v>
+        <v>-21000</v>
       </c>
       <c r="AK50" s="20" t="n">
-        <v>-21000</v>
+        <v>-4860</v>
       </c>
       <c r="AL50" s="20" t="n">
-        <v>-4860</v>
+        <v>-414</v>
       </c>
       <c r="AM50" s="20" t="n">
-        <v>-414</v>
+        <v>0</v>
       </c>
       <c r="AN50" s="20" t="n">
         <v>0</v>
@@ -8828,37 +8828,37 @@
         <v>0</v>
       </c>
       <c r="AR50" s="20" t="n">
-        <v>0</v>
+        <v>-62503</v>
       </c>
       <c r="AS50" s="20" t="n">
-        <v>-62503</v>
+        <v>-563720</v>
       </c>
       <c r="AT50" s="20" t="n">
-        <v>-563720</v>
+        <v>0</v>
       </c>
       <c r="AU50" s="20" t="n">
         <v>0</v>
       </c>
       <c r="AV50" s="20" t="n">
-        <v>0</v>
+        <v>-943650</v>
       </c>
       <c r="AW50" s="20" t="n">
-        <v>-943650</v>
+        <v>-1884520</v>
       </c>
       <c r="AX50" s="20" t="n">
-        <v>-1884520</v>
+        <v>0</v>
       </c>
       <c r="AY50" s="20" t="n">
-        <v>0</v>
+        <v>-26000</v>
       </c>
       <c r="AZ50" s="20" t="n">
-        <v>-26000</v>
+        <v>0</v>
       </c>
       <c r="BA50" s="20" t="n">
-        <v>0</v>
+        <v>-4750</v>
       </c>
       <c r="BB50" s="20" t="n">
-        <v>-4750</v>
+        <v>-1200000</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8868,154 +8868,154 @@
       <c r="C51" s="18"/>
       <c r="D51" s="18"/>
       <c r="E51" s="18" t="n">
-        <v>19281728</v>
+        <v>19905421</v>
       </c>
       <c r="F51" s="18" t="n">
-        <v>19905421</v>
+        <v>5842185</v>
       </c>
       <c r="G51" s="18" t="n">
-        <v>5842185</v>
+        <v>9094861</v>
       </c>
       <c r="H51" s="18" t="n">
-        <v>9094861</v>
+        <v>10127525</v>
       </c>
       <c r="I51" s="18" t="n">
-        <v>10127525</v>
+        <v>12809212</v>
       </c>
       <c r="J51" s="18" t="n">
-        <v>12809212</v>
+        <v>17200599</v>
       </c>
       <c r="K51" s="18" t="n">
-        <v>17200599</v>
+        <v>22281494</v>
       </c>
       <c r="L51" s="18" t="n">
-        <v>22281494</v>
+        <v>26889275</v>
       </c>
       <c r="M51" s="18" t="n">
-        <v>26889275</v>
+        <v>28434366</v>
       </c>
       <c r="N51" s="18" t="n">
-        <v>28434366</v>
+        <v>21090309</v>
       </c>
       <c r="O51" s="18" t="n">
-        <v>21090309</v>
+        <v>21891048</v>
       </c>
       <c r="P51" s="18" t="n">
-        <v>21891048</v>
+        <v>28837775</v>
       </c>
       <c r="Q51" s="18" t="n">
-        <v>28837775</v>
+        <v>32140674</v>
       </c>
       <c r="R51" s="18" t="n">
-        <v>32140674</v>
+        <v>4187706</v>
       </c>
       <c r="S51" s="18" t="n">
-        <v>4187706</v>
+        <v>11400411</v>
       </c>
       <c r="T51" s="18" t="n">
-        <v>11400411</v>
+        <v>30922742</v>
       </c>
       <c r="U51" s="18" t="n">
-        <v>30922742</v>
+        <v>28282803</v>
       </c>
       <c r="V51" s="18" t="n">
-        <v>28282803</v>
+        <v>19400331</v>
       </c>
       <c r="W51" s="18" t="n">
-        <v>19400331</v>
+        <v>6367072</v>
       </c>
       <c r="X51" s="18" t="n">
-        <v>6367072</v>
+        <v>6113920</v>
       </c>
       <c r="Y51" s="18" t="n">
-        <v>6113920</v>
+        <v>32316709</v>
       </c>
       <c r="Z51" s="18" t="n">
-        <v>32316709</v>
+        <v>23042643</v>
       </c>
       <c r="AA51" s="18" t="n">
-        <v>23042643</v>
+        <v>8932229</v>
       </c>
       <c r="AB51" s="18" t="n">
-        <v>8932229</v>
+        <v>10336543</v>
       </c>
       <c r="AC51" s="18" t="n">
-        <v>10336543</v>
+        <v>17351808</v>
       </c>
       <c r="AD51" s="18" t="n">
-        <v>17351808</v>
+        <v>6621321</v>
       </c>
       <c r="AE51" s="18" t="n">
-        <v>6621321</v>
+        <v>12076989</v>
       </c>
       <c r="AF51" s="18" t="n">
-        <v>12076989</v>
+        <v>9147667</v>
       </c>
       <c r="AG51" s="18" t="n">
-        <v>9147667</v>
+        <v>59206741</v>
       </c>
       <c r="AH51" s="18" t="n">
-        <v>59206741</v>
+        <v>30420895</v>
       </c>
       <c r="AI51" s="18" t="n">
-        <v>30420895</v>
+        <v>54490196</v>
       </c>
       <c r="AJ51" s="18" t="n">
-        <v>54490196</v>
+        <v>13911609</v>
       </c>
       <c r="AK51" s="18" t="n">
-        <v>13911609</v>
+        <v>39992341</v>
       </c>
       <c r="AL51" s="18" t="n">
-        <v>39992341</v>
+        <v>46869520</v>
       </c>
       <c r="AM51" s="18" t="n">
-        <v>46869520</v>
+        <v>21992602</v>
       </c>
       <c r="AN51" s="18" t="n">
-        <v>21992602</v>
+        <v>21695019</v>
       </c>
       <c r="AO51" s="18" t="n">
-        <v>21695019</v>
+        <v>25760615</v>
       </c>
       <c r="AP51" s="18" t="n">
-        <v>25760615</v>
+        <v>11167575</v>
       </c>
       <c r="AQ51" s="18" t="n">
-        <v>11167575</v>
+        <v>43425386</v>
       </c>
       <c r="AR51" s="18" t="n">
-        <v>43425386</v>
+        <v>38563390</v>
       </c>
       <c r="AS51" s="18" t="n">
-        <v>38563390</v>
+        <v>28955823</v>
       </c>
       <c r="AT51" s="18" t="n">
-        <v>28955823</v>
+        <v>30912594</v>
       </c>
       <c r="AU51" s="18" t="n">
-        <v>30912594</v>
+        <v>24978897</v>
       </c>
       <c r="AV51" s="18" t="n">
-        <v>24978897</v>
+        <v>10665819</v>
       </c>
       <c r="AW51" s="18" t="n">
-        <v>10665819</v>
+        <v>32833135</v>
       </c>
       <c r="AX51" s="18" t="n">
-        <v>32833135</v>
+        <v>52445870</v>
       </c>
       <c r="AY51" s="18" t="n">
-        <v>52445870</v>
+        <v>35364643</v>
       </c>
       <c r="AZ51" s="18" t="n">
-        <v>35364643</v>
+        <v>39085929</v>
       </c>
       <c r="BA51" s="18" t="n">
-        <v>39085929</v>
+        <v>23855773</v>
       </c>
       <c r="BB51" s="18" t="n">
-        <v>23855773</v>
+        <v>51807168</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9461,10 +9461,10 @@
       </c>
       <c r="D58" s="16"/>
       <c r="E58" s="16" t="n">
-        <v>943</v>
+        <v>306</v>
       </c>
       <c r="F58" s="16" t="n">
-        <v>306</v>
+        <v>0</v>
       </c>
       <c r="G58" s="16" t="n">
         <v>0</v>
@@ -9479,88 +9479,88 @@
         <v>0</v>
       </c>
       <c r="K58" s="16" t="n">
-        <v>0</v>
+        <v>2815</v>
       </c>
       <c r="L58" s="16" t="n">
-        <v>2815</v>
+        <v>8217</v>
       </c>
       <c r="M58" s="16" t="n">
-        <v>8217</v>
+        <v>8945</v>
       </c>
       <c r="N58" s="16" t="n">
-        <v>8945</v>
+        <v>12520</v>
       </c>
       <c r="O58" s="16" t="n">
-        <v>12520</v>
+        <v>8013</v>
       </c>
       <c r="P58" s="16" t="n">
-        <v>8013</v>
+        <v>4263</v>
       </c>
       <c r="Q58" s="16" t="n">
-        <v>4263</v>
+        <v>10227</v>
       </c>
       <c r="R58" s="16" t="n">
-        <v>10227</v>
+        <v>3436</v>
       </c>
       <c r="S58" s="16" t="n">
-        <v>3436</v>
+        <v>10307</v>
       </c>
       <c r="T58" s="16" t="n">
-        <v>10307</v>
+        <v>8157</v>
       </c>
       <c r="U58" s="16" t="n">
-        <v>8157</v>
+        <v>0</v>
       </c>
       <c r="V58" s="16" t="n">
-        <v>0</v>
+        <v>8585</v>
       </c>
       <c r="W58" s="16" t="n">
-        <v>8585</v>
+        <v>1718</v>
       </c>
       <c r="X58" s="16" t="n">
-        <v>1718</v>
+        <v>0</v>
       </c>
       <c r="Y58" s="16" t="n">
         <v>0</v>
       </c>
       <c r="Z58" s="16" t="n">
-        <v>0</v>
+        <v>4658</v>
       </c>
       <c r="AA58" s="16" t="n">
-        <v>4658</v>
+        <v>11754</v>
       </c>
       <c r="AB58" s="16" t="n">
-        <v>11754</v>
+        <v>0</v>
       </c>
       <c r="AC58" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AD58" s="16" t="n">
-        <v>0</v>
+        <v>2351</v>
       </c>
       <c r="AE58" s="16" t="n">
-        <v>2351</v>
+        <v>9399</v>
       </c>
       <c r="AF58" s="16" t="n">
-        <v>9399</v>
+        <v>3791</v>
       </c>
       <c r="AG58" s="16" t="n">
-        <v>3791</v>
+        <v>10909</v>
       </c>
       <c r="AH58" s="16" t="n">
-        <v>10909</v>
+        <v>1692</v>
       </c>
       <c r="AI58" s="16" t="n">
-        <v>1692</v>
+        <v>0</v>
       </c>
       <c r="AJ58" s="16" t="n">
-        <v>0</v>
+        <v>9330</v>
       </c>
       <c r="AK58" s="16" t="n">
-        <v>9330</v>
+        <v>10990</v>
       </c>
       <c r="AL58" s="16" t="n">
-        <v>10990</v>
+        <v>0</v>
       </c>
       <c r="AM58" s="16" t="n">
         <v>0</v>
@@ -9569,46 +9569,46 @@
         <v>0</v>
       </c>
       <c r="AO58" s="16" t="n">
-        <v>0</v>
+        <v>3180</v>
       </c>
       <c r="AP58" s="16" t="n">
-        <v>3180</v>
+        <v>12370</v>
       </c>
       <c r="AQ58" s="16" t="n">
-        <v>12370</v>
+        <v>2392</v>
       </c>
       <c r="AR58" s="16" t="n">
-        <v>2392</v>
+        <v>15550</v>
       </c>
       <c r="AS58" s="16" t="n">
-        <v>15550</v>
+        <v>12313</v>
       </c>
       <c r="AT58" s="16" t="n">
-        <v>12313</v>
+        <v>0</v>
       </c>
       <c r="AU58" s="16" t="n">
-        <v>0</v>
+        <v>8291</v>
       </c>
       <c r="AV58" s="16" t="n">
-        <v>8291</v>
+        <v>21779</v>
       </c>
       <c r="AW58" s="16" t="n">
-        <v>21779</v>
+        <v>9420</v>
       </c>
       <c r="AX58" s="16" t="n">
-        <v>9420</v>
+        <v>9521</v>
       </c>
       <c r="AY58" s="16" t="n">
-        <v>9521</v>
+        <v>13099</v>
       </c>
       <c r="AZ58" s="16" t="n">
-        <v>13099</v>
+        <v>15150</v>
       </c>
       <c r="BA58" s="16" t="n">
-        <v>15150</v>
+        <v>4200</v>
       </c>
       <c r="BB58" s="16" t="n">
-        <v>4200</v>
+        <v>10984</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9620,154 +9620,154 @@
       </c>
       <c r="D59" s="15"/>
       <c r="E59" s="15" t="n">
-        <v>41396</v>
+        <v>22536</v>
       </c>
       <c r="F59" s="15" t="n">
-        <v>22536</v>
+        <v>12499</v>
       </c>
       <c r="G59" s="15" t="n">
-        <v>12499</v>
+        <v>74087</v>
       </c>
       <c r="H59" s="15" t="n">
-        <v>74087</v>
+        <v>40820</v>
       </c>
       <c r="I59" s="15" t="n">
-        <v>40820</v>
+        <v>53279</v>
       </c>
       <c r="J59" s="15" t="n">
-        <v>53279</v>
+        <v>32547</v>
       </c>
       <c r="K59" s="15" t="n">
-        <v>32547</v>
+        <v>88997</v>
       </c>
       <c r="L59" s="15" t="n">
-        <v>88997</v>
+        <v>17847</v>
       </c>
       <c r="M59" s="15" t="n">
-        <v>17847</v>
+        <v>43213</v>
       </c>
       <c r="N59" s="15" t="n">
-        <v>43213</v>
+        <v>61631</v>
       </c>
       <c r="O59" s="15" t="n">
-        <v>61631</v>
+        <v>61758</v>
       </c>
       <c r="P59" s="15" t="n">
-        <v>61758</v>
+        <v>42570</v>
       </c>
       <c r="Q59" s="15" t="n">
-        <v>42570</v>
+        <v>63655</v>
       </c>
       <c r="R59" s="15" t="n">
-        <v>63655</v>
+        <v>35925</v>
       </c>
       <c r="S59" s="15" t="n">
-        <v>35925</v>
+        <v>47991</v>
       </c>
       <c r="T59" s="15" t="n">
-        <v>47991</v>
+        <v>60447</v>
       </c>
       <c r="U59" s="15" t="n">
-        <v>60447</v>
+        <v>161256</v>
       </c>
       <c r="V59" s="15" t="n">
-        <v>161256</v>
+        <v>212547</v>
       </c>
       <c r="W59" s="15" t="n">
-        <v>212547</v>
+        <v>307590</v>
       </c>
       <c r="X59" s="15" t="n">
-        <v>307590</v>
+        <v>247431</v>
       </c>
       <c r="Y59" s="15" t="n">
-        <v>247431</v>
+        <v>172764</v>
       </c>
       <c r="Z59" s="15" t="n">
-        <v>172764</v>
+        <v>108790</v>
       </c>
       <c r="AA59" s="15" t="n">
-        <v>108790</v>
+        <v>3322</v>
       </c>
       <c r="AB59" s="15" t="n">
-        <v>3322</v>
+        <v>0</v>
       </c>
       <c r="AC59" s="15" t="n">
-        <v>0</v>
+        <v>90097</v>
       </c>
       <c r="AD59" s="15" t="n">
-        <v>90097</v>
+        <v>58098</v>
       </c>
       <c r="AE59" s="15" t="n">
-        <v>58098</v>
+        <v>28297</v>
       </c>
       <c r="AF59" s="15" t="n">
-        <v>28297</v>
+        <v>151540</v>
       </c>
       <c r="AG59" s="15" t="n">
-        <v>151540</v>
+        <v>174366</v>
       </c>
       <c r="AH59" s="15" t="n">
-        <v>174366</v>
+        <v>242443</v>
       </c>
       <c r="AI59" s="15" t="n">
-        <v>242443</v>
+        <v>97097</v>
       </c>
       <c r="AJ59" s="15" t="n">
-        <v>97097</v>
+        <v>76651</v>
       </c>
       <c r="AK59" s="15" t="n">
-        <v>76651</v>
+        <v>177613</v>
       </c>
       <c r="AL59" s="15" t="n">
-        <v>177613</v>
+        <v>276757</v>
       </c>
       <c r="AM59" s="15" t="n">
-        <v>276757</v>
+        <v>145962</v>
       </c>
       <c r="AN59" s="15" t="n">
-        <v>145962</v>
+        <v>100349</v>
       </c>
       <c r="AO59" s="15" t="n">
-        <v>100349</v>
+        <v>16181</v>
       </c>
       <c r="AP59" s="15" t="n">
-        <v>16181</v>
+        <v>22580</v>
       </c>
       <c r="AQ59" s="15" t="n">
-        <v>22580</v>
+        <v>28980</v>
       </c>
       <c r="AR59" s="15" t="n">
-        <v>28980</v>
+        <v>7594</v>
       </c>
       <c r="AS59" s="15" t="n">
-        <v>7594</v>
+        <v>42876</v>
       </c>
       <c r="AT59" s="15" t="n">
-        <v>42876</v>
+        <v>23552</v>
       </c>
       <c r="AU59" s="15" t="n">
-        <v>23552</v>
+        <v>193370</v>
       </c>
       <c r="AV59" s="15" t="n">
-        <v>193370</v>
+        <v>278000</v>
       </c>
       <c r="AW59" s="15" t="n">
-        <v>278000</v>
+        <v>296732</v>
       </c>
       <c r="AX59" s="15" t="n">
-        <v>296732</v>
+        <v>196240</v>
       </c>
       <c r="AY59" s="15" t="n">
-        <v>196240</v>
+        <v>42434</v>
       </c>
       <c r="AZ59" s="15" t="n">
-        <v>42434</v>
+        <v>174774</v>
       </c>
       <c r="BA59" s="15" t="n">
-        <v>174774</v>
+        <v>63790</v>
       </c>
       <c r="BB59" s="15" t="n">
-        <v>63790</v>
+        <v>255561</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9779,82 +9779,82 @@
       </c>
       <c r="D60" s="16"/>
       <c r="E60" s="16" t="n">
-        <v>12226</v>
+        <v>6052</v>
       </c>
       <c r="F60" s="16" t="n">
-        <v>6052</v>
+        <v>8904</v>
       </c>
       <c r="G60" s="16" t="n">
-        <v>8904</v>
+        <v>1942</v>
       </c>
       <c r="H60" s="16" t="n">
-        <v>1942</v>
+        <v>0</v>
       </c>
       <c r="I60" s="16" t="n">
-        <v>0</v>
+        <v>9432</v>
       </c>
       <c r="J60" s="16" t="n">
-        <v>9432</v>
+        <v>10827</v>
       </c>
       <c r="K60" s="16" t="n">
-        <v>10827</v>
+        <v>9020</v>
       </c>
       <c r="L60" s="16" t="n">
-        <v>9020</v>
+        <v>12802</v>
       </c>
       <c r="M60" s="16" t="n">
-        <v>12802</v>
+        <v>6599</v>
       </c>
       <c r="N60" s="16" t="n">
-        <v>6599</v>
+        <v>16167</v>
       </c>
       <c r="O60" s="16" t="n">
-        <v>16167</v>
+        <v>1482</v>
       </c>
       <c r="P60" s="16" t="n">
-        <v>1482</v>
+        <v>1242</v>
       </c>
       <c r="Q60" s="16" t="n">
-        <v>1242</v>
+        <v>13945</v>
       </c>
       <c r="R60" s="16" t="n">
-        <v>13945</v>
+        <v>4830</v>
       </c>
       <c r="S60" s="16" t="n">
-        <v>4830</v>
+        <v>6428</v>
       </c>
       <c r="T60" s="16" t="n">
-        <v>6428</v>
+        <v>1042</v>
       </c>
       <c r="U60" s="16" t="n">
-        <v>1042</v>
+        <v>3204</v>
       </c>
       <c r="V60" s="16" t="n">
-        <v>3204</v>
+        <v>2452</v>
       </c>
       <c r="W60" s="16" t="n">
-        <v>2452</v>
+        <v>14868</v>
       </c>
       <c r="X60" s="16" t="n">
-        <v>14868</v>
+        <v>27178</v>
       </c>
       <c r="Y60" s="16" t="n">
-        <v>27178</v>
+        <v>1824</v>
       </c>
       <c r="Z60" s="16" t="n">
-        <v>1824</v>
+        <v>1540</v>
       </c>
       <c r="AA60" s="16" t="n">
-        <v>1540</v>
+        <v>0</v>
       </c>
       <c r="AB60" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AC60" s="16" t="n">
-        <v>0</v>
+        <v>14254</v>
       </c>
       <c r="AD60" s="16" t="n">
-        <v>14254</v>
+        <v>0</v>
       </c>
       <c r="AE60" s="16" t="n">
         <v>0</v>
@@ -9866,34 +9866,34 @@
         <v>0</v>
       </c>
       <c r="AH60" s="16" t="n">
-        <v>0</v>
+        <v>1351</v>
       </c>
       <c r="AI60" s="16" t="n">
-        <v>1351</v>
+        <v>1013</v>
       </c>
       <c r="AJ60" s="16" t="n">
-        <v>1013</v>
+        <v>13913</v>
       </c>
       <c r="AK60" s="16" t="n">
-        <v>13913</v>
+        <v>7443</v>
       </c>
       <c r="AL60" s="16" t="n">
-        <v>7443</v>
+        <v>0</v>
       </c>
       <c r="AM60" s="16" t="n">
-        <v>0</v>
+        <v>13451</v>
       </c>
       <c r="AN60" s="16" t="n">
-        <v>13451</v>
+        <v>13567</v>
       </c>
       <c r="AO60" s="16" t="n">
-        <v>13567</v>
+        <v>487</v>
       </c>
       <c r="AP60" s="16" t="n">
-        <v>487</v>
+        <v>3319</v>
       </c>
       <c r="AQ60" s="16" t="n">
-        <v>3319</v>
+        <v>0</v>
       </c>
       <c r="AR60" s="16" t="n">
         <v>0</v>
@@ -9911,22 +9911,22 @@
         <v>0</v>
       </c>
       <c r="AW60" s="16" t="n">
-        <v>0</v>
+        <v>56643</v>
       </c>
       <c r="AX60" s="16" t="n">
-        <v>56643</v>
+        <v>72284</v>
       </c>
       <c r="AY60" s="16" t="n">
-        <v>72284</v>
+        <v>53497</v>
       </c>
       <c r="AZ60" s="16" t="n">
-        <v>53497</v>
+        <v>57081</v>
       </c>
       <c r="BA60" s="16" t="n">
-        <v>57081</v>
+        <v>13422</v>
       </c>
       <c r="BB60" s="16" t="n">
-        <v>13422</v>
+        <v>23968</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9938,154 +9938,154 @@
       </c>
       <c r="D61" s="15"/>
       <c r="E61" s="15" t="n">
-        <v>47664</v>
+        <v>38409</v>
       </c>
       <c r="F61" s="15" t="n">
-        <v>38409</v>
+        <v>9466</v>
       </c>
       <c r="G61" s="15" t="n">
-        <v>9466</v>
+        <v>67425</v>
       </c>
       <c r="H61" s="15" t="n">
-        <v>67425</v>
+        <v>23784</v>
       </c>
       <c r="I61" s="15" t="n">
-        <v>23784</v>
+        <v>45964</v>
       </c>
       <c r="J61" s="15" t="n">
-        <v>45964</v>
+        <v>74802</v>
       </c>
       <c r="K61" s="15" t="n">
-        <v>74802</v>
+        <v>75508</v>
       </c>
       <c r="L61" s="15" t="n">
-        <v>75508</v>
+        <v>78377</v>
       </c>
       <c r="M61" s="15" t="n">
-        <v>78377</v>
+        <v>63419</v>
       </c>
       <c r="N61" s="15" t="n">
-        <v>63419</v>
+        <v>50911</v>
       </c>
       <c r="O61" s="15" t="n">
-        <v>50911</v>
+        <v>55058</v>
       </c>
       <c r="P61" s="15" t="n">
-        <v>55058</v>
+        <v>78502</v>
       </c>
       <c r="Q61" s="15" t="n">
-        <v>78502</v>
+        <v>93737</v>
       </c>
       <c r="R61" s="15" t="n">
-        <v>93737</v>
+        <v>15485</v>
       </c>
       <c r="S61" s="15" t="n">
-        <v>15485</v>
+        <v>58107</v>
       </c>
       <c r="T61" s="15" t="n">
-        <v>58107</v>
+        <v>72192</v>
       </c>
       <c r="U61" s="15" t="n">
-        <v>72192</v>
+        <v>125966</v>
       </c>
       <c r="V61" s="15" t="n">
-        <v>125966</v>
+        <v>42461</v>
       </c>
       <c r="W61" s="15" t="n">
-        <v>42461</v>
+        <v>21704</v>
       </c>
       <c r="X61" s="15" t="n">
-        <v>21704</v>
+        <v>46637</v>
       </c>
       <c r="Y61" s="15" t="n">
-        <v>46637</v>
+        <v>128731</v>
       </c>
       <c r="Z61" s="15" t="n">
-        <v>128731</v>
+        <v>92702</v>
       </c>
       <c r="AA61" s="15" t="n">
-        <v>92702</v>
+        <v>19910</v>
       </c>
       <c r="AB61" s="15" t="n">
-        <v>19910</v>
+        <v>29784</v>
       </c>
       <c r="AC61" s="15" t="n">
-        <v>29784</v>
+        <v>97643</v>
       </c>
       <c r="AD61" s="15" t="n">
-        <v>97643</v>
+        <v>24411</v>
       </c>
       <c r="AE61" s="15" t="n">
-        <v>24411</v>
+        <v>47975</v>
       </c>
       <c r="AF61" s="15" t="n">
-        <v>47975</v>
+        <v>19510</v>
       </c>
       <c r="AG61" s="15" t="n">
-        <v>19510</v>
+        <v>475336</v>
       </c>
       <c r="AH61" s="15" t="n">
-        <v>475336</v>
+        <v>179921</v>
       </c>
       <c r="AI61" s="15" t="n">
-        <v>179921</v>
+        <v>429215</v>
       </c>
       <c r="AJ61" s="15" t="n">
-        <v>429215</v>
+        <v>55755</v>
       </c>
       <c r="AK61" s="15" t="n">
-        <v>55755</v>
+        <v>234475</v>
       </c>
       <c r="AL61" s="15" t="n">
-        <v>234475</v>
+        <v>339821</v>
       </c>
       <c r="AM61" s="15" t="n">
-        <v>339821</v>
+        <v>120407</v>
       </c>
       <c r="AN61" s="15" t="n">
-        <v>120407</v>
+        <v>104790</v>
       </c>
       <c r="AO61" s="15" t="n">
-        <v>104790</v>
+        <v>177478</v>
       </c>
       <c r="AP61" s="15" t="n">
-        <v>177478</v>
+        <v>110070</v>
       </c>
       <c r="AQ61" s="15" t="n">
-        <v>110070</v>
+        <v>349688</v>
       </c>
       <c r="AR61" s="15" t="n">
-        <v>349688</v>
+        <v>278033</v>
       </c>
       <c r="AS61" s="15" t="n">
-        <v>278033</v>
+        <v>232174</v>
       </c>
       <c r="AT61" s="15" t="n">
-        <v>232174</v>
+        <v>237308</v>
       </c>
       <c r="AU61" s="15" t="n">
-        <v>237308</v>
+        <v>210039</v>
       </c>
       <c r="AV61" s="15" t="n">
-        <v>210039</v>
+        <v>91005</v>
       </c>
       <c r="AW61" s="15" t="n">
-        <v>91005</v>
+        <v>389632</v>
       </c>
       <c r="AX61" s="15" t="n">
-        <v>389632</v>
+        <v>632033</v>
       </c>
       <c r="AY61" s="15" t="n">
-        <v>632033</v>
+        <v>348098</v>
       </c>
       <c r="AZ61" s="15" t="n">
-        <v>348098</v>
+        <v>457077</v>
       </c>
       <c r="BA61" s="15" t="n">
-        <v>457077</v>
+        <v>282117</v>
       </c>
       <c r="BB61" s="15" t="n">
-        <v>282117</v>
+        <v>724469</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10097,154 +10097,154 @@
       </c>
       <c r="D62" s="16"/>
       <c r="E62" s="16" t="n">
-        <v>67380</v>
+        <v>98320</v>
       </c>
       <c r="F62" s="16" t="n">
-        <v>98320</v>
+        <v>6976</v>
       </c>
       <c r="G62" s="16" t="n">
-        <v>6976</v>
+        <v>57250</v>
       </c>
       <c r="H62" s="16" t="n">
-        <v>57250</v>
+        <v>100876</v>
       </c>
       <c r="I62" s="16" t="n">
-        <v>100876</v>
+        <v>76963</v>
       </c>
       <c r="J62" s="16" t="n">
-        <v>76963</v>
+        <v>143115</v>
       </c>
       <c r="K62" s="16" t="n">
-        <v>143115</v>
+        <v>179519</v>
       </c>
       <c r="L62" s="16" t="n">
-        <v>179519</v>
+        <v>64971</v>
       </c>
       <c r="M62" s="16" t="n">
-        <v>64971</v>
+        <v>36263</v>
       </c>
       <c r="N62" s="16" t="n">
-        <v>36263</v>
+        <v>25806</v>
       </c>
       <c r="O62" s="16" t="n">
-        <v>25806</v>
+        <v>1573</v>
       </c>
       <c r="P62" s="16" t="n">
-        <v>1573</v>
+        <v>13203</v>
       </c>
       <c r="Q62" s="16" t="n">
-        <v>13203</v>
+        <v>4145</v>
       </c>
       <c r="R62" s="16" t="n">
-        <v>4145</v>
+        <v>62451</v>
       </c>
       <c r="S62" s="16" t="n">
-        <v>62451</v>
+        <v>60546</v>
       </c>
       <c r="T62" s="16" t="n">
-        <v>60546</v>
+        <v>141894</v>
       </c>
       <c r="U62" s="16" t="n">
-        <v>141894</v>
+        <v>85005</v>
       </c>
       <c r="V62" s="16" t="n">
-        <v>85005</v>
+        <v>136854</v>
       </c>
       <c r="W62" s="16" t="n">
-        <v>136854</v>
+        <v>100090</v>
       </c>
       <c r="X62" s="16" t="n">
-        <v>100090</v>
+        <v>84238</v>
       </c>
       <c r="Y62" s="16" t="n">
-        <v>84238</v>
+        <v>125014</v>
       </c>
       <c r="Z62" s="16" t="n">
-        <v>125014</v>
+        <v>175782</v>
       </c>
       <c r="AA62" s="16" t="n">
-        <v>175782</v>
+        <v>230730</v>
       </c>
       <c r="AB62" s="16" t="n">
-        <v>230730</v>
+        <v>229744</v>
       </c>
       <c r="AC62" s="16" t="n">
-        <v>229744</v>
+        <v>20814</v>
       </c>
       <c r="AD62" s="16" t="n">
-        <v>20814</v>
+        <v>29141</v>
       </c>
       <c r="AE62" s="16" t="n">
-        <v>29141</v>
+        <v>137842</v>
       </c>
       <c r="AF62" s="16" t="n">
-        <v>137842</v>
+        <v>203737</v>
       </c>
       <c r="AG62" s="16" t="n">
-        <v>203737</v>
+        <v>97889</v>
       </c>
       <c r="AH62" s="16" t="n">
-        <v>97889</v>
+        <v>212354</v>
       </c>
       <c r="AI62" s="16" t="n">
-        <v>212354</v>
+        <v>183639</v>
       </c>
       <c r="AJ62" s="16" t="n">
-        <v>183639</v>
+        <v>146001</v>
       </c>
       <c r="AK62" s="16" t="n">
-        <v>146001</v>
+        <v>189691</v>
       </c>
       <c r="AL62" s="16" t="n">
-        <v>189691</v>
+        <v>51604</v>
       </c>
       <c r="AM62" s="16" t="n">
-        <v>51604</v>
+        <v>52676</v>
       </c>
       <c r="AN62" s="16" t="n">
-        <v>52676</v>
+        <v>220945</v>
       </c>
       <c r="AO62" s="16" t="n">
-        <v>220945</v>
+        <v>135164</v>
       </c>
       <c r="AP62" s="16" t="n">
-        <v>135164</v>
+        <v>53711</v>
       </c>
       <c r="AQ62" s="16" t="n">
-        <v>53711</v>
+        <v>170814</v>
       </c>
       <c r="AR62" s="16" t="n">
-        <v>170814</v>
+        <v>123193</v>
       </c>
       <c r="AS62" s="16" t="n">
-        <v>123193</v>
+        <v>439004</v>
       </c>
       <c r="AT62" s="16" t="n">
-        <v>439004</v>
+        <v>267284</v>
       </c>
       <c r="AU62" s="16" t="n">
-        <v>267284</v>
+        <v>652686</v>
       </c>
       <c r="AV62" s="16" t="n">
-        <v>652686</v>
+        <v>372804</v>
       </c>
       <c r="AW62" s="16" t="n">
-        <v>372804</v>
+        <v>125385</v>
       </c>
       <c r="AX62" s="16" t="n">
-        <v>125385</v>
+        <v>157486</v>
       </c>
       <c r="AY62" s="16" t="n">
-        <v>157486</v>
+        <v>368913</v>
       </c>
       <c r="AZ62" s="16" t="n">
-        <v>368913</v>
+        <v>249682</v>
       </c>
       <c r="BA62" s="16" t="n">
-        <v>249682</v>
+        <v>5320</v>
       </c>
       <c r="BB62" s="16" t="n">
-        <v>5320</v>
+        <v>210218</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10258,8 +10258,8 @@
       <c r="E63" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="F63" s="15" t="n">
-        <v>0</v>
+      <c r="F63" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="G63" s="15" t="s">
         <v>64</v>
@@ -10417,8 +10417,8 @@
       <c r="E64" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F64" s="16" t="s">
-        <v>64</v>
+      <c r="F64" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="G64" s="16" t="n">
         <v>0</v>
@@ -10453,8 +10453,8 @@
       <c r="Q64" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="R64" s="16" t="n">
-        <v>0</v>
+      <c r="R64" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="S64" s="16" t="s">
         <v>64</v>
@@ -10489,8 +10489,8 @@
       <c r="AC64" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="AD64" s="16" t="s">
-        <v>64</v>
+      <c r="AD64" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AE64" s="16" t="n">
         <v>0</v>
@@ -10612,17 +10612,17 @@
       <c r="Q65" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="R65" s="15" t="s">
-        <v>64</v>
+      <c r="R65" s="15" t="n">
+        <v>25</v>
       </c>
       <c r="S65" s="15" t="n">
-        <v>25</v>
+        <v>783</v>
       </c>
       <c r="T65" s="15" t="n">
-        <v>783</v>
-      </c>
-      <c r="U65" s="15" t="n">
         <v>131</v>
+      </c>
+      <c r="U65" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="V65" s="15" t="s">
         <v>64</v>
@@ -10837,68 +10837,68 @@
       <c r="T67" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="U67" s="16" t="s">
-        <v>64</v>
+      <c r="U67" s="16" t="n">
+        <v>208</v>
       </c>
       <c r="V67" s="16" t="n">
-        <v>208</v>
+        <v>791</v>
       </c>
       <c r="W67" s="16" t="n">
-        <v>791</v>
+        <v>160</v>
       </c>
       <c r="X67" s="16" t="n">
-        <v>160</v>
+        <v>484</v>
       </c>
       <c r="Y67" s="16" t="n">
-        <v>484</v>
+        <v>42</v>
       </c>
       <c r="Z67" s="16" t="n">
-        <v>42</v>
+        <v>297</v>
       </c>
       <c r="AA67" s="16" t="n">
-        <v>297</v>
+        <v>64</v>
       </c>
       <c r="AB67" s="16" t="n">
-        <v>64</v>
+        <v>230</v>
       </c>
       <c r="AC67" s="16" t="n">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="AD67" s="16" t="n">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="AE67" s="16" t="n">
-        <v>227</v>
+        <v>371</v>
       </c>
       <c r="AF67" s="16" t="n">
-        <v>371</v>
+        <v>14</v>
       </c>
       <c r="AG67" s="16" t="n">
-        <v>14</v>
+        <v>210</v>
       </c>
       <c r="AH67" s="16" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AI67" s="16" t="n">
-        <v>0</v>
+        <v>916</v>
       </c>
       <c r="AJ67" s="16" t="n">
-        <v>916</v>
+        <v>94</v>
       </c>
       <c r="AK67" s="16" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="AL67" s="16" t="n">
-        <v>0</v>
+        <v>1401</v>
       </c>
       <c r="AM67" s="16" t="n">
-        <v>1401</v>
+        <v>261</v>
       </c>
       <c r="AN67" s="16" t="n">
-        <v>261</v>
-      </c>
-      <c r="AO67" s="16" t="n">
         <v>902</v>
+      </c>
+      <c r="AO67" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="AP67" s="16" t="s">
         <v>64</v>
@@ -11056,47 +11056,47 @@
       <c r="AN68" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="AO68" s="15" t="s">
-        <v>64</v>
+      <c r="AO68" s="15" t="n">
+        <v>84477</v>
       </c>
       <c r="AP68" s="15" t="n">
-        <v>84477</v>
+        <v>0</v>
       </c>
       <c r="AQ68" s="15" t="n">
-        <v>0</v>
+        <v>22360</v>
       </c>
       <c r="AR68" s="15" t="n">
-        <v>22360</v>
+        <v>23707</v>
       </c>
       <c r="AS68" s="15" t="n">
-        <v>23707</v>
+        <v>5167</v>
       </c>
       <c r="AT68" s="15" t="n">
-        <v>5167</v>
+        <v>9875</v>
       </c>
       <c r="AU68" s="15" t="n">
-        <v>9875</v>
+        <v>27883</v>
       </c>
       <c r="AV68" s="15" t="n">
-        <v>27883</v>
+        <v>0</v>
       </c>
       <c r="AW68" s="15" t="n">
-        <v>0</v>
+        <v>5858</v>
       </c>
       <c r="AX68" s="15" t="n">
-        <v>5858</v>
+        <v>12755</v>
       </c>
       <c r="AY68" s="15" t="n">
-        <v>12755</v>
+        <v>8668</v>
       </c>
       <c r="AZ68" s="15" t="n">
-        <v>8668</v>
+        <v>0</v>
       </c>
       <c r="BA68" s="15" t="n">
-        <v>0</v>
+        <v>8100</v>
       </c>
       <c r="BB68" s="15" t="n">
-        <v>8100</v>
+        <v>11221</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11155,107 +11155,107 @@
       <c r="T69" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="U69" s="18" t="s">
-        <v>64</v>
+      <c r="U69" s="21" t="n">
+        <v>208</v>
       </c>
       <c r="V69" s="21" t="n">
-        <v>208</v>
+        <v>791</v>
       </c>
       <c r="W69" s="21" t="n">
-        <v>791</v>
+        <v>160</v>
       </c>
       <c r="X69" s="21" t="n">
-        <v>160</v>
+        <v>484</v>
       </c>
       <c r="Y69" s="21" t="n">
-        <v>484</v>
+        <v>42</v>
       </c>
       <c r="Z69" s="21" t="n">
-        <v>42</v>
+        <v>297</v>
       </c>
       <c r="AA69" s="21" t="n">
-        <v>297</v>
+        <v>64</v>
       </c>
       <c r="AB69" s="21" t="n">
-        <v>64</v>
+        <v>230</v>
       </c>
       <c r="AC69" s="21" t="n">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="AD69" s="21" t="n">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="AE69" s="21" t="n">
-        <v>227</v>
+        <v>371</v>
       </c>
       <c r="AF69" s="21" t="n">
-        <v>371</v>
+        <v>14</v>
       </c>
       <c r="AG69" s="21" t="n">
-        <v>14</v>
+        <v>210</v>
       </c>
       <c r="AH69" s="21" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AI69" s="21" t="n">
-        <v>0</v>
+        <v>916</v>
       </c>
       <c r="AJ69" s="21" t="n">
-        <v>916</v>
+        <v>94</v>
       </c>
       <c r="AK69" s="21" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="AL69" s="21" t="n">
-        <v>0</v>
+        <v>1401</v>
       </c>
       <c r="AM69" s="21" t="n">
-        <v>1401</v>
+        <v>261</v>
       </c>
       <c r="AN69" s="21" t="n">
-        <v>261</v>
+        <v>902</v>
       </c>
       <c r="AO69" s="21" t="n">
-        <v>902</v>
+        <v>84477</v>
       </c>
       <c r="AP69" s="21" t="n">
-        <v>84477</v>
+        <v>0</v>
       </c>
       <c r="AQ69" s="21" t="n">
-        <v>0</v>
+        <v>22360</v>
       </c>
       <c r="AR69" s="21" t="n">
-        <v>22360</v>
+        <v>23707</v>
       </c>
       <c r="AS69" s="21" t="n">
-        <v>23707</v>
+        <v>5167</v>
       </c>
       <c r="AT69" s="21" t="n">
-        <v>5167</v>
+        <v>9875</v>
       </c>
       <c r="AU69" s="21" t="n">
-        <v>9875</v>
+        <v>27883</v>
       </c>
       <c r="AV69" s="21" t="n">
-        <v>27883</v>
+        <v>0</v>
       </c>
       <c r="AW69" s="21" t="n">
-        <v>0</v>
+        <v>5858</v>
       </c>
       <c r="AX69" s="21" t="n">
-        <v>5858</v>
+        <v>12755</v>
       </c>
       <c r="AY69" s="21" t="n">
-        <v>12755</v>
+        <v>8668</v>
       </c>
       <c r="AZ69" s="21" t="n">
-        <v>8668</v>
+        <v>0</v>
       </c>
       <c r="BA69" s="21" t="n">
-        <v>0</v>
+        <v>8100</v>
       </c>
       <c r="BB69" s="21" t="n">
-        <v>8100</v>
+        <v>11221</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11371,8 +11371,8 @@
       <c r="T71" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="U71" s="16" t="s">
-        <v>64</v>
+      <c r="U71" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V71" s="16" t="n">
         <v>0</v>
@@ -11434,14 +11434,14 @@
       <c r="AO71" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AP71" s="16" t="n">
-        <v>0</v>
+      <c r="AP71" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="AQ71" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="AR71" s="16" t="s">
-        <v>64</v>
+      <c r="AR71" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AS71" s="16" t="n">
         <v>0</v>
@@ -11530,32 +11530,32 @@
       <c r="T72" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="U72" s="15" t="s">
-        <v>64</v>
+      <c r="U72" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="V72" s="15" t="n">
-        <v>0</v>
+        <v>-41</v>
       </c>
       <c r="W72" s="15" t="n">
-        <v>-41</v>
+        <v>0</v>
       </c>
       <c r="X72" s="15" t="n">
         <v>0</v>
       </c>
       <c r="Y72" s="15" t="n">
-        <v>0</v>
+        <v>-80979</v>
       </c>
       <c r="Z72" s="15" t="n">
-        <v>-80979</v>
+        <v>0</v>
       </c>
       <c r="AA72" s="15" t="n">
         <v>0</v>
       </c>
       <c r="AB72" s="15" t="n">
-        <v>0</v>
+        <v>-2429</v>
       </c>
       <c r="AC72" s="15" t="n">
-        <v>-2429</v>
+        <v>0</v>
       </c>
       <c r="AD72" s="15" t="n">
         <v>0</v>
@@ -11593,14 +11593,14 @@
       <c r="AO72" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="AP72" s="15" t="n">
-        <v>0</v>
+      <c r="AP72" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="AQ72" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="AR72" s="15" t="s">
-        <v>64</v>
+      <c r="AR72" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="AS72" s="15" t="n">
         <v>0</v>
@@ -11615,10 +11615,10 @@
         <v>0</v>
       </c>
       <c r="AW72" s="15" t="n">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="AX72" s="15" t="n">
-        <v>-80</v>
+        <v>0</v>
       </c>
       <c r="AY72" s="15" t="n">
         <v>0</v>
@@ -11689,8 +11689,8 @@
       <c r="T73" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="U73" s="16" t="s">
-        <v>64</v>
+      <c r="U73" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V73" s="16" t="n">
         <v>0</v>
@@ -11752,14 +11752,14 @@
       <c r="AO73" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AP73" s="16" t="n">
-        <v>0</v>
+      <c r="AP73" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="AQ73" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="AR73" s="16" t="s">
-        <v>64</v>
+      <c r="AR73" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AS73" s="16" t="n">
         <v>0</v>
@@ -11848,17 +11848,17 @@
       <c r="T74" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="U74" s="15" t="s">
-        <v>64</v>
+      <c r="U74" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="V74" s="15" t="n">
         <v>0</v>
       </c>
       <c r="W74" s="15" t="n">
-        <v>0</v>
+        <v>-2714</v>
       </c>
       <c r="X74" s="15" t="n">
-        <v>-2714</v>
+        <v>0</v>
       </c>
       <c r="Y74" s="15" t="n">
         <v>0</v>
@@ -11873,10 +11873,10 @@
         <v>0</v>
       </c>
       <c r="AC74" s="15" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AD74" s="15" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE74" s="15" t="n">
         <v>0</v>
@@ -11900,10 +11900,10 @@
         <v>0</v>
       </c>
       <c r="AL74" s="15" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AM74" s="15" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AN74" s="15" t="n">
         <v>0</v>
@@ -11911,44 +11911,44 @@
       <c r="AO74" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="AP74" s="15" t="n">
-        <v>0</v>
+      <c r="AP74" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="AQ74" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="AR74" s="15" t="s">
-        <v>64</v>
+      <c r="AR74" s="15" t="n">
+        <v>-233</v>
       </c>
       <c r="AS74" s="15" t="n">
-        <v>-233</v>
+        <v>-26</v>
       </c>
       <c r="AT74" s="15" t="n">
-        <v>-26</v>
+        <v>0</v>
       </c>
       <c r="AU74" s="15" t="n">
         <v>0</v>
       </c>
       <c r="AV74" s="15" t="n">
-        <v>0</v>
+        <v>-6965</v>
       </c>
       <c r="AW74" s="15" t="n">
-        <v>-6965</v>
+        <v>-18844</v>
       </c>
       <c r="AX74" s="15" t="n">
-        <v>-18844</v>
+        <v>0</v>
       </c>
       <c r="AY74" s="15" t="n">
-        <v>0</v>
+        <v>-295</v>
       </c>
       <c r="AZ74" s="15" t="n">
-        <v>-295</v>
+        <v>0</v>
       </c>
       <c r="BA74" s="15" t="n">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="BB74" s="15" t="n">
-        <v>-32</v>
+        <v>-11830</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12007,14 +12007,14 @@
       <c r="T75" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="U75" s="16" t="s">
-        <v>64</v>
+      <c r="U75" s="16" t="n">
+        <v>-768</v>
       </c>
       <c r="V75" s="16" t="n">
-        <v>-768</v>
+        <v>-24</v>
       </c>
       <c r="W75" s="16" t="n">
-        <v>-24</v>
+        <v>0</v>
       </c>
       <c r="X75" s="16" t="n">
         <v>0</v>
@@ -12032,10 +12032,10 @@
         <v>0</v>
       </c>
       <c r="AC75" s="16" t="n">
-        <v>0</v>
+        <v>-47</v>
       </c>
       <c r="AD75" s="16" t="n">
-        <v>-47</v>
+        <v>0</v>
       </c>
       <c r="AE75" s="16" t="n">
         <v>0</v>
@@ -12044,22 +12044,22 @@
         <v>0</v>
       </c>
       <c r="AG75" s="16" t="n">
-        <v>0</v>
+        <v>-74</v>
       </c>
       <c r="AH75" s="16" t="n">
-        <v>-74</v>
+        <v>-175</v>
       </c>
       <c r="AI75" s="16" t="n">
-        <v>-175</v>
+        <v>-1183</v>
       </c>
       <c r="AJ75" s="16" t="n">
-        <v>-1183</v>
+        <v>-568</v>
       </c>
       <c r="AK75" s="16" t="n">
-        <v>-568</v>
+        <v>-1030</v>
       </c>
       <c r="AL75" s="16" t="n">
-        <v>-1030</v>
+        <v>0</v>
       </c>
       <c r="AM75" s="16" t="n">
         <v>0</v>
@@ -12070,38 +12070,38 @@
       <c r="AO75" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AP75" s="16" t="n">
-        <v>0</v>
+      <c r="AP75" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="AQ75" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="AR75" s="16" t="s">
-        <v>64</v>
+      <c r="AR75" s="16" t="n">
+        <v>-1</v>
       </c>
       <c r="AS75" s="16" t="n">
-        <v>-1</v>
+        <v>-18959</v>
       </c>
       <c r="AT75" s="16" t="n">
-        <v>-18959</v>
+        <v>0</v>
       </c>
       <c r="AU75" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AV75" s="16" t="n">
-        <v>0</v>
+        <v>-4275</v>
       </c>
       <c r="AW75" s="16" t="n">
-        <v>-4275</v>
+        <v>0</v>
       </c>
       <c r="AX75" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AY75" s="16" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="AZ75" s="16" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="BA75" s="16" t="n">
         <v>0</v>
@@ -12193,8 +12193,8 @@
       <c r="AC76" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="AD76" s="15" t="s">
-        <v>64</v>
+      <c r="AD76" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="AE76" s="15" t="n">
         <v>0</v>
@@ -12229,8 +12229,8 @@
       <c r="AO76" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="AP76" s="15" t="n">
-        <v>0</v>
+      <c r="AP76" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="AQ76" s="15" t="s">
         <v>64</v>
@@ -12394,8 +12394,8 @@
       <c r="AQ77" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="AR77" s="16" t="s">
-        <v>64</v>
+      <c r="AR77" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AS77" s="16" t="n">
         <v>0</v>
@@ -12424,8 +12424,8 @@
       <c r="BA77" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="BB77" s="16" t="n">
-        <v>0</v>
+      <c r="BB77" s="16" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12484,35 +12484,35 @@
       <c r="T78" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="U78" s="20" t="s">
-        <v>64</v>
+      <c r="U78" s="22" t="n">
+        <v>-768</v>
       </c>
       <c r="V78" s="22" t="n">
-        <v>-768</v>
+        <v>-65</v>
       </c>
       <c r="W78" s="22" t="n">
-        <v>-65</v>
+        <v>-2714</v>
       </c>
       <c r="X78" s="22" t="n">
-        <v>-2714</v>
+        <v>0</v>
       </c>
       <c r="Y78" s="22" t="n">
-        <v>0</v>
+        <v>-80979</v>
       </c>
       <c r="Z78" s="22" t="n">
-        <v>-80979</v>
+        <v>0</v>
       </c>
       <c r="AA78" s="22" t="n">
         <v>0</v>
       </c>
       <c r="AB78" s="22" t="n">
-        <v>0</v>
+        <v>-2429</v>
       </c>
       <c r="AC78" s="22" t="n">
-        <v>-2429</v>
+        <v>-49</v>
       </c>
       <c r="AD78" s="22" t="n">
-        <v>-49</v>
+        <v>0</v>
       </c>
       <c r="AE78" s="22" t="n">
         <v>0</v>
@@ -12521,25 +12521,25 @@
         <v>0</v>
       </c>
       <c r="AG78" s="22" t="n">
-        <v>0</v>
+        <v>-74</v>
       </c>
       <c r="AH78" s="22" t="n">
-        <v>-74</v>
+        <v>-175</v>
       </c>
       <c r="AI78" s="22" t="n">
-        <v>-175</v>
+        <v>-1183</v>
       </c>
       <c r="AJ78" s="22" t="n">
-        <v>-1183</v>
+        <v>-568</v>
       </c>
       <c r="AK78" s="22" t="n">
-        <v>-568</v>
+        <v>-1030</v>
       </c>
       <c r="AL78" s="22" t="n">
-        <v>-1030</v>
+        <v>-3</v>
       </c>
       <c r="AM78" s="22" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AN78" s="22" t="n">
         <v>0</v>
@@ -12554,37 +12554,37 @@
         <v>0</v>
       </c>
       <c r="AR78" s="22" t="n">
-        <v>0</v>
+        <v>-234</v>
       </c>
       <c r="AS78" s="22" t="n">
-        <v>-234</v>
+        <v>-18985</v>
       </c>
       <c r="AT78" s="22" t="n">
-        <v>-18985</v>
+        <v>0</v>
       </c>
       <c r="AU78" s="22" t="n">
         <v>0</v>
       </c>
       <c r="AV78" s="22" t="n">
-        <v>0</v>
+        <v>-11240</v>
       </c>
       <c r="AW78" s="22" t="n">
-        <v>-11240</v>
+        <v>-18924</v>
       </c>
       <c r="AX78" s="22" t="n">
-        <v>-18924</v>
+        <v>0</v>
       </c>
       <c r="AY78" s="22" t="n">
-        <v>0</v>
+        <v>-301</v>
       </c>
       <c r="AZ78" s="22" t="n">
-        <v>-301</v>
+        <v>0</v>
       </c>
       <c r="BA78" s="22" t="n">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="BB78" s="22" t="n">
-        <v>-32</v>
+        <v>-11830</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12700,107 +12700,107 @@
       <c r="T80" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="U80" s="16" t="s">
-        <v>64</v>
+      <c r="U80" s="16" t="n">
+        <v>-53535</v>
       </c>
       <c r="V80" s="16" t="n">
-        <v>-53535</v>
+        <v>-26683</v>
       </c>
       <c r="W80" s="16" t="n">
-        <v>-26683</v>
+        <v>-51250</v>
       </c>
       <c r="X80" s="16" t="n">
-        <v>-51250</v>
+        <v>-19708</v>
       </c>
       <c r="Y80" s="16" t="n">
-        <v>-19708</v>
+        <v>-20840</v>
       </c>
       <c r="Z80" s="16" t="n">
-        <v>-20840</v>
+        <v>-40908</v>
       </c>
       <c r="AA80" s="16" t="n">
-        <v>-40908</v>
+        <v>-54275</v>
       </c>
       <c r="AB80" s="16" t="n">
-        <v>-54275</v>
+        <v>-56779</v>
       </c>
       <c r="AC80" s="16" t="n">
-        <v>-56779</v>
+        <v>-51415</v>
       </c>
       <c r="AD80" s="16" t="n">
-        <v>-51415</v>
+        <v>0</v>
       </c>
       <c r="AE80" s="16" t="n">
-        <v>0</v>
+        <v>-16580</v>
       </c>
       <c r="AF80" s="16" t="n">
-        <v>-16580</v>
+        <v>-23757</v>
       </c>
       <c r="AG80" s="16" t="n">
-        <v>-23757</v>
+        <v>-24507</v>
       </c>
       <c r="AH80" s="16" t="n">
-        <v>-24507</v>
+        <v>-37338</v>
       </c>
       <c r="AI80" s="16" t="n">
-        <v>-37338</v>
+        <v>-109756</v>
       </c>
       <c r="AJ80" s="16" t="n">
-        <v>-109756</v>
+        <v>-14216</v>
       </c>
       <c r="AK80" s="16" t="n">
-        <v>-14216</v>
+        <v>-62287</v>
       </c>
       <c r="AL80" s="16" t="n">
-        <v>-62287</v>
+        <v>-64914</v>
       </c>
       <c r="AM80" s="16" t="n">
-        <v>-64914</v>
+        <v>-29034</v>
       </c>
       <c r="AN80" s="16" t="n">
-        <v>-29034</v>
+        <v>-58989</v>
       </c>
       <c r="AO80" s="16" t="n">
-        <v>-58989</v>
+        <v>-71192</v>
       </c>
       <c r="AP80" s="16" t="n">
-        <v>-71192</v>
+        <v>-6276</v>
       </c>
       <c r="AQ80" s="16" t="n">
-        <v>-6276</v>
+        <v>-44107</v>
       </c>
       <c r="AR80" s="16" t="n">
-        <v>-44107</v>
+        <v>-83965</v>
       </c>
       <c r="AS80" s="16" t="n">
-        <v>-83965</v>
+        <v>-62345</v>
       </c>
       <c r="AT80" s="16" t="n">
-        <v>-62345</v>
+        <v>-64805</v>
       </c>
       <c r="AU80" s="16" t="n">
-        <v>-64805</v>
+        <v>-127801</v>
       </c>
       <c r="AV80" s="16" t="n">
-        <v>-127801</v>
+        <v>-76623</v>
       </c>
       <c r="AW80" s="16" t="n">
-        <v>-76623</v>
+        <v>-58198</v>
       </c>
       <c r="AX80" s="16" t="n">
-        <v>-58198</v>
+        <v>-122441</v>
       </c>
       <c r="AY80" s="16" t="n">
-        <v>-122441</v>
+        <v>-126273</v>
       </c>
       <c r="AZ80" s="16" t="n">
-        <v>-126273</v>
+        <v>-33010</v>
       </c>
       <c r="BA80" s="16" t="n">
-        <v>-33010</v>
+        <v>-171089</v>
       </c>
       <c r="BB80" s="16" t="n">
-        <v>-171089</v>
+        <v>-107872</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12810,154 +12810,154 @@
       <c r="C81" s="22"/>
       <c r="D81" s="22"/>
       <c r="E81" s="22" t="n">
-        <v>169609</v>
+        <v>165623</v>
       </c>
       <c r="F81" s="22" t="n">
-        <v>165623</v>
+        <v>37845</v>
       </c>
       <c r="G81" s="22" t="n">
-        <v>37845</v>
+        <v>200704</v>
       </c>
       <c r="H81" s="22" t="n">
-        <v>200704</v>
+        <v>165480</v>
       </c>
       <c r="I81" s="22" t="n">
-        <v>165480</v>
+        <v>185638</v>
       </c>
       <c r="J81" s="22" t="n">
-        <v>185638</v>
+        <v>261291</v>
       </c>
       <c r="K81" s="22" t="n">
-        <v>261291</v>
+        <v>355859</v>
       </c>
       <c r="L81" s="22" t="n">
-        <v>355859</v>
+        <v>182214</v>
       </c>
       <c r="M81" s="22" t="n">
-        <v>182214</v>
+        <v>158439</v>
       </c>
       <c r="N81" s="22" t="n">
-        <v>158439</v>
+        <v>167035</v>
       </c>
       <c r="O81" s="22" t="n">
-        <v>167035</v>
+        <v>127884</v>
       </c>
       <c r="P81" s="22" t="n">
-        <v>127884</v>
+        <v>139780</v>
       </c>
       <c r="Q81" s="22" t="n">
-        <v>139780</v>
+        <v>185709</v>
       </c>
       <c r="R81" s="22" t="n">
-        <v>185709</v>
+        <v>122152</v>
       </c>
       <c r="S81" s="22" t="n">
-        <v>122152</v>
+        <v>184162</v>
       </c>
       <c r="T81" s="22" t="n">
-        <v>184162</v>
+        <v>283863</v>
       </c>
       <c r="U81" s="22" t="n">
-        <v>283863</v>
+        <v>321336</v>
       </c>
       <c r="V81" s="22" t="n">
-        <v>321336</v>
+        <v>376942</v>
       </c>
       <c r="W81" s="22" t="n">
-        <v>376942</v>
+        <v>392166</v>
       </c>
       <c r="X81" s="22" t="n">
-        <v>392166</v>
+        <v>386260</v>
       </c>
       <c r="Y81" s="22" t="n">
-        <v>386260</v>
+        <v>326556</v>
       </c>
       <c r="Z81" s="22" t="n">
-        <v>326556</v>
+        <v>342861</v>
       </c>
       <c r="AA81" s="22" t="n">
-        <v>342861</v>
+        <v>211505</v>
       </c>
       <c r="AB81" s="22" t="n">
-        <v>211505</v>
+        <v>200550</v>
       </c>
       <c r="AC81" s="22" t="n">
-        <v>200550</v>
+        <v>171601</v>
       </c>
       <c r="AD81" s="22" t="n">
-        <v>171601</v>
+        <v>114228</v>
       </c>
       <c r="AE81" s="22" t="n">
-        <v>114228</v>
+        <v>207304</v>
       </c>
       <c r="AF81" s="22" t="n">
-        <v>207304</v>
+        <v>354835</v>
       </c>
       <c r="AG81" s="22" t="n">
-        <v>354835</v>
+        <v>734129</v>
       </c>
       <c r="AH81" s="22" t="n">
-        <v>734129</v>
+        <v>600248</v>
       </c>
       <c r="AI81" s="22" t="n">
-        <v>600248</v>
+        <v>600941</v>
       </c>
       <c r="AJ81" s="22" t="n">
-        <v>600941</v>
+        <v>286960</v>
       </c>
       <c r="AK81" s="22" t="n">
-        <v>286960</v>
+        <v>556895</v>
       </c>
       <c r="AL81" s="22" t="n">
-        <v>556895</v>
+        <v>604666</v>
       </c>
       <c r="AM81" s="22" t="n">
-        <v>604666</v>
+        <v>303723</v>
       </c>
       <c r="AN81" s="22" t="n">
-        <v>303723</v>
+        <v>381564</v>
       </c>
       <c r="AO81" s="22" t="n">
-        <v>381564</v>
+        <v>345775</v>
       </c>
       <c r="AP81" s="22" t="n">
-        <v>345775</v>
+        <v>195774</v>
       </c>
       <c r="AQ81" s="22" t="n">
-        <v>195774</v>
+        <v>530127</v>
       </c>
       <c r="AR81" s="22" t="n">
-        <v>530127</v>
+        <v>363878</v>
       </c>
       <c r="AS81" s="22" t="n">
-        <v>363878</v>
+        <v>650204</v>
       </c>
       <c r="AT81" s="22" t="n">
-        <v>650204</v>
+        <v>473214</v>
       </c>
       <c r="AU81" s="22" t="n">
-        <v>473214</v>
+        <v>964468</v>
       </c>
       <c r="AV81" s="22" t="n">
-        <v>964468</v>
+        <v>675725</v>
       </c>
       <c r="AW81" s="22" t="n">
-        <v>675725</v>
+        <v>806548</v>
       </c>
       <c r="AX81" s="22" t="n">
-        <v>806548</v>
+        <v>957878</v>
       </c>
       <c r="AY81" s="22" t="n">
-        <v>957878</v>
+        <v>708135</v>
       </c>
       <c r="AZ81" s="22" t="n">
-        <v>708135</v>
+        <v>920754</v>
       </c>
       <c r="BA81" s="22" t="n">
-        <v>920754</v>
+        <v>205828</v>
       </c>
       <c r="BB81" s="22" t="n">
-        <v>205828</v>
+        <v>1116719</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13403,10 +13403,10 @@
       </c>
       <c r="D88" s="16"/>
       <c r="E88" s="16" t="n">
-        <v>31788</v>
+        <v>63750</v>
       </c>
       <c r="F88" s="16" t="n">
-        <v>63750</v>
+        <v>0</v>
       </c>
       <c r="G88" s="16" t="n">
         <v>0</v>
@@ -13421,136 +13421,136 @@
         <v>0</v>
       </c>
       <c r="K88" s="16" t="n">
-        <v>0</v>
+        <v>23998</v>
       </c>
       <c r="L88" s="16" t="n">
-        <v>23998</v>
+        <v>28029</v>
       </c>
       <c r="M88" s="16" t="n">
-        <v>28029</v>
+        <v>22029</v>
       </c>
       <c r="N88" s="16" t="n">
-        <v>22029</v>
+        <v>29274</v>
       </c>
       <c r="O88" s="16" t="n">
-        <v>29274</v>
+        <v>25802</v>
       </c>
       <c r="P88" s="16" t="n">
-        <v>25802</v>
+        <v>18337</v>
       </c>
       <c r="Q88" s="16" t="n">
-        <v>18337</v>
+        <v>21682</v>
       </c>
       <c r="R88" s="16" t="n">
-        <v>21682</v>
+        <v>29277</v>
       </c>
       <c r="S88" s="16" t="n">
+        <v>29275</v>
+      </c>
+      <c r="T88" s="16" t="n">
+        <v>27813</v>
+      </c>
+      <c r="U88" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="V88" s="16" t="n">
+        <v>29275</v>
+      </c>
+      <c r="W88" s="16" t="n">
         <v>29277</v>
       </c>
-      <c r="T88" s="16" t="n">
-        <v>29275</v>
-      </c>
-      <c r="U88" s="16" t="n">
-        <v>27813</v>
-      </c>
-      <c r="V88" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="W88" s="16" t="n">
-        <v>29275</v>
-      </c>
-      <c r="X88" s="16" t="n">
-        <v>29277</v>
+      <c r="X88" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="Y88" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="Z88" s="16" t="s">
-        <v>64</v>
+      <c r="Z88" s="16" t="n">
+        <v>40058</v>
       </c>
       <c r="AA88" s="16" t="n">
-        <v>40058</v>
-      </c>
-      <c r="AB88" s="16" t="n">
         <v>40061</v>
       </c>
+      <c r="AB88" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="AC88" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="AD88" s="16" t="s">
-        <v>64</v>
+      <c r="AD88" s="16" t="n">
+        <v>40065</v>
       </c>
       <c r="AE88" s="16" t="n">
-        <v>40065</v>
+        <v>40064</v>
       </c>
       <c r="AF88" s="16" t="n">
-        <v>40064</v>
+        <v>33689</v>
       </c>
       <c r="AG88" s="16" t="n">
-        <v>33689</v>
+        <v>51711</v>
       </c>
       <c r="AH88" s="16" t="n">
-        <v>51711</v>
-      </c>
-      <c r="AI88" s="16" t="n">
         <v>40057</v>
       </c>
-      <c r="AJ88" s="16" t="s">
-        <v>64</v>
+      <c r="AI88" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ88" s="16" t="n">
+        <v>52999</v>
       </c>
       <c r="AK88" s="16" t="n">
+        <v>53000</v>
+      </c>
+      <c r="AL88" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM88" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN88" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO88" s="16" t="n">
+        <v>53000</v>
+      </c>
+      <c r="AP88" s="16" t="n">
         <v>52999</v>
       </c>
-      <c r="AL88" s="16" t="n">
+      <c r="AQ88" s="16" t="n">
+        <v>52994</v>
+      </c>
+      <c r="AR88" s="16" t="n">
+        <v>52999</v>
+      </c>
+      <c r="AS88" s="16" t="n">
         <v>53000</v>
       </c>
-      <c r="AM88" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN88" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO88" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP88" s="16" t="n">
-        <v>53000</v>
-      </c>
-      <c r="AQ88" s="16" t="n">
-        <v>52999</v>
-      </c>
-      <c r="AR88" s="16" t="n">
-        <v>52994</v>
-      </c>
-      <c r="AS88" s="16" t="n">
-        <v>52999</v>
-      </c>
-      <c r="AT88" s="16" t="n">
-        <v>53000</v>
-      </c>
-      <c r="AU88" s="16" t="s">
-        <v>64</v>
+      <c r="AT88" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU88" s="16" t="n">
+        <v>93460</v>
       </c>
       <c r="AV88" s="16" t="n">
-        <v>93460</v>
+        <v>60910</v>
       </c>
       <c r="AW88" s="16" t="n">
-        <v>60910</v>
+        <v>48457</v>
       </c>
       <c r="AX88" s="16" t="n">
-        <v>48457</v>
+        <v>124998</v>
       </c>
       <c r="AY88" s="16" t="n">
-        <v>124998</v>
+        <v>125001</v>
       </c>
       <c r="AZ88" s="16" t="n">
-        <v>125001</v>
+        <v>101000</v>
       </c>
       <c r="BA88" s="16" t="n">
-        <v>101000</v>
+        <v>105000</v>
       </c>
       <c r="BB88" s="16" t="n">
-        <v>105000</v>
+        <v>90275</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13562,154 +13562,154 @@
       </c>
       <c r="D89" s="15"/>
       <c r="E89" s="15" t="n">
-        <v>91928</v>
+        <v>81630</v>
       </c>
       <c r="F89" s="15" t="n">
-        <v>81630</v>
+        <v>144522</v>
       </c>
       <c r="G89" s="15" t="n">
-        <v>144522</v>
+        <v>127732</v>
       </c>
       <c r="H89" s="15" t="n">
-        <v>127732</v>
+        <v>128362</v>
       </c>
       <c r="I89" s="15" t="n">
-        <v>128362</v>
+        <v>136994</v>
       </c>
       <c r="J89" s="15" t="n">
-        <v>136994</v>
+        <v>109121</v>
       </c>
       <c r="K89" s="15" t="n">
-        <v>109121</v>
+        <v>105525</v>
       </c>
       <c r="L89" s="15" t="n">
-        <v>105525</v>
+        <v>60404</v>
       </c>
       <c r="M89" s="15" t="n">
-        <v>60404</v>
+        <v>81333</v>
       </c>
       <c r="N89" s="15" t="n">
-        <v>81333</v>
+        <v>139733</v>
       </c>
       <c r="O89" s="15" t="n">
-        <v>139733</v>
+        <v>91504</v>
       </c>
       <c r="P89" s="15" t="n">
-        <v>91504</v>
+        <v>60137</v>
       </c>
       <c r="Q89" s="15" t="n">
-        <v>60137</v>
+        <v>140752</v>
       </c>
       <c r="R89" s="15" t="n">
-        <v>140752</v>
+        <v>137507</v>
       </c>
       <c r="S89" s="15" t="n">
-        <v>137507</v>
+        <v>137103</v>
       </c>
       <c r="T89" s="15" t="n">
-        <v>137103</v>
+        <v>192136</v>
       </c>
       <c r="U89" s="15" t="n">
-        <v>192136</v>
+        <v>215068</v>
       </c>
       <c r="V89" s="15" t="n">
-        <v>215068</v>
+        <v>407921</v>
       </c>
       <c r="W89" s="15" t="n">
-        <v>407921</v>
+        <v>498055</v>
       </c>
       <c r="X89" s="15" t="n">
-        <v>498055</v>
+        <v>379373</v>
       </c>
       <c r="Y89" s="15" t="n">
-        <v>379373</v>
+        <v>419976</v>
       </c>
       <c r="Z89" s="15" t="n">
-        <v>419976</v>
+        <v>196123</v>
       </c>
       <c r="AA89" s="15" t="n">
-        <v>196123</v>
-      </c>
-      <c r="AB89" s="15" t="n">
         <v>196568</v>
       </c>
-      <c r="AC89" s="15" t="s">
-        <v>64</v>
+      <c r="AB89" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC89" s="15" t="n">
+        <v>234158</v>
       </c>
       <c r="AD89" s="15" t="n">
-        <v>234158</v>
+        <v>258147</v>
       </c>
       <c r="AE89" s="15" t="n">
-        <v>258147</v>
+        <v>427486</v>
       </c>
       <c r="AF89" s="15" t="n">
-        <v>427486</v>
+        <v>327580</v>
       </c>
       <c r="AG89" s="15" t="n">
-        <v>327580</v>
+        <v>295188</v>
       </c>
       <c r="AH89" s="15" t="n">
-        <v>295188</v>
+        <v>388621</v>
       </c>
       <c r="AI89" s="15" t="n">
-        <v>388621</v>
+        <v>434584</v>
       </c>
       <c r="AJ89" s="15" t="n">
-        <v>434584</v>
+        <v>289344</v>
       </c>
       <c r="AK89" s="15" t="n">
-        <v>289344</v>
+        <v>278517</v>
       </c>
       <c r="AL89" s="15" t="n">
-        <v>278517</v>
+        <v>339977</v>
       </c>
       <c r="AM89" s="15" t="n">
-        <v>339977</v>
+        <v>214114</v>
       </c>
       <c r="AN89" s="15" t="n">
-        <v>214114</v>
+        <v>285144</v>
       </c>
       <c r="AO89" s="15" t="n">
-        <v>285144</v>
+        <v>92217</v>
       </c>
       <c r="AP89" s="15" t="n">
-        <v>92217</v>
+        <v>144836</v>
       </c>
       <c r="AQ89" s="15" t="n">
-        <v>144836</v>
+        <v>155536</v>
       </c>
       <c r="AR89" s="15" t="n">
-        <v>155536</v>
+        <v>99920</v>
       </c>
       <c r="AS89" s="15" t="n">
-        <v>99920</v>
+        <v>292374</v>
       </c>
       <c r="AT89" s="15" t="n">
-        <v>292374</v>
+        <v>193109</v>
       </c>
       <c r="AU89" s="15" t="n">
-        <v>193109</v>
+        <v>388802</v>
       </c>
       <c r="AV89" s="15" t="n">
-        <v>388802</v>
+        <v>346790</v>
       </c>
       <c r="AW89" s="15" t="n">
-        <v>346790</v>
+        <v>335890</v>
       </c>
       <c r="AX89" s="15" t="n">
-        <v>335890</v>
+        <v>428481</v>
       </c>
       <c r="AY89" s="15" t="n">
-        <v>428481</v>
+        <v>400004</v>
       </c>
       <c r="AZ89" s="15" t="n">
-        <v>400004</v>
+        <v>389332</v>
       </c>
       <c r="BA89" s="15" t="n">
-        <v>389332</v>
+        <v>537075</v>
       </c>
       <c r="BB89" s="15" t="n">
-        <v>537075</v>
+        <v>559016</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13721,83 +13721,83 @@
       </c>
       <c r="D90" s="16"/>
       <c r="E90" s="16" t="n">
+        <v>26704</v>
+      </c>
+      <c r="F90" s="16" t="n">
+        <v>29999</v>
+      </c>
+      <c r="G90" s="16" t="n">
         <v>30001</v>
       </c>
-      <c r="F90" s="16" t="n">
-        <v>26704</v>
-      </c>
-      <c r="G90" s="16" t="n">
-        <v>29999</v>
-      </c>
       <c r="H90" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" s="16" t="n">
         <v>30001</v>
       </c>
-      <c r="I90" s="16" t="n">
-        <v>0</v>
-      </c>
       <c r="J90" s="16" t="n">
-        <v>30001</v>
+        <v>30000</v>
       </c>
       <c r="K90" s="16" t="n">
-        <v>30000</v>
+        <v>40063</v>
       </c>
       <c r="L90" s="16" t="n">
+        <v>38965</v>
+      </c>
+      <c r="M90" s="16" t="n">
         <v>40063</v>
       </c>
-      <c r="M90" s="16" t="n">
-        <v>38965</v>
-      </c>
       <c r="N90" s="16" t="n">
-        <v>40063</v>
+        <v>40062</v>
       </c>
       <c r="O90" s="16" t="n">
-        <v>40062</v>
+        <v>37061</v>
       </c>
       <c r="P90" s="16" t="n">
-        <v>37061</v>
+        <v>34504</v>
       </c>
       <c r="Q90" s="16" t="n">
-        <v>34504</v>
+        <v>43612</v>
       </c>
       <c r="R90" s="16" t="n">
-        <v>43612</v>
+        <v>55084</v>
       </c>
       <c r="S90" s="16" t="n">
-        <v>55084</v>
+        <v>50378</v>
       </c>
       <c r="T90" s="16" t="n">
-        <v>50378</v>
+        <v>40077</v>
       </c>
       <c r="U90" s="16" t="n">
-        <v>40077</v>
+        <v>44494</v>
       </c>
       <c r="V90" s="16" t="n">
-        <v>44494</v>
+        <v>58660</v>
       </c>
       <c r="W90" s="16" t="n">
-        <v>58660</v>
+        <v>53290</v>
       </c>
       <c r="X90" s="16" t="n">
-        <v>53290</v>
+        <v>60803</v>
       </c>
       <c r="Y90" s="16" t="n">
-        <v>60803</v>
+        <v>56303</v>
       </c>
       <c r="Z90" s="16" t="n">
-        <v>56303</v>
-      </c>
-      <c r="AA90" s="16" t="n">
         <v>45741</v>
       </c>
+      <c r="AA90" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="AB90" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="AC90" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD90" s="16" t="n">
+      <c r="AC90" s="16" t="n">
         <v>69977</v>
       </c>
+      <c r="AD90" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="AE90" s="16" t="s">
         <v>64</v>
       </c>
@@ -13807,36 +13807,36 @@
       <c r="AG90" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="AH90" s="16" t="s">
-        <v>64</v>
+      <c r="AH90" s="16" t="n">
+        <v>67550</v>
       </c>
       <c r="AI90" s="16" t="n">
-        <v>67550</v>
+        <v>67533</v>
       </c>
       <c r="AJ90" s="16" t="n">
-        <v>67533</v>
+        <v>56107</v>
       </c>
       <c r="AK90" s="16" t="n">
-        <v>56107</v>
-      </c>
-      <c r="AL90" s="16" t="n">
         <v>55001</v>
       </c>
-      <c r="AM90" s="16" t="s">
-        <v>64</v>
+      <c r="AL90" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM90" s="16" t="n">
+        <v>75003</v>
       </c>
       <c r="AN90" s="16" t="n">
-        <v>75003</v>
+        <v>75000</v>
       </c>
       <c r="AO90" s="16" t="n">
-        <v>75000</v>
+        <v>109932</v>
       </c>
       <c r="AP90" s="16" t="n">
-        <v>109932</v>
-      </c>
-      <c r="AQ90" s="16" t="n">
         <v>74999</v>
       </c>
+      <c r="AQ90" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="AR90" s="16" t="s">
         <v>64</v>
       </c>
@@ -13852,23 +13852,23 @@
       <c r="AV90" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="AW90" s="16" t="s">
-        <v>64</v>
+      <c r="AW90" s="16" t="n">
+        <v>202695</v>
       </c>
       <c r="AX90" s="16" t="n">
-        <v>202695</v>
+        <v>199470</v>
       </c>
       <c r="AY90" s="16" t="n">
-        <v>199470</v>
+        <v>191746</v>
       </c>
       <c r="AZ90" s="16" t="n">
-        <v>191746</v>
+        <v>173577</v>
       </c>
       <c r="BA90" s="16" t="n">
-        <v>173577</v>
+        <v>191743</v>
       </c>
       <c r="BB90" s="16" t="n">
-        <v>191743</v>
+        <v>191744</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13880,154 +13880,154 @@
       </c>
       <c r="D91" s="15"/>
       <c r="E91" s="15" t="n">
-        <v>3180</v>
+        <v>2739</v>
       </c>
       <c r="F91" s="15" t="n">
-        <v>2739</v>
+        <v>1870</v>
       </c>
       <c r="G91" s="15" t="n">
-        <v>1870</v>
+        <v>9439</v>
       </c>
       <c r="H91" s="15" t="n">
-        <v>9439</v>
+        <v>3650</v>
       </c>
       <c r="I91" s="15" t="n">
-        <v>3650</v>
+        <v>4674</v>
       </c>
       <c r="J91" s="15" t="n">
-        <v>4674</v>
+        <v>6624</v>
       </c>
       <c r="K91" s="15" t="n">
-        <v>6624</v>
+        <v>4245</v>
       </c>
       <c r="L91" s="15" t="n">
-        <v>4245</v>
+        <v>3256</v>
       </c>
       <c r="M91" s="15" t="n">
-        <v>3256</v>
+        <v>2438</v>
       </c>
       <c r="N91" s="15" t="n">
-        <v>2438</v>
+        <v>2691</v>
       </c>
       <c r="O91" s="15" t="n">
-        <v>2691</v>
+        <v>2650</v>
       </c>
       <c r="P91" s="15" t="n">
-        <v>2650</v>
+        <v>2879</v>
       </c>
       <c r="Q91" s="15" t="n">
-        <v>2879</v>
+        <v>3215</v>
       </c>
       <c r="R91" s="15" t="n">
-        <v>3215</v>
+        <v>4899</v>
       </c>
       <c r="S91" s="15" t="n">
-        <v>4899</v>
+        <v>5924</v>
       </c>
       <c r="T91" s="15" t="n">
-        <v>5924</v>
+        <v>2749</v>
       </c>
       <c r="U91" s="15" t="n">
-        <v>2749</v>
+        <v>4886</v>
       </c>
       <c r="V91" s="15" t="n">
-        <v>4886</v>
+        <v>2839</v>
       </c>
       <c r="W91" s="15" t="n">
-        <v>2839</v>
+        <v>5946</v>
       </c>
       <c r="X91" s="15" t="n">
-        <v>5946</v>
+        <v>14074</v>
       </c>
       <c r="Y91" s="15" t="n">
-        <v>14074</v>
+        <v>4430</v>
       </c>
       <c r="Z91" s="15" t="n">
-        <v>4430</v>
+        <v>5080</v>
       </c>
       <c r="AA91" s="15" t="n">
-        <v>5080</v>
+        <v>5998</v>
       </c>
       <c r="AB91" s="15" t="n">
-        <v>5998</v>
+        <v>5846</v>
       </c>
       <c r="AC91" s="15" t="n">
-        <v>5846</v>
+        <v>6056</v>
       </c>
       <c r="AD91" s="15" t="n">
-        <v>6056</v>
+        <v>4653</v>
       </c>
       <c r="AE91" s="15" t="n">
-        <v>4653</v>
+        <v>4617</v>
       </c>
       <c r="AF91" s="15" t="n">
-        <v>4617</v>
+        <v>4254</v>
       </c>
       <c r="AG91" s="15" t="n">
-        <v>4254</v>
+        <v>8500</v>
       </c>
       <c r="AH91" s="15" t="n">
-        <v>8500</v>
+        <v>7219</v>
       </c>
       <c r="AI91" s="15" t="n">
-        <v>7219</v>
+        <v>8413</v>
       </c>
       <c r="AJ91" s="15" t="n">
-        <v>8413</v>
+        <v>5226</v>
       </c>
       <c r="AK91" s="15" t="n">
-        <v>5226</v>
+        <v>6703</v>
       </c>
       <c r="AL91" s="15" t="n">
-        <v>6703</v>
+        <v>7555</v>
       </c>
       <c r="AM91" s="15" t="n">
-        <v>7555</v>
+        <v>6025</v>
       </c>
       <c r="AN91" s="15" t="n">
-        <v>6025</v>
+        <v>6059</v>
       </c>
       <c r="AO91" s="15" t="n">
-        <v>6059</v>
+        <v>7986</v>
       </c>
       <c r="AP91" s="15" t="n">
-        <v>7986</v>
+        <v>11721</v>
       </c>
       <c r="AQ91" s="15" t="n">
-        <v>11721</v>
+        <v>9036</v>
       </c>
       <c r="AR91" s="15" t="n">
-        <v>9036</v>
+        <v>8077</v>
       </c>
       <c r="AS91" s="15" t="n">
-        <v>8077</v>
+        <v>8671</v>
       </c>
       <c r="AT91" s="15" t="n">
-        <v>8671</v>
+        <v>8195</v>
       </c>
       <c r="AU91" s="15" t="n">
-        <v>8195</v>
+        <v>10497</v>
       </c>
       <c r="AV91" s="15" t="n">
-        <v>10497</v>
+        <v>12064</v>
       </c>
       <c r="AW91" s="15" t="n">
-        <v>12064</v>
+        <v>12003</v>
       </c>
       <c r="AX91" s="15" t="n">
-        <v>12003</v>
+        <v>12680</v>
       </c>
       <c r="AY91" s="15" t="n">
-        <v>12680</v>
+        <v>10901</v>
       </c>
       <c r="AZ91" s="15" t="n">
-        <v>10901</v>
+        <v>12800</v>
       </c>
       <c r="BA91" s="15" t="n">
-        <v>12800</v>
+        <v>12057</v>
       </c>
       <c r="BB91" s="15" t="n">
-        <v>12057</v>
+        <v>14669</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14039,154 +14039,154 @@
       </c>
       <c r="D92" s="16"/>
       <c r="E92" s="16" t="n">
-        <v>19782</v>
+        <v>18289</v>
       </c>
       <c r="F92" s="16" t="n">
-        <v>18289</v>
+        <v>17581</v>
       </c>
       <c r="G92" s="16" t="n">
-        <v>17581</v>
+        <v>43803</v>
       </c>
       <c r="H92" s="16" t="n">
-        <v>43803</v>
+        <v>30637</v>
       </c>
       <c r="I92" s="16" t="n">
-        <v>30637</v>
+        <v>33891</v>
       </c>
       <c r="J92" s="16" t="n">
-        <v>33891</v>
+        <v>27270</v>
       </c>
       <c r="K92" s="16" t="n">
-        <v>27270</v>
+        <v>54233</v>
       </c>
       <c r="L92" s="16" t="n">
-        <v>54233</v>
+        <v>34194</v>
       </c>
       <c r="M92" s="16" t="n">
-        <v>34194</v>
+        <v>27492</v>
       </c>
       <c r="N92" s="16" t="n">
-        <v>27492</v>
+        <v>28744</v>
       </c>
       <c r="O92" s="16" t="n">
-        <v>28744</v>
+        <v>18198</v>
       </c>
       <c r="P92" s="16" t="n">
-        <v>18198</v>
+        <v>22252</v>
       </c>
       <c r="Q92" s="16" t="n">
-        <v>22252</v>
+        <v>2379</v>
       </c>
       <c r="R92" s="16" t="n">
-        <v>2379</v>
+        <v>111460</v>
       </c>
       <c r="S92" s="16" t="n">
-        <v>111460</v>
+        <v>79423</v>
       </c>
       <c r="T92" s="16" t="n">
-        <v>79423</v>
+        <v>35261</v>
       </c>
       <c r="U92" s="16" t="n">
-        <v>35261</v>
+        <v>50300</v>
       </c>
       <c r="V92" s="16" t="n">
-        <v>50300</v>
+        <v>38162</v>
       </c>
       <c r="W92" s="16" t="n">
-        <v>38162</v>
+        <v>53538</v>
       </c>
       <c r="X92" s="16" t="n">
-        <v>53538</v>
+        <v>49523</v>
       </c>
       <c r="Y92" s="16" t="n">
-        <v>49523</v>
+        <v>43611</v>
       </c>
       <c r="Z92" s="16" t="n">
-        <v>43611</v>
+        <v>42994</v>
       </c>
       <c r="AA92" s="16" t="n">
-        <v>42994</v>
+        <v>43516</v>
       </c>
       <c r="AB92" s="16" t="n">
-        <v>43516</v>
+        <v>43819</v>
       </c>
       <c r="AC92" s="16" t="n">
-        <v>43819</v>
+        <v>32480</v>
       </c>
       <c r="AD92" s="16" t="n">
-        <v>32480</v>
+        <v>26703</v>
       </c>
       <c r="AE92" s="16" t="n">
-        <v>26703</v>
+        <v>99437</v>
       </c>
       <c r="AF92" s="16" t="n">
-        <v>99437</v>
+        <v>51116</v>
       </c>
       <c r="AG92" s="16" t="n">
-        <v>51116</v>
+        <v>39407</v>
       </c>
       <c r="AH92" s="16" t="n">
-        <v>39407</v>
+        <v>44089</v>
       </c>
       <c r="AI92" s="16" t="n">
-        <v>44089</v>
+        <v>56353</v>
       </c>
       <c r="AJ92" s="16" t="n">
-        <v>56353</v>
+        <v>56703</v>
       </c>
       <c r="AK92" s="16" t="n">
-        <v>56703</v>
+        <v>46992</v>
       </c>
       <c r="AL92" s="16" t="n">
-        <v>46992</v>
+        <v>47880</v>
       </c>
       <c r="AM92" s="16" t="n">
-        <v>47880</v>
+        <v>45893</v>
       </c>
       <c r="AN92" s="16" t="n">
-        <v>45893</v>
+        <v>57122</v>
       </c>
       <c r="AO92" s="16" t="n">
-        <v>57122</v>
+        <v>87415</v>
       </c>
       <c r="AP92" s="16" t="n">
-        <v>87415</v>
+        <v>39999</v>
       </c>
       <c r="AQ92" s="16" t="n">
-        <v>39999</v>
+        <v>41495</v>
       </c>
       <c r="AR92" s="16" t="n">
-        <v>41495</v>
+        <v>36719</v>
       </c>
       <c r="AS92" s="16" t="n">
-        <v>36719</v>
+        <v>195151</v>
       </c>
       <c r="AT92" s="16" t="n">
-        <v>195151</v>
+        <v>156971</v>
       </c>
       <c r="AU92" s="16" t="n">
-        <v>156971</v>
+        <v>168015</v>
       </c>
       <c r="AV92" s="16" t="n">
-        <v>168015</v>
+        <v>128256</v>
       </c>
       <c r="AW92" s="16" t="n">
-        <v>128256</v>
+        <v>144330</v>
       </c>
       <c r="AX92" s="16" t="n">
-        <v>144330</v>
+        <v>93109</v>
       </c>
       <c r="AY92" s="16" t="n">
-        <v>93109</v>
+        <v>141120</v>
       </c>
       <c r="AZ92" s="16" t="n">
-        <v>141120</v>
+        <v>101909</v>
       </c>
       <c r="BA92" s="16" t="n">
-        <v>101909</v>
+        <v>100000</v>
       </c>
       <c r="BB92" s="16" t="n">
-        <v>100000</v>
+        <v>114468</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14200,8 +14200,8 @@
       <c r="E93" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="F93" s="15" t="n">
-        <v>0</v>
+      <c r="F93" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="G93" s="15" t="s">
         <v>64</v>
@@ -14359,8 +14359,8 @@
       <c r="E94" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F94" s="16" t="s">
-        <v>64</v>
+      <c r="F94" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="G94" s="16" t="n">
         <v>0</v>
@@ -14395,8 +14395,8 @@
       <c r="Q94" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="R94" s="16" t="n">
-        <v>0</v>
+      <c r="R94" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="S94" s="16" t="s">
         <v>64</v>
@@ -14554,17 +14554,17 @@
       <c r="Q95" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="R95" s="15" t="s">
-        <v>64</v>
+      <c r="R95" s="15" t="n">
+        <v>12500000</v>
       </c>
       <c r="S95" s="15" t="n">
-        <v>12500000</v>
+        <v>23727273</v>
       </c>
       <c r="T95" s="15" t="n">
-        <v>23727273</v>
-      </c>
-      <c r="U95" s="15" t="n">
         <v>18714286</v>
+      </c>
+      <c r="U95" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="V95" s="15" t="s">
         <v>64</v>
@@ -14779,68 +14779,68 @@
       <c r="T97" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="U97" s="16" t="s">
-        <v>64</v>
+      <c r="U97" s="16" t="n">
+        <v>26000000</v>
       </c>
       <c r="V97" s="16" t="n">
-        <v>26000000</v>
+        <v>28250000</v>
       </c>
       <c r="W97" s="16" t="n">
-        <v>28250000</v>
+        <v>13333333</v>
       </c>
       <c r="X97" s="16" t="n">
-        <v>13333333</v>
+        <v>16133333</v>
       </c>
       <c r="Y97" s="16" t="n">
-        <v>16133333</v>
+        <v>6000000</v>
       </c>
       <c r="Z97" s="16" t="n">
-        <v>6000000</v>
+        <v>27000000</v>
       </c>
       <c r="AA97" s="16" t="n">
-        <v>27000000</v>
+        <v>12800000</v>
       </c>
       <c r="AB97" s="16" t="n">
-        <v>12800000</v>
+        <v>76666667</v>
       </c>
       <c r="AC97" s="16" t="n">
-        <v>76666667</v>
+        <v>42833333</v>
       </c>
       <c r="AD97" s="16" t="n">
-        <v>42833333</v>
+        <v>17461538</v>
       </c>
       <c r="AE97" s="16" t="n">
-        <v>17461538</v>
+        <v>24733333</v>
       </c>
       <c r="AF97" s="16" t="n">
-        <v>24733333</v>
+        <v>3500000</v>
       </c>
       <c r="AG97" s="16" t="n">
-        <v>3500000</v>
+        <v>70000000</v>
       </c>
       <c r="AH97" s="16" t="n">
-        <v>70000000</v>
+        <v>0</v>
       </c>
       <c r="AI97" s="16" t="n">
-        <v>0</v>
+        <v>17960784</v>
       </c>
       <c r="AJ97" s="16" t="n">
-        <v>17960784</v>
+        <v>18800000</v>
       </c>
       <c r="AK97" s="16" t="n">
-        <v>18800000</v>
+        <v>0</v>
       </c>
       <c r="AL97" s="16" t="n">
-        <v>0</v>
+        <v>24155172</v>
       </c>
       <c r="AM97" s="16" t="n">
-        <v>24155172</v>
+        <v>29000000</v>
       </c>
       <c r="AN97" s="16" t="n">
-        <v>29000000</v>
-      </c>
-      <c r="AO97" s="16" t="n">
         <v>42952381</v>
+      </c>
+      <c r="AO97" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="AP97" s="16" t="s">
         <v>64</v>
@@ -14998,47 +14998,47 @@
       <c r="AN98" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="AO98" s="15" t="s">
-        <v>64</v>
+      <c r="AO98" s="15" t="n">
+        <v>48233</v>
       </c>
       <c r="AP98" s="15" t="n">
-        <v>48233</v>
+        <v>0</v>
       </c>
       <c r="AQ98" s="15" t="n">
-        <v>0</v>
+        <v>59176</v>
       </c>
       <c r="AR98" s="15" t="n">
-        <v>59176</v>
+        <v>49345</v>
       </c>
       <c r="AS98" s="15" t="n">
-        <v>49345</v>
+        <v>45498</v>
       </c>
       <c r="AT98" s="15" t="n">
-        <v>45498</v>
+        <v>76844</v>
       </c>
       <c r="AU98" s="15" t="n">
-        <v>76844</v>
+        <v>55904</v>
       </c>
       <c r="AV98" s="15" t="n">
-        <v>55904</v>
+        <v>0</v>
       </c>
       <c r="AW98" s="15" t="n">
-        <v>0</v>
+        <v>194057</v>
       </c>
       <c r="AX98" s="15" t="n">
-        <v>194057</v>
+        <v>1076371</v>
       </c>
       <c r="AY98" s="15" t="n">
-        <v>1076371</v>
+        <v>24427</v>
       </c>
       <c r="AZ98" s="15" t="n">
-        <v>24427</v>
+        <v>0</v>
       </c>
       <c r="BA98" s="15" t="n">
-        <v>0</v>
+        <v>45000</v>
       </c>
       <c r="BB98" s="15" t="n">
-        <v>45000</v>
+        <v>10405</v>
       </c>
     </row>
   </sheetData>
